--- a/NAV Log Calculator - Flight Planner - E6B-like.xlsx
+++ b/NAV Log Calculator - Flight Planner - E6B-like.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/194e8d034589e5e8/Aviation/NAV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="743" documentId="13_ncr:1_{462FEA56-7C17-431A-9BAA-3E0293AE842A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA683CEF-E27E-4D3C-A332-4D2EED2C8321}"/>
+  <xr:revisionPtr revIDLastSave="786" documentId="13_ncr:1_{462FEA56-7C17-431A-9BAA-3E0293AE842A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A51C2FF-2DD1-41EB-8886-5FDFB7379614}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="664" activeTab="2" xr2:uid="{81AC26DA-A476-4998-AAF9-3938C858D589}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="3" xr2:uid="{81AC26DA-A476-4998-AAF9-3938C858D589}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas" sheetId="2" r:id="rId1"/>
@@ -26,11 +26,11 @@
     <definedName name="FuelOnBoard">'Nav Log (not foldable)'!$H$1</definedName>
     <definedName name="GalsPerHour" localSheetId="2">'Nav Log (Foldable)'!$J$3</definedName>
     <definedName name="GalsPerHour">'Nav Log (not foldable)'!$H$3</definedName>
-    <definedName name="HEading">'Cross Wind Calculator'!$D$3</definedName>
-    <definedName name="RWY">'Cross Wind Calculator'!$D$18</definedName>
-    <definedName name="TrueAirSpeed">'Cross Wind Calculator'!$D$4</definedName>
-    <definedName name="Wd">'Cross Wind Calculator'!$D$5</definedName>
-    <definedName name="Ws">'Cross Wind Calculator'!$D$6</definedName>
+    <definedName name="HEading">'Cross Wind Calculator'!$D$4</definedName>
+    <definedName name="RWY">'Cross Wind Calculator'!$D$19</definedName>
+    <definedName name="TrueAirSpeed">'Cross Wind Calculator'!$D$5</definedName>
+    <definedName name="Wd">'Cross Wind Calculator'!$D$6</definedName>
+    <definedName name="Ws">'Cross Wind Calculator'!$D$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -590,19 +590,19 @@
     <t>KTS</t>
   </si>
   <si>
-    <t>Wind vs Heading Graph (no calculations)</t>
-  </si>
-  <si>
     <t>H wind:</t>
   </si>
   <si>
     <t>(negative Head wind = tail wind)</t>
   </si>
   <si>
-    <t>RWY Cross wind component (Calculated)</t>
+    <t>True Air Speed</t>
   </si>
   <si>
-    <t>True Air Speed</t>
+    <t>Wind vs Heading Graph</t>
+  </si>
+  <si>
+    <t>RWY Cross wind component (Calculator)</t>
   </si>
 </sst>
 </file>
@@ -612,9 +612,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="h:mm"/>
     <numFmt numFmtId="165" formatCode="0#"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="46">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -913,6 +913,21 @@
       <color theme="4" tint="-0.499984740745262"/>
       <name val="Arial Black"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="21">
@@ -1597,12 +1612,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1787,308 +1796,11 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="11" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="11" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="17" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="17" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
@@ -2115,20 +1827,323 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="20" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="42" fillId="19" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="19" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="19" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="17" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="17" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="20" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="20" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2173,7 +2188,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cross Wind Calculator'!$C$23</c:f>
+              <c:f>'Cross Wind Calculator'!$C$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2205,7 +2220,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Cross Wind Calculator'!$D$22:$E$22</c:f>
+              <c:f>'Cross Wind Calculator'!$D$23:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2220,7 +2235,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Cross Wind Calculator'!$D$23:$E$23</c:f>
+              <c:f>'Cross Wind Calculator'!$D$24:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2371,7 +2386,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cross Wind Calculator'!$F$7</c:f>
+              <c:f>'Cross Wind Calculator'!$F$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2403,21 +2418,6 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Cross Wind Calculator'!$G$6:$H$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.64278760968653936</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
               <c:f>'Cross Wind Calculator'!$G$7:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2426,7 +2426,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.76604444311897801</c:v>
+                  <c:v>-0.7660444431189779</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Cross Wind Calculator'!$G$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.64278760968653947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2559,7 +2574,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cross Wind Calculator'!$F$4</c:f>
+              <c:f>'Cross Wind Calculator'!$F$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2591,7 +2606,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Cross Wind Calculator'!$G$3:$H$3</c:f>
+              <c:f>'Cross Wind Calculator'!$G$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2606,7 +2621,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Cross Wind Calculator'!$G$4:$H$4</c:f>
+              <c:f>'Cross Wind Calculator'!$G$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2757,7 +2772,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cross Wind Calculator'!$F$7</c:f>
+              <c:f>'Cross Wind Calculator'!$F$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2789,21 +2804,6 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Cross Wind Calculator'!$G$6:$H$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.64278760968653936</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
               <c:f>'Cross Wind Calculator'!$G$7:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2812,7 +2812,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.76604444311897801</c:v>
+                  <c:v>-0.7660444431189779</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Cross Wind Calculator'!$G$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.64278760968653947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6152,8 +6167,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4844091" y="1670219"/>
-          <a:ext cx="88396" cy="3929637"/>
+          <a:off x="4823902" y="1676949"/>
+          <a:ext cx="85290" cy="3952932"/>
           <a:chOff x="17965" y="1465456"/>
           <a:chExt cx="80925" cy="3938789"/>
         </a:xfrm>
@@ -6544,22 +6559,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1418406</xdr:colOff>
+      <xdr:colOff>1404427</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>25290</xdr:rowOff>
+      <xdr:rowOff>19599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1506801</xdr:colOff>
+      <xdr:colOff>1489717</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>219472</xdr:rowOff>
+      <xdr:rowOff>222062</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="Group 11">
+        <xdr:cNvPr id="22" name="Group 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{758074FD-B818-4801-82E9-46093B0BAB36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC8337B8-0673-4433-B1FA-E7A373956DF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6567,18 +6582,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="6263732" y="1673529"/>
-          <a:ext cx="88395" cy="3921356"/>
-          <a:chOff x="17965" y="1448850"/>
-          <a:chExt cx="80924" cy="3930489"/>
+          <a:off x="6226458" y="1674568"/>
+          <a:ext cx="85290" cy="3952932"/>
+          <a:chOff x="17965" y="1465456"/>
+          <a:chExt cx="80925" cy="3938789"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="13" name="Group 12">
+          <xdr:cNvPr id="23" name="Group 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4A9CE6C-37BA-480D-B54E-D6E6F18A8A81}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EDCEF7E-2695-41B7-BD8C-2E383B4C60DD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6586,18 +6601,18 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm flipH="1">
-            <a:off x="17965" y="1448850"/>
+            <a:off x="17965" y="1465456"/>
             <a:ext cx="77740" cy="3425673"/>
-            <a:chOff x="1238954" y="505983"/>
+            <a:chOff x="1238954" y="522481"/>
             <a:chExt cx="77740" cy="3403619"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="Isosceles Triangle 14">
+            <xdr:cNvPr id="25" name="Isosceles Triangle 24">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4111CBCF-A3C0-44C1-A9AE-C445BF89A3E2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CFC3C7C-568D-496A-918D-ABF88AD0FA76}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6605,7 +6620,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm rot="16200000">
-              <a:off x="1063461" y="682202"/>
+              <a:off x="1063461" y="698700"/>
               <a:ext cx="429449" cy="77011"/>
             </a:xfrm>
             <a:prstGeom prst="triangle">
@@ -6639,10 +6654,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="16" name="Isosceles Triangle 15">
+            <xdr:cNvPr id="26" name="Isosceles Triangle 25">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEA1F865-6C51-4FFB-9EC0-370F33B281EF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A3F03A7-70F7-4BB5-9E69-2E8ACEBA19F7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6650,7 +6665,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm rot="16200000">
-              <a:off x="1063460" y="1184966"/>
+              <a:off x="1063460" y="1201464"/>
               <a:ext cx="429450" cy="77011"/>
             </a:xfrm>
             <a:prstGeom prst="triangle">
@@ -6684,10 +6699,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="17" name="Isosceles Triangle 16">
+            <xdr:cNvPr id="27" name="Isosceles Triangle 26">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87A9BFA7-5F5A-4F55-92F0-289CBD35C800}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFE248F5-847B-48C2-B52A-4517C92D1B7F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6695,7 +6710,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm rot="16200000">
-              <a:off x="1063097" y="1672249"/>
+              <a:off x="1063097" y="1696996"/>
               <a:ext cx="429451" cy="77737"/>
             </a:xfrm>
             <a:prstGeom prst="triangle">
@@ -6729,10 +6744,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="Isosceles Triangle 17">
+            <xdr:cNvPr id="28" name="Isosceles Triangle 27">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DE79B96-D911-4C7D-A588-240664D752AF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8158C09A-4CC1-4760-88E4-789DB6191260}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6740,7 +6755,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm rot="16200000">
-              <a:off x="1063462" y="2171405"/>
+              <a:off x="1063460" y="2196152"/>
               <a:ext cx="429450" cy="77011"/>
             </a:xfrm>
             <a:prstGeom prst="triangle">
@@ -6774,10 +6789,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="19" name="Isosceles Triangle 18">
+            <xdr:cNvPr id="29" name="Isosceles Triangle 28">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBC2FD85-26A4-428C-BF9D-79DE5B204AB0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E464BB06-A376-4FAD-AC59-847F0219F93F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6785,7 +6800,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm rot="16200000">
-              <a:off x="1063463" y="2667323"/>
+              <a:off x="1063460" y="2683821"/>
               <a:ext cx="429451" cy="77011"/>
             </a:xfrm>
             <a:prstGeom prst="triangle">
@@ -6819,10 +6834,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="20" name="Isosceles Triangle 19">
+            <xdr:cNvPr id="30" name="Isosceles Triangle 29">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{604A60CD-80AC-4F06-97AF-992767FDA34F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D15C6E2A-B251-4520-8073-F9CB53A30A04}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6830,7 +6845,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm rot="16200000">
-              <a:off x="1063464" y="3161836"/>
+              <a:off x="1063464" y="3186582"/>
               <a:ext cx="429450" cy="77011"/>
             </a:xfrm>
             <a:prstGeom prst="triangle">
@@ -6864,10 +6879,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="21" name="Isosceles Triangle 20">
+            <xdr:cNvPr id="31" name="Isosceles Triangle 30">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5F09585-57D4-43CD-8D5C-9E1D7FF0C6DE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9241F752-F154-445E-99A2-91CEC78639F4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6875,7 +6890,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm rot="16200000">
-              <a:off x="1063461" y="3656371"/>
+              <a:off x="1063459" y="3672869"/>
               <a:ext cx="429451" cy="77011"/>
             </a:xfrm>
             <a:prstGeom prst="triangle">
@@ -6910,10 +6925,10 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="Isosceles Triangle 13">
+          <xdr:cNvPr id="24" name="Isosceles Triangle 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5585053D-860E-40B7-B065-620B403B1FFA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0838F7F9-C503-4A25-AFDC-AB2FB917A831}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6921,7 +6936,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm rot="5400000" flipH="1">
-            <a:off x="-158114" y="5122335"/>
+            <a:off x="-158113" y="5147241"/>
             <a:ext cx="436996" cy="77011"/>
           </a:xfrm>
           <a:prstGeom prst="triangle">
@@ -6965,13 +6980,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>176217</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>338550</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>114736</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -6987,8 +7002,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1304365" y="4490482"/>
-          <a:ext cx="4312156" cy="4320019"/>
+          <a:off x="1300163" y="4724405"/>
+          <a:ext cx="4312856" cy="4320019"/>
           <a:chOff x="0" y="3938592"/>
           <a:chExt cx="4320000" cy="4320019"/>
         </a:xfrm>
@@ -7082,13 +7097,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>390550</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>147638</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>78006</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -7104,8 +7119,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3102374" y="360829"/>
-          <a:ext cx="2323235" cy="2328148"/>
+          <a:off x="3105175" y="566738"/>
+          <a:ext cx="2316932" cy="2344956"/>
           <a:chOff x="4414856" y="295255"/>
           <a:chExt cx="4324746" cy="4339070"/>
         </a:xfrm>
@@ -7573,67 +7588,67 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="147.85546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="147.85546875" style="14" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="22.5">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="51" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="33">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="17.25" thickBot="1">
-      <c r="B4" s="12"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" spans="2:2" ht="16.5">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="16.5">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="16.5">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="16.5">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="17.25" thickBot="1">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="16.5">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="16.5">
-      <c r="B12" s="12"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="15" spans="2:2" ht="16.5">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:2" ht="16.5">
-      <c r="B16" s="12"/>
+      <c r="B16" s="10"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="19" spans="2:11" ht="90.75" thickBot="1">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="1"/>
@@ -7647,7 +7662,7 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="2:11" ht="30.75" thickBot="1">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="1"/>
@@ -7661,133 +7676,133 @@
       <c r="K20" s="1"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="30">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="15"/>
+      <c r="B27" s="13"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="19" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="20" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="20" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="20" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B36" s="15"/>
+      <c r="B36" s="13"/>
     </row>
     <row r="37" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="23" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B39" s="15"/>
+      <c r="B39" s="13"/>
     </row>
     <row r="40" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="23" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="15"/>
+      <c r="B41" s="13"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="15"/>
+      <c r="B42" s="13"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="12" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="15"/>
+      <c r="B44" s="13"/>
     </row>
     <row r="45" spans="2:2" ht="30">
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="15"/>
+      <c r="B46" s="13"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="43" t="s">
+      <c r="B51" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="14" t="s">
         <v>75</v>
       </c>
     </row>
@@ -7803,7 +7818,7 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7819,1148 +7834,1208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="106">
+      <c r="B1" s="113">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C1" s="107"/>
-      <c r="E1" s="104" t="s">
+      <c r="C1" s="114"/>
+      <c r="E1" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="115">
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="95">
         <v>38</v>
       </c>
-      <c r="I1" s="122"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="125" t="s">
+      <c r="I1" s="104"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="126"/>
-      <c r="P1" s="115">
+      <c r="O1" s="108"/>
+      <c r="P1" s="95">
         <v>3500</v>
       </c>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="113" t="s">
+      <c r="Q1" s="95"/>
+      <c r="R1" s="93" t="s">
         <v>70</v>
       </c>
       <c r="T1"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="105"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="109"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="114"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="116"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="94"/>
       <c r="T2"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
-      <c r="E3" s="104" t="s">
+      <c r="E3" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="115">
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="95">
         <v>6.5</v>
       </c>
-      <c r="I3" s="122"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="125" t="s">
+      <c r="I3" s="104"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="126"/>
-      <c r="P3" s="115">
+      <c r="O3" s="108"/>
+      <c r="P3" s="95">
         <v>215</v>
       </c>
-      <c r="Q3" s="117" t="s">
+      <c r="Q3" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="R3" s="115">
+      <c r="R3" s="95">
         <v>17</v>
       </c>
-      <c r="S3" s="113" t="s">
+      <c r="S3" s="93" t="s">
         <v>71</v>
       </c>
       <c r="T3"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="E4" s="105"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="123"/>
-      <c r="N4" s="129"/>
-      <c r="O4" s="130"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="119"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="105"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="99"/>
       <c r="T4"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="99" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="99" t="s">
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="128"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="100"/>
-      <c r="T6" s="101"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="127"/>
+      <c r="T6" s="128"/>
     </row>
     <row r="7" spans="1:20" ht="19.7" customHeight="1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="102" t="s">
+      <c r="C7" s="125"/>
+      <c r="D7" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="103"/>
-      <c r="F7" s="61" t="s">
+      <c r="E7" s="130"/>
+      <c r="F7" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="61" t="s">
+      <c r="G7" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
       <c r="M7" s="2"/>
-      <c r="P7" s="62" t="s">
+      <c r="P7" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="Q7" s="61" t="s">
+      <c r="Q7" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="R7" s="61" t="s">
+      <c r="R7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="59" t="s">
+      <c r="S7" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="T7" s="59" t="s">
+      <c r="T7" s="57" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="19.7" customHeight="1">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="66" t="s">
+      <c r="H8" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="66" t="s">
+      <c r="I8" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="66" t="s">
+      <c r="J8" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="67" t="s">
+      <c r="K8" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="67" t="s">
+      <c r="L8" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="65" t="s">
+      <c r="M8" s="3"/>
+      <c r="N8" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="66" t="s">
+      <c r="O8" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="64" t="s">
+      <c r="P8" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="Q8" s="63" t="s">
+      <c r="Q8" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="R8" s="63" t="s">
+      <c r="R8" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="60" t="s">
+      <c r="S8" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="T8" s="60" t="s">
+      <c r="T8" s="58" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="90"/>
-      <c r="B9" s="93">
+      <c r="A9" s="122"/>
+      <c r="B9" s="120">
         <v>90</v>
       </c>
-      <c r="C9" s="93">
+      <c r="C9" s="120">
         <v>3500</v>
       </c>
-      <c r="D9" s="93">
+      <c r="D9" s="120">
         <v>215</v>
       </c>
-      <c r="E9" s="93">
+      <c r="E9" s="120">
         <v>17</v>
       </c>
-      <c r="F9" s="93">
+      <c r="F9" s="120">
         <v>-10</v>
       </c>
-      <c r="G9" s="93">
+      <c r="G9" s="120">
         <v>95</v>
       </c>
-      <c r="H9" s="92">
+      <c r="H9" s="119">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D9-B9))*(E9/G9)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="I9" s="92">
+      <c r="I9" s="119">
         <f>IFERROR(ROUND(MOD(B9+H9,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="J9" s="93">
+      <c r="J9" s="120">
         <v>13</v>
       </c>
-      <c r="K9" s="92">
+      <c r="K9" s="119">
         <f>IFERROR(MOD(I9+J9,360),"")</f>
         <v>111</v>
       </c>
-      <c r="L9" s="93">
+      <c r="L9" s="120">
         <v>0</v>
       </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="92">
+      <c r="M9" s="7"/>
+      <c r="N9" s="119">
         <f>IFERROR(MOD(K9+L9,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O9" s="93">
+      <c r="O9" s="120">
         <v>7</v>
       </c>
-      <c r="P9" s="45">
+      <c r="P9" s="43">
         <f>IFERROR(SQRT(G9^2+E9^2-2*G9*E9*COS(RADIANS(D9-B9-H9))),"")</f>
         <v>103.82865362778588</v>
       </c>
-      <c r="Q9" s="45">
+      <c r="Q9" s="43">
         <f>IFERROR(ROUND(O9/P9*60,0),"")</f>
         <v>4</v>
       </c>
-      <c r="R9" s="41">
+      <c r="R9" s="39">
         <f>IF(Q9&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q10)/60/24,""),"")</f>
         <v>0.58611111111111114</v>
       </c>
-      <c r="S9" s="45">
+      <c r="S9" s="43">
         <f>IFERROR(ROUND(Q9/60*GalsPerHour,1),"")</f>
         <v>0.4</v>
       </c>
-      <c r="T9" s="45">
+      <c r="T9" s="43">
         <f>IFERROR(IF(ISNUMBER(T7),T7,FuelOnBoard)-S9,"")</f>
         <v>37.6</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A11" s="90"/>
-      <c r="B11" s="98">
+      <c r="A11" s="122"/>
+      <c r="B11" s="118">
         <v>90</v>
       </c>
-      <c r="C11" s="98">
+      <c r="C11" s="118">
         <v>3500</v>
       </c>
-      <c r="D11" s="98">
+      <c r="D11" s="118">
         <v>215</v>
       </c>
-      <c r="E11" s="98">
+      <c r="E11" s="118">
         <v>17</v>
       </c>
-      <c r="F11" s="98">
+      <c r="F11" s="118">
         <v>-10</v>
       </c>
-      <c r="G11" s="98">
+      <c r="G11" s="118">
         <v>95</v>
       </c>
-      <c r="H11" s="97">
+      <c r="H11" s="117">
         <f t="shared" ref="H11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D11-B11))*(E11/G11)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="I11" s="97">
+      <c r="I11" s="117">
         <f>IFERROR(ROUND(MOD(B11+H11,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="J11" s="98">
+      <c r="J11" s="118">
         <v>13</v>
       </c>
-      <c r="K11" s="97">
+      <c r="K11" s="117">
         <f t="shared" ref="K11" si="1">IFERROR(MOD(I11+J11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="L11" s="98">
+      <c r="L11" s="118">
         <v>0</v>
       </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="97">
+      <c r="M11" s="7"/>
+      <c r="N11" s="117">
         <f>IFERROR(MOD(K11+L11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O11" s="98">
+      <c r="O11" s="118">
         <v>8</v>
       </c>
-      <c r="P11" s="48">
+      <c r="P11" s="46">
         <f>IFERROR(SQRT(G11^2+E11^2-2*G11*E11*COS(RADIANS(D11-B11-H11))),"")</f>
         <v>103.82865362778588</v>
       </c>
-      <c r="Q11" s="48">
+      <c r="Q11" s="46">
         <f t="shared" ref="Q11" si="2">IFERROR(ROUND(O11/P11*60,0),"")</f>
         <v>5</v>
       </c>
-      <c r="R11" s="49">
+      <c r="R11" s="47">
         <f>IF(Q11&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q12)/60/24,""),"")</f>
         <v>0.58958333333333335</v>
       </c>
-      <c r="S11" s="48">
+      <c r="S11" s="46">
         <f>IFERROR(ROUND(Q11/60*GalsPerHour,1),"")</f>
         <v>0.5</v>
       </c>
-      <c r="T11" s="48">
+      <c r="T11" s="46">
         <f>IFERROR(IF(ISNUMBER(T9),T9,FuelOnBoard)-S11,"")</f>
         <v>37.1</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="118"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
     </row>
     <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A13" s="90"/>
-      <c r="B13" s="93">
+      <c r="A13" s="122"/>
+      <c r="B13" s="120">
         <v>131</v>
       </c>
-      <c r="C13" s="93">
+      <c r="C13" s="120">
         <v>3500</v>
       </c>
-      <c r="D13" s="93">
+      <c r="D13" s="120">
         <v>215</v>
       </c>
-      <c r="E13" s="93">
+      <c r="E13" s="120">
         <v>17</v>
       </c>
-      <c r="F13" s="93">
+      <c r="F13" s="120">
         <v>-10</v>
       </c>
-      <c r="G13" s="93">
+      <c r="G13" s="120">
         <v>95</v>
       </c>
-      <c r="H13" s="92">
+      <c r="H13" s="119">
         <f t="shared" ref="H13" si="3">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D13-B13))*(E13/G13)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I13" s="92">
+      <c r="I13" s="119">
         <f t="shared" ref="I13" si="4">IFERROR(ROUND(MOD(B13+H13,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J13" s="93">
+      <c r="J13" s="120">
         <v>13</v>
       </c>
-      <c r="K13" s="92">
+      <c r="K13" s="119">
         <f t="shared" ref="K13" si="5">IFERROR(MOD(I13+J13,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L13" s="93">
+      <c r="L13" s="120">
         <v>2</v>
       </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="92">
+      <c r="M13" s="7"/>
+      <c r="N13" s="119">
         <f>IFERROR(MOD(K13+L13,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O13" s="93">
+      <c r="O13" s="120">
         <v>11</v>
       </c>
-      <c r="P13" s="45">
+      <c r="P13" s="43">
         <f>IFERROR(SQRT(G13^2+E13^2-2*G13*E13*COS(RADIANS(D13-B13-H13))),"")</f>
         <v>91.780669755189152</v>
       </c>
-      <c r="Q13" s="45">
+      <c r="Q13" s="43">
         <f t="shared" ref="Q13" si="6">IFERROR(ROUND(O13/P13*60,0),"")</f>
         <v>7</v>
       </c>
-      <c r="R13" s="41">
+      <c r="R13" s="39">
         <f>IF(Q13&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q14)/60/24,""),"")</f>
         <v>0.59444444444444444</v>
       </c>
-      <c r="S13" s="45">
+      <c r="S13" s="43">
         <f>IFERROR(ROUND(Q13/60*GalsPerHour,1),"")</f>
         <v>0.8</v>
       </c>
-      <c r="T13" s="45">
+      <c r="T13" s="43">
         <f>IFERROR(IF(ISNUMBER(T11),T11,FuelOnBoard)-S13,"")</f>
         <v>36.300000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="55"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
     </row>
     <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A15" s="90"/>
-      <c r="B15" s="91">
+      <c r="A15" s="122"/>
+      <c r="B15" s="131">
         <v>131</v>
       </c>
-      <c r="C15" s="91">
+      <c r="C15" s="131">
         <v>3500</v>
       </c>
-      <c r="D15" s="91">
+      <c r="D15" s="131">
         <v>215</v>
       </c>
-      <c r="E15" s="91">
+      <c r="E15" s="131">
         <v>17</v>
       </c>
-      <c r="F15" s="91">
+      <c r="F15" s="131">
         <v>-10</v>
       </c>
-      <c r="G15" s="91">
+      <c r="G15" s="131">
         <v>95</v>
       </c>
-      <c r="H15" s="97">
+      <c r="H15" s="117">
         <f t="shared" ref="H15" si="7">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D15-B15))*(E15/G15)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I15" s="97">
+      <c r="I15" s="117">
         <f t="shared" ref="I15" si="8">IFERROR(ROUND(MOD(B15+H15,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J15" s="98">
+      <c r="J15" s="118">
         <v>13</v>
       </c>
-      <c r="K15" s="97">
+      <c r="K15" s="117">
         <f t="shared" ref="K15" si="9">IFERROR(MOD(I15+J15,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L15" s="98">
+      <c r="L15" s="118">
         <v>2</v>
       </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="97">
+      <c r="M15" s="7"/>
+      <c r="N15" s="117">
         <f>IFERROR(MOD(K15+L15,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O15" s="98">
+      <c r="O15" s="118">
         <v>8</v>
       </c>
-      <c r="P15" s="48">
+      <c r="P15" s="46">
         <f>IFERROR(SQRT(G15^2+E15^2-2*G15*E15*COS(RADIANS(D15-B15-H15))),"")</f>
         <v>91.780669755189152</v>
       </c>
-      <c r="Q15" s="48">
+      <c r="Q15" s="46">
         <f t="shared" ref="Q15" si="10">IFERROR(ROUND(O15/P15*60,0),"")</f>
         <v>5</v>
       </c>
-      <c r="R15" s="49">
+      <c r="R15" s="47">
         <f>IF(Q15&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q16)/60/24,""),"")</f>
         <v>0.59791666666666665</v>
       </c>
-      <c r="S15" s="48">
+      <c r="S15" s="46">
         <f>IFERROR(ROUND(Q15/60*GalsPerHour,1),"")</f>
         <v>0.5</v>
       </c>
-      <c r="T15" s="48">
+      <c r="T15" s="46">
         <f>IFERROR(IF(ISNUMBER(T13),T13,FuelOnBoard)-S15,"")</f>
         <v>35.800000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
     </row>
     <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A17" s="90"/>
-      <c r="B17" s="93">
+      <c r="A17" s="122"/>
+      <c r="B17" s="120">
         <v>131</v>
       </c>
-      <c r="C17" s="93">
+      <c r="C17" s="120">
         <v>3500</v>
       </c>
-      <c r="D17" s="93">
+      <c r="D17" s="120">
         <v>215</v>
       </c>
-      <c r="E17" s="93">
+      <c r="E17" s="120">
         <v>17</v>
       </c>
-      <c r="F17" s="93">
+      <c r="F17" s="120">
         <v>-10</v>
       </c>
-      <c r="G17" s="93">
+      <c r="G17" s="120">
         <v>95</v>
       </c>
-      <c r="H17" s="92">
+      <c r="H17" s="119">
         <f t="shared" ref="H17" si="11">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D17-B17))*(E17/G17)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I17" s="92">
+      <c r="I17" s="119">
         <f t="shared" ref="I17" si="12">IFERROR(ROUND(MOD(B17+H17,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J17" s="93">
+      <c r="J17" s="120">
         <v>13</v>
       </c>
-      <c r="K17" s="92">
+      <c r="K17" s="119">
         <f t="shared" ref="K17" si="13">IFERROR(MOD(I17+J17,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L17" s="93">
+      <c r="L17" s="120">
         <v>2</v>
       </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="92">
+      <c r="M17" s="7"/>
+      <c r="N17" s="119">
         <f>IFERROR(MOD(K17+L17,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O17" s="93">
+      <c r="O17" s="120">
         <v>10</v>
       </c>
-      <c r="P17" s="45">
+      <c r="P17" s="43">
         <f>IFERROR(SQRT(G17^2+E17^2-2*G17*E17*COS(RADIANS(D17-B17-H17))),"")</f>
         <v>91.780669755189152</v>
       </c>
-      <c r="Q17" s="45">
+      <c r="Q17" s="43">
         <f t="shared" ref="Q17" si="14">IFERROR(ROUND(O17/P17*60,0),"")</f>
         <v>7</v>
       </c>
-      <c r="R17" s="41">
+      <c r="R17" s="39">
         <f>IF(Q17&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q18)/60/24,""),"")</f>
         <v>0.60277777777777786</v>
       </c>
-      <c r="S17" s="45">
+      <c r="S17" s="43">
         <f>IFERROR(ROUND(Q17/60*GalsPerHour,1),"")</f>
         <v>0.8</v>
       </c>
-      <c r="T17" s="45">
+      <c r="T17" s="43">
         <f>IFERROR(IF(ISNUMBER(T15),T15,FuelOnBoard)-S17,"")</f>
         <v>35.000000000000007</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="119"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
     </row>
     <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A19" s="90"/>
-      <c r="B19" s="91">
+      <c r="A19" s="122"/>
+      <c r="B19" s="131">
         <v>131</v>
       </c>
-      <c r="C19" s="91">
+      <c r="C19" s="131">
         <v>3500</v>
       </c>
-      <c r="D19" s="91">
+      <c r="D19" s="131">
         <v>215</v>
       </c>
-      <c r="E19" s="91">
+      <c r="E19" s="131">
         <v>17</v>
       </c>
-      <c r="F19" s="91">
+      <c r="F19" s="131">
         <v>-10</v>
       </c>
-      <c r="G19" s="91">
+      <c r="G19" s="131">
         <v>95</v>
       </c>
-      <c r="H19" s="97">
+      <c r="H19" s="117">
         <f t="shared" ref="H19" si="15">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D19-B19))*(E19/G19)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I19" s="97">
+      <c r="I19" s="117">
         <f t="shared" ref="I19" si="16">IFERROR(ROUND(MOD(B19+H19,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J19" s="98">
+      <c r="J19" s="118">
         <v>13</v>
       </c>
-      <c r="K19" s="97">
+      <c r="K19" s="117">
         <f t="shared" ref="K19" si="17">IFERROR(MOD(I19+J19,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L19" s="98">
+      <c r="L19" s="118">
         <v>2</v>
       </c>
-      <c r="M19" s="9"/>
-      <c r="N19" s="97">
+      <c r="M19" s="7"/>
+      <c r="N19" s="117">
         <f>IFERROR(MOD(K19+L19,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O19" s="98">
+      <c r="O19" s="118">
         <v>11</v>
       </c>
-      <c r="P19" s="48">
+      <c r="P19" s="46">
         <f>IFERROR(SQRT(G19^2+E19^2-2*G19*E19*COS(RADIANS(D19-B19-H19))),"")</f>
         <v>91.780669755189152</v>
       </c>
-      <c r="Q19" s="48">
+      <c r="Q19" s="46">
         <f t="shared" ref="Q19" si="18">IFERROR(ROUND(O19/P19*60,0),"")</f>
         <v>7</v>
       </c>
-      <c r="R19" s="49">
+      <c r="R19" s="47">
         <f>IF(Q19&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q20)/60/24,""),"")</f>
         <v>0.60763888888888895</v>
       </c>
-      <c r="S19" s="48">
+      <c r="S19" s="46">
         <f>IFERROR(ROUND(Q19/60*GalsPerHour,1),"")</f>
         <v>0.8</v>
       </c>
-      <c r="T19" s="48">
+      <c r="T19" s="46">
         <f>IFERROR(IF(ISNUMBER(T17),T17,FuelOnBoard)-S19,"")</f>
         <v>34.20000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="97"/>
-      <c r="O20" s="98"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
     </row>
     <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A21" s="90"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="92" t="str">
+      <c r="A21" s="122"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="119" t="str">
         <f t="shared" ref="H21" si="19">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D21-B21))*(E21/G21)))),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="92" t="str">
+      <c r="I21" s="119" t="str">
         <f t="shared" ref="I21" si="20">IFERROR(ROUND(MOD(B21+H21,360),0),"")</f>
         <v/>
       </c>
-      <c r="J21" s="93"/>
-      <c r="K21" s="92" t="str">
+      <c r="J21" s="120"/>
+      <c r="K21" s="119" t="str">
         <f t="shared" ref="K21" si="21">IFERROR(MOD(I21+J21,360),"")</f>
         <v/>
       </c>
-      <c r="L21" s="93"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="92" t="str">
+      <c r="L21" s="120"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="119" t="str">
         <f>IFERROR(MOD(K21+L21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="93"/>
-      <c r="P21" s="45" t="str">
+      <c r="O21" s="120"/>
+      <c r="P21" s="43" t="str">
         <f>IFERROR(SQRT(G21^2+E21^2-2*G21*E21*COS(RADIANS(D21-B21-H21))),"")</f>
         <v/>
       </c>
-      <c r="Q21" s="45" t="str">
+      <c r="Q21" s="43" t="str">
         <f t="shared" ref="Q21" si="22">IFERROR(ROUND(O21/P21*60,0),"")</f>
         <v/>
       </c>
-      <c r="R21" s="41" t="str">
+      <c r="R21" s="39" t="str">
         <f>IF(Q21&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q22)/60/24,""),"")</f>
         <v/>
       </c>
-      <c r="S21" s="45" t="str">
+      <c r="S21" s="43" t="str">
         <f>IFERROR(ROUND(Q21/60*GalsPerHour,1),"")</f>
         <v/>
       </c>
-      <c r="T21" s="45" t="str">
+      <c r="T21" s="43" t="str">
         <f>IFERROR(IF(ISNUMBER(T19),T19,FuelOnBoard)-S21,"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A22" s="89"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
+      <c r="A22" s="123"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="120"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
     </row>
     <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A23" s="90"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="97" t="str">
+      <c r="A23" s="122"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="117" t="str">
         <f t="shared" ref="H23" si="23">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D23-B23))*(E23/G23)))),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="97" t="str">
+      <c r="I23" s="117" t="str">
         <f t="shared" ref="I23" si="24">IFERROR(ROUND(MOD(B23+H23,360),0),"")</f>
         <v/>
       </c>
-      <c r="J23" s="98"/>
-      <c r="K23" s="92" t="str">
+      <c r="J23" s="118"/>
+      <c r="K23" s="119" t="str">
         <f t="shared" ref="K23" si="25">IFERROR(MOD(I23+J23,360),"")</f>
         <v/>
       </c>
-      <c r="L23" s="98"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="92" t="str">
+      <c r="L23" s="118"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="119" t="str">
         <f>IFERROR(MOD(K23+L23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="98"/>
-      <c r="P23" s="48" t="str">
+      <c r="O23" s="118"/>
+      <c r="P23" s="46" t="str">
         <f>IFERROR(SQRT(G23^2+E23^2-2*G23*E23*COS(RADIANS(D23-B23-H23))),"")</f>
         <v/>
       </c>
-      <c r="Q23" s="48" t="str">
+      <c r="Q23" s="46" t="str">
         <f t="shared" ref="Q23" si="26">IFERROR(ROUND(O23/P23*60,0),"")</f>
         <v/>
       </c>
-      <c r="R23" s="49" t="str">
+      <c r="R23" s="47" t="str">
         <f>IF(Q23&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q24)/60/24,""),"")</f>
         <v/>
       </c>
-      <c r="S23" s="48" t="str">
+      <c r="S23" s="46" t="str">
         <f>IFERROR(ROUND(Q23/60*GalsPerHour,1),"")</f>
         <v/>
       </c>
-      <c r="T23" s="48" t="str">
+      <c r="T23" s="46" t="str">
         <f>IFERROR(IF(ISNUMBER(T21),T21,FuelOnBoard)-S23,"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A24" s="89"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="92"/>
-      <c r="O24" s="98"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="46"/>
+      <c r="A24" s="123"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="119"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="118"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
     </row>
     <row r="25" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A25" s="94"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="92" t="str">
+      <c r="A25" s="155"/>
+      <c r="B25" s="120"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="119" t="str">
         <f t="shared" ref="H25" si="27">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D25-B25))*(E25/G25)))),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="92" t="str">
+      <c r="I25" s="119" t="str">
         <f t="shared" ref="I25" si="28">IFERROR(ROUND(MOD(B25+H25,360),0),"")</f>
         <v/>
       </c>
-      <c r="J25" s="93"/>
-      <c r="K25" s="92" t="str">
+      <c r="J25" s="120"/>
+      <c r="K25" s="119" t="str">
         <f t="shared" ref="K25" si="29">IFERROR(MOD(I25+J25,360),"")</f>
         <v/>
       </c>
-      <c r="L25" s="93"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="92" t="str">
+      <c r="L25" s="120"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="119" t="str">
         <f>IFERROR(MOD(K25+L25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="93"/>
-      <c r="P25" s="45" t="str">
+      <c r="O25" s="120"/>
+      <c r="P25" s="43" t="str">
         <f>IFERROR(SQRT(G25^2+E25^2-2*G25*E25*COS(RADIANS(D25-B25-H25))),"")</f>
         <v/>
       </c>
-      <c r="Q25" s="45" t="str">
+      <c r="Q25" s="43" t="str">
         <f t="shared" ref="Q25" si="30">IFERROR(ROUND(O25/P25*60,0),"")</f>
         <v/>
       </c>
-      <c r="R25" s="41" t="str">
+      <c r="R25" s="39" t="str">
         <f>IF(Q25&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q26)/60/24,""),"")</f>
         <v/>
       </c>
-      <c r="S25" s="45" t="str">
+      <c r="S25" s="43" t="str">
         <f>IFERROR(ROUND(Q25/60*GalsPerHour,1),"")</f>
         <v/>
       </c>
-      <c r="T25" s="45" t="str">
+      <c r="T25" s="43" t="str">
         <f>IFERROR(IF(ISNUMBER(T23),T23,FuelOnBoard)-S25,"")</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="95"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="55"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="132"/>
+      <c r="K26" s="133"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="119"/>
+      <c r="O26" s="132"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="53"/>
     </row>
     <row r="27" spans="1:20" ht="15" customHeight="1">
-      <c r="A27" s="83" t="s">
+      <c r="A27" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="85"/>
-      <c r="O27" s="77">
+      <c r="B27" s="150"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="151"/>
+      <c r="O27" s="143">
         <f>SUM(O9:O26)</f>
         <v>55</v>
       </c>
-      <c r="Q27" s="79">
+      <c r="Q27" s="145">
         <f>SUM(Q9:Q26)</f>
         <v>35</v>
       </c>
-      <c r="R27" s="81">
+      <c r="R27" s="147">
         <f>MAX(R9:R26)</f>
         <v>0.60763888888888895</v>
       </c>
-      <c r="S27" s="79">
+      <c r="S27" s="145">
         <f>SUM(S9:S26)</f>
         <v>3.8</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="86"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="88"/>
-      <c r="O28" s="78"/>
-      <c r="Q28" s="80"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="80"/>
+      <c r="A28" s="152"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="153"/>
+      <c r="L28" s="154"/>
+      <c r="O28" s="144"/>
+      <c r="Q28" s="146"/>
+      <c r="R28" s="148"/>
+      <c r="S28" s="146"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="70"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="135"/>
+      <c r="G29" s="135"/>
+      <c r="H29" s="135"/>
+      <c r="I29" s="135"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="135"/>
+      <c r="L29" s="136"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="71"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="73"/>
+      <c r="A30" s="137"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="138"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="138"/>
+      <c r="K30" s="138"/>
+      <c r="L30" s="139"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="71"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="73"/>
+      <c r="A31" s="137"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="138"/>
+      <c r="K31" s="138"/>
+      <c r="L31" s="139"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="71"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="73"/>
+      <c r="A32" s="137"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="138"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="138"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="138"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="138"/>
+      <c r="K32" s="138"/>
+      <c r="L32" s="139"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A33" s="74"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="76"/>
+      <c r="A33" s="140"/>
+      <c r="B33" s="141"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="141"/>
+      <c r="I33" s="141"/>
+      <c r="J33" s="141"/>
+      <c r="K33" s="141"/>
+      <c r="L33" s="142"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="150">
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="E1:G2"/>
-    <mergeCell ref="H1:I2"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="P1:Q2"/>
-    <mergeCell ref="N1:O2"/>
-    <mergeCell ref="N3:O4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="A29:L33"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="A27:L28"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G15:G16"/>
     <mergeCell ref="O9:O10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
@@ -8985,102 +9060,42 @@
     <mergeCell ref="N15:N16"/>
     <mergeCell ref="K15:K16"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:L6"/>
     <mergeCell ref="N6:T6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="K13:K14"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="L13:L14"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="A29:L33"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="A27:L28"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="E1:G2"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="N3:O4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
@@ -9093,8 +9108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4157655B-8A58-497F-BBC8-F24326906F8C}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView showGridLines="0" view="pageLayout" zoomScale="80" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -9113,1035 +9128,1154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="140">
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="160">
         <v>0.63541666666666663</v>
       </c>
-      <c r="E1" s="141"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="144" t="s">
+      <c r="E1" s="161"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="135">
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="164">
         <v>38</v>
       </c>
-      <c r="K1" s="135"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="145" t="s">
+      <c r="K1" s="164"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="147">
+      <c r="N1" s="168">
         <v>3500</v>
       </c>
-      <c r="O1" s="147"/>
-      <c r="P1" s="131" t="s">
+      <c r="O1" s="168"/>
+      <c r="P1" s="174" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="138"/>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="143"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="132"/>
+      <c r="A2" s="158"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="163"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="175"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="G3" s="144" t="s">
+      <c r="G3" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="135">
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="164">
         <v>6.5</v>
       </c>
-      <c r="K3" s="135"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="148" t="s">
+      <c r="K3" s="164"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="135">
+      <c r="N3" s="164">
         <v>215</v>
       </c>
-      <c r="O3" s="135"/>
-      <c r="P3" s="133" t="s">
+      <c r="O3" s="164"/>
+      <c r="P3" s="176" t="s">
         <v>72</v>
       </c>
-      <c r="Q3" s="135">
+      <c r="Q3" s="164">
         <v>17</v>
       </c>
-      <c r="R3" s="135"/>
-      <c r="S3" s="131" t="s">
+      <c r="R3" s="164"/>
+      <c r="S3" s="174" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="149"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="150"/>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="135"/>
-      <c r="R4" s="135"/>
-      <c r="S4" s="132"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="170"/>
+      <c r="N4" s="171"/>
+      <c r="O4" s="171"/>
+      <c r="P4" s="177"/>
+      <c r="Q4" s="164"/>
+      <c r="R4" s="164"/>
+      <c r="S4" s="175"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1">
-      <c r="L5" s="26"/>
+      <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="99" t="s">
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="100"/>
-      <c r="T6" s="101"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="127"/>
+      <c r="T6" s="128"/>
     </row>
     <row r="7" spans="1:20" ht="19.7" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="151" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="152"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="11" t="s">
+      <c r="D7" s="173"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="T7" s="60" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="19.7" customHeight="1">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="36" t="s">
+      <c r="J8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="36" t="s">
+      <c r="K8" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="30"/>
-      <c r="M8" s="110" t="s">
+      <c r="L8" s="28"/>
+      <c r="M8" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="34" t="s">
+      <c r="N8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="35" t="s">
+      <c r="O8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="38" t="s">
+      <c r="P8" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="Q8" s="38" t="s">
+      <c r="Q8" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="R8" s="38" t="s">
+      <c r="R8" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="39" t="s">
+      <c r="S8" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="T8" s="39" t="s">
+      <c r="T8" s="92" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="93">
+      <c r="A9" s="120">
         <v>90</v>
       </c>
-      <c r="B9" s="93">
+      <c r="B9" s="120">
         <v>3500</v>
       </c>
-      <c r="C9" s="93">
+      <c r="C9" s="120">
         <v>170</v>
       </c>
-      <c r="D9" s="93">
+      <c r="D9" s="120">
         <v>17</v>
       </c>
-      <c r="E9" s="93">
+      <c r="E9" s="120">
         <v>-10</v>
       </c>
-      <c r="F9" s="93">
+      <c r="F9" s="120">
         <v>95</v>
       </c>
-      <c r="G9" s="92">
+      <c r="G9" s="119">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C9-A9))*(D9/F9)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H9" s="92">
+      <c r="H9" s="119">
         <f>IFERROR(ROUND(MOD(A9+G9,360),0),"")</f>
         <v>100</v>
       </c>
-      <c r="I9" s="93">
+      <c r="I9" s="120">
         <v>13</v>
       </c>
-      <c r="J9" s="92">
+      <c r="J9" s="119">
         <f>IFERROR(MOD(H9+I9,360),"")</f>
         <v>113</v>
       </c>
-      <c r="K9" s="93">
+      <c r="K9" s="120">
         <v>0</v>
       </c>
-      <c r="L9" s="31"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="92">
+      <c r="L9" s="29"/>
+      <c r="M9" s="122"/>
+      <c r="N9" s="119">
         <f>IFERROR(MOD(J9+K9,360),"")</f>
         <v>113</v>
       </c>
-      <c r="O9" s="93">
+      <c r="O9" s="120">
         <v>7</v>
       </c>
-      <c r="P9" s="44">
+      <c r="P9" s="42">
         <f>IFERROR(SQRT(F9^2+D9^2-2*F9*D9*COS(RADIANS(C9-A9-G9))),"")</f>
         <v>90.605049180816025</v>
       </c>
-      <c r="Q9" s="44">
+      <c r="Q9" s="42">
         <f>IFERROR(ROUND(O9/P9*60,0),"")</f>
         <v>5</v>
       </c>
-      <c r="R9" s="41">
+      <c r="R9" s="39">
         <f>IF(Q9&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q10)/60/24,""),"")</f>
         <v>0.63888888888888884</v>
       </c>
-      <c r="S9" s="44">
+      <c r="S9" s="42">
         <f>IFERROR(ROUND(Q9/60*GalsPerHour,1),"")</f>
         <v>0.5</v>
       </c>
-      <c r="T9" s="44">
+      <c r="T9" s="42">
         <f>IFERROR(IF(ISNUMBER(T7),T7,FuelOnBoard)-S9,"")</f>
         <v>37.5</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A10" s="93"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="89" t="s">
+      <c r="A10" s="120"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="N10" s="92"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A11" s="98">
+      <c r="A11" s="118">
         <v>90</v>
       </c>
-      <c r="B11" s="98">
+      <c r="B11" s="118">
         <v>3500</v>
       </c>
-      <c r="C11" s="98">
+      <c r="C11" s="118">
         <v>215</v>
       </c>
-      <c r="D11" s="98">
+      <c r="D11" s="118">
         <v>17</v>
       </c>
-      <c r="E11" s="98">
+      <c r="E11" s="118">
         <v>-10</v>
       </c>
-      <c r="F11" s="98">
+      <c r="F11" s="118">
         <v>95</v>
       </c>
-      <c r="G11" s="97">
+      <c r="G11" s="117">
         <f t="shared" ref="G11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C11-A11))*(D11/F11)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="H11" s="97">
+      <c r="H11" s="117">
         <f t="shared" ref="H11" si="1">IFERROR(ROUND(MOD(A11+G11,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="I11" s="98">
+      <c r="I11" s="118">
         <v>13</v>
       </c>
-      <c r="J11" s="97">
+      <c r="J11" s="117">
         <f t="shared" ref="J11" si="2">IFERROR(MOD(H11+I11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="K11" s="98">
+      <c r="K11" s="118">
         <v>0</v>
       </c>
-      <c r="L11" s="31"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="97">
+      <c r="L11" s="29"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="117">
         <f>IFERROR(MOD(J11+K11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O11" s="98">
+      <c r="O11" s="118">
         <v>8</v>
       </c>
-      <c r="P11" s="48">
+      <c r="P11" s="46">
         <f>IFERROR(SQRT(F11^2+D11^2-2*F11*D11*COS(RADIANS(C11-A11-G11))),"")</f>
         <v>103.82865362778588</v>
       </c>
-      <c r="Q11" s="48">
+      <c r="Q11" s="46">
         <f t="shared" ref="Q11" si="3">IFERROR(ROUND(O11/P11*60,0),"")</f>
         <v>5</v>
       </c>
-      <c r="R11" s="49">
+      <c r="R11" s="47">
         <f>IF(Q11&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q12)/60/24,""),"")</f>
         <v>0.64236111111111105</v>
       </c>
-      <c r="S11" s="48">
+      <c r="S11" s="46">
         <f>IFERROR(ROUND(Q11/60*GalsPerHour,1),"")</f>
         <v>0.5</v>
       </c>
-      <c r="T11" s="48">
+      <c r="T11" s="46">
         <f>IFERROR(IF(ISNUMBER(T9),T9,FuelOnBoard)-S11,"")</f>
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A12" s="98"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="89" t="s">
+      <c r="A12" s="118"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="N12" s="97"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="118"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
     </row>
     <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A13" s="93">
+      <c r="A13" s="120">
         <v>131</v>
       </c>
-      <c r="B13" s="93">
+      <c r="B13" s="120">
         <v>3500</v>
       </c>
-      <c r="C13" s="93">
+      <c r="C13" s="120">
         <v>215</v>
       </c>
-      <c r="D13" s="93">
+      <c r="D13" s="120">
         <v>17</v>
       </c>
-      <c r="E13" s="93">
+      <c r="E13" s="120">
         <v>-10</v>
       </c>
-      <c r="F13" s="93">
+      <c r="F13" s="120">
         <v>95</v>
       </c>
-      <c r="G13" s="92">
+      <c r="G13" s="119">
         <f t="shared" ref="G13" si="4">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C13-A13))*(D13/F13)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H13" s="92">
+      <c r="H13" s="119">
         <f t="shared" ref="H13" si="5">IFERROR(ROUND(MOD(A13+G13,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I13" s="93">
+      <c r="I13" s="120">
         <v>13</v>
       </c>
-      <c r="J13" s="92">
+      <c r="J13" s="119">
         <f t="shared" ref="J13" si="6">IFERROR(MOD(H13+I13,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K13" s="93">
+      <c r="K13" s="120">
         <v>2</v>
       </c>
-      <c r="L13" s="31"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="92">
+      <c r="L13" s="29"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="119">
         <f>IFERROR(MOD(J13+K13,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O13" s="93">
+      <c r="O13" s="120">
         <v>11</v>
       </c>
-      <c r="P13" s="44">
+      <c r="P13" s="42">
         <f>IFERROR(SQRT(F13^2+D13^2-2*F13*D13*COS(RADIANS(C13-A13-G13))),"")</f>
         <v>91.780669755189152</v>
       </c>
-      <c r="Q13" s="44">
+      <c r="Q13" s="42">
         <f t="shared" ref="Q13" si="7">IFERROR(ROUND(O13/P13*60,0),"")</f>
         <v>7</v>
       </c>
-      <c r="R13" s="41">
+      <c r="R13" s="39">
         <f>IF(Q13&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q14)/60/24,""),"")</f>
         <v>0.64722222222222214</v>
       </c>
-      <c r="S13" s="44">
+      <c r="S13" s="42">
         <f>IFERROR(ROUND(Q13/60*GalsPerHour,1),"")</f>
         <v>0.8</v>
       </c>
-      <c r="T13" s="44">
+      <c r="T13" s="42">
         <f>IFERROR(IF(ISNUMBER(T11),T11,FuelOnBoard)-S13,"")</f>
         <v>36.200000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A14" s="93"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="89" t="s">
+      <c r="A14" s="120"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="N14" s="92"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
     </row>
     <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A15" s="91">
+      <c r="A15" s="131">
         <v>131</v>
       </c>
-      <c r="B15" s="91">
+      <c r="B15" s="131">
         <v>3500</v>
       </c>
-      <c r="C15" s="91">
+      <c r="C15" s="131">
         <v>215</v>
       </c>
-      <c r="D15" s="91">
+      <c r="D15" s="131">
         <v>17</v>
       </c>
-      <c r="E15" s="91">
+      <c r="E15" s="131">
         <v>-10</v>
       </c>
-      <c r="F15" s="91">
+      <c r="F15" s="131">
         <v>95</v>
       </c>
-      <c r="G15" s="97">
+      <c r="G15" s="117">
         <f t="shared" ref="G15" si="8">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C15-A15))*(D15/F15)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H15" s="97">
+      <c r="H15" s="117">
         <f t="shared" ref="H15" si="9">IFERROR(ROUND(MOD(A15+G15,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I15" s="98">
+      <c r="I15" s="118">
         <v>13</v>
       </c>
-      <c r="J15" s="97">
+      <c r="J15" s="117">
         <f t="shared" ref="J15" si="10">IFERROR(MOD(H15+I15,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K15" s="98">
+      <c r="K15" s="118">
         <v>2</v>
       </c>
-      <c r="L15" s="31"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="97">
+      <c r="L15" s="29"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="117">
         <f>IFERROR(MOD(J15+K15,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O15" s="98">
+      <c r="O15" s="118">
         <v>8</v>
       </c>
-      <c r="P15" s="48">
+      <c r="P15" s="46">
         <f>IFERROR(SQRT(F15^2+D15^2-2*F15*D15*COS(RADIANS(C15-A15-G15))),"")</f>
         <v>91.780669755189152</v>
       </c>
-      <c r="Q15" s="48">
+      <c r="Q15" s="46">
         <f t="shared" ref="Q15" si="11">IFERROR(ROUND(O15/P15*60,0),"")</f>
         <v>5</v>
       </c>
-      <c r="R15" s="49">
+      <c r="R15" s="47">
         <f>IFERROR(Departure_Time+SUM($Q$9:Q16)/60/24,"")</f>
         <v>0.65069444444444435</v>
       </c>
-      <c r="S15" s="48">
+      <c r="S15" s="46">
         <f>IFERROR(ROUND(Q15/60*GalsPerHour,1),"")</f>
         <v>0.5</v>
       </c>
-      <c r="T15" s="48">
+      <c r="T15" s="46">
         <f>IFERROR(IF(ISNUMBER(T13),T13,FuelOnBoard)-S15,"")</f>
         <v>35.700000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A16" s="91"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="89" t="s">
+      <c r="A16" s="131"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="N16" s="97"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
     </row>
     <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A17" s="93">
+      <c r="A17" s="120">
         <v>131</v>
       </c>
-      <c r="B17" s="93">
+      <c r="B17" s="120">
         <v>3500</v>
       </c>
-      <c r="C17" s="93">
+      <c r="C17" s="120">
         <v>215</v>
       </c>
-      <c r="D17" s="93">
+      <c r="D17" s="120">
         <v>17</v>
       </c>
-      <c r="E17" s="93">
+      <c r="E17" s="120">
         <v>-10</v>
       </c>
-      <c r="F17" s="93">
+      <c r="F17" s="120">
         <v>95</v>
       </c>
-      <c r="G17" s="92">
+      <c r="G17" s="119">
         <f t="shared" ref="G17" si="12">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C17-A17))*(D17/F17)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H17" s="92">
+      <c r="H17" s="119">
         <f t="shared" ref="H17" si="13">IFERROR(ROUND(MOD(A17+G17,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I17" s="93">
+      <c r="I17" s="120">
         <v>13</v>
       </c>
-      <c r="J17" s="92">
+      <c r="J17" s="119">
         <f t="shared" ref="J17" si="14">IFERROR(MOD(H17+I17,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K17" s="93">
+      <c r="K17" s="120">
         <v>2</v>
       </c>
-      <c r="L17" s="31"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="92">
+      <c r="L17" s="29"/>
+      <c r="M17" s="122"/>
+      <c r="N17" s="119">
         <f>IFERROR(MOD(J17+K17,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O17" s="93">
+      <c r="O17" s="120">
         <v>10</v>
       </c>
-      <c r="P17" s="44">
+      <c r="P17" s="42">
         <f>IFERROR(SQRT(F17^2+D17^2-2*F17*D17*COS(RADIANS(C17-A17-G17))),"")</f>
         <v>91.780669755189152</v>
       </c>
-      <c r="Q17" s="44">
+      <c r="Q17" s="42">
         <f t="shared" ref="Q17" si="15">IFERROR(ROUND(O17/P17*60,0),"")</f>
         <v>7</v>
       </c>
-      <c r="R17" s="41">
+      <c r="R17" s="39">
         <f>IF(Q17&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q18)/60/24,""),"")</f>
         <v>0.65555555555555556</v>
       </c>
-      <c r="S17" s="44">
+      <c r="S17" s="42">
         <f>IFERROR(ROUND(Q17/60*GalsPerHour,1),"")</f>
         <v>0.8</v>
       </c>
-      <c r="T17" s="44">
+      <c r="T17" s="42">
         <f>IFERROR(IF(ISNUMBER(T15),T15,FuelOnBoard)-S17,"")</f>
         <v>34.900000000000006</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A18" s="93"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="89" t="s">
+      <c r="A18" s="120"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="N18" s="92"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
+      <c r="N18" s="119"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
     </row>
     <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A19" s="91">
+      <c r="A19" s="131">
         <v>131</v>
       </c>
-      <c r="B19" s="91">
+      <c r="B19" s="131">
         <v>3500</v>
       </c>
-      <c r="C19" s="91">
+      <c r="C19" s="131">
         <v>215</v>
       </c>
-      <c r="D19" s="91">
+      <c r="D19" s="131">
         <v>17</v>
       </c>
-      <c r="E19" s="91">
+      <c r="E19" s="131">
         <v>-10</v>
       </c>
-      <c r="F19" s="91">
+      <c r="F19" s="131">
         <v>95</v>
       </c>
-      <c r="G19" s="97">
+      <c r="G19" s="117">
         <f t="shared" ref="G19" si="16">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C19-A19))*(D19/F19)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H19" s="97">
+      <c r="H19" s="117">
         <f t="shared" ref="H19" si="17">IFERROR(ROUND(MOD(A19+G19,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I19" s="98">
+      <c r="I19" s="118">
         <v>13</v>
       </c>
-      <c r="J19" s="97">
+      <c r="J19" s="117">
         <f t="shared" ref="J19" si="18">IFERROR(MOD(H19+I19,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K19" s="98">
+      <c r="K19" s="118">
         <v>2</v>
       </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="97">
+      <c r="L19" s="29"/>
+      <c r="M19" s="122"/>
+      <c r="N19" s="117">
         <f>IFERROR(MOD(J19+K19,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O19" s="98">
+      <c r="O19" s="118">
         <v>11</v>
       </c>
-      <c r="P19" s="48">
+      <c r="P19" s="46">
         <f>IFERROR(SQRT(F19^2+D19^2-2*F19*D19*COS(RADIANS(C19-A19-G19))),"")</f>
         <v>91.780669755189152</v>
       </c>
-      <c r="Q19" s="48">
+      <c r="Q19" s="46">
         <f t="shared" ref="Q19" si="19">IFERROR(ROUND(O19/P19*60,0),"")</f>
         <v>7</v>
       </c>
-      <c r="R19" s="49">
+      <c r="R19" s="47">
         <f>IF(Q19&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q20)/60/24,""),"")</f>
         <v>0.66041666666666665</v>
       </c>
-      <c r="S19" s="48">
+      <c r="S19" s="46">
         <f>IFERROR(ROUND(Q19/60*GalsPerHour,1),"")</f>
         <v>0.8</v>
       </c>
-      <c r="T19" s="48">
+      <c r="T19" s="46">
         <f>IFERROR(IF(ISNUMBER(T17),T17,FuelOnBoard)-S19,"")</f>
         <v>34.100000000000009</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A20" s="91"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="89" t="s">
+      <c r="A20" s="131"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="N20" s="97"/>
-      <c r="O20" s="98"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
     </row>
     <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A21" s="93"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="92" t="str">
+      <c r="A21" s="120"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="119" t="str">
         <f t="shared" ref="G21" si="20">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C21-A21))*(D21/F21)))),0),"")</f>
         <v/>
       </c>
-      <c r="H21" s="92" t="str">
+      <c r="H21" s="119" t="str">
         <f t="shared" ref="H21" si="21">IFERROR(ROUND(MOD(A21+G21,360),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="93"/>
-      <c r="J21" s="92" t="str">
+      <c r="I21" s="120"/>
+      <c r="J21" s="119" t="str">
         <f t="shared" ref="J21" si="22">IFERROR(MOD(H21+I21,360),"")</f>
         <v/>
       </c>
-      <c r="K21" s="93"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="92" t="str">
+      <c r="K21" s="120"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="122"/>
+      <c r="N21" s="119" t="str">
         <f>IFERROR(MOD(J21+K21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="93"/>
-      <c r="P21" s="44" t="str">
+      <c r="O21" s="120"/>
+      <c r="P21" s="42" t="str">
         <f>IFERROR(SQRT(F21^2+D21^2-2*F21*D21*COS(RADIANS(C21-A21-G21))),"")</f>
         <v/>
       </c>
-      <c r="Q21" s="44" t="str">
+      <c r="Q21" s="42" t="str">
         <f t="shared" ref="Q21" si="23">IFERROR(ROUND(O21/P21*60,0),"")</f>
         <v/>
       </c>
-      <c r="R21" s="41" t="str">
+      <c r="R21" s="39" t="str">
         <f>IF(Q21&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q22)/60/24,""),"")</f>
         <v/>
       </c>
-      <c r="S21" s="44" t="str">
+      <c r="S21" s="42" t="str">
         <f>IFERROR(ROUND(Q21/60*GalsPerHour,1),"")</f>
         <v/>
       </c>
-      <c r="T21" s="44" t="str">
+      <c r="T21" s="42" t="str">
         <f>IFERROR(IF(ISNUMBER(T19),T19,FuelOnBoard)-S21,"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A22" s="93"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="46"/>
+      <c r="A22" s="120"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="120"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="123"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="120"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
     </row>
     <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A23" s="91"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="97" t="str">
+      <c r="A23" s="131"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="117" t="str">
         <f t="shared" ref="G23" si="24">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C23-A23))*(D23/F23)))),0),"")</f>
         <v/>
       </c>
-      <c r="H23" s="97" t="str">
+      <c r="H23" s="117" t="str">
         <f t="shared" ref="H23" si="25">IFERROR(ROUND(MOD(A23+G23,360),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="98"/>
-      <c r="J23" s="97" t="str">
+      <c r="I23" s="118"/>
+      <c r="J23" s="117" t="str">
         <f t="shared" ref="J23" si="26">IFERROR(MOD(H23+I23,360),"")</f>
         <v/>
       </c>
-      <c r="K23" s="98"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="97" t="str">
+      <c r="K23" s="118"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="122"/>
+      <c r="N23" s="117" t="str">
         <f>IFERROR(MOD(J23+K23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="98"/>
-      <c r="P23" s="48" t="str">
+      <c r="O23" s="118"/>
+      <c r="P23" s="46" t="str">
         <f>IFERROR(SQRT(F23^2+D23^2-2*F23*D23*COS(RADIANS(C23-A23-G23))),"")</f>
         <v/>
       </c>
-      <c r="Q23" s="48" t="str">
+      <c r="Q23" s="46" t="str">
         <f t="shared" ref="Q23" si="27">IFERROR(ROUND(O23/P23*60,0),"")</f>
         <v/>
       </c>
-      <c r="R23" s="49" t="str">
+      <c r="R23" s="47" t="str">
         <f>IF(Q23&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q24)/60/24,""),"")</f>
         <v/>
       </c>
-      <c r="S23" s="48" t="str">
+      <c r="S23" s="46" t="str">
         <f>IFERROR(ROUND(Q23/60*GalsPerHour,1),"")</f>
         <v/>
       </c>
-      <c r="T23" s="48" t="str">
+      <c r="T23" s="46" t="str">
         <f>IFERROR(IF(ISNUMBER(T21),T21,FuelOnBoard)-S23,"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A24" s="91"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="98"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="46"/>
+      <c r="A24" s="131"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="123"/>
+      <c r="N24" s="117"/>
+      <c r="O24" s="118"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
     </row>
     <row r="25" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A25" s="93"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="92" t="str">
+      <c r="A25" s="120"/>
+      <c r="B25" s="120"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="119" t="str">
         <f t="shared" ref="G25" si="28">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C25-A25))*(D25/F25)))),0),"")</f>
         <v/>
       </c>
-      <c r="H25" s="92" t="str">
+      <c r="H25" s="119" t="str">
         <f t="shared" ref="H25" si="29">IFERROR(ROUND(MOD(A25+G25,360),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="93"/>
-      <c r="J25" s="92" t="str">
+      <c r="I25" s="120"/>
+      <c r="J25" s="119" t="str">
         <f t="shared" ref="J25" si="30">IFERROR(MOD(H25+I25,360),"")</f>
         <v/>
       </c>
-      <c r="K25" s="93"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="94"/>
-      <c r="N25" s="92" t="str">
+      <c r="K25" s="120"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="155"/>
+      <c r="N25" s="119" t="str">
         <f>IFERROR(MOD(J25+K25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="93"/>
-      <c r="P25" s="44" t="str">
+      <c r="O25" s="120"/>
+      <c r="P25" s="42" t="str">
         <f>IFERROR(SQRT(F25^2+D25^2-2*F25*D25*COS(RADIANS(C25-A25-G25))),"")</f>
         <v/>
       </c>
-      <c r="Q25" s="44" t="str">
+      <c r="Q25" s="42" t="str">
         <f t="shared" ref="Q25" si="31">IFERROR(ROUND(O25/P25*60,0),"")</f>
         <v/>
       </c>
-      <c r="R25" s="41" t="str">
+      <c r="R25" s="39" t="str">
         <f>IF(Q25&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q26)/60/24,""),"")</f>
         <v/>
       </c>
-      <c r="S25" s="44" t="str">
+      <c r="S25" s="42" t="str">
         <f>IFERROR(ROUND(Q25/60*GalsPerHour,1),"")</f>
         <v/>
       </c>
-      <c r="T25" s="44" t="str">
+      <c r="T25" s="42" t="str">
         <f>IFERROR(IF(ISNUMBER(T23),T23,FuelOnBoard)-S25,"")</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A26" s="93"/>
-      <c r="B26" s="93"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="37" t="s">
+      <c r="A26" s="120"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="119"/>
+      <c r="K26" s="120"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="92"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
+      <c r="N26" s="119"/>
+      <c r="O26" s="120"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
     </row>
     <row r="27" spans="1:20" ht="25.5" thickBot="1">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="33" t="s">
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="138"/>
+      <c r="K27" s="139"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="O27" s="40">
+      <c r="O27" s="38">
         <f>SUM(O9:O26)</f>
         <v>55</v>
       </c>
-      <c r="Q27" s="50">
+      <c r="Q27" s="48">
         <f>SUM(Q9:Q26)</f>
         <v>36</v>
       </c>
-      <c r="R27" s="52">
+      <c r="R27" s="50">
         <f>MAX(R9:R26)</f>
         <v>0.66041666666666665</v>
       </c>
-      <c r="S27" s="51">
+      <c r="S27" s="49">
         <f>SUM(S9:S26)</f>
         <v>3.8999999999999995</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A28" s="74"/>
-      <c r="B28" s="75"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
+      <c r="A28" s="140"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="141"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="142"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="144">
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
@@ -10166,126 +10300,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="N6:T6"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -10295,9 +10309,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CFACEB-C7F9-4EC2-B331-5938690C3313}">
-  <dimension ref="B1:J45"/>
+  <dimension ref="B1:J46"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10311,597 +10327,597 @@
     <col min="10" max="10" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="19.5">
-      <c r="B1" s="153" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="155"/>
-    </row>
-    <row r="2" spans="2:10">
-      <c r="B2" s="156"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="158"/>
-    </row>
-    <row r="3" spans="2:10" ht="18.75">
-      <c r="B3" s="156"/>
-      <c r="C3" s="170" t="s">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:10" ht="19.5">
+      <c r="B2" s="178" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="180"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="68"/>
+    </row>
+    <row r="4" spans="2:10" ht="18.75">
+      <c r="B4" s="66"/>
+      <c r="C4" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="171">
+      <c r="D4" s="78">
         <v>120</v>
       </c>
-      <c r="E3" s="157"/>
-      <c r="F3" s="159" t="s">
+      <c r="E4" s="67"/>
+      <c r="F4" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="159">
+      <c r="G4" s="69">
         <v>0</v>
       </c>
-      <c r="H3" s="159">
+      <c r="H4" s="69">
         <f>COS((HEading-90)*(PI()/180))</f>
         <v>0.86602540378443871</v>
       </c>
-      <c r="I3" s="159"/>
-      <c r="J3" s="158"/>
-    </row>
-    <row r="4" spans="2:10" ht="18.75">
-      <c r="B4" s="156"/>
-      <c r="C4" s="182" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="183">
+      <c r="I4" s="69"/>
+      <c r="J4" s="68"/>
+    </row>
+    <row r="5" spans="2:10" ht="18.75">
+      <c r="B5" s="66"/>
+      <c r="C5" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="157"/>
-      <c r="F4" s="159" t="s">
+      <c r="D5" s="90">
+        <v>95</v>
+      </c>
+      <c r="E5" s="67"/>
+      <c r="F5" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="159">
+      <c r="G5" s="69">
         <v>0</v>
       </c>
-      <c r="H4" s="159">
+      <c r="H5" s="69">
         <f>-SIN((HEading-90)*(PI()/180))</f>
         <v>-0.49999999999999994</v>
       </c>
-      <c r="I4" s="159"/>
-      <c r="J4" s="158"/>
-    </row>
-    <row r="5" spans="2:10" ht="18.75">
-      <c r="B5" s="156"/>
-      <c r="C5" s="172" t="s">
+      <c r="I5" s="69"/>
+      <c r="J5" s="68"/>
+    </row>
+    <row r="6" spans="2:10" ht="18.75">
+      <c r="B6" s="66"/>
+      <c r="C6" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="173">
-        <v>220</v>
-      </c>
-      <c r="E5" s="157"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="158"/>
-    </row>
-    <row r="6" spans="2:10" ht="18.75">
-      <c r="B6" s="156"/>
-      <c r="C6" s="174" t="s">
+      <c r="D6" s="80">
+        <v>230</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="68"/>
+    </row>
+    <row r="7" spans="2:10" ht="18.75">
+      <c r="B7" s="66"/>
+      <c r="C7" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="175">
-        <v>20</v>
-      </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="159" t="s">
+      <c r="D7" s="82">
+        <v>15</v>
+      </c>
+      <c r="E7" s="67"/>
+      <c r="F7" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="159">
+      <c r="G7" s="69">
         <v>0</v>
       </c>
-      <c r="H6" s="159">
+      <c r="H7" s="69">
         <f>COS((Wd-90)*(PI()/180))</f>
-        <v>-0.64278760968653936</v>
-      </c>
-      <c r="I6" s="159"/>
-      <c r="J6" s="158"/>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="156"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="159" t="s">
+        <v>-0.7660444431189779</v>
+      </c>
+      <c r="I7" s="69"/>
+      <c r="J7" s="68"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="66"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="159">
+      <c r="G8" s="69">
         <v>0</v>
       </c>
-      <c r="H7" s="159">
+      <c r="H8" s="69">
         <f>-SIN((Wd-90)*(PI()/180))</f>
-        <v>-0.76604444311897801</v>
-      </c>
-      <c r="I7" s="159"/>
-      <c r="J7" s="158"/>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="156"/>
-      <c r="C8" s="157"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="157"/>
-      <c r="H8" s="157"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="158"/>
-    </row>
-    <row r="9" spans="2:10" ht="18.75">
-      <c r="B9" s="156"/>
-      <c r="C9" s="184" t="s">
+        <v>-0.64278760968653947</v>
+      </c>
+      <c r="I8" s="69"/>
+      <c r="J8" s="68"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="66"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="68"/>
+    </row>
+    <row r="10" spans="2:10" ht="18.75">
+      <c r="B10" s="66"/>
+      <c r="C10" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="184"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="158"/>
-    </row>
-    <row r="10" spans="2:10" ht="18.75">
-      <c r="B10" s="156"/>
-      <c r="C10" s="185">
+      <c r="D10" s="185"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="68"/>
+    </row>
+    <row r="11" spans="2:10" ht="18.75">
+      <c r="B11" s="66"/>
+      <c r="C11" s="184">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(Wd-HEading))*(Ws/TrueAirSpeed)))),0),"")</f>
-        <v>12</v>
-      </c>
-      <c r="D10" s="185"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="157"/>
-      <c r="J10" s="158"/>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="156"/>
-      <c r="C11" s="157"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="158"/>
+        <v>9</v>
+      </c>
+      <c r="D11" s="184"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="68"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="156"/>
-      <c r="C12" s="157"/>
-      <c r="D12" s="157"/>
-      <c r="E12" s="157"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="157"/>
-      <c r="H12" s="157"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="158"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="68"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="156"/>
-      <c r="C13" s="157"/>
-      <c r="D13" s="157"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="158"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="68"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="156"/>
-      <c r="C14" s="157"/>
-      <c r="D14" s="157"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="157"/>
-      <c r="H14" s="157"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="158"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="68"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="156"/>
-      <c r="C15" s="157"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="158"/>
-    </row>
-    <row r="16" spans="2:10" ht="19.5">
-      <c r="B16" s="160" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="161"/>
-      <c r="D16" s="161"/>
-      <c r="E16" s="161"/>
-      <c r="F16" s="161"/>
-      <c r="G16" s="161"/>
-      <c r="H16" s="161"/>
-      <c r="I16" s="161"/>
-      <c r="J16" s="162"/>
-    </row>
-    <row r="17" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B17" s="156"/>
-      <c r="C17" s="157"/>
-      <c r="D17" s="157"/>
-      <c r="E17" s="157"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="158"/>
-    </row>
-    <row r="18" spans="2:10" ht="19.5" thickBot="1">
-      <c r="B18" s="156"/>
-      <c r="C18" s="167" t="s">
+      <c r="B15" s="66"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="68"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="68"/>
+    </row>
+    <row r="17" spans="2:10" ht="19.5">
+      <c r="B17" s="181" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="182"/>
+      <c r="D17" s="182"/>
+      <c r="E17" s="182"/>
+      <c r="F17" s="182"/>
+      <c r="G17" s="182"/>
+      <c r="H17" s="182"/>
+      <c r="I17" s="182"/>
+      <c r="J17" s="183"/>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B18" s="66"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="68"/>
+    </row>
+    <row r="19" spans="2:10" ht="19.5" thickBot="1">
+      <c r="B19" s="66"/>
+      <c r="C19" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="169">
+      <c r="D19" s="76">
         <v>27</v>
       </c>
-      <c r="E18" s="163"/>
-      <c r="F18" s="179" t="s">
+      <c r="E19" s="70"/>
+      <c r="F19" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="180">
+      <c r="G19" s="87">
         <f>Ws*ABS(SIN(MOD(Wd-(RWY*10),360)*(PI()/180)))</f>
-        <v>15.320888862379562</v>
-      </c>
-      <c r="H18" s="181" t="s">
+        <v>9.6418141452980937</v>
+      </c>
+      <c r="H19" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="I18" s="157"/>
-      <c r="J18" s="158"/>
-    </row>
-    <row r="19" spans="2:10" ht="19.5" thickBot="1">
-      <c r="B19" s="156"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="176" t="s">
+      <c r="I19" s="67"/>
+      <c r="J19" s="68"/>
+    </row>
+    <row r="20" spans="2:10" ht="19.5" thickBot="1">
+      <c r="B20" s="66"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="84">
+        <f>Ws*(COS(MOD(Wd-(RWY*10),360)*(PI()/180)))</f>
+        <v>11.490666646784668</v>
+      </c>
+      <c r="H20" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="67"/>
+      <c r="J20" s="68"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="66"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="177">
-        <f>Ws*(COS(MOD(Wd-(RWY*10),360)*(PI()/180)))</f>
-        <v>12.855752193730785</v>
-      </c>
-      <c r="H19" s="178" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" s="157"/>
-      <c r="J19" s="158"/>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="156"/>
-      <c r="C20" s="157"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="168" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="157"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="158"/>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="156"/>
-      <c r="C21" s="157"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="157"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="158"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="68"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="156"/>
-      <c r="C22" s="159" t="s">
+      <c r="B22" s="66"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="68"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="66"/>
+      <c r="C23" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="159">
-        <f>-E22</f>
+      <c r="D23" s="69">
+        <f>-E23</f>
         <v>1</v>
       </c>
-      <c r="E22" s="159">
+      <c r="E23" s="69">
         <f>COS((RWY*10-90)*(PI()/180))</f>
         <v>-1</v>
       </c>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="158"/>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="156"/>
-      <c r="C23" s="159" t="s">
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="68"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="66"/>
+      <c r="C24" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="159">
-        <f>-E23</f>
+      <c r="D24" s="69">
+        <f>-E24</f>
         <v>1.22514845490862E-16</v>
       </c>
-      <c r="E23" s="159">
+      <c r="E24" s="69">
         <f>-SIN((RWY*10-90)*(PI()/180))</f>
         <v>-1.22514845490862E-16</v>
       </c>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="157"/>
-      <c r="I23" s="157"/>
-      <c r="J23" s="158"/>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="156"/>
-      <c r="C24" s="157"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="158"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="68"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="156"/>
-      <c r="C25" s="157"/>
-      <c r="D25" s="157"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="157"/>
-      <c r="I25" s="157"/>
-      <c r="J25" s="158"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="68"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="156"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="157"/>
-      <c r="H26" s="157"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="158"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="68"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="156"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="157"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="158"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="68"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="156"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="158"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="68"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="156"/>
-      <c r="C29" s="157"/>
-      <c r="D29" s="157"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="157"/>
-      <c r="H29" s="157"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="158"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="68"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="156"/>
-      <c r="C30" s="157"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="158"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="68"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="156"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="158"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="68"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="156"/>
-      <c r="C32" s="157"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="157"/>
-      <c r="H32" s="157"/>
-      <c r="I32" s="157"/>
-      <c r="J32" s="158"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="68"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="156"/>
-      <c r="C33" s="157"/>
-      <c r="D33" s="157"/>
-      <c r="E33" s="157"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="157"/>
-      <c r="H33" s="157"/>
-      <c r="I33" s="157"/>
-      <c r="J33" s="158"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="68"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="156"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="157"/>
-      <c r="H34" s="157"/>
-      <c r="I34" s="157"/>
-      <c r="J34" s="158"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="68"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="156"/>
-      <c r="C35" s="157"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="157"/>
-      <c r="H35" s="157"/>
-      <c r="I35" s="157"/>
-      <c r="J35" s="158"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="68"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="156"/>
-      <c r="C36" s="157"/>
-      <c r="D36" s="157"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="157"/>
-      <c r="H36" s="157"/>
-      <c r="I36" s="157"/>
-      <c r="J36" s="158"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="68"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="156"/>
-      <c r="C37" s="157"/>
-      <c r="D37" s="157"/>
-      <c r="E37" s="157"/>
-      <c r="F37" s="157"/>
-      <c r="G37" s="157"/>
-      <c r="H37" s="157"/>
-      <c r="I37" s="157"/>
-      <c r="J37" s="158"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="68"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="156"/>
-      <c r="C38" s="157"/>
-      <c r="D38" s="157"/>
-      <c r="E38" s="157"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="157"/>
-      <c r="H38" s="157"/>
-      <c r="I38" s="157"/>
-      <c r="J38" s="158"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="68"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="156"/>
-      <c r="C39" s="157"/>
-      <c r="D39" s="157"/>
-      <c r="E39" s="157"/>
-      <c r="F39" s="157"/>
-      <c r="G39" s="157"/>
-      <c r="H39" s="157"/>
-      <c r="I39" s="157"/>
-      <c r="J39" s="158"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="68"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="156"/>
-      <c r="C40" s="157"/>
-      <c r="D40" s="157"/>
-      <c r="E40" s="157"/>
-      <c r="F40" s="157"/>
-      <c r="G40" s="157"/>
-      <c r="H40" s="157"/>
-      <c r="I40" s="157"/>
-      <c r="J40" s="158"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="68"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="156"/>
-      <c r="C41" s="157"/>
-      <c r="D41" s="157"/>
-      <c r="E41" s="157"/>
-      <c r="F41" s="157"/>
-      <c r="G41" s="157"/>
-      <c r="H41" s="157"/>
-      <c r="I41" s="157"/>
-      <c r="J41" s="158"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="68"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="156"/>
-      <c r="C42" s="157"/>
-      <c r="D42" s="157"/>
-      <c r="E42" s="157"/>
-      <c r="F42" s="157"/>
-      <c r="G42" s="157"/>
-      <c r="H42" s="157"/>
-      <c r="I42" s="157"/>
-      <c r="J42" s="158"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="68"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="156"/>
-      <c r="C43" s="157"/>
-      <c r="D43" s="157"/>
-      <c r="E43" s="157"/>
-      <c r="F43" s="157"/>
-      <c r="G43" s="157"/>
-      <c r="H43" s="157"/>
-      <c r="I43" s="157"/>
-      <c r="J43" s="158"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="68"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="156"/>
-      <c r="C44" s="157"/>
-      <c r="D44" s="157"/>
-      <c r="E44" s="157"/>
-      <c r="F44" s="157"/>
-      <c r="G44" s="157"/>
-      <c r="H44" s="157"/>
-      <c r="I44" s="157"/>
-      <c r="J44" s="158"/>
-    </row>
-    <row r="45" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B45" s="164"/>
-      <c r="C45" s="165"/>
-      <c r="D45" s="165"/>
-      <c r="E45" s="165"/>
-      <c r="F45" s="165"/>
-      <c r="G45" s="165"/>
-      <c r="H45" s="165"/>
-      <c r="I45" s="165"/>
-      <c r="J45" s="166"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="68"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="66"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="68"/>
+    </row>
+    <row r="46" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B46" s="71"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="73"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/NAV Log Calculator - Flight Planner - E6B-like.xlsx
+++ b/NAV Log Calculator - Flight Planner - E6B-like.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/194e8d034589e5e8/Aviation/NAV/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/194e8d034589e5e8/Aviation/NAV/Aviation-Navigation-Log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="786" documentId="13_ncr:1_{462FEA56-7C17-431A-9BAA-3E0293AE842A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A51C2FF-2DD1-41EB-8886-5FDFB7379614}"/>
+  <xr:revisionPtr revIDLastSave="788" documentId="13_ncr:1_{462FEA56-7C17-431A-9BAA-3E0293AE842A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCDBEE97-4A78-4E51-AEF4-72B379BC6AD1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="3" xr2:uid="{81AC26DA-A476-4998-AAF9-3938C858D589}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="2" xr2:uid="{81AC26DA-A476-4998-AAF9-3938C858D589}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas" sheetId="2" r:id="rId1"/>
@@ -1843,6 +1843,153 @@
     <xf numFmtId="0" fontId="45" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1866,13 +2013,7 @@
     <xf numFmtId="0" fontId="29" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1908,145 +2049,20 @@
     <xf numFmtId="0" fontId="31" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="11" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="11" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2077,10 +2093,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2108,18 +2120,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6167,8 +6167,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4823902" y="1676949"/>
-          <a:ext cx="85290" cy="3952932"/>
+          <a:off x="4826283" y="1669805"/>
+          <a:ext cx="90053" cy="3917213"/>
           <a:chOff x="17965" y="1465456"/>
           <a:chExt cx="80925" cy="3938789"/>
         </a:xfrm>
@@ -6582,8 +6582,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="6226458" y="1674568"/>
-          <a:ext cx="85290" cy="3952932"/>
+          <a:off x="6233602" y="1667424"/>
+          <a:ext cx="85290" cy="3917213"/>
           <a:chOff x="17965" y="1465456"/>
           <a:chExt cx="80925" cy="3938789"/>
         </a:xfrm>
@@ -7818,7 +7818,7 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="Q9" sqref="Q9 H3:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7834,144 +7834,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="113">
+      <c r="B1" s="126">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="E1" s="100" t="s">
+      <c r="C1" s="127"/>
+      <c r="E1" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="95">
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="140">
         <v>38</v>
       </c>
-      <c r="I1" s="104"/>
+      <c r="I1" s="147"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="107" t="s">
+      <c r="N1" s="150" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="108"/>
-      <c r="P1" s="95">
+      <c r="O1" s="151"/>
+      <c r="P1" s="140">
         <v>3500</v>
       </c>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="93" t="s">
+      <c r="Q1" s="140"/>
+      <c r="R1" s="138" t="s">
         <v>70</v>
       </c>
       <c r="T1"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="102"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="116"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="105"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="129"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="148"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="94"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="139"/>
       <c r="T2"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
-      <c r="E3" s="100" t="s">
+      <c r="E3" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="95">
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="140">
         <v>6.5</v>
       </c>
-      <c r="I3" s="104"/>
+      <c r="I3" s="147"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="107" t="s">
+      <c r="N3" s="150" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="108"/>
-      <c r="P3" s="95">
+      <c r="O3" s="151"/>
+      <c r="P3" s="140">
         <v>215</v>
       </c>
-      <c r="Q3" s="97" t="s">
+      <c r="Q3" s="142" t="s">
         <v>72</v>
       </c>
-      <c r="R3" s="95">
+      <c r="R3" s="140">
         <v>17</v>
       </c>
-      <c r="S3" s="93" t="s">
+      <c r="S3" s="138" t="s">
         <v>71</v>
       </c>
       <c r="T3"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="E4" s="102"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="105"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="99"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="148"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="155"/>
+      <c r="P4" s="141"/>
+      <c r="Q4" s="143"/>
+      <c r="R4" s="141"/>
+      <c r="S4" s="144"/>
       <c r="T4"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="126" t="s">
+      <c r="B6" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="128"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="135"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="126" t="s">
+      <c r="N6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="127"/>
-      <c r="P6" s="127"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="127"/>
-      <c r="T6" s="128"/>
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="134"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="135"/>
     </row>
     <row r="7" spans="1:20" ht="19.7" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="125"/>
-      <c r="D7" s="129" t="s">
+      <c r="C7" s="132"/>
+      <c r="D7" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="130"/>
+      <c r="E7" s="137"/>
       <c r="F7" s="59" t="s">
         <v>2</v>
       </c>
@@ -8001,7 +8001,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="19.7" customHeight="1">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="130" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="63" t="s">
@@ -8061,49 +8061,49 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="122"/>
-      <c r="B9" s="120">
+      <c r="A9" s="115"/>
+      <c r="B9" s="118">
         <v>90</v>
       </c>
-      <c r="C9" s="120">
+      <c r="C9" s="118">
         <v>3500</v>
       </c>
-      <c r="D9" s="120">
+      <c r="D9" s="118">
         <v>215</v>
       </c>
-      <c r="E9" s="120">
+      <c r="E9" s="118">
         <v>17</v>
       </c>
-      <c r="F9" s="120">
+      <c r="F9" s="118">
         <v>-10</v>
       </c>
-      <c r="G9" s="120">
+      <c r="G9" s="118">
         <v>95</v>
       </c>
-      <c r="H9" s="119">
+      <c r="H9" s="117">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D9-B9))*(E9/G9)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="I9" s="119">
+      <c r="I9" s="117">
         <f>IFERROR(ROUND(MOD(B9+H9,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="J9" s="120">
+      <c r="J9" s="118">
         <v>13</v>
       </c>
-      <c r="K9" s="119">
+      <c r="K9" s="117">
         <f>IFERROR(MOD(I9+J9,360),"")</f>
         <v>111</v>
       </c>
-      <c r="L9" s="120">
+      <c r="L9" s="118">
         <v>0</v>
       </c>
       <c r="M9" s="7"/>
-      <c r="N9" s="119">
+      <c r="N9" s="117">
         <f>IFERROR(MOD(K9+L9,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O9" s="120">
+      <c r="O9" s="118">
         <v>7</v>
       </c>
       <c r="P9" s="43">
@@ -8128,23 +8128,23 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="120"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="118"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="120"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="118"/>
       <c r="P10" s="53"/>
       <c r="Q10" s="53"/>
       <c r="R10" s="54"/>
@@ -8152,49 +8152,49 @@
       <c r="T10" s="53"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A11" s="122"/>
-      <c r="B11" s="118">
+      <c r="A11" s="115"/>
+      <c r="B11" s="123">
         <v>90</v>
       </c>
-      <c r="C11" s="118">
+      <c r="C11" s="123">
         <v>3500</v>
       </c>
-      <c r="D11" s="118">
+      <c r="D11" s="123">
         <v>215</v>
       </c>
-      <c r="E11" s="118">
+      <c r="E11" s="123">
         <v>17</v>
       </c>
-      <c r="F11" s="118">
+      <c r="F11" s="123">
         <v>-10</v>
       </c>
-      <c r="G11" s="118">
+      <c r="G11" s="123">
         <v>95</v>
       </c>
-      <c r="H11" s="117">
+      <c r="H11" s="121">
         <f t="shared" ref="H11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D11-B11))*(E11/G11)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="I11" s="117">
+      <c r="I11" s="121">
         <f>IFERROR(ROUND(MOD(B11+H11,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="J11" s="118">
+      <c r="J11" s="123">
         <v>13</v>
       </c>
-      <c r="K11" s="117">
+      <c r="K11" s="121">
         <f t="shared" ref="K11" si="1">IFERROR(MOD(I11+J11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="L11" s="118">
+      <c r="L11" s="123">
         <v>0</v>
       </c>
       <c r="M11" s="7"/>
-      <c r="N11" s="117">
+      <c r="N11" s="121">
         <f>IFERROR(MOD(K11+L11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O11" s="118">
+      <c r="O11" s="123">
         <v>8</v>
       </c>
       <c r="P11" s="46">
@@ -8219,23 +8219,23 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A12" s="123" t="s">
+      <c r="A12" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="118"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="123"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="117"/>
-      <c r="O12" s="118"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="123"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="45"/>
@@ -8243,49 +8243,49 @@
       <c r="T12" s="44"/>
     </row>
     <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A13" s="122"/>
-      <c r="B13" s="120">
+      <c r="A13" s="115"/>
+      <c r="B13" s="118">
         <v>131</v>
       </c>
-      <c r="C13" s="120">
+      <c r="C13" s="118">
         <v>3500</v>
       </c>
-      <c r="D13" s="120">
+      <c r="D13" s="118">
         <v>215</v>
       </c>
-      <c r="E13" s="120">
+      <c r="E13" s="118">
         <v>17</v>
       </c>
-      <c r="F13" s="120">
+      <c r="F13" s="118">
         <v>-10</v>
       </c>
-      <c r="G13" s="120">
+      <c r="G13" s="118">
         <v>95</v>
       </c>
-      <c r="H13" s="119">
+      <c r="H13" s="117">
         <f t="shared" ref="H13" si="3">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D13-B13))*(E13/G13)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I13" s="119">
+      <c r="I13" s="117">
         <f t="shared" ref="I13" si="4">IFERROR(ROUND(MOD(B13+H13,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J13" s="120">
+      <c r="J13" s="118">
         <v>13</v>
       </c>
-      <c r="K13" s="119">
+      <c r="K13" s="117">
         <f t="shared" ref="K13" si="5">IFERROR(MOD(I13+J13,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L13" s="120">
+      <c r="L13" s="118">
         <v>2</v>
       </c>
       <c r="M13" s="7"/>
-      <c r="N13" s="119">
+      <c r="N13" s="117">
         <f>IFERROR(MOD(K13+L13,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O13" s="120">
+      <c r="O13" s="118">
         <v>11</v>
       </c>
       <c r="P13" s="43">
@@ -8310,23 +8310,23 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A14" s="123" t="s">
+      <c r="A14" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="120"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="118"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="119"/>
-      <c r="O14" s="120"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="118"/>
       <c r="P14" s="53"/>
       <c r="Q14" s="53"/>
       <c r="R14" s="54"/>
@@ -8334,49 +8334,49 @@
       <c r="T14" s="53"/>
     </row>
     <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A15" s="122"/>
-      <c r="B15" s="131">
+      <c r="A15" s="115"/>
+      <c r="B15" s="116">
         <v>131</v>
       </c>
-      <c r="C15" s="131">
+      <c r="C15" s="116">
         <v>3500</v>
       </c>
-      <c r="D15" s="131">
+      <c r="D15" s="116">
         <v>215</v>
       </c>
-      <c r="E15" s="131">
+      <c r="E15" s="116">
         <v>17</v>
       </c>
-      <c r="F15" s="131">
+      <c r="F15" s="116">
         <v>-10</v>
       </c>
-      <c r="G15" s="131">
+      <c r="G15" s="116">
         <v>95</v>
       </c>
-      <c r="H15" s="117">
+      <c r="H15" s="121">
         <f t="shared" ref="H15" si="7">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D15-B15))*(E15/G15)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I15" s="117">
+      <c r="I15" s="121">
         <f t="shared" ref="I15" si="8">IFERROR(ROUND(MOD(B15+H15,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J15" s="118">
+      <c r="J15" s="123">
         <v>13</v>
       </c>
-      <c r="K15" s="117">
+      <c r="K15" s="121">
         <f t="shared" ref="K15" si="9">IFERROR(MOD(I15+J15,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L15" s="118">
+      <c r="L15" s="123">
         <v>2</v>
       </c>
       <c r="M15" s="7"/>
-      <c r="N15" s="117">
+      <c r="N15" s="121">
         <f>IFERROR(MOD(K15+L15,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O15" s="118">
+      <c r="O15" s="123">
         <v>8</v>
       </c>
       <c r="P15" s="46">
@@ -8401,23 +8401,23 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A16" s="123" t="s">
+      <c r="A16" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="118"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="123"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="118"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="123"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="45"/>
@@ -8425,49 +8425,49 @@
       <c r="T16" s="44"/>
     </row>
     <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A17" s="122"/>
-      <c r="B17" s="120">
+      <c r="A17" s="115"/>
+      <c r="B17" s="118">
         <v>131</v>
       </c>
-      <c r="C17" s="120">
+      <c r="C17" s="118">
         <v>3500</v>
       </c>
-      <c r="D17" s="120">
+      <c r="D17" s="118">
         <v>215</v>
       </c>
-      <c r="E17" s="120">
+      <c r="E17" s="118">
         <v>17</v>
       </c>
-      <c r="F17" s="120">
+      <c r="F17" s="118">
         <v>-10</v>
       </c>
-      <c r="G17" s="120">
+      <c r="G17" s="118">
         <v>95</v>
       </c>
-      <c r="H17" s="119">
+      <c r="H17" s="117">
         <f t="shared" ref="H17" si="11">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D17-B17))*(E17/G17)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I17" s="119">
+      <c r="I17" s="117">
         <f t="shared" ref="I17" si="12">IFERROR(ROUND(MOD(B17+H17,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J17" s="120">
+      <c r="J17" s="118">
         <v>13</v>
       </c>
-      <c r="K17" s="119">
+      <c r="K17" s="117">
         <f t="shared" ref="K17" si="13">IFERROR(MOD(I17+J17,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L17" s="120">
+      <c r="L17" s="118">
         <v>2</v>
       </c>
       <c r="M17" s="7"/>
-      <c r="N17" s="119">
+      <c r="N17" s="117">
         <f>IFERROR(MOD(K17+L17,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O17" s="120">
+      <c r="O17" s="118">
         <v>10</v>
       </c>
       <c r="P17" s="43">
@@ -8492,23 +8492,23 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A18" s="123" t="s">
+      <c r="A18" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="119"/>
-      <c r="L18" s="120"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="118"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="119"/>
-      <c r="O18" s="120"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="118"/>
       <c r="P18" s="53"/>
       <c r="Q18" s="53"/>
       <c r="R18" s="54"/>
@@ -8516,49 +8516,49 @@
       <c r="T18" s="53"/>
     </row>
     <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A19" s="122"/>
-      <c r="B19" s="131">
+      <c r="A19" s="115"/>
+      <c r="B19" s="116">
         <v>131</v>
       </c>
-      <c r="C19" s="131">
+      <c r="C19" s="116">
         <v>3500</v>
       </c>
-      <c r="D19" s="131">
+      <c r="D19" s="116">
         <v>215</v>
       </c>
-      <c r="E19" s="131">
+      <c r="E19" s="116">
         <v>17</v>
       </c>
-      <c r="F19" s="131">
+      <c r="F19" s="116">
         <v>-10</v>
       </c>
-      <c r="G19" s="131">
+      <c r="G19" s="116">
         <v>95</v>
       </c>
-      <c r="H19" s="117">
+      <c r="H19" s="121">
         <f t="shared" ref="H19" si="15">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D19-B19))*(E19/G19)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I19" s="117">
+      <c r="I19" s="121">
         <f t="shared" ref="I19" si="16">IFERROR(ROUND(MOD(B19+H19,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J19" s="118">
+      <c r="J19" s="123">
         <v>13</v>
       </c>
-      <c r="K19" s="117">
+      <c r="K19" s="121">
         <f t="shared" ref="K19" si="17">IFERROR(MOD(I19+J19,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L19" s="118">
+      <c r="L19" s="123">
         <v>2</v>
       </c>
       <c r="M19" s="7"/>
-      <c r="N19" s="117">
+      <c r="N19" s="121">
         <f>IFERROR(MOD(K19+L19,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O19" s="118">
+      <c r="O19" s="123">
         <v>11</v>
       </c>
       <c r="P19" s="46">
@@ -8583,23 +8583,23 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A20" s="123" t="s">
+      <c r="A20" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="131"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
-      <c r="K20" s="117"/>
-      <c r="L20" s="118"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="123"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="117"/>
-      <c r="O20" s="118"/>
+      <c r="N20" s="121"/>
+      <c r="O20" s="123"/>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="45"/>
@@ -8607,33 +8607,33 @@
       <c r="T20" s="44"/>
     </row>
     <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A21" s="122"/>
-      <c r="B21" s="120"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="119" t="str">
+      <c r="A21" s="115"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="117" t="str">
         <f t="shared" ref="H21" si="19">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D21-B21))*(E21/G21)))),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="119" t="str">
+      <c r="I21" s="117" t="str">
         <f t="shared" ref="I21" si="20">IFERROR(ROUND(MOD(B21+H21,360),0),"")</f>
         <v/>
       </c>
-      <c r="J21" s="120"/>
-      <c r="K21" s="119" t="str">
+      <c r="J21" s="118"/>
+      <c r="K21" s="117" t="str">
         <f t="shared" ref="K21" si="21">IFERROR(MOD(I21+J21,360),"")</f>
         <v/>
       </c>
-      <c r="L21" s="120"/>
+      <c r="L21" s="118"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="119" t="str">
+      <c r="N21" s="117" t="str">
         <f>IFERROR(MOD(K21+L21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="120"/>
+      <c r="O21" s="118"/>
       <c r="P21" s="43" t="str">
         <f>IFERROR(SQRT(G21^2+E21^2-2*G21*E21*COS(RADIANS(D21-B21-H21))),"")</f>
         <v/>
@@ -8656,21 +8656,21 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A22" s="123"/>
-      <c r="B22" s="120"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="119"/>
-      <c r="L22" s="120"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="118"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="119"/>
-      <c r="O22" s="120"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="118"/>
       <c r="P22" s="53"/>
       <c r="Q22" s="53"/>
       <c r="R22" s="54"/>
@@ -8678,33 +8678,33 @@
       <c r="T22" s="53"/>
     </row>
     <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A23" s="122"/>
-      <c r="B23" s="131"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="117" t="str">
+      <c r="A23" s="115"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="121" t="str">
         <f t="shared" ref="H23" si="23">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D23-B23))*(E23/G23)))),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="117" t="str">
+      <c r="I23" s="121" t="str">
         <f t="shared" ref="I23" si="24">IFERROR(ROUND(MOD(B23+H23,360),0),"")</f>
         <v/>
       </c>
-      <c r="J23" s="118"/>
-      <c r="K23" s="119" t="str">
+      <c r="J23" s="123"/>
+      <c r="K23" s="117" t="str">
         <f t="shared" ref="K23" si="25">IFERROR(MOD(I23+J23,360),"")</f>
         <v/>
       </c>
-      <c r="L23" s="118"/>
+      <c r="L23" s="123"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="119" t="str">
+      <c r="N23" s="117" t="str">
         <f>IFERROR(MOD(K23+L23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="118"/>
+      <c r="O23" s="123"/>
       <c r="P23" s="46" t="str">
         <f>IFERROR(SQRT(G23^2+E23^2-2*G23*E23*COS(RADIANS(D23-B23-H23))),"")</f>
         <v/>
@@ -8727,21 +8727,21 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A24" s="123"/>
-      <c r="B24" s="131"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="119"/>
-      <c r="L24" s="118"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="123"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="119"/>
-      <c r="O24" s="118"/>
+      <c r="N24" s="117"/>
+      <c r="O24" s="123"/>
       <c r="P24" s="44"/>
       <c r="Q24" s="44"/>
       <c r="R24" s="45"/>
@@ -8749,33 +8749,33 @@
       <c r="T24" s="44"/>
     </row>
     <row r="25" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A25" s="155"/>
-      <c r="B25" s="120"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="119" t="str">
+      <c r="A25" s="119"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="117" t="str">
         <f t="shared" ref="H25" si="27">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D25-B25))*(E25/G25)))),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="119" t="str">
+      <c r="I25" s="117" t="str">
         <f t="shared" ref="I25" si="28">IFERROR(ROUND(MOD(B25+H25,360),0),"")</f>
         <v/>
       </c>
-      <c r="J25" s="120"/>
-      <c r="K25" s="119" t="str">
+      <c r="J25" s="118"/>
+      <c r="K25" s="117" t="str">
         <f t="shared" ref="K25" si="29">IFERROR(MOD(I25+J25,360),"")</f>
         <v/>
       </c>
-      <c r="L25" s="120"/>
+      <c r="L25" s="118"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="119" t="str">
+      <c r="N25" s="117" t="str">
         <f>IFERROR(MOD(K25+L25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="120"/>
+      <c r="O25" s="118"/>
       <c r="P25" s="43" t="str">
         <f>IFERROR(SQRT(G25^2+E25^2-2*G25*E25*COS(RADIANS(D25-B25-H25))),"")</f>
         <v/>
@@ -8801,20 +8801,20 @@
       <c r="A26" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="132"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="133"/>
-      <c r="I26" s="133"/>
-      <c r="J26" s="132"/>
-      <c r="K26" s="133"/>
-      <c r="L26" s="132"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="120"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="119"/>
-      <c r="O26" s="132"/>
+      <c r="N26" s="117"/>
+      <c r="O26" s="120"/>
       <c r="P26" s="53"/>
       <c r="Q26" s="55"/>
       <c r="R26" s="56"/>
@@ -8822,130 +8822,256 @@
       <c r="T26" s="53"/>
     </row>
     <row r="27" spans="1:20" ht="15" customHeight="1">
-      <c r="A27" s="149" t="s">
+      <c r="A27" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="150"/>
-      <c r="C27" s="150"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="151"/>
-      <c r="O27" s="143">
+      <c r="B27" s="109"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="110"/>
+      <c r="O27" s="102">
         <f>SUM(O9:O26)</f>
         <v>55</v>
       </c>
-      <c r="Q27" s="145">
+      <c r="Q27" s="104">
         <f>SUM(Q9:Q26)</f>
         <v>35</v>
       </c>
-      <c r="R27" s="147">
+      <c r="R27" s="106">
         <f>MAX(R9:R26)</f>
         <v>0.60763888888888895</v>
       </c>
-      <c r="S27" s="145">
+      <c r="S27" s="104">
         <f>SUM(S9:S26)</f>
         <v>3.8</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="152"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="153"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="153"/>
-      <c r="K28" s="153"/>
-      <c r="L28" s="154"/>
-      <c r="O28" s="144"/>
-      <c r="Q28" s="146"/>
-      <c r="R28" s="148"/>
-      <c r="S28" s="146"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="112"/>
+      <c r="L28" s="113"/>
+      <c r="O28" s="103"/>
+      <c r="Q28" s="105"/>
+      <c r="R28" s="107"/>
+      <c r="S28" s="105"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="134" t="s">
+      <c r="A29" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="135"/>
-      <c r="C29" s="135"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="135"/>
-      <c r="J29" s="135"/>
-      <c r="K29" s="135"/>
-      <c r="L29" s="136"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="95"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="137"/>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="138"/>
-      <c r="H30" s="138"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="138"/>
-      <c r="K30" s="138"/>
-      <c r="L30" s="139"/>
+      <c r="A30" s="96"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="97"/>
+      <c r="L30" s="98"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="137"/>
-      <c r="B31" s="138"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="138"/>
-      <c r="F31" s="138"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="138"/>
-      <c r="I31" s="138"/>
-      <c r="J31" s="138"/>
-      <c r="K31" s="138"/>
-      <c r="L31" s="139"/>
+      <c r="A31" s="96"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="97"/>
+      <c r="L31" s="98"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="137"/>
-      <c r="B32" s="138"/>
-      <c r="C32" s="138"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="138"/>
-      <c r="F32" s="138"/>
-      <c r="G32" s="138"/>
-      <c r="H32" s="138"/>
-      <c r="I32" s="138"/>
-      <c r="J32" s="138"/>
-      <c r="K32" s="138"/>
-      <c r="L32" s="139"/>
+      <c r="A32" s="96"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="97"/>
+      <c r="L32" s="98"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A33" s="140"/>
-      <c r="B33" s="141"/>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="142"/>
+      <c r="A33" s="99"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="100"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="101"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="150">
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="E1:G2"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="L15:L16"/>
     <mergeCell ref="A29:L33"/>
     <mergeCell ref="O27:O28"/>
     <mergeCell ref="Q27:Q28"/>
@@ -8970,132 +9096,6 @@
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="N6:T6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="E1:G2"/>
-    <mergeCell ref="H1:I2"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="P1:Q2"/>
-    <mergeCell ref="N1:O2"/>
-    <mergeCell ref="N3:O4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
@@ -9108,8 +9108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4157655B-8A58-497F-BBC8-F24326906F8C}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScale="80" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -9128,134 +9128,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="161" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="160">
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="165">
         <v>0.63541666666666663</v>
       </c>
-      <c r="E1" s="161"/>
+      <c r="E1" s="166"/>
       <c r="F1" s="40"/>
-      <c r="G1" s="165" t="s">
+      <c r="G1" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="164">
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="160">
         <v>38</v>
       </c>
-      <c r="K1" s="164"/>
+      <c r="K1" s="160"/>
       <c r="L1" s="24"/>
-      <c r="M1" s="166" t="s">
+      <c r="M1" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="168">
+      <c r="N1" s="172">
         <v>3500</v>
       </c>
-      <c r="O1" s="168"/>
-      <c r="P1" s="174" t="s">
+      <c r="O1" s="172"/>
+      <c r="P1" s="156" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="158"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="163"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="168"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
       <c r="L2" s="24"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="175"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="157"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="G3" s="165" t="s">
+      <c r="G3" s="169" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="164">
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="160">
         <v>6.5</v>
       </c>
-      <c r="K3" s="164"/>
+      <c r="K3" s="160"/>
       <c r="L3" s="25"/>
-      <c r="M3" s="169" t="s">
+      <c r="M3" s="173" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="164">
+      <c r="N3" s="160">
         <v>215</v>
       </c>
-      <c r="O3" s="164"/>
-      <c r="P3" s="176" t="s">
+      <c r="O3" s="160"/>
+      <c r="P3" s="158" t="s">
         <v>72</v>
       </c>
-      <c r="Q3" s="164">
+      <c r="Q3" s="160">
         <v>17</v>
       </c>
-      <c r="R3" s="164"/>
-      <c r="S3" s="174" t="s">
+      <c r="R3" s="160"/>
+      <c r="S3" s="156" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="G4" s="165"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="164"/>
-      <c r="K4" s="164"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
       <c r="L4" s="25"/>
-      <c r="M4" s="170"/>
-      <c r="N4" s="171"/>
-      <c r="O4" s="171"/>
-      <c r="P4" s="177"/>
-      <c r="Q4" s="164"/>
-      <c r="R4" s="164"/>
-      <c r="S4" s="175"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="175"/>
+      <c r="O4" s="175"/>
+      <c r="P4" s="159"/>
+      <c r="Q4" s="160"/>
+      <c r="R4" s="160"/>
+      <c r="S4" s="157"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1">
       <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="126" t="s">
+      <c r="A6" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="128"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="135"/>
       <c r="L6" s="26"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="126" t="s">
+      <c r="N6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="127"/>
-      <c r="P6" s="127"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="127"/>
-      <c r="T6" s="128"/>
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="134"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="135"/>
     </row>
     <row r="7" spans="1:20" ht="19.7" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="172" t="s">
+      <c r="C7" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="173"/>
+      <c r="D7" s="177"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -9318,7 +9318,7 @@
         <v>7</v>
       </c>
       <c r="L8" s="28"/>
-      <c r="M8" s="121" t="s">
+      <c r="M8" s="130" t="s">
         <v>10</v>
       </c>
       <c r="N8" s="32" t="s">
@@ -9344,49 +9344,49 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="120">
+      <c r="A9" s="118">
         <v>90</v>
       </c>
-      <c r="B9" s="120">
+      <c r="B9" s="118">
         <v>3500</v>
       </c>
-      <c r="C9" s="120">
+      <c r="C9" s="118">
         <v>170</v>
       </c>
-      <c r="D9" s="120">
+      <c r="D9" s="118">
         <v>17</v>
       </c>
-      <c r="E9" s="120">
+      <c r="E9" s="118">
         <v>-10</v>
       </c>
-      <c r="F9" s="120">
+      <c r="F9" s="118">
         <v>95</v>
       </c>
-      <c r="G9" s="119">
+      <c r="G9" s="117">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C9-A9))*(D9/F9)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H9" s="119">
+      <c r="H9" s="117">
         <f>IFERROR(ROUND(MOD(A9+G9,360),0),"")</f>
         <v>100</v>
       </c>
-      <c r="I9" s="120">
+      <c r="I9" s="118">
         <v>13</v>
       </c>
-      <c r="J9" s="119">
+      <c r="J9" s="117">
         <f>IFERROR(MOD(H9+I9,360),"")</f>
         <v>113</v>
       </c>
-      <c r="K9" s="120">
+      <c r="K9" s="118">
         <v>0</v>
       </c>
       <c r="L9" s="29"/>
-      <c r="M9" s="122"/>
-      <c r="N9" s="119">
+      <c r="M9" s="115"/>
+      <c r="N9" s="117">
         <f>IFERROR(MOD(J9+K9,360),"")</f>
         <v>113</v>
       </c>
-      <c r="O9" s="120">
+      <c r="O9" s="118">
         <v>7</v>
       </c>
       <c r="P9" s="42">
@@ -9411,23 +9411,23 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A10" s="120"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="120"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="118"/>
       <c r="L10" s="29"/>
-      <c r="M10" s="123" t="s">
+      <c r="M10" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="N10" s="119"/>
-      <c r="O10" s="120"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="118"/>
       <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="45"/>
@@ -9435,49 +9435,49 @@
       <c r="T10" s="44"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A11" s="118">
+      <c r="A11" s="123">
         <v>90</v>
       </c>
-      <c r="B11" s="118">
+      <c r="B11" s="123">
         <v>3500</v>
       </c>
-      <c r="C11" s="118">
+      <c r="C11" s="123">
         <v>215</v>
       </c>
-      <c r="D11" s="118">
+      <c r="D11" s="123">
         <v>17</v>
       </c>
-      <c r="E11" s="118">
+      <c r="E11" s="123">
         <v>-10</v>
       </c>
-      <c r="F11" s="118">
+      <c r="F11" s="123">
         <v>95</v>
       </c>
-      <c r="G11" s="117">
+      <c r="G11" s="121">
         <f t="shared" ref="G11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C11-A11))*(D11/F11)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="H11" s="117">
+      <c r="H11" s="121">
         <f t="shared" ref="H11" si="1">IFERROR(ROUND(MOD(A11+G11,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="I11" s="118">
+      <c r="I11" s="123">
         <v>13</v>
       </c>
-      <c r="J11" s="117">
+      <c r="J11" s="121">
         <f t="shared" ref="J11" si="2">IFERROR(MOD(H11+I11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="K11" s="118">
+      <c r="K11" s="123">
         <v>0</v>
       </c>
       <c r="L11" s="29"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="117">
+      <c r="M11" s="115"/>
+      <c r="N11" s="121">
         <f>IFERROR(MOD(J11+K11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O11" s="118">
+      <c r="O11" s="123">
         <v>8</v>
       </c>
       <c r="P11" s="46">
@@ -9502,23 +9502,23 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A12" s="118"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="118"/>
+      <c r="A12" s="123"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="123"/>
       <c r="L12" s="29"/>
-      <c r="M12" s="123" t="s">
+      <c r="M12" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="N12" s="117"/>
-      <c r="O12" s="118"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="123"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="45"/>
@@ -9526,49 +9526,49 @@
       <c r="T12" s="44"/>
     </row>
     <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A13" s="120">
+      <c r="A13" s="118">
         <v>131</v>
       </c>
-      <c r="B13" s="120">
+      <c r="B13" s="118">
         <v>3500</v>
       </c>
-      <c r="C13" s="120">
+      <c r="C13" s="118">
         <v>215</v>
       </c>
-      <c r="D13" s="120">
+      <c r="D13" s="118">
         <v>17</v>
       </c>
-      <c r="E13" s="120">
+      <c r="E13" s="118">
         <v>-10</v>
       </c>
-      <c r="F13" s="120">
+      <c r="F13" s="118">
         <v>95</v>
       </c>
-      <c r="G13" s="119">
+      <c r="G13" s="117">
         <f t="shared" ref="G13" si="4">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C13-A13))*(D13/F13)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H13" s="119">
+      <c r="H13" s="117">
         <f t="shared" ref="H13" si="5">IFERROR(ROUND(MOD(A13+G13,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I13" s="120">
+      <c r="I13" s="118">
         <v>13</v>
       </c>
-      <c r="J13" s="119">
+      <c r="J13" s="117">
         <f t="shared" ref="J13" si="6">IFERROR(MOD(H13+I13,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K13" s="120">
+      <c r="K13" s="118">
         <v>2</v>
       </c>
       <c r="L13" s="29"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="119">
+      <c r="M13" s="115"/>
+      <c r="N13" s="117">
         <f>IFERROR(MOD(J13+K13,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O13" s="120">
+      <c r="O13" s="118">
         <v>11</v>
       </c>
       <c r="P13" s="42">
@@ -9593,23 +9593,23 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A14" s="120"/>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="119"/>
-      <c r="K14" s="120"/>
+      <c r="A14" s="118"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="118"/>
       <c r="L14" s="29"/>
-      <c r="M14" s="123" t="s">
+      <c r="M14" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="N14" s="119"/>
-      <c r="O14" s="120"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="118"/>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="45"/>
@@ -9617,49 +9617,49 @@
       <c r="T14" s="44"/>
     </row>
     <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A15" s="131">
+      <c r="A15" s="116">
         <v>131</v>
       </c>
-      <c r="B15" s="131">
+      <c r="B15" s="116">
         <v>3500</v>
       </c>
-      <c r="C15" s="131">
+      <c r="C15" s="116">
         <v>215</v>
       </c>
-      <c r="D15" s="131">
+      <c r="D15" s="116">
         <v>17</v>
       </c>
-      <c r="E15" s="131">
+      <c r="E15" s="116">
         <v>-10</v>
       </c>
-      <c r="F15" s="131">
+      <c r="F15" s="116">
         <v>95</v>
       </c>
-      <c r="G15" s="117">
+      <c r="G15" s="121">
         <f t="shared" ref="G15" si="8">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C15-A15))*(D15/F15)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H15" s="117">
+      <c r="H15" s="121">
         <f t="shared" ref="H15" si="9">IFERROR(ROUND(MOD(A15+G15,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I15" s="118">
+      <c r="I15" s="123">
         <v>13</v>
       </c>
-      <c r="J15" s="117">
+      <c r="J15" s="121">
         <f t="shared" ref="J15" si="10">IFERROR(MOD(H15+I15,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K15" s="118">
+      <c r="K15" s="123">
         <v>2</v>
       </c>
       <c r="L15" s="29"/>
-      <c r="M15" s="122"/>
-      <c r="N15" s="117">
+      <c r="M15" s="115"/>
+      <c r="N15" s="121">
         <f>IFERROR(MOD(J15+K15,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O15" s="118">
+      <c r="O15" s="123">
         <v>8</v>
       </c>
       <c r="P15" s="46">
@@ -9684,23 +9684,23 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A16" s="131"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="118"/>
+      <c r="A16" s="116"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="123"/>
       <c r="L16" s="29"/>
-      <c r="M16" s="123" t="s">
+      <c r="M16" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="N16" s="117"/>
-      <c r="O16" s="118"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="123"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="45"/>
@@ -9708,49 +9708,49 @@
       <c r="T16" s="44"/>
     </row>
     <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A17" s="120">
+      <c r="A17" s="118">
         <v>131</v>
       </c>
-      <c r="B17" s="120">
+      <c r="B17" s="118">
         <v>3500</v>
       </c>
-      <c r="C17" s="120">
+      <c r="C17" s="118">
         <v>215</v>
       </c>
-      <c r="D17" s="120">
+      <c r="D17" s="118">
         <v>17</v>
       </c>
-      <c r="E17" s="120">
+      <c r="E17" s="118">
         <v>-10</v>
       </c>
-      <c r="F17" s="120">
+      <c r="F17" s="118">
         <v>95</v>
       </c>
-      <c r="G17" s="119">
+      <c r="G17" s="117">
         <f t="shared" ref="G17" si="12">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C17-A17))*(D17/F17)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H17" s="119">
+      <c r="H17" s="117">
         <f t="shared" ref="H17" si="13">IFERROR(ROUND(MOD(A17+G17,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I17" s="120">
+      <c r="I17" s="118">
         <v>13</v>
       </c>
-      <c r="J17" s="119">
+      <c r="J17" s="117">
         <f t="shared" ref="J17" si="14">IFERROR(MOD(H17+I17,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K17" s="120">
+      <c r="K17" s="118">
         <v>2</v>
       </c>
       <c r="L17" s="29"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="119">
+      <c r="M17" s="115"/>
+      <c r="N17" s="117">
         <f>IFERROR(MOD(J17+K17,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O17" s="120">
+      <c r="O17" s="118">
         <v>10</v>
       </c>
       <c r="P17" s="42">
@@ -9775,23 +9775,23 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A18" s="120"/>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="119"/>
-      <c r="K18" s="120"/>
+      <c r="A18" s="118"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="118"/>
       <c r="L18" s="29"/>
-      <c r="M18" s="123" t="s">
+      <c r="M18" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="N18" s="119"/>
-      <c r="O18" s="120"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="118"/>
       <c r="P18" s="44"/>
       <c r="Q18" s="44"/>
       <c r="R18" s="45"/>
@@ -9799,49 +9799,49 @@
       <c r="T18" s="44"/>
     </row>
     <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A19" s="131">
+      <c r="A19" s="116">
         <v>131</v>
       </c>
-      <c r="B19" s="131">
+      <c r="B19" s="116">
         <v>3500</v>
       </c>
-      <c r="C19" s="131">
+      <c r="C19" s="116">
         <v>215</v>
       </c>
-      <c r="D19" s="131">
+      <c r="D19" s="116">
         <v>17</v>
       </c>
-      <c r="E19" s="131">
+      <c r="E19" s="116">
         <v>-10</v>
       </c>
-      <c r="F19" s="131">
+      <c r="F19" s="116">
         <v>95</v>
       </c>
-      <c r="G19" s="117">
+      <c r="G19" s="121">
         <f t="shared" ref="G19" si="16">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C19-A19))*(D19/F19)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H19" s="117">
+      <c r="H19" s="121">
         <f t="shared" ref="H19" si="17">IFERROR(ROUND(MOD(A19+G19,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I19" s="118">
+      <c r="I19" s="123">
         <v>13</v>
       </c>
-      <c r="J19" s="117">
+      <c r="J19" s="121">
         <f t="shared" ref="J19" si="18">IFERROR(MOD(H19+I19,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K19" s="118">
+      <c r="K19" s="123">
         <v>2</v>
       </c>
       <c r="L19" s="29"/>
-      <c r="M19" s="122"/>
-      <c r="N19" s="117">
+      <c r="M19" s="115"/>
+      <c r="N19" s="121">
         <f>IFERROR(MOD(J19+K19,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O19" s="118">
+      <c r="O19" s="123">
         <v>11</v>
       </c>
       <c r="P19" s="46">
@@ -9866,23 +9866,23 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A20" s="131"/>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="118"/>
+      <c r="A20" s="116"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="123"/>
       <c r="L20" s="29"/>
-      <c r="M20" s="123" t="s">
+      <c r="M20" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="N20" s="117"/>
-      <c r="O20" s="118"/>
+      <c r="N20" s="121"/>
+      <c r="O20" s="123"/>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="45"/>
@@ -9890,33 +9890,33 @@
       <c r="T20" s="44"/>
     </row>
     <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A21" s="120"/>
-      <c r="B21" s="120"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="119" t="str">
+      <c r="A21" s="118"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="117" t="str">
         <f t="shared" ref="G21" si="20">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C21-A21))*(D21/F21)))),0),"")</f>
         <v/>
       </c>
-      <c r="H21" s="119" t="str">
+      <c r="H21" s="117" t="str">
         <f t="shared" ref="H21" si="21">IFERROR(ROUND(MOD(A21+G21,360),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="120"/>
-      <c r="J21" s="119" t="str">
+      <c r="I21" s="118"/>
+      <c r="J21" s="117" t="str">
         <f t="shared" ref="J21" si="22">IFERROR(MOD(H21+I21,360),"")</f>
         <v/>
       </c>
-      <c r="K21" s="120"/>
+      <c r="K21" s="118"/>
       <c r="L21" s="29"/>
-      <c r="M21" s="122"/>
-      <c r="N21" s="119" t="str">
+      <c r="M21" s="115"/>
+      <c r="N21" s="117" t="str">
         <f>IFERROR(MOD(J21+K21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="120"/>
+      <c r="O21" s="118"/>
       <c r="P21" s="42" t="str">
         <f>IFERROR(SQRT(F21^2+D21^2-2*F21*D21*COS(RADIANS(C21-A21-G21))),"")</f>
         <v/>
@@ -9939,21 +9939,21 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A22" s="120"/>
-      <c r="B22" s="120"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="119"/>
-      <c r="K22" s="120"/>
+      <c r="A22" s="118"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="118"/>
       <c r="L22" s="29"/>
-      <c r="M22" s="123"/>
-      <c r="N22" s="119"/>
-      <c r="O22" s="120"/>
+      <c r="M22" s="114"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="118"/>
       <c r="P22" s="44"/>
       <c r="Q22" s="44"/>
       <c r="R22" s="45"/>
@@ -9961,33 +9961,33 @@
       <c r="T22" s="44"/>
     </row>
     <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A23" s="131"/>
-      <c r="B23" s="131"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="117" t="str">
+      <c r="A23" s="116"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="121" t="str">
         <f t="shared" ref="G23" si="24">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C23-A23))*(D23/F23)))),0),"")</f>
         <v/>
       </c>
-      <c r="H23" s="117" t="str">
+      <c r="H23" s="121" t="str">
         <f t="shared" ref="H23" si="25">IFERROR(ROUND(MOD(A23+G23,360),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="118"/>
-      <c r="J23" s="117" t="str">
+      <c r="I23" s="123"/>
+      <c r="J23" s="121" t="str">
         <f t="shared" ref="J23" si="26">IFERROR(MOD(H23+I23,360),"")</f>
         <v/>
       </c>
-      <c r="K23" s="118"/>
+      <c r="K23" s="123"/>
       <c r="L23" s="29"/>
-      <c r="M23" s="122"/>
-      <c r="N23" s="117" t="str">
+      <c r="M23" s="115"/>
+      <c r="N23" s="121" t="str">
         <f>IFERROR(MOD(J23+K23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="118"/>
+      <c r="O23" s="123"/>
       <c r="P23" s="46" t="str">
         <f>IFERROR(SQRT(F23^2+D23^2-2*F23*D23*COS(RADIANS(C23-A23-G23))),"")</f>
         <v/>
@@ -10010,21 +10010,21 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A24" s="131"/>
-      <c r="B24" s="131"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="118"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="123"/>
       <c r="L24" s="29"/>
-      <c r="M24" s="123"/>
-      <c r="N24" s="117"/>
-      <c r="O24" s="118"/>
+      <c r="M24" s="114"/>
+      <c r="N24" s="121"/>
+      <c r="O24" s="123"/>
       <c r="P24" s="44"/>
       <c r="Q24" s="44"/>
       <c r="R24" s="45"/>
@@ -10032,33 +10032,33 @@
       <c r="T24" s="44"/>
     </row>
     <row r="25" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A25" s="120"/>
-      <c r="B25" s="120"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="119" t="str">
+      <c r="A25" s="118"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="117" t="str">
         <f t="shared" ref="G25" si="28">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C25-A25))*(D25/F25)))),0),"")</f>
         <v/>
       </c>
-      <c r="H25" s="119" t="str">
+      <c r="H25" s="117" t="str">
         <f t="shared" ref="H25" si="29">IFERROR(ROUND(MOD(A25+G25,360),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="120"/>
-      <c r="J25" s="119" t="str">
+      <c r="I25" s="118"/>
+      <c r="J25" s="117" t="str">
         <f t="shared" ref="J25" si="30">IFERROR(MOD(H25+I25,360),"")</f>
         <v/>
       </c>
-      <c r="K25" s="120"/>
+      <c r="K25" s="118"/>
       <c r="L25" s="29"/>
-      <c r="M25" s="155"/>
-      <c r="N25" s="119" t="str">
+      <c r="M25" s="119"/>
+      <c r="N25" s="117" t="str">
         <f>IFERROR(MOD(J25+K25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="120"/>
+      <c r="O25" s="118"/>
       <c r="P25" s="42" t="str">
         <f>IFERROR(SQRT(F25^2+D25^2-2*F25*D25*COS(RADIANS(C25-A25-G25))),"")</f>
         <v/>
@@ -10081,23 +10081,23 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A26" s="120"/>
-      <c r="B26" s="120"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="120"/>
-      <c r="J26" s="119"/>
-      <c r="K26" s="120"/>
+      <c r="A26" s="118"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="117"/>
+      <c r="K26" s="118"/>
       <c r="L26" s="29"/>
       <c r="M26" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="119"/>
-      <c r="O26" s="120"/>
+      <c r="N26" s="117"/>
+      <c r="O26" s="118"/>
       <c r="P26" s="44"/>
       <c r="Q26" s="44"/>
       <c r="R26" s="45"/>
@@ -10105,19 +10105,19 @@
       <c r="T26" s="44"/>
     </row>
     <row r="27" spans="1:20" ht="25.5" thickBot="1">
-      <c r="A27" s="137" t="s">
+      <c r="A27" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="138"/>
-      <c r="C27" s="138"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="138"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="138"/>
-      <c r="I27" s="138"/>
-      <c r="J27" s="138"/>
-      <c r="K27" s="139"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="98"/>
       <c r="L27" s="30"/>
       <c r="M27" s="31" t="s">
         <v>67</v>
@@ -10140,22 +10140,143 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A28" s="140"/>
-      <c r="B28" s="141"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="141"/>
-      <c r="J28" s="141"/>
-      <c r="K28" s="142"/>
+      <c r="A28" s="99"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="101"/>
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="144">
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="O17:O18"/>
     <mergeCell ref="O11:O12"/>
@@ -10180,126 +10301,6 @@
     <mergeCell ref="Q3:R4"/>
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="N6:T6"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="G3:I4"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:O2"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:O4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -10311,7 +10312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CFACEB-C7F9-4EC2-B331-5938690C3313}">
   <dimension ref="B1:J46"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
@@ -10913,6 +10914,7 @@
       <c r="J46" s="73"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B17:J17"/>

--- a/NAV Log Calculator - Flight Planner - E6B-like.xlsx
+++ b/NAV Log Calculator - Flight Planner - E6B-like.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/194e8d034589e5e8/Aviation/NAV/Aviation-Navigation-Log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="788" documentId="13_ncr:1_{462FEA56-7C17-431A-9BAA-3E0293AE842A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCDBEE97-4A78-4E51-AEF4-72B379BC6AD1}"/>
+  <xr:revisionPtr revIDLastSave="792" documentId="13_ncr:1_{462FEA56-7C17-431A-9BAA-3E0293AE842A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECBF414D-D571-4244-B48B-932AC3C69678}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="2" xr2:uid="{81AC26DA-A476-4998-AAF9-3938C858D589}"/>
   </bookViews>
@@ -1843,256 +1843,244 @@
     <xf numFmtId="0" fontId="45" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="11" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="11" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="17" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="23" fillId="17" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="23" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="23" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="17" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="17" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2120,6 +2108,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6146,20 +6146,20 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>73308</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>21980</xdr:rowOff>
+      <xdr:rowOff>19599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>87161</xdr:colOff>
+      <xdr:colOff>1499242</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>224443</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="32" name="Group 31">
+        <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7868F42B-22C0-455E-AFDC-0B3D95C8CEAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E598CB-1765-4D66-BCE7-5796DC42073D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6167,316 +6167,381 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4826283" y="1669805"/>
-          <a:ext cx="90053" cy="3917213"/>
-          <a:chOff x="17965" y="1465456"/>
-          <a:chExt cx="80925" cy="3938789"/>
+          <a:off x="4826283" y="1667424"/>
+          <a:ext cx="1502134" cy="3919594"/>
+          <a:chOff x="4826283" y="1667424"/>
+          <a:chExt cx="1502134" cy="3919594"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="33" name="Group 32">
+          <xdr:cNvPr id="32" name="Group 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E2ADDAA-7128-4001-A68F-600A8465FD4E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7868F42B-22C0-455E-AFDC-0B3D95C8CEAA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
-          <a:xfrm flipH="1">
-            <a:off x="17965" y="1465456"/>
-            <a:ext cx="77740" cy="3425673"/>
-            <a:chOff x="1238954" y="522481"/>
-            <a:chExt cx="77740" cy="3403619"/>
+          <a:xfrm>
+            <a:off x="4826283" y="1669805"/>
+            <a:ext cx="90053" cy="3917213"/>
+            <a:chOff x="17965" y="1465456"/>
+            <a:chExt cx="80925" cy="3938789"/>
           </a:xfrm>
         </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="33" name="Group 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E2ADDAA-7128-4001-A68F-600A8465FD4E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm flipH="1">
+              <a:off x="17965" y="1465456"/>
+              <a:ext cx="77740" cy="3425673"/>
+              <a:chOff x="1238954" y="522481"/>
+              <a:chExt cx="77740" cy="3403619"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="35" name="Isosceles Triangle 34">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE64280-8EA4-4124-94A3-8CD3286F78A4}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16200000">
+                <a:off x="1063461" y="698700"/>
+                <a:ext cx="429449" cy="77011"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="36" name="Isosceles Triangle 35">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C643A10A-58AB-4A6D-9826-97DB6CDF4346}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16200000">
+                <a:off x="1063460" y="1201464"/>
+                <a:ext cx="429450" cy="77011"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="37" name="Isosceles Triangle 36">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A8F7B9E-D07D-4AFB-9CBE-249A340F2315}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16200000">
+                <a:off x="1063097" y="1696996"/>
+                <a:ext cx="429451" cy="77737"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="38" name="Isosceles Triangle 37">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50F58374-20D3-46FF-8BA4-CC16CA069DD9}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16200000">
+                <a:off x="1063460" y="2196152"/>
+                <a:ext cx="429450" cy="77011"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="39" name="Isosceles Triangle 38">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81D2C00A-45E4-474E-B0F1-0D729AE50352}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16200000">
+                <a:off x="1063460" y="2683821"/>
+                <a:ext cx="429451" cy="77011"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="40" name="Isosceles Triangle 39">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{171818A4-A79A-4582-9E4C-01EC1E5AA0D7}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16200000">
+                <a:off x="1063464" y="3186582"/>
+                <a:ext cx="429450" cy="77011"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="41" name="Isosceles Triangle 40">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D16B86C9-C463-4E41-BF96-705D41E1BF7B}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16200000">
+                <a:off x="1063459" y="3672869"/>
+                <a:ext cx="429451" cy="77011"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="35" name="Isosceles Triangle 34">
+            <xdr:cNvPr id="34" name="Isosceles Triangle 33">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE64280-8EA4-4124-94A3-8CD3286F78A4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93C9DD06-5932-4C03-9E85-9F6EC96ED7DC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
-            <a:xfrm rot="16200000">
-              <a:off x="1063461" y="698700"/>
-              <a:ext cx="429449" cy="77011"/>
-            </a:xfrm>
-            <a:prstGeom prst="triangle">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="36" name="Isosceles Triangle 35">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C643A10A-58AB-4A6D-9826-97DB6CDF4346}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm rot="16200000">
-              <a:off x="1063460" y="1201464"/>
-              <a:ext cx="429450" cy="77011"/>
-            </a:xfrm>
-            <a:prstGeom prst="triangle">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="37" name="Isosceles Triangle 36">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A8F7B9E-D07D-4AFB-9CBE-249A340F2315}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm rot="16200000">
-              <a:off x="1063097" y="1696996"/>
-              <a:ext cx="429451" cy="77737"/>
-            </a:xfrm>
-            <a:prstGeom prst="triangle">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="38" name="Isosceles Triangle 37">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50F58374-20D3-46FF-8BA4-CC16CA069DD9}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm rot="16200000">
-              <a:off x="1063460" y="2196152"/>
-              <a:ext cx="429450" cy="77011"/>
-            </a:xfrm>
-            <a:prstGeom prst="triangle">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="39" name="Isosceles Triangle 38">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81D2C00A-45E4-474E-B0F1-0D729AE50352}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm rot="16200000">
-              <a:off x="1063460" y="2683821"/>
-              <a:ext cx="429451" cy="77011"/>
-            </a:xfrm>
-            <a:prstGeom prst="triangle">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="40" name="Isosceles Triangle 39">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{171818A4-A79A-4582-9E4C-01EC1E5AA0D7}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm rot="16200000">
-              <a:off x="1063464" y="3186582"/>
-              <a:ext cx="429450" cy="77011"/>
-            </a:xfrm>
-            <a:prstGeom prst="triangle">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="41" name="Isosceles Triangle 40">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D16B86C9-C463-4E41-BF96-705D41E1BF7B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm rot="16200000">
-              <a:off x="1063459" y="3672869"/>
-              <a:ext cx="429451" cy="77011"/>
+            <a:xfrm rot="5400000" flipH="1">
+              <a:off x="-158113" y="5147241"/>
+              <a:ext cx="436996" cy="77011"/>
             </a:xfrm>
             <a:prstGeom prst="triangle">
               <a:avLst/>
@@ -6508,92 +6573,12 @@
           </xdr:txBody>
         </xdr:sp>
       </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="34" name="Isosceles Triangle 33">
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="22" name="Group 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93C9DD06-5932-4C03-9E85-9F6EC96ED7DC}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="5400000" flipH="1">
-            <a:off x="-158113" y="5147241"/>
-            <a:ext cx="436996" cy="77011"/>
-          </a:xfrm>
-          <a:prstGeom prst="triangle">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1404427</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19599</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1489717</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>222062</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="22" name="Group 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC8337B8-0673-4433-B1FA-E7A373956DF6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm flipH="1">
-          <a:off x="6233602" y="1667424"/>
-          <a:ext cx="85290" cy="3917213"/>
-          <a:chOff x="17965" y="1465456"/>
-          <a:chExt cx="80925" cy="3938789"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="23" name="Group 22">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EDCEF7E-2695-41B7-BD8C-2E383B4C60DD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC8337B8-0673-4433-B1FA-E7A373956DF6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6601,297 +6586,362 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm flipH="1">
-            <a:off x="17965" y="1465456"/>
-            <a:ext cx="77740" cy="3425673"/>
-            <a:chOff x="1238954" y="522481"/>
-            <a:chExt cx="77740" cy="3403619"/>
+            <a:off x="6243127" y="1667424"/>
+            <a:ext cx="85290" cy="3917213"/>
+            <a:chOff x="17965" y="1465456"/>
+            <a:chExt cx="80925" cy="3938789"/>
           </a:xfrm>
         </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="23" name="Group 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EDCEF7E-2695-41B7-BD8C-2E383B4C60DD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm flipH="1">
+              <a:off x="17965" y="1465456"/>
+              <a:ext cx="77740" cy="3425673"/>
+              <a:chOff x="1238954" y="522481"/>
+              <a:chExt cx="77740" cy="3403619"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="25" name="Isosceles Triangle 24">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CFC3C7C-568D-496A-918D-ABF88AD0FA76}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16200000">
+                <a:off x="1063461" y="698700"/>
+                <a:ext cx="429449" cy="77011"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="26" name="Isosceles Triangle 25">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A3F03A7-70F7-4BB5-9E69-2E8ACEBA19F7}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16200000">
+                <a:off x="1063460" y="1201464"/>
+                <a:ext cx="429450" cy="77011"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="27" name="Isosceles Triangle 26">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFE248F5-847B-48C2-B52A-4517C92D1B7F}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16200000">
+                <a:off x="1063097" y="1696996"/>
+                <a:ext cx="429451" cy="77737"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="28" name="Isosceles Triangle 27">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8158C09A-4CC1-4760-88E4-789DB6191260}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16200000">
+                <a:off x="1063460" y="2196152"/>
+                <a:ext cx="429450" cy="77011"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="29" name="Isosceles Triangle 28">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E464BB06-A376-4FAD-AC59-847F0219F93F}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16200000">
+                <a:off x="1063460" y="2683821"/>
+                <a:ext cx="429451" cy="77011"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="30" name="Isosceles Triangle 29">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D15C6E2A-B251-4520-8073-F9CB53A30A04}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16200000">
+                <a:off x="1063464" y="3186582"/>
+                <a:ext cx="429450" cy="77011"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="31" name="Isosceles Triangle 30">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9241F752-F154-445E-99A2-91CEC78639F4}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16200000">
+                <a:off x="1063459" y="3672869"/>
+                <a:ext cx="429451" cy="77011"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="25" name="Isosceles Triangle 24">
+            <xdr:cNvPr id="24" name="Isosceles Triangle 23">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CFC3C7C-568D-496A-918D-ABF88AD0FA76}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0838F7F9-C503-4A25-AFDC-AB2FB917A831}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
-            <a:xfrm rot="16200000">
-              <a:off x="1063461" y="698700"/>
-              <a:ext cx="429449" cy="77011"/>
-            </a:xfrm>
-            <a:prstGeom prst="triangle">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="26" name="Isosceles Triangle 25">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A3F03A7-70F7-4BB5-9E69-2E8ACEBA19F7}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm rot="16200000">
-              <a:off x="1063460" y="1201464"/>
-              <a:ext cx="429450" cy="77011"/>
-            </a:xfrm>
-            <a:prstGeom prst="triangle">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="27" name="Isosceles Triangle 26">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFE248F5-847B-48C2-B52A-4517C92D1B7F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm rot="16200000">
-              <a:off x="1063097" y="1696996"/>
-              <a:ext cx="429451" cy="77737"/>
-            </a:xfrm>
-            <a:prstGeom prst="triangle">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="28" name="Isosceles Triangle 27">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8158C09A-4CC1-4760-88E4-789DB6191260}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm rot="16200000">
-              <a:off x="1063460" y="2196152"/>
-              <a:ext cx="429450" cy="77011"/>
-            </a:xfrm>
-            <a:prstGeom prst="triangle">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="29" name="Isosceles Triangle 28">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E464BB06-A376-4FAD-AC59-847F0219F93F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm rot="16200000">
-              <a:off x="1063460" y="2683821"/>
-              <a:ext cx="429451" cy="77011"/>
-            </a:xfrm>
-            <a:prstGeom prst="triangle">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="30" name="Isosceles Triangle 29">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D15C6E2A-B251-4520-8073-F9CB53A30A04}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm rot="16200000">
-              <a:off x="1063464" y="3186582"/>
-              <a:ext cx="429450" cy="77011"/>
-            </a:xfrm>
-            <a:prstGeom prst="triangle">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="31" name="Isosceles Triangle 30">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9241F752-F154-445E-99A2-91CEC78639F4}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm rot="16200000">
-              <a:off x="1063459" y="3672869"/>
-              <a:ext cx="429451" cy="77011"/>
+            <a:xfrm rot="5400000" flipH="1">
+              <a:off x="-158113" y="5147241"/>
+              <a:ext cx="436996" cy="77011"/>
             </a:xfrm>
             <a:prstGeom prst="triangle">
               <a:avLst/>
@@ -6923,51 +6973,6 @@
           </xdr:txBody>
         </xdr:sp>
       </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="Isosceles Triangle 23">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0838F7F9-C503-4A25-AFDC-AB2FB917A831}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="5400000" flipH="1">
-            <a:off x="-158113" y="5147241"/>
-            <a:ext cx="436996" cy="77011"/>
-          </a:xfrm>
-          <a:prstGeom prst="triangle">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -7834,144 +7839,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="126">
+      <c r="B1" s="113">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="E1" s="124" t="s">
+      <c r="C1" s="114"/>
+      <c r="E1" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="140">
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="95">
         <v>38</v>
       </c>
-      <c r="I1" s="147"/>
+      <c r="I1" s="104"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="150" t="s">
+      <c r="N1" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="151"/>
-      <c r="P1" s="140">
+      <c r="O1" s="108"/>
+      <c r="P1" s="95">
         <v>3500</v>
       </c>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="138" t="s">
+      <c r="Q1" s="95"/>
+      <c r="R1" s="93" t="s">
         <v>70</v>
       </c>
       <c r="T1"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="125"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="129"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="148"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="116"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="105"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="139"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="94"/>
       <c r="T2"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
-      <c r="E3" s="124" t="s">
+      <c r="E3" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="140">
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="95">
         <v>6.5</v>
       </c>
-      <c r="I3" s="147"/>
+      <c r="I3" s="104"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="150" t="s">
+      <c r="N3" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="151"/>
-      <c r="P3" s="140">
+      <c r="O3" s="108"/>
+      <c r="P3" s="95">
         <v>215</v>
       </c>
-      <c r="Q3" s="142" t="s">
+      <c r="Q3" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="R3" s="140">
+      <c r="R3" s="95">
         <v>17</v>
       </c>
-      <c r="S3" s="138" t="s">
+      <c r="S3" s="93" t="s">
         <v>71</v>
       </c>
       <c r="T3"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="E4" s="125"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="148"/>
-      <c r="N4" s="154"/>
-      <c r="O4" s="155"/>
-      <c r="P4" s="141"/>
-      <c r="Q4" s="143"/>
-      <c r="R4" s="141"/>
-      <c r="S4" s="144"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="105"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="99"/>
       <c r="T4"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="135"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="128"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="133" t="s">
+      <c r="N6" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="134"/>
-      <c r="S6" s="134"/>
-      <c r="T6" s="135"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="127"/>
+      <c r="T6" s="128"/>
     </row>
     <row r="7" spans="1:20" ht="19.7" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="136" t="s">
+      <c r="C7" s="125"/>
+      <c r="D7" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="137"/>
+      <c r="E7" s="130"/>
       <c r="F7" s="59" t="s">
         <v>2</v>
       </c>
@@ -8001,7 +8006,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="19.7" customHeight="1">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="121" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="63" t="s">
@@ -8061,49 +8066,49 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="115"/>
-      <c r="B9" s="118">
+      <c r="A9" s="122"/>
+      <c r="B9" s="120">
         <v>90</v>
       </c>
-      <c r="C9" s="118">
+      <c r="C9" s="120">
         <v>3500</v>
       </c>
-      <c r="D9" s="118">
+      <c r="D9" s="120">
         <v>215</v>
       </c>
-      <c r="E9" s="118">
+      <c r="E9" s="120">
         <v>17</v>
       </c>
-      <c r="F9" s="118">
+      <c r="F9" s="120">
         <v>-10</v>
       </c>
-      <c r="G9" s="118">
+      <c r="G9" s="120">
         <v>95</v>
       </c>
-      <c r="H9" s="117">
+      <c r="H9" s="119">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D9-B9))*(E9/G9)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="I9" s="117">
+      <c r="I9" s="119">
         <f>IFERROR(ROUND(MOD(B9+H9,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="J9" s="118">
+      <c r="J9" s="120">
         <v>13</v>
       </c>
-      <c r="K9" s="117">
+      <c r="K9" s="119">
         <f>IFERROR(MOD(I9+J9,360),"")</f>
         <v>111</v>
       </c>
-      <c r="L9" s="118">
+      <c r="L9" s="120">
         <v>0</v>
       </c>
       <c r="M9" s="7"/>
-      <c r="N9" s="117">
+      <c r="N9" s="119">
         <f>IFERROR(MOD(K9+L9,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O9" s="118">
+      <c r="O9" s="120">
         <v>7</v>
       </c>
       <c r="P9" s="43">
@@ -8128,23 +8133,23 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A10" s="114" t="s">
+      <c r="A10" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="118"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="120"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="118"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="120"/>
       <c r="P10" s="53"/>
       <c r="Q10" s="53"/>
       <c r="R10" s="54"/>
@@ -8152,49 +8157,49 @@
       <c r="T10" s="53"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A11" s="115"/>
-      <c r="B11" s="123">
+      <c r="A11" s="122"/>
+      <c r="B11" s="118">
         <v>90</v>
       </c>
-      <c r="C11" s="123">
+      <c r="C11" s="118">
         <v>3500</v>
       </c>
-      <c r="D11" s="123">
+      <c r="D11" s="118">
         <v>215</v>
       </c>
-      <c r="E11" s="123">
+      <c r="E11" s="118">
         <v>17</v>
       </c>
-      <c r="F11" s="123">
+      <c r="F11" s="118">
         <v>-10</v>
       </c>
-      <c r="G11" s="123">
+      <c r="G11" s="118">
         <v>95</v>
       </c>
-      <c r="H11" s="121">
+      <c r="H11" s="117">
         <f t="shared" ref="H11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D11-B11))*(E11/G11)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="I11" s="121">
+      <c r="I11" s="117">
         <f>IFERROR(ROUND(MOD(B11+H11,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="J11" s="123">
+      <c r="J11" s="118">
         <v>13</v>
       </c>
-      <c r="K11" s="121">
+      <c r="K11" s="117">
         <f t="shared" ref="K11" si="1">IFERROR(MOD(I11+J11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="L11" s="123">
+      <c r="L11" s="118">
         <v>0</v>
       </c>
       <c r="M11" s="7"/>
-      <c r="N11" s="121">
+      <c r="N11" s="117">
         <f>IFERROR(MOD(K11+L11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O11" s="123">
+      <c r="O11" s="118">
         <v>8</v>
       </c>
       <c r="P11" s="46">
@@ -8219,23 +8224,23 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A12" s="114" t="s">
+      <c r="A12" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="123"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="118"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="121"/>
-      <c r="O12" s="123"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="118"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="45"/>
@@ -8243,49 +8248,49 @@
       <c r="T12" s="44"/>
     </row>
     <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A13" s="115"/>
-      <c r="B13" s="118">
+      <c r="A13" s="122"/>
+      <c r="B13" s="120">
         <v>131</v>
       </c>
-      <c r="C13" s="118">
+      <c r="C13" s="120">
         <v>3500</v>
       </c>
-      <c r="D13" s="118">
+      <c r="D13" s="120">
         <v>215</v>
       </c>
-      <c r="E13" s="118">
+      <c r="E13" s="120">
         <v>17</v>
       </c>
-      <c r="F13" s="118">
+      <c r="F13" s="120">
         <v>-10</v>
       </c>
-      <c r="G13" s="118">
+      <c r="G13" s="120">
         <v>95</v>
       </c>
-      <c r="H13" s="117">
+      <c r="H13" s="119">
         <f t="shared" ref="H13" si="3">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D13-B13))*(E13/G13)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I13" s="117">
+      <c r="I13" s="119">
         <f t="shared" ref="I13" si="4">IFERROR(ROUND(MOD(B13+H13,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J13" s="118">
+      <c r="J13" s="120">
         <v>13</v>
       </c>
-      <c r="K13" s="117">
+      <c r="K13" s="119">
         <f t="shared" ref="K13" si="5">IFERROR(MOD(I13+J13,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L13" s="118">
+      <c r="L13" s="120">
         <v>2</v>
       </c>
       <c r="M13" s="7"/>
-      <c r="N13" s="117">
+      <c r="N13" s="119">
         <f>IFERROR(MOD(K13+L13,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O13" s="118">
+      <c r="O13" s="120">
         <v>11</v>
       </c>
       <c r="P13" s="43">
@@ -8310,23 +8315,23 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A14" s="114" t="s">
+      <c r="A14" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="118"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="118"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="120"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="117"/>
-      <c r="O14" s="118"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="120"/>
       <c r="P14" s="53"/>
       <c r="Q14" s="53"/>
       <c r="R14" s="54"/>
@@ -8334,49 +8339,49 @@
       <c r="T14" s="53"/>
     </row>
     <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A15" s="115"/>
-      <c r="B15" s="116">
+      <c r="A15" s="122"/>
+      <c r="B15" s="131">
         <v>131</v>
       </c>
-      <c r="C15" s="116">
+      <c r="C15" s="131">
         <v>3500</v>
       </c>
-      <c r="D15" s="116">
+      <c r="D15" s="131">
         <v>215</v>
       </c>
-      <c r="E15" s="116">
+      <c r="E15" s="131">
         <v>17</v>
       </c>
-      <c r="F15" s="116">
+      <c r="F15" s="131">
         <v>-10</v>
       </c>
-      <c r="G15" s="116">
+      <c r="G15" s="131">
         <v>95</v>
       </c>
-      <c r="H15" s="121">
+      <c r="H15" s="117">
         <f t="shared" ref="H15" si="7">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D15-B15))*(E15/G15)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I15" s="121">
+      <c r="I15" s="117">
         <f t="shared" ref="I15" si="8">IFERROR(ROUND(MOD(B15+H15,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J15" s="123">
+      <c r="J15" s="118">
         <v>13</v>
       </c>
-      <c r="K15" s="121">
+      <c r="K15" s="117">
         <f t="shared" ref="K15" si="9">IFERROR(MOD(I15+J15,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L15" s="123">
+      <c r="L15" s="118">
         <v>2</v>
       </c>
       <c r="M15" s="7"/>
-      <c r="N15" s="121">
+      <c r="N15" s="117">
         <f>IFERROR(MOD(K15+L15,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O15" s="123">
+      <c r="O15" s="118">
         <v>8</v>
       </c>
       <c r="P15" s="46">
@@ -8401,23 +8406,23 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="123"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="118"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="121"/>
-      <c r="O16" s="123"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="118"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="45"/>
@@ -8425,49 +8430,49 @@
       <c r="T16" s="44"/>
     </row>
     <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A17" s="115"/>
-      <c r="B17" s="118">
+      <c r="A17" s="122"/>
+      <c r="B17" s="120">
         <v>131</v>
       </c>
-      <c r="C17" s="118">
+      <c r="C17" s="120">
         <v>3500</v>
       </c>
-      <c r="D17" s="118">
+      <c r="D17" s="120">
         <v>215</v>
       </c>
-      <c r="E17" s="118">
+      <c r="E17" s="120">
         <v>17</v>
       </c>
-      <c r="F17" s="118">
+      <c r="F17" s="120">
         <v>-10</v>
       </c>
-      <c r="G17" s="118">
+      <c r="G17" s="120">
         <v>95</v>
       </c>
-      <c r="H17" s="117">
+      <c r="H17" s="119">
         <f t="shared" ref="H17" si="11">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D17-B17))*(E17/G17)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I17" s="117">
+      <c r="I17" s="119">
         <f t="shared" ref="I17" si="12">IFERROR(ROUND(MOD(B17+H17,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J17" s="118">
+      <c r="J17" s="120">
         <v>13</v>
       </c>
-      <c r="K17" s="117">
+      <c r="K17" s="119">
         <f t="shared" ref="K17" si="13">IFERROR(MOD(I17+J17,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L17" s="118">
+      <c r="L17" s="120">
         <v>2</v>
       </c>
       <c r="M17" s="7"/>
-      <c r="N17" s="117">
+      <c r="N17" s="119">
         <f>IFERROR(MOD(K17+L17,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O17" s="118">
+      <c r="O17" s="120">
         <v>10</v>
       </c>
       <c r="P17" s="43">
@@ -8492,23 +8497,23 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A18" s="114" t="s">
+      <c r="A18" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="118"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="117"/>
-      <c r="L18" s="118"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="120"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="117"/>
-      <c r="O18" s="118"/>
+      <c r="N18" s="119"/>
+      <c r="O18" s="120"/>
       <c r="P18" s="53"/>
       <c r="Q18" s="53"/>
       <c r="R18" s="54"/>
@@ -8516,49 +8521,49 @@
       <c r="T18" s="53"/>
     </row>
     <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A19" s="115"/>
-      <c r="B19" s="116">
+      <c r="A19" s="122"/>
+      <c r="B19" s="131">
         <v>131</v>
       </c>
-      <c r="C19" s="116">
+      <c r="C19" s="131">
         <v>3500</v>
       </c>
-      <c r="D19" s="116">
+      <c r="D19" s="131">
         <v>215</v>
       </c>
-      <c r="E19" s="116">
+      <c r="E19" s="131">
         <v>17</v>
       </c>
-      <c r="F19" s="116">
+      <c r="F19" s="131">
         <v>-10</v>
       </c>
-      <c r="G19" s="116">
+      <c r="G19" s="131">
         <v>95</v>
       </c>
-      <c r="H19" s="121">
+      <c r="H19" s="117">
         <f t="shared" ref="H19" si="15">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D19-B19))*(E19/G19)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I19" s="121">
+      <c r="I19" s="117">
         <f t="shared" ref="I19" si="16">IFERROR(ROUND(MOD(B19+H19,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J19" s="123">
+      <c r="J19" s="118">
         <v>13</v>
       </c>
-      <c r="K19" s="121">
+      <c r="K19" s="117">
         <f t="shared" ref="K19" si="17">IFERROR(MOD(I19+J19,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L19" s="123">
+      <c r="L19" s="118">
         <v>2</v>
       </c>
       <c r="M19" s="7"/>
-      <c r="N19" s="121">
+      <c r="N19" s="117">
         <f>IFERROR(MOD(K19+L19,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O19" s="123">
+      <c r="O19" s="118">
         <v>11</v>
       </c>
       <c r="P19" s="46">
@@ -8583,23 +8588,23 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A20" s="114" t="s">
+      <c r="A20" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="116"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="121"/>
-      <c r="L20" s="123"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="118"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="121"/>
-      <c r="O20" s="123"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="118"/>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="45"/>
@@ -8607,33 +8612,33 @@
       <c r="T20" s="44"/>
     </row>
     <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A21" s="115"/>
-      <c r="B21" s="118"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="117" t="str">
+      <c r="A21" s="122"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="119" t="str">
         <f t="shared" ref="H21" si="19">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D21-B21))*(E21/G21)))),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="117" t="str">
+      <c r="I21" s="119" t="str">
         <f t="shared" ref="I21" si="20">IFERROR(ROUND(MOD(B21+H21,360),0),"")</f>
         <v/>
       </c>
-      <c r="J21" s="118"/>
-      <c r="K21" s="117" t="str">
+      <c r="J21" s="120"/>
+      <c r="K21" s="119" t="str">
         <f t="shared" ref="K21" si="21">IFERROR(MOD(I21+J21,360),"")</f>
         <v/>
       </c>
-      <c r="L21" s="118"/>
+      <c r="L21" s="120"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="117" t="str">
+      <c r="N21" s="119" t="str">
         <f>IFERROR(MOD(K21+L21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="118"/>
+      <c r="O21" s="120"/>
       <c r="P21" s="43" t="str">
         <f>IFERROR(SQRT(G21^2+E21^2-2*G21*E21*COS(RADIANS(D21-B21-H21))),"")</f>
         <v/>
@@ -8656,21 +8661,21 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A22" s="114"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="117"/>
-      <c r="L22" s="118"/>
+      <c r="A22" s="123"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="120"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="117"/>
-      <c r="O22" s="118"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="120"/>
       <c r="P22" s="53"/>
       <c r="Q22" s="53"/>
       <c r="R22" s="54"/>
@@ -8678,33 +8683,33 @@
       <c r="T22" s="53"/>
     </row>
     <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A23" s="115"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="121" t="str">
+      <c r="A23" s="122"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="117" t="str">
         <f t="shared" ref="H23" si="23">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D23-B23))*(E23/G23)))),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="121" t="str">
+      <c r="I23" s="117" t="str">
         <f t="shared" ref="I23" si="24">IFERROR(ROUND(MOD(B23+H23,360),0),"")</f>
         <v/>
       </c>
-      <c r="J23" s="123"/>
-      <c r="K23" s="117" t="str">
+      <c r="J23" s="118"/>
+      <c r="K23" s="119" t="str">
         <f t="shared" ref="K23" si="25">IFERROR(MOD(I23+J23,360),"")</f>
         <v/>
       </c>
-      <c r="L23" s="123"/>
+      <c r="L23" s="118"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="117" t="str">
+      <c r="N23" s="119" t="str">
         <f>IFERROR(MOD(K23+L23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="123"/>
+      <c r="O23" s="118"/>
       <c r="P23" s="46" t="str">
         <f>IFERROR(SQRT(G23^2+E23^2-2*G23*E23*COS(RADIANS(D23-B23-H23))),"")</f>
         <v/>
@@ -8727,21 +8732,21 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A24" s="114"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="121"/>
-      <c r="J24" s="123"/>
-      <c r="K24" s="117"/>
-      <c r="L24" s="123"/>
+      <c r="A24" s="123"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="119"/>
+      <c r="L24" s="118"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="117"/>
-      <c r="O24" s="123"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="118"/>
       <c r="P24" s="44"/>
       <c r="Q24" s="44"/>
       <c r="R24" s="45"/>
@@ -8749,33 +8754,33 @@
       <c r="T24" s="44"/>
     </row>
     <row r="25" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A25" s="119"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="117" t="str">
+      <c r="A25" s="155"/>
+      <c r="B25" s="120"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="119" t="str">
         <f t="shared" ref="H25" si="27">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D25-B25))*(E25/G25)))),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="117" t="str">
+      <c r="I25" s="119" t="str">
         <f t="shared" ref="I25" si="28">IFERROR(ROUND(MOD(B25+H25,360),0),"")</f>
         <v/>
       </c>
-      <c r="J25" s="118"/>
-      <c r="K25" s="117" t="str">
+      <c r="J25" s="120"/>
+      <c r="K25" s="119" t="str">
         <f t="shared" ref="K25" si="29">IFERROR(MOD(I25+J25,360),"")</f>
         <v/>
       </c>
-      <c r="L25" s="118"/>
+      <c r="L25" s="120"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="117" t="str">
+      <c r="N25" s="119" t="str">
         <f>IFERROR(MOD(K25+L25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="118"/>
+      <c r="O25" s="120"/>
       <c r="P25" s="43" t="str">
         <f>IFERROR(SQRT(G25^2+E25^2-2*G25*E25*COS(RADIANS(D25-B25-H25))),"")</f>
         <v/>
@@ -8801,20 +8806,20 @@
       <c r="A26" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="120"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="120"/>
-      <c r="K26" s="122"/>
-      <c r="L26" s="120"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="132"/>
+      <c r="K26" s="133"/>
+      <c r="L26" s="132"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="117"/>
-      <c r="O26" s="120"/>
+      <c r="N26" s="119"/>
+      <c r="O26" s="132"/>
       <c r="P26" s="53"/>
       <c r="Q26" s="55"/>
       <c r="R26" s="56"/>
@@ -8822,142 +8827,244 @@
       <c r="T26" s="53"/>
     </row>
     <row r="27" spans="1:20" ht="15" customHeight="1">
-      <c r="A27" s="108" t="s">
+      <c r="A27" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="109"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="110"/>
-      <c r="O27" s="102">
+      <c r="B27" s="150"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="151"/>
+      <c r="O27" s="143">
         <f>SUM(O9:O26)</f>
         <v>55</v>
       </c>
-      <c r="Q27" s="104">
+      <c r="Q27" s="145">
         <f>SUM(Q9:Q26)</f>
         <v>35</v>
       </c>
-      <c r="R27" s="106">
+      <c r="R27" s="147">
         <f>MAX(R9:R26)</f>
         <v>0.60763888888888895</v>
       </c>
-      <c r="S27" s="104">
+      <c r="S27" s="145">
         <f>SUM(S9:S26)</f>
         <v>3.8</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="111"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="112"/>
-      <c r="L28" s="113"/>
-      <c r="O28" s="103"/>
-      <c r="Q28" s="105"/>
-      <c r="R28" s="107"/>
-      <c r="S28" s="105"/>
+      <c r="A28" s="152"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="153"/>
+      <c r="L28" s="154"/>
+      <c r="O28" s="144"/>
+      <c r="Q28" s="146"/>
+      <c r="R28" s="148"/>
+      <c r="S28" s="146"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="95"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="135"/>
+      <c r="G29" s="135"/>
+      <c r="H29" s="135"/>
+      <c r="I29" s="135"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="135"/>
+      <c r="L29" s="136"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="96"/>
-      <c r="B30" s="97"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
-      <c r="L30" s="98"/>
+      <c r="A30" s="137"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="138"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="138"/>
+      <c r="K30" s="138"/>
+      <c r="L30" s="139"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="96"/>
-      <c r="B31" s="97"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
-      <c r="L31" s="98"/>
+      <c r="A31" s="137"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="138"/>
+      <c r="K31" s="138"/>
+      <c r="L31" s="139"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="96"/>
-      <c r="B32" s="97"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="98"/>
+      <c r="A32" s="137"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="138"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="138"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="138"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="138"/>
+      <c r="K32" s="138"/>
+      <c r="L32" s="139"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A33" s="99"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="100"/>
-      <c r="I33" s="100"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="100"/>
-      <c r="L33" s="101"/>
+      <c r="A33" s="140"/>
+      <c r="B33" s="141"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="141"/>
+      <c r="I33" s="141"/>
+      <c r="J33" s="141"/>
+      <c r="K33" s="141"/>
+      <c r="L33" s="142"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="150">
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="E1:G2"/>
-    <mergeCell ref="H1:I2"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="P1:Q2"/>
-    <mergeCell ref="N1:O2"/>
-    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="A29:L33"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="A27:L28"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="N11:N12"/>
@@ -8982,120 +9089,18 @@
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="A29:L33"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="A27:L28"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="E1:G2"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="N3:O4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
@@ -9109,7 +9114,7 @@
   <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E2"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -9128,134 +9133,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="165">
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="160">
         <v>0.63541666666666663</v>
       </c>
-      <c r="E1" s="166"/>
+      <c r="E1" s="161"/>
       <c r="F1" s="40"/>
-      <c r="G1" s="169" t="s">
+      <c r="G1" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="160">
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="164">
         <v>38</v>
       </c>
-      <c r="K1" s="160"/>
+      <c r="K1" s="164"/>
       <c r="L1" s="24"/>
-      <c r="M1" s="170" t="s">
+      <c r="M1" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="172">
+      <c r="N1" s="168">
         <v>3500</v>
       </c>
-      <c r="O1" s="172"/>
-      <c r="P1" s="156" t="s">
+      <c r="O1" s="168"/>
+      <c r="P1" s="174" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="168"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
+      <c r="A2" s="158"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="163"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
       <c r="L2" s="24"/>
-      <c r="M2" s="171"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="157"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="175"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="G3" s="169" t="s">
+      <c r="G3" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="160">
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="164">
         <v>6.5</v>
       </c>
-      <c r="K3" s="160"/>
+      <c r="K3" s="164"/>
       <c r="L3" s="25"/>
-      <c r="M3" s="173" t="s">
+      <c r="M3" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="160">
+      <c r="N3" s="164">
         <v>215</v>
       </c>
-      <c r="O3" s="160"/>
-      <c r="P3" s="158" t="s">
+      <c r="O3" s="164"/>
+      <c r="P3" s="176" t="s">
         <v>72</v>
       </c>
-      <c r="Q3" s="160">
+      <c r="Q3" s="164">
         <v>17</v>
       </c>
-      <c r="R3" s="160"/>
-      <c r="S3" s="156" t="s">
+      <c r="R3" s="164"/>
+      <c r="S3" s="174" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="164"/>
       <c r="L4" s="25"/>
-      <c r="M4" s="174"/>
-      <c r="N4" s="175"/>
-      <c r="O4" s="175"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="160"/>
-      <c r="R4" s="160"/>
-      <c r="S4" s="157"/>
+      <c r="M4" s="170"/>
+      <c r="N4" s="171"/>
+      <c r="O4" s="171"/>
+      <c r="P4" s="177"/>
+      <c r="Q4" s="164"/>
+      <c r="R4" s="164"/>
+      <c r="S4" s="175"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1">
       <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="135"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="128"/>
       <c r="L6" s="26"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="133" t="s">
+      <c r="N6" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="134"/>
-      <c r="S6" s="134"/>
-      <c r="T6" s="135"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="127"/>
+      <c r="T6" s="128"/>
     </row>
     <row r="7" spans="1:20" ht="19.7" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="176" t="s">
+      <c r="C7" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="177"/>
+      <c r="D7" s="173"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -9318,7 +9323,7 @@
         <v>7</v>
       </c>
       <c r="L8" s="28"/>
-      <c r="M8" s="130" t="s">
+      <c r="M8" s="121" t="s">
         <v>10</v>
       </c>
       <c r="N8" s="32" t="s">
@@ -9344,49 +9349,49 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="118">
+      <c r="A9" s="120">
         <v>90</v>
       </c>
-      <c r="B9" s="118">
+      <c r="B9" s="120">
         <v>3500</v>
       </c>
-      <c r="C9" s="118">
+      <c r="C9" s="120">
         <v>170</v>
       </c>
-      <c r="D9" s="118">
+      <c r="D9" s="120">
         <v>17</v>
       </c>
-      <c r="E9" s="118">
+      <c r="E9" s="120">
         <v>-10</v>
       </c>
-      <c r="F9" s="118">
+      <c r="F9" s="120">
         <v>95</v>
       </c>
-      <c r="G9" s="117">
+      <c r="G9" s="119">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C9-A9))*(D9/F9)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H9" s="117">
+      <c r="H9" s="119">
         <f>IFERROR(ROUND(MOD(A9+G9,360),0),"")</f>
         <v>100</v>
       </c>
-      <c r="I9" s="118">
+      <c r="I9" s="120">
         <v>13</v>
       </c>
-      <c r="J9" s="117">
+      <c r="J9" s="119">
         <f>IFERROR(MOD(H9+I9,360),"")</f>
         <v>113</v>
       </c>
-      <c r="K9" s="118">
+      <c r="K9" s="120">
         <v>0</v>
       </c>
       <c r="L9" s="29"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="117">
+      <c r="M9" s="122"/>
+      <c r="N9" s="119">
         <f>IFERROR(MOD(J9+K9,360),"")</f>
         <v>113</v>
       </c>
-      <c r="O9" s="118">
+      <c r="O9" s="120">
         <v>7</v>
       </c>
       <c r="P9" s="42">
@@ -9411,23 +9416,23 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A10" s="118"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="118"/>
+      <c r="A10" s="120"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="120"/>
       <c r="L10" s="29"/>
-      <c r="M10" s="114" t="s">
+      <c r="M10" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="N10" s="117"/>
-      <c r="O10" s="118"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="120"/>
       <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="45"/>
@@ -9435,49 +9440,49 @@
       <c r="T10" s="44"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A11" s="123">
+      <c r="A11" s="118">
         <v>90</v>
       </c>
-      <c r="B11" s="123">
+      <c r="B11" s="118">
         <v>3500</v>
       </c>
-      <c r="C11" s="123">
+      <c r="C11" s="118">
         <v>215</v>
       </c>
-      <c r="D11" s="123">
+      <c r="D11" s="118">
         <v>17</v>
       </c>
-      <c r="E11" s="123">
+      <c r="E11" s="118">
         <v>-10</v>
       </c>
-      <c r="F11" s="123">
+      <c r="F11" s="118">
         <v>95</v>
       </c>
-      <c r="G11" s="121">
+      <c r="G11" s="117">
         <f t="shared" ref="G11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C11-A11))*(D11/F11)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="H11" s="121">
+      <c r="H11" s="117">
         <f t="shared" ref="H11" si="1">IFERROR(ROUND(MOD(A11+G11,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="I11" s="123">
+      <c r="I11" s="118">
         <v>13</v>
       </c>
-      <c r="J11" s="121">
+      <c r="J11" s="117">
         <f t="shared" ref="J11" si="2">IFERROR(MOD(H11+I11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="K11" s="123">
+      <c r="K11" s="118">
         <v>0</v>
       </c>
       <c r="L11" s="29"/>
-      <c r="M11" s="115"/>
-      <c r="N11" s="121">
+      <c r="M11" s="122"/>
+      <c r="N11" s="117">
         <f>IFERROR(MOD(J11+K11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O11" s="123">
+      <c r="O11" s="118">
         <v>8</v>
       </c>
       <c r="P11" s="46">
@@ -9502,23 +9507,23 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A12" s="123"/>
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="123"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="118"/>
       <c r="L12" s="29"/>
-      <c r="M12" s="114" t="s">
+      <c r="M12" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="N12" s="121"/>
-      <c r="O12" s="123"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="118"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="45"/>
@@ -9526,49 +9531,49 @@
       <c r="T12" s="44"/>
     </row>
     <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A13" s="118">
+      <c r="A13" s="120">
         <v>131</v>
       </c>
-      <c r="B13" s="118">
+      <c r="B13" s="120">
         <v>3500</v>
       </c>
-      <c r="C13" s="118">
+      <c r="C13" s="120">
         <v>215</v>
       </c>
-      <c r="D13" s="118">
+      <c r="D13" s="120">
         <v>17</v>
       </c>
-      <c r="E13" s="118">
+      <c r="E13" s="120">
         <v>-10</v>
       </c>
-      <c r="F13" s="118">
+      <c r="F13" s="120">
         <v>95</v>
       </c>
-      <c r="G13" s="117">
+      <c r="G13" s="119">
         <f t="shared" ref="G13" si="4">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C13-A13))*(D13/F13)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H13" s="117">
+      <c r="H13" s="119">
         <f t="shared" ref="H13" si="5">IFERROR(ROUND(MOD(A13+G13,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I13" s="118">
+      <c r="I13" s="120">
         <v>13</v>
       </c>
-      <c r="J13" s="117">
+      <c r="J13" s="119">
         <f t="shared" ref="J13" si="6">IFERROR(MOD(H13+I13,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K13" s="118">
+      <c r="K13" s="120">
         <v>2</v>
       </c>
       <c r="L13" s="29"/>
-      <c r="M13" s="115"/>
-      <c r="N13" s="117">
+      <c r="M13" s="122"/>
+      <c r="N13" s="119">
         <f>IFERROR(MOD(J13+K13,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O13" s="118">
+      <c r="O13" s="120">
         <v>11</v>
       </c>
       <c r="P13" s="42">
@@ -9593,23 +9598,23 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A14" s="118"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="118"/>
+      <c r="A14" s="120"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="120"/>
       <c r="L14" s="29"/>
-      <c r="M14" s="114" t="s">
+      <c r="M14" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="N14" s="117"/>
-      <c r="O14" s="118"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="120"/>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="45"/>
@@ -9617,49 +9622,49 @@
       <c r="T14" s="44"/>
     </row>
     <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A15" s="116">
+      <c r="A15" s="131">
         <v>131</v>
       </c>
-      <c r="B15" s="116">
+      <c r="B15" s="131">
         <v>3500</v>
       </c>
-      <c r="C15" s="116">
+      <c r="C15" s="131">
         <v>215</v>
       </c>
-      <c r="D15" s="116">
+      <c r="D15" s="131">
         <v>17</v>
       </c>
-      <c r="E15" s="116">
+      <c r="E15" s="131">
         <v>-10</v>
       </c>
-      <c r="F15" s="116">
+      <c r="F15" s="131">
         <v>95</v>
       </c>
-      <c r="G15" s="121">
+      <c r="G15" s="117">
         <f t="shared" ref="G15" si="8">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C15-A15))*(D15/F15)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H15" s="121">
+      <c r="H15" s="117">
         <f t="shared" ref="H15" si="9">IFERROR(ROUND(MOD(A15+G15,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I15" s="123">
+      <c r="I15" s="118">
         <v>13</v>
       </c>
-      <c r="J15" s="121">
+      <c r="J15" s="117">
         <f t="shared" ref="J15" si="10">IFERROR(MOD(H15+I15,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K15" s="123">
+      <c r="K15" s="118">
         <v>2</v>
       </c>
       <c r="L15" s="29"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="121">
+      <c r="M15" s="122"/>
+      <c r="N15" s="117">
         <f>IFERROR(MOD(J15+K15,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O15" s="123">
+      <c r="O15" s="118">
         <v>8</v>
       </c>
       <c r="P15" s="46">
@@ -9684,23 +9689,23 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A16" s="116"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="123"/>
+      <c r="A16" s="131"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="118"/>
       <c r="L16" s="29"/>
-      <c r="M16" s="114" t="s">
+      <c r="M16" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="N16" s="121"/>
-      <c r="O16" s="123"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="118"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="45"/>
@@ -9708,49 +9713,49 @@
       <c r="T16" s="44"/>
     </row>
     <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A17" s="118">
+      <c r="A17" s="120">
         <v>131</v>
       </c>
-      <c r="B17" s="118">
+      <c r="B17" s="120">
         <v>3500</v>
       </c>
-      <c r="C17" s="118">
+      <c r="C17" s="120">
         <v>215</v>
       </c>
-      <c r="D17" s="118">
+      <c r="D17" s="120">
         <v>17</v>
       </c>
-      <c r="E17" s="118">
+      <c r="E17" s="120">
         <v>-10</v>
       </c>
-      <c r="F17" s="118">
+      <c r="F17" s="120">
         <v>95</v>
       </c>
-      <c r="G17" s="117">
+      <c r="G17" s="119">
         <f t="shared" ref="G17" si="12">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C17-A17))*(D17/F17)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H17" s="117">
+      <c r="H17" s="119">
         <f t="shared" ref="H17" si="13">IFERROR(ROUND(MOD(A17+G17,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I17" s="118">
+      <c r="I17" s="120">
         <v>13</v>
       </c>
-      <c r="J17" s="117">
+      <c r="J17" s="119">
         <f t="shared" ref="J17" si="14">IFERROR(MOD(H17+I17,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K17" s="118">
+      <c r="K17" s="120">
         <v>2</v>
       </c>
       <c r="L17" s="29"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="117">
+      <c r="M17" s="122"/>
+      <c r="N17" s="119">
         <f>IFERROR(MOD(J17+K17,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O17" s="118">
+      <c r="O17" s="120">
         <v>10</v>
       </c>
       <c r="P17" s="42">
@@ -9775,23 +9780,23 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A18" s="118"/>
-      <c r="B18" s="118"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="118"/>
+      <c r="A18" s="120"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="120"/>
       <c r="L18" s="29"/>
-      <c r="M18" s="114" t="s">
+      <c r="M18" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="N18" s="117"/>
-      <c r="O18" s="118"/>
+      <c r="N18" s="119"/>
+      <c r="O18" s="120"/>
       <c r="P18" s="44"/>
       <c r="Q18" s="44"/>
       <c r="R18" s="45"/>
@@ -9799,49 +9804,49 @@
       <c r="T18" s="44"/>
     </row>
     <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A19" s="116">
+      <c r="A19" s="131">
         <v>131</v>
       </c>
-      <c r="B19" s="116">
+      <c r="B19" s="131">
         <v>3500</v>
       </c>
-      <c r="C19" s="116">
+      <c r="C19" s="131">
         <v>215</v>
       </c>
-      <c r="D19" s="116">
+      <c r="D19" s="131">
         <v>17</v>
       </c>
-      <c r="E19" s="116">
+      <c r="E19" s="131">
         <v>-10</v>
       </c>
-      <c r="F19" s="116">
+      <c r="F19" s="131">
         <v>95</v>
       </c>
-      <c r="G19" s="121">
+      <c r="G19" s="117">
         <f t="shared" ref="G19" si="16">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C19-A19))*(D19/F19)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H19" s="121">
+      <c r="H19" s="117">
         <f t="shared" ref="H19" si="17">IFERROR(ROUND(MOD(A19+G19,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I19" s="123">
+      <c r="I19" s="118">
         <v>13</v>
       </c>
-      <c r="J19" s="121">
+      <c r="J19" s="117">
         <f t="shared" ref="J19" si="18">IFERROR(MOD(H19+I19,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K19" s="123">
+      <c r="K19" s="118">
         <v>2</v>
       </c>
       <c r="L19" s="29"/>
-      <c r="M19" s="115"/>
-      <c r="N19" s="121">
+      <c r="M19" s="122"/>
+      <c r="N19" s="117">
         <f>IFERROR(MOD(J19+K19,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O19" s="123">
+      <c r="O19" s="118">
         <v>11</v>
       </c>
       <c r="P19" s="46">
@@ -9866,23 +9871,23 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A20" s="116"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="123"/>
+      <c r="A20" s="131"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="118"/>
       <c r="L20" s="29"/>
-      <c r="M20" s="114" t="s">
+      <c r="M20" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="N20" s="121"/>
-      <c r="O20" s="123"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="118"/>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="45"/>
@@ -9890,33 +9895,33 @@
       <c r="T20" s="44"/>
     </row>
     <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A21" s="118"/>
-      <c r="B21" s="118"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="117" t="str">
+      <c r="A21" s="120"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="119" t="str">
         <f t="shared" ref="G21" si="20">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C21-A21))*(D21/F21)))),0),"")</f>
         <v/>
       </c>
-      <c r="H21" s="117" t="str">
+      <c r="H21" s="119" t="str">
         <f t="shared" ref="H21" si="21">IFERROR(ROUND(MOD(A21+G21,360),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="118"/>
-      <c r="J21" s="117" t="str">
+      <c r="I21" s="120"/>
+      <c r="J21" s="119" t="str">
         <f t="shared" ref="J21" si="22">IFERROR(MOD(H21+I21,360),"")</f>
         <v/>
       </c>
-      <c r="K21" s="118"/>
+      <c r="K21" s="120"/>
       <c r="L21" s="29"/>
-      <c r="M21" s="115"/>
-      <c r="N21" s="117" t="str">
+      <c r="M21" s="122"/>
+      <c r="N21" s="119" t="str">
         <f>IFERROR(MOD(J21+K21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="118"/>
+      <c r="O21" s="120"/>
       <c r="P21" s="42" t="str">
         <f>IFERROR(SQRT(F21^2+D21^2-2*F21*D21*COS(RADIANS(C21-A21-G21))),"")</f>
         <v/>
@@ -9939,21 +9944,21 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A22" s="118"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="118"/>
+      <c r="A22" s="120"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="120"/>
       <c r="L22" s="29"/>
-      <c r="M22" s="114"/>
-      <c r="N22" s="117"/>
-      <c r="O22" s="118"/>
+      <c r="M22" s="123"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="120"/>
       <c r="P22" s="44"/>
       <c r="Q22" s="44"/>
       <c r="R22" s="45"/>
@@ -9961,33 +9966,33 @@
       <c r="T22" s="44"/>
     </row>
     <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A23" s="116"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="121" t="str">
+      <c r="A23" s="131"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="117" t="str">
         <f t="shared" ref="G23" si="24">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C23-A23))*(D23/F23)))),0),"")</f>
         <v/>
       </c>
-      <c r="H23" s="121" t="str">
+      <c r="H23" s="117" t="str">
         <f t="shared" ref="H23" si="25">IFERROR(ROUND(MOD(A23+G23,360),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="123"/>
-      <c r="J23" s="121" t="str">
+      <c r="I23" s="118"/>
+      <c r="J23" s="117" t="str">
         <f t="shared" ref="J23" si="26">IFERROR(MOD(H23+I23,360),"")</f>
         <v/>
       </c>
-      <c r="K23" s="123"/>
+      <c r="K23" s="118"/>
       <c r="L23" s="29"/>
-      <c r="M23" s="115"/>
-      <c r="N23" s="121" t="str">
+      <c r="M23" s="122"/>
+      <c r="N23" s="117" t="str">
         <f>IFERROR(MOD(J23+K23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="123"/>
+      <c r="O23" s="118"/>
       <c r="P23" s="46" t="str">
         <f>IFERROR(SQRT(F23^2+D23^2-2*F23*D23*COS(RADIANS(C23-A23-G23))),"")</f>
         <v/>
@@ -10010,21 +10015,21 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A24" s="116"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="121"/>
-      <c r="K24" s="123"/>
+      <c r="A24" s="131"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="118"/>
       <c r="L24" s="29"/>
-      <c r="M24" s="114"/>
-      <c r="N24" s="121"/>
-      <c r="O24" s="123"/>
+      <c r="M24" s="123"/>
+      <c r="N24" s="117"/>
+      <c r="O24" s="118"/>
       <c r="P24" s="44"/>
       <c r="Q24" s="44"/>
       <c r="R24" s="45"/>
@@ -10032,33 +10037,33 @@
       <c r="T24" s="44"/>
     </row>
     <row r="25" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A25" s="118"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="117" t="str">
+      <c r="A25" s="120"/>
+      <c r="B25" s="120"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="119" t="str">
         <f t="shared" ref="G25" si="28">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C25-A25))*(D25/F25)))),0),"")</f>
         <v/>
       </c>
-      <c r="H25" s="117" t="str">
+      <c r="H25" s="119" t="str">
         <f t="shared" ref="H25" si="29">IFERROR(ROUND(MOD(A25+G25,360),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="118"/>
-      <c r="J25" s="117" t="str">
+      <c r="I25" s="120"/>
+      <c r="J25" s="119" t="str">
         <f t="shared" ref="J25" si="30">IFERROR(MOD(H25+I25,360),"")</f>
         <v/>
       </c>
-      <c r="K25" s="118"/>
+      <c r="K25" s="120"/>
       <c r="L25" s="29"/>
-      <c r="M25" s="119"/>
-      <c r="N25" s="117" t="str">
+      <c r="M25" s="155"/>
+      <c r="N25" s="119" t="str">
         <f>IFERROR(MOD(J25+K25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="118"/>
+      <c r="O25" s="120"/>
       <c r="P25" s="42" t="str">
         <f>IFERROR(SQRT(F25^2+D25^2-2*F25*D25*COS(RADIANS(C25-A25-G25))),"")</f>
         <v/>
@@ -10081,23 +10086,23 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A26" s="118"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="118"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="118"/>
+      <c r="A26" s="120"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="119"/>
+      <c r="K26" s="120"/>
       <c r="L26" s="29"/>
       <c r="M26" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="117"/>
-      <c r="O26" s="118"/>
+      <c r="N26" s="119"/>
+      <c r="O26" s="120"/>
       <c r="P26" s="44"/>
       <c r="Q26" s="44"/>
       <c r="R26" s="45"/>
@@ -10105,19 +10110,19 @@
       <c r="T26" s="44"/>
     </row>
     <row r="27" spans="1:20" ht="25.5" thickBot="1">
-      <c r="A27" s="96" t="s">
+      <c r="A27" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="97"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="98"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="138"/>
+      <c r="K27" s="139"/>
       <c r="L27" s="30"/>
       <c r="M27" s="31" t="s">
         <v>67</v>
@@ -10140,23 +10145,143 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A28" s="99"/>
-      <c r="B28" s="100"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="101"/>
+      <c r="A28" s="140"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="141"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="142"/>
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="144">
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
@@ -10181,126 +10306,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="N6:T6"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/NAV Log Calculator - Flight Planner - E6B-like.xlsx
+++ b/NAV Log Calculator - Flight Planner - E6B-like.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/194e8d034589e5e8/Aviation/NAV/Aviation-Navigation-Log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="792" documentId="13_ncr:1_{462FEA56-7C17-431A-9BAA-3E0293AE842A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECBF414D-D571-4244-B48B-932AC3C69678}"/>
+  <xr:revisionPtr revIDLastSave="808" documentId="13_ncr:1_{462FEA56-7C17-431A-9BAA-3E0293AE842A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA1D093F-5A4E-45D7-9DF3-5CCA7808E567}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="2" xr2:uid="{81AC26DA-A476-4998-AAF9-3938C858D589}"/>
   </bookViews>
@@ -1843,6 +1843,153 @@
     <xf numFmtId="0" fontId="45" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1866,13 +2013,7 @@
     <xf numFmtId="0" fontId="29" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1908,145 +2049,20 @@
     <xf numFmtId="0" fontId="31" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="11" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="11" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2077,10 +2093,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2108,18 +2120,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7823,7 +7823,7 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9 H3:I4"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7839,144 +7839,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="113">
+      <c r="B1" s="126">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="E1" s="100" t="s">
+      <c r="C1" s="127"/>
+      <c r="E1" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="95">
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="140">
         <v>38</v>
       </c>
-      <c r="I1" s="104"/>
+      <c r="I1" s="147"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="107" t="s">
+      <c r="N1" s="150" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="108"/>
-      <c r="P1" s="95">
+      <c r="O1" s="151"/>
+      <c r="P1" s="140">
         <v>3500</v>
       </c>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="93" t="s">
+      <c r="Q1" s="140"/>
+      <c r="R1" s="138" t="s">
         <v>70</v>
       </c>
       <c r="T1"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="102"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="116"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="105"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="129"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="148"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="94"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="139"/>
       <c r="T2"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
-      <c r="E3" s="100" t="s">
+      <c r="E3" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="95">
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="140">
         <v>6.5</v>
       </c>
-      <c r="I3" s="104"/>
+      <c r="I3" s="147"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="107" t="s">
+      <c r="N3" s="150" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="108"/>
-      <c r="P3" s="95">
+      <c r="O3" s="151"/>
+      <c r="P3" s="140">
         <v>215</v>
       </c>
-      <c r="Q3" s="97" t="s">
+      <c r="Q3" s="142" t="s">
         <v>72</v>
       </c>
-      <c r="R3" s="95">
+      <c r="R3" s="140">
         <v>17</v>
       </c>
-      <c r="S3" s="93" t="s">
+      <c r="S3" s="138" t="s">
         <v>71</v>
       </c>
       <c r="T3"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="E4" s="102"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="105"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="99"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="148"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="155"/>
+      <c r="P4" s="141"/>
+      <c r="Q4" s="143"/>
+      <c r="R4" s="141"/>
+      <c r="S4" s="144"/>
       <c r="T4"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="126" t="s">
+      <c r="B6" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="128"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="135"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="126" t="s">
+      <c r="N6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="127"/>
-      <c r="P6" s="127"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="127"/>
-      <c r="T6" s="128"/>
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="134"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="135"/>
     </row>
     <row r="7" spans="1:20" ht="19.7" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="125"/>
-      <c r="D7" s="129" t="s">
+      <c r="C7" s="132"/>
+      <c r="D7" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="130"/>
+      <c r="E7" s="137"/>
       <c r="F7" s="59" t="s">
         <v>2</v>
       </c>
@@ -8006,7 +8006,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="19.7" customHeight="1">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="130" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="63" t="s">
@@ -8066,49 +8066,49 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="122"/>
-      <c r="B9" s="120">
+      <c r="A9" s="115"/>
+      <c r="B9" s="118">
         <v>90</v>
       </c>
-      <c r="C9" s="120">
+      <c r="C9" s="118">
         <v>3500</v>
       </c>
-      <c r="D9" s="120">
+      <c r="D9" s="118">
         <v>215</v>
       </c>
-      <c r="E9" s="120">
+      <c r="E9" s="118">
         <v>17</v>
       </c>
-      <c r="F9" s="120">
+      <c r="F9" s="118">
         <v>-10</v>
       </c>
-      <c r="G9" s="120">
+      <c r="G9" s="118">
         <v>95</v>
       </c>
-      <c r="H9" s="119">
+      <c r="H9" s="117">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D9-B9))*(E9/G9)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="I9" s="119">
+      <c r="I9" s="117">
         <f>IFERROR(ROUND(MOD(B9+H9,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="J9" s="120">
+      <c r="J9" s="118">
         <v>13</v>
       </c>
-      <c r="K9" s="119">
+      <c r="K9" s="117">
         <f>IFERROR(MOD(I9+J9,360),"")</f>
         <v>111</v>
       </c>
-      <c r="L9" s="120">
+      <c r="L9" s="118">
         <v>0</v>
       </c>
       <c r="M9" s="7"/>
-      <c r="N9" s="119">
+      <c r="N9" s="117">
         <f>IFERROR(MOD(K9+L9,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O9" s="120">
+      <c r="O9" s="118">
         <v>7</v>
       </c>
       <c r="P9" s="43">
@@ -8133,23 +8133,23 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="120"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="118"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="120"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="118"/>
       <c r="P10" s="53"/>
       <c r="Q10" s="53"/>
       <c r="R10" s="54"/>
@@ -8157,49 +8157,49 @@
       <c r="T10" s="53"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A11" s="122"/>
-      <c r="B11" s="118">
+      <c r="A11" s="115"/>
+      <c r="B11" s="123">
         <v>90</v>
       </c>
-      <c r="C11" s="118">
+      <c r="C11" s="123">
         <v>3500</v>
       </c>
-      <c r="D11" s="118">
+      <c r="D11" s="123">
         <v>215</v>
       </c>
-      <c r="E11" s="118">
+      <c r="E11" s="123">
         <v>17</v>
       </c>
-      <c r="F11" s="118">
+      <c r="F11" s="123">
         <v>-10</v>
       </c>
-      <c r="G11" s="118">
+      <c r="G11" s="123">
         <v>95</v>
       </c>
-      <c r="H11" s="117">
+      <c r="H11" s="121">
         <f t="shared" ref="H11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D11-B11))*(E11/G11)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="I11" s="117">
+      <c r="I11" s="121">
         <f>IFERROR(ROUND(MOD(B11+H11,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="J11" s="118">
+      <c r="J11" s="123">
         <v>13</v>
       </c>
-      <c r="K11" s="117">
+      <c r="K11" s="121">
         <f t="shared" ref="K11" si="1">IFERROR(MOD(I11+J11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="L11" s="118">
+      <c r="L11" s="123">
         <v>0</v>
       </c>
       <c r="M11" s="7"/>
-      <c r="N11" s="117">
+      <c r="N11" s="121">
         <f>IFERROR(MOD(K11+L11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O11" s="118">
+      <c r="O11" s="123">
         <v>8</v>
       </c>
       <c r="P11" s="46">
@@ -8224,23 +8224,23 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A12" s="123" t="s">
+      <c r="A12" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="118"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="123"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="117"/>
-      <c r="O12" s="118"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="123"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="45"/>
@@ -8248,49 +8248,49 @@
       <c r="T12" s="44"/>
     </row>
     <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A13" s="122"/>
-      <c r="B13" s="120">
+      <c r="A13" s="115"/>
+      <c r="B13" s="118">
         <v>131</v>
       </c>
-      <c r="C13" s="120">
+      <c r="C13" s="118">
         <v>3500</v>
       </c>
-      <c r="D13" s="120">
+      <c r="D13" s="118">
         <v>215</v>
       </c>
-      <c r="E13" s="120">
+      <c r="E13" s="118">
         <v>17</v>
       </c>
-      <c r="F13" s="120">
+      <c r="F13" s="118">
         <v>-10</v>
       </c>
-      <c r="G13" s="120">
+      <c r="G13" s="118">
         <v>95</v>
       </c>
-      <c r="H13" s="119">
+      <c r="H13" s="117">
         <f t="shared" ref="H13" si="3">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D13-B13))*(E13/G13)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I13" s="119">
+      <c r="I13" s="117">
         <f t="shared" ref="I13" si="4">IFERROR(ROUND(MOD(B13+H13,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J13" s="120">
+      <c r="J13" s="118">
         <v>13</v>
       </c>
-      <c r="K13" s="119">
+      <c r="K13" s="117">
         <f t="shared" ref="K13" si="5">IFERROR(MOD(I13+J13,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L13" s="120">
+      <c r="L13" s="118">
         <v>2</v>
       </c>
       <c r="M13" s="7"/>
-      <c r="N13" s="119">
+      <c r="N13" s="117">
         <f>IFERROR(MOD(K13+L13,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O13" s="120">
+      <c r="O13" s="118">
         <v>11</v>
       </c>
       <c r="P13" s="43">
@@ -8315,23 +8315,23 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A14" s="123" t="s">
+      <c r="A14" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="120"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="118"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="119"/>
-      <c r="O14" s="120"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="118"/>
       <c r="P14" s="53"/>
       <c r="Q14" s="53"/>
       <c r="R14" s="54"/>
@@ -8339,49 +8339,49 @@
       <c r="T14" s="53"/>
     </row>
     <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A15" s="122"/>
-      <c r="B15" s="131">
+      <c r="A15" s="115"/>
+      <c r="B15" s="116">
         <v>131</v>
       </c>
-      <c r="C15" s="131">
+      <c r="C15" s="116">
         <v>3500</v>
       </c>
-      <c r="D15" s="131">
+      <c r="D15" s="116">
         <v>215</v>
       </c>
-      <c r="E15" s="131">
+      <c r="E15" s="116">
         <v>17</v>
       </c>
-      <c r="F15" s="131">
+      <c r="F15" s="116">
         <v>-10</v>
       </c>
-      <c r="G15" s="131">
+      <c r="G15" s="116">
         <v>95</v>
       </c>
-      <c r="H15" s="117">
+      <c r="H15" s="121">
         <f t="shared" ref="H15" si="7">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D15-B15))*(E15/G15)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I15" s="117">
+      <c r="I15" s="121">
         <f t="shared" ref="I15" si="8">IFERROR(ROUND(MOD(B15+H15,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J15" s="118">
+      <c r="J15" s="123">
         <v>13</v>
       </c>
-      <c r="K15" s="117">
+      <c r="K15" s="121">
         <f t="shared" ref="K15" si="9">IFERROR(MOD(I15+J15,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L15" s="118">
+      <c r="L15" s="123">
         <v>2</v>
       </c>
       <c r="M15" s="7"/>
-      <c r="N15" s="117">
+      <c r="N15" s="121">
         <f>IFERROR(MOD(K15+L15,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O15" s="118">
+      <c r="O15" s="123">
         <v>8</v>
       </c>
       <c r="P15" s="46">
@@ -8406,23 +8406,23 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A16" s="123" t="s">
+      <c r="A16" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="118"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="123"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="118"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="123"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="45"/>
@@ -8430,49 +8430,49 @@
       <c r="T16" s="44"/>
     </row>
     <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A17" s="122"/>
-      <c r="B17" s="120">
+      <c r="A17" s="115"/>
+      <c r="B17" s="118">
         <v>131</v>
       </c>
-      <c r="C17" s="120">
+      <c r="C17" s="118">
         <v>3500</v>
       </c>
-      <c r="D17" s="120">
+      <c r="D17" s="118">
         <v>215</v>
       </c>
-      <c r="E17" s="120">
+      <c r="E17" s="118">
         <v>17</v>
       </c>
-      <c r="F17" s="120">
+      <c r="F17" s="118">
         <v>-10</v>
       </c>
-      <c r="G17" s="120">
+      <c r="G17" s="118">
         <v>95</v>
       </c>
-      <c r="H17" s="119">
+      <c r="H17" s="117">
         <f t="shared" ref="H17" si="11">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D17-B17))*(E17/G17)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I17" s="119">
+      <c r="I17" s="117">
         <f t="shared" ref="I17" si="12">IFERROR(ROUND(MOD(B17+H17,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J17" s="120">
+      <c r="J17" s="118">
         <v>13</v>
       </c>
-      <c r="K17" s="119">
+      <c r="K17" s="117">
         <f t="shared" ref="K17" si="13">IFERROR(MOD(I17+J17,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L17" s="120">
+      <c r="L17" s="118">
         <v>2</v>
       </c>
       <c r="M17" s="7"/>
-      <c r="N17" s="119">
+      <c r="N17" s="117">
         <f>IFERROR(MOD(K17+L17,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O17" s="120">
+      <c r="O17" s="118">
         <v>10</v>
       </c>
       <c r="P17" s="43">
@@ -8497,23 +8497,23 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A18" s="123" t="s">
+      <c r="A18" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="119"/>
-      <c r="L18" s="120"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="118"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="119"/>
-      <c r="O18" s="120"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="118"/>
       <c r="P18" s="53"/>
       <c r="Q18" s="53"/>
       <c r="R18" s="54"/>
@@ -8521,49 +8521,49 @@
       <c r="T18" s="53"/>
     </row>
     <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A19" s="122"/>
-      <c r="B19" s="131">
+      <c r="A19" s="115"/>
+      <c r="B19" s="116">
         <v>131</v>
       </c>
-      <c r="C19" s="131">
+      <c r="C19" s="116">
         <v>3500</v>
       </c>
-      <c r="D19" s="131">
+      <c r="D19" s="116">
         <v>215</v>
       </c>
-      <c r="E19" s="131">
+      <c r="E19" s="116">
         <v>17</v>
       </c>
-      <c r="F19" s="131">
+      <c r="F19" s="116">
         <v>-10</v>
       </c>
-      <c r="G19" s="131">
+      <c r="G19" s="116">
         <v>95</v>
       </c>
-      <c r="H19" s="117">
+      <c r="H19" s="121">
         <f t="shared" ref="H19" si="15">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D19-B19))*(E19/G19)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I19" s="117">
+      <c r="I19" s="121">
         <f t="shared" ref="I19" si="16">IFERROR(ROUND(MOD(B19+H19,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J19" s="118">
+      <c r="J19" s="123">
         <v>13</v>
       </c>
-      <c r="K19" s="117">
+      <c r="K19" s="121">
         <f t="shared" ref="K19" si="17">IFERROR(MOD(I19+J19,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L19" s="118">
+      <c r="L19" s="123">
         <v>2</v>
       </c>
       <c r="M19" s="7"/>
-      <c r="N19" s="117">
+      <c r="N19" s="121">
         <f>IFERROR(MOD(K19+L19,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O19" s="118">
+      <c r="O19" s="123">
         <v>11</v>
       </c>
       <c r="P19" s="46">
@@ -8588,23 +8588,23 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A20" s="123" t="s">
+      <c r="A20" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="131"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
-      <c r="K20" s="117"/>
-      <c r="L20" s="118"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="123"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="117"/>
-      <c r="O20" s="118"/>
+      <c r="N20" s="121"/>
+      <c r="O20" s="123"/>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="45"/>
@@ -8612,33 +8612,33 @@
       <c r="T20" s="44"/>
     </row>
     <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A21" s="122"/>
-      <c r="B21" s="120"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="119" t="str">
+      <c r="A21" s="115"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="117" t="str">
         <f t="shared" ref="H21" si="19">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D21-B21))*(E21/G21)))),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="119" t="str">
+      <c r="I21" s="117" t="str">
         <f t="shared" ref="I21" si="20">IFERROR(ROUND(MOD(B21+H21,360),0),"")</f>
         <v/>
       </c>
-      <c r="J21" s="120"/>
-      <c r="K21" s="119" t="str">
+      <c r="J21" s="118"/>
+      <c r="K21" s="117" t="str">
         <f t="shared" ref="K21" si="21">IFERROR(MOD(I21+J21,360),"")</f>
         <v/>
       </c>
-      <c r="L21" s="120"/>
+      <c r="L21" s="118"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="119" t="str">
+      <c r="N21" s="117" t="str">
         <f>IFERROR(MOD(K21+L21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="120"/>
+      <c r="O21" s="118"/>
       <c r="P21" s="43" t="str">
         <f>IFERROR(SQRT(G21^2+E21^2-2*G21*E21*COS(RADIANS(D21-B21-H21))),"")</f>
         <v/>
@@ -8661,21 +8661,21 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A22" s="123"/>
-      <c r="B22" s="120"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="119"/>
-      <c r="L22" s="120"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="118"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="119"/>
-      <c r="O22" s="120"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="118"/>
       <c r="P22" s="53"/>
       <c r="Q22" s="53"/>
       <c r="R22" s="54"/>
@@ -8683,33 +8683,33 @@
       <c r="T22" s="53"/>
     </row>
     <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A23" s="122"/>
-      <c r="B23" s="131"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="117" t="str">
+      <c r="A23" s="115"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="121" t="str">
         <f t="shared" ref="H23" si="23">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D23-B23))*(E23/G23)))),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="117" t="str">
+      <c r="I23" s="121" t="str">
         <f t="shared" ref="I23" si="24">IFERROR(ROUND(MOD(B23+H23,360),0),"")</f>
         <v/>
       </c>
-      <c r="J23" s="118"/>
-      <c r="K23" s="119" t="str">
+      <c r="J23" s="123"/>
+      <c r="K23" s="117" t="str">
         <f t="shared" ref="K23" si="25">IFERROR(MOD(I23+J23,360),"")</f>
         <v/>
       </c>
-      <c r="L23" s="118"/>
+      <c r="L23" s="123"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="119" t="str">
+      <c r="N23" s="117" t="str">
         <f>IFERROR(MOD(K23+L23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="118"/>
+      <c r="O23" s="123"/>
       <c r="P23" s="46" t="str">
         <f>IFERROR(SQRT(G23^2+E23^2-2*G23*E23*COS(RADIANS(D23-B23-H23))),"")</f>
         <v/>
@@ -8732,21 +8732,21 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A24" s="123"/>
-      <c r="B24" s="131"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="119"/>
-      <c r="L24" s="118"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="123"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="119"/>
-      <c r="O24" s="118"/>
+      <c r="N24" s="117"/>
+      <c r="O24" s="123"/>
       <c r="P24" s="44"/>
       <c r="Q24" s="44"/>
       <c r="R24" s="45"/>
@@ -8754,33 +8754,33 @@
       <c r="T24" s="44"/>
     </row>
     <row r="25" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A25" s="155"/>
-      <c r="B25" s="120"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="119" t="str">
+      <c r="A25" s="119"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="117" t="str">
         <f t="shared" ref="H25" si="27">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D25-B25))*(E25/G25)))),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="119" t="str">
+      <c r="I25" s="117" t="str">
         <f t="shared" ref="I25" si="28">IFERROR(ROUND(MOD(B25+H25,360),0),"")</f>
         <v/>
       </c>
-      <c r="J25" s="120"/>
-      <c r="K25" s="119" t="str">
+      <c r="J25" s="118"/>
+      <c r="K25" s="117" t="str">
         <f t="shared" ref="K25" si="29">IFERROR(MOD(I25+J25,360),"")</f>
         <v/>
       </c>
-      <c r="L25" s="120"/>
+      <c r="L25" s="118"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="119" t="str">
+      <c r="N25" s="117" t="str">
         <f>IFERROR(MOD(K25+L25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="120"/>
+      <c r="O25" s="118"/>
       <c r="P25" s="43" t="str">
         <f>IFERROR(SQRT(G25^2+E25^2-2*G25*E25*COS(RADIANS(D25-B25-H25))),"")</f>
         <v/>
@@ -8806,20 +8806,20 @@
       <c r="A26" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="132"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="133"/>
-      <c r="I26" s="133"/>
-      <c r="J26" s="132"/>
-      <c r="K26" s="133"/>
-      <c r="L26" s="132"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="120"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="119"/>
-      <c r="O26" s="132"/>
+      <c r="N26" s="117"/>
+      <c r="O26" s="120"/>
       <c r="P26" s="53"/>
       <c r="Q26" s="55"/>
       <c r="R26" s="56"/>
@@ -8827,130 +8827,256 @@
       <c r="T26" s="53"/>
     </row>
     <row r="27" spans="1:20" ht="15" customHeight="1">
-      <c r="A27" s="149" t="s">
+      <c r="A27" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="150"/>
-      <c r="C27" s="150"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="151"/>
-      <c r="O27" s="143">
+      <c r="B27" s="109"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="110"/>
+      <c r="O27" s="102">
         <f>SUM(O9:O26)</f>
         <v>55</v>
       </c>
-      <c r="Q27" s="145">
+      <c r="Q27" s="104">
         <f>SUM(Q9:Q26)</f>
         <v>35</v>
       </c>
-      <c r="R27" s="147">
+      <c r="R27" s="106">
         <f>MAX(R9:R26)</f>
         <v>0.60763888888888895</v>
       </c>
-      <c r="S27" s="145">
+      <c r="S27" s="104">
         <f>SUM(S9:S26)</f>
         <v>3.8</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="152"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="153"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="153"/>
-      <c r="K28" s="153"/>
-      <c r="L28" s="154"/>
-      <c r="O28" s="144"/>
-      <c r="Q28" s="146"/>
-      <c r="R28" s="148"/>
-      <c r="S28" s="146"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="112"/>
+      <c r="L28" s="113"/>
+      <c r="O28" s="103"/>
+      <c r="Q28" s="105"/>
+      <c r="R28" s="107"/>
+      <c r="S28" s="105"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="134" t="s">
+      <c r="A29" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="135"/>
-      <c r="C29" s="135"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="135"/>
-      <c r="J29" s="135"/>
-      <c r="K29" s="135"/>
-      <c r="L29" s="136"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="95"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="137"/>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="138"/>
-      <c r="H30" s="138"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="138"/>
-      <c r="K30" s="138"/>
-      <c r="L30" s="139"/>
+      <c r="A30" s="96"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="97"/>
+      <c r="L30" s="98"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="137"/>
-      <c r="B31" s="138"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="138"/>
-      <c r="F31" s="138"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="138"/>
-      <c r="I31" s="138"/>
-      <c r="J31" s="138"/>
-      <c r="K31" s="138"/>
-      <c r="L31" s="139"/>
+      <c r="A31" s="96"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="97"/>
+      <c r="L31" s="98"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="137"/>
-      <c r="B32" s="138"/>
-      <c r="C32" s="138"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="138"/>
-      <c r="F32" s="138"/>
-      <c r="G32" s="138"/>
-      <c r="H32" s="138"/>
-      <c r="I32" s="138"/>
-      <c r="J32" s="138"/>
-      <c r="K32" s="138"/>
-      <c r="L32" s="139"/>
+      <c r="A32" s="96"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="97"/>
+      <c r="L32" s="98"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A33" s="140"/>
-      <c r="B33" s="141"/>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="142"/>
+      <c r="A33" s="99"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="100"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="101"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="150">
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="E1:G2"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="L15:L16"/>
     <mergeCell ref="A29:L33"/>
     <mergeCell ref="O27:O28"/>
     <mergeCell ref="Q27:Q28"/>
@@ -8975,132 +9101,6 @@
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="N6:T6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="E1:G2"/>
-    <mergeCell ref="H1:I2"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="P1:Q2"/>
-    <mergeCell ref="N1:O2"/>
-    <mergeCell ref="N3:O4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
@@ -9114,7 +9114,7 @@
   <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="M12" sqref="M12:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -9133,134 +9133,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="161" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="160">
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="165">
         <v>0.63541666666666663</v>
       </c>
-      <c r="E1" s="161"/>
+      <c r="E1" s="166"/>
       <c r="F1" s="40"/>
-      <c r="G1" s="165" t="s">
+      <c r="G1" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="164">
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="160">
         <v>38</v>
       </c>
-      <c r="K1" s="164"/>
+      <c r="K1" s="160"/>
       <c r="L1" s="24"/>
-      <c r="M1" s="166" t="s">
+      <c r="M1" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="168">
+      <c r="N1" s="172">
         <v>3500</v>
       </c>
-      <c r="O1" s="168"/>
-      <c r="P1" s="174" t="s">
+      <c r="O1" s="172"/>
+      <c r="P1" s="156" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="158"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="163"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="168"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
       <c r="L2" s="24"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="175"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="157"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="G3" s="165" t="s">
+      <c r="G3" s="169" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="164">
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="160">
         <v>6.5</v>
       </c>
-      <c r="K3" s="164"/>
+      <c r="K3" s="160"/>
       <c r="L3" s="25"/>
-      <c r="M3" s="169" t="s">
+      <c r="M3" s="173" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="164">
+      <c r="N3" s="160">
         <v>215</v>
       </c>
-      <c r="O3" s="164"/>
-      <c r="P3" s="176" t="s">
+      <c r="O3" s="160"/>
+      <c r="P3" s="158" t="s">
         <v>72</v>
       </c>
-      <c r="Q3" s="164">
+      <c r="Q3" s="160">
         <v>17</v>
       </c>
-      <c r="R3" s="164"/>
-      <c r="S3" s="174" t="s">
+      <c r="R3" s="160"/>
+      <c r="S3" s="156" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="G4" s="165"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="164"/>
-      <c r="K4" s="164"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
       <c r="L4" s="25"/>
-      <c r="M4" s="170"/>
-      <c r="N4" s="171"/>
-      <c r="O4" s="171"/>
-      <c r="P4" s="177"/>
-      <c r="Q4" s="164"/>
-      <c r="R4" s="164"/>
-      <c r="S4" s="175"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="175"/>
+      <c r="O4" s="175"/>
+      <c r="P4" s="159"/>
+      <c r="Q4" s="160"/>
+      <c r="R4" s="160"/>
+      <c r="S4" s="157"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1">
       <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="126" t="s">
+      <c r="A6" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="128"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="135"/>
       <c r="L6" s="26"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="126" t="s">
+      <c r="N6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="127"/>
-      <c r="P6" s="127"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="127"/>
-      <c r="T6" s="128"/>
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="134"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="135"/>
     </row>
     <row r="7" spans="1:20" ht="19.7" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="172" t="s">
+      <c r="C7" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="173"/>
+      <c r="D7" s="177"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -9323,7 +9323,7 @@
         <v>7</v>
       </c>
       <c r="L8" s="28"/>
-      <c r="M8" s="121" t="s">
+      <c r="M8" s="130" t="s">
         <v>10</v>
       </c>
       <c r="N8" s="32" t="s">
@@ -9349,49 +9349,49 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="120">
+      <c r="A9" s="118">
         <v>90</v>
       </c>
-      <c r="B9" s="120">
+      <c r="B9" s="118">
         <v>3500</v>
       </c>
-      <c r="C9" s="120">
+      <c r="C9" s="118">
         <v>170</v>
       </c>
-      <c r="D9" s="120">
+      <c r="D9" s="118">
         <v>17</v>
       </c>
-      <c r="E9" s="120">
+      <c r="E9" s="118">
         <v>-10</v>
       </c>
-      <c r="F9" s="120">
+      <c r="F9" s="118">
         <v>95</v>
       </c>
-      <c r="G9" s="119">
+      <c r="G9" s="117">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C9-A9))*(D9/F9)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H9" s="119">
+      <c r="H9" s="117">
         <f>IFERROR(ROUND(MOD(A9+G9,360),0),"")</f>
         <v>100</v>
       </c>
-      <c r="I9" s="120">
+      <c r="I9" s="118">
         <v>13</v>
       </c>
-      <c r="J9" s="119">
+      <c r="J9" s="117">
         <f>IFERROR(MOD(H9+I9,360),"")</f>
         <v>113</v>
       </c>
-      <c r="K9" s="120">
+      <c r="K9" s="118">
         <v>0</v>
       </c>
       <c r="L9" s="29"/>
-      <c r="M9" s="122"/>
-      <c r="N9" s="119">
+      <c r="M9" s="115"/>
+      <c r="N9" s="117">
         <f>IFERROR(MOD(J9+K9,360),"")</f>
         <v>113</v>
       </c>
-      <c r="O9" s="120">
+      <c r="O9" s="118">
         <v>7</v>
       </c>
       <c r="P9" s="42">
@@ -9416,23 +9416,23 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A10" s="120"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="120"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="118"/>
       <c r="L10" s="29"/>
-      <c r="M10" s="123" t="s">
+      <c r="M10" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="N10" s="119"/>
-      <c r="O10" s="120"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="118"/>
       <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="45"/>
@@ -9440,49 +9440,49 @@
       <c r="T10" s="44"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A11" s="118">
+      <c r="A11" s="123">
         <v>90</v>
       </c>
-      <c r="B11" s="118">
+      <c r="B11" s="123">
         <v>3500</v>
       </c>
-      <c r="C11" s="118">
+      <c r="C11" s="123">
         <v>215</v>
       </c>
-      <c r="D11" s="118">
+      <c r="D11" s="123">
         <v>17</v>
       </c>
-      <c r="E11" s="118">
+      <c r="E11" s="123">
         <v>-10</v>
       </c>
-      <c r="F11" s="118">
+      <c r="F11" s="123">
         <v>95</v>
       </c>
-      <c r="G11" s="117">
+      <c r="G11" s="121">
         <f t="shared" ref="G11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C11-A11))*(D11/F11)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="H11" s="117">
+      <c r="H11" s="121">
         <f t="shared" ref="H11" si="1">IFERROR(ROUND(MOD(A11+G11,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="I11" s="118">
+      <c r="I11" s="123">
         <v>13</v>
       </c>
-      <c r="J11" s="117">
+      <c r="J11" s="121">
         <f t="shared" ref="J11" si="2">IFERROR(MOD(H11+I11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="K11" s="118">
+      <c r="K11" s="123">
         <v>0</v>
       </c>
       <c r="L11" s="29"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="117">
+      <c r="M11" s="115"/>
+      <c r="N11" s="121">
         <f>IFERROR(MOD(J11+K11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O11" s="118">
+      <c r="O11" s="123">
         <v>8</v>
       </c>
       <c r="P11" s="46">
@@ -9507,23 +9507,23 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A12" s="118"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="118"/>
+      <c r="A12" s="123"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="123"/>
       <c r="L12" s="29"/>
-      <c r="M12" s="123" t="s">
+      <c r="M12" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="N12" s="117"/>
-      <c r="O12" s="118"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="123"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="45"/>
@@ -9531,49 +9531,49 @@
       <c r="T12" s="44"/>
     </row>
     <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A13" s="120">
+      <c r="A13" s="118">
         <v>131</v>
       </c>
-      <c r="B13" s="120">
+      <c r="B13" s="118">
         <v>3500</v>
       </c>
-      <c r="C13" s="120">
+      <c r="C13" s="118">
         <v>215</v>
       </c>
-      <c r="D13" s="120">
+      <c r="D13" s="118">
         <v>17</v>
       </c>
-      <c r="E13" s="120">
+      <c r="E13" s="118">
         <v>-10</v>
       </c>
-      <c r="F13" s="120">
+      <c r="F13" s="118">
         <v>95</v>
       </c>
-      <c r="G13" s="119">
+      <c r="G13" s="117">
         <f t="shared" ref="G13" si="4">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C13-A13))*(D13/F13)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H13" s="119">
+      <c r="H13" s="117">
         <f t="shared" ref="H13" si="5">IFERROR(ROUND(MOD(A13+G13,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I13" s="120">
+      <c r="I13" s="118">
         <v>13</v>
       </c>
-      <c r="J13" s="119">
+      <c r="J13" s="117">
         <f t="shared" ref="J13" si="6">IFERROR(MOD(H13+I13,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K13" s="120">
+      <c r="K13" s="118">
         <v>2</v>
       </c>
       <c r="L13" s="29"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="119">
+      <c r="M13" s="115"/>
+      <c r="N13" s="117">
         <f>IFERROR(MOD(J13+K13,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O13" s="120">
+      <c r="O13" s="118">
         <v>11</v>
       </c>
       <c r="P13" s="42">
@@ -9598,23 +9598,23 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A14" s="120"/>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="119"/>
-      <c r="K14" s="120"/>
+      <c r="A14" s="118"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="118"/>
       <c r="L14" s="29"/>
-      <c r="M14" s="123" t="s">
+      <c r="M14" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="N14" s="119"/>
-      <c r="O14" s="120"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="118"/>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="45"/>
@@ -9622,49 +9622,49 @@
       <c r="T14" s="44"/>
     </row>
     <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A15" s="131">
+      <c r="A15" s="116">
         <v>131</v>
       </c>
-      <c r="B15" s="131">
+      <c r="B15" s="116">
         <v>3500</v>
       </c>
-      <c r="C15" s="131">
+      <c r="C15" s="116">
         <v>215</v>
       </c>
-      <c r="D15" s="131">
+      <c r="D15" s="116">
         <v>17</v>
       </c>
-      <c r="E15" s="131">
+      <c r="E15" s="116">
         <v>-10</v>
       </c>
-      <c r="F15" s="131">
+      <c r="F15" s="116">
         <v>95</v>
       </c>
-      <c r="G15" s="117">
+      <c r="G15" s="121">
         <f t="shared" ref="G15" si="8">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C15-A15))*(D15/F15)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H15" s="117">
+      <c r="H15" s="121">
         <f t="shared" ref="H15" si="9">IFERROR(ROUND(MOD(A15+G15,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I15" s="118">
+      <c r="I15" s="123">
         <v>13</v>
       </c>
-      <c r="J15" s="117">
+      <c r="J15" s="121">
         <f t="shared" ref="J15" si="10">IFERROR(MOD(H15+I15,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K15" s="118">
+      <c r="K15" s="123">
         <v>2</v>
       </c>
       <c r="L15" s="29"/>
-      <c r="M15" s="122"/>
-      <c r="N15" s="117">
+      <c r="M15" s="115"/>
+      <c r="N15" s="121">
         <f>IFERROR(MOD(J15+K15,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O15" s="118">
+      <c r="O15" s="123">
         <v>8</v>
       </c>
       <c r="P15" s="46">
@@ -9676,7 +9676,7 @@
         <v>5</v>
       </c>
       <c r="R15" s="47">
-        <f>IFERROR(Departure_Time+SUM($Q$9:Q16)/60/24,"")</f>
+        <f>IF(Q15&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q16)/60/24,""),"")</f>
         <v>0.65069444444444435</v>
       </c>
       <c r="S15" s="46">
@@ -9689,23 +9689,23 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A16" s="131"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="118"/>
+      <c r="A16" s="116"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="123"/>
       <c r="L16" s="29"/>
-      <c r="M16" s="123" t="s">
+      <c r="M16" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="N16" s="117"/>
-      <c r="O16" s="118"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="123"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="45"/>
@@ -9713,49 +9713,49 @@
       <c r="T16" s="44"/>
     </row>
     <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A17" s="120">
+      <c r="A17" s="118">
         <v>131</v>
       </c>
-      <c r="B17" s="120">
+      <c r="B17" s="118">
         <v>3500</v>
       </c>
-      <c r="C17" s="120">
+      <c r="C17" s="118">
         <v>215</v>
       </c>
-      <c r="D17" s="120">
+      <c r="D17" s="118">
         <v>17</v>
       </c>
-      <c r="E17" s="120">
+      <c r="E17" s="118">
         <v>-10</v>
       </c>
-      <c r="F17" s="120">
+      <c r="F17" s="118">
         <v>95</v>
       </c>
-      <c r="G17" s="119">
+      <c r="G17" s="117">
         <f t="shared" ref="G17" si="12">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C17-A17))*(D17/F17)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H17" s="119">
+      <c r="H17" s="117">
         <f t="shared" ref="H17" si="13">IFERROR(ROUND(MOD(A17+G17,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I17" s="120">
+      <c r="I17" s="118">
         <v>13</v>
       </c>
-      <c r="J17" s="119">
+      <c r="J17" s="117">
         <f t="shared" ref="J17" si="14">IFERROR(MOD(H17+I17,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K17" s="120">
+      <c r="K17" s="118">
         <v>2</v>
       </c>
       <c r="L17" s="29"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="119">
+      <c r="M17" s="115"/>
+      <c r="N17" s="117">
         <f>IFERROR(MOD(J17+K17,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O17" s="120">
+      <c r="O17" s="118">
         <v>10</v>
       </c>
       <c r="P17" s="42">
@@ -9780,23 +9780,23 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A18" s="120"/>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="119"/>
-      <c r="K18" s="120"/>
+      <c r="A18" s="118"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="118"/>
       <c r="L18" s="29"/>
-      <c r="M18" s="123" t="s">
+      <c r="M18" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="N18" s="119"/>
-      <c r="O18" s="120"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="118"/>
       <c r="P18" s="44"/>
       <c r="Q18" s="44"/>
       <c r="R18" s="45"/>
@@ -9804,49 +9804,49 @@
       <c r="T18" s="44"/>
     </row>
     <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A19" s="131">
+      <c r="A19" s="116">
         <v>131</v>
       </c>
-      <c r="B19" s="131">
+      <c r="B19" s="116">
         <v>3500</v>
       </c>
-      <c r="C19" s="131">
+      <c r="C19" s="116">
         <v>215</v>
       </c>
-      <c r="D19" s="131">
+      <c r="D19" s="116">
         <v>17</v>
       </c>
-      <c r="E19" s="131">
+      <c r="E19" s="116">
         <v>-10</v>
       </c>
-      <c r="F19" s="131">
+      <c r="F19" s="116">
         <v>95</v>
       </c>
-      <c r="G19" s="117">
+      <c r="G19" s="121">
         <f t="shared" ref="G19" si="16">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C19-A19))*(D19/F19)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H19" s="117">
+      <c r="H19" s="121">
         <f t="shared" ref="H19" si="17">IFERROR(ROUND(MOD(A19+G19,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I19" s="118">
+      <c r="I19" s="123">
         <v>13</v>
       </c>
-      <c r="J19" s="117">
+      <c r="J19" s="121">
         <f t="shared" ref="J19" si="18">IFERROR(MOD(H19+I19,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K19" s="118">
+      <c r="K19" s="123">
         <v>2</v>
       </c>
       <c r="L19" s="29"/>
-      <c r="M19" s="122"/>
-      <c r="N19" s="117">
+      <c r="M19" s="115"/>
+      <c r="N19" s="121">
         <f>IFERROR(MOD(J19+K19,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O19" s="118">
+      <c r="O19" s="123">
         <v>11</v>
       </c>
       <c r="P19" s="46">
@@ -9871,23 +9871,23 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A20" s="131"/>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="118"/>
+      <c r="A20" s="116"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="123"/>
       <c r="L20" s="29"/>
-      <c r="M20" s="123" t="s">
+      <c r="M20" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="N20" s="117"/>
-      <c r="O20" s="118"/>
+      <c r="N20" s="121"/>
+      <c r="O20" s="123"/>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="45"/>
@@ -9895,33 +9895,33 @@
       <c r="T20" s="44"/>
     </row>
     <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A21" s="120"/>
-      <c r="B21" s="120"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="119" t="str">
+      <c r="A21" s="118"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="117" t="str">
         <f t="shared" ref="G21" si="20">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C21-A21))*(D21/F21)))),0),"")</f>
         <v/>
       </c>
-      <c r="H21" s="119" t="str">
+      <c r="H21" s="117" t="str">
         <f t="shared" ref="H21" si="21">IFERROR(ROUND(MOD(A21+G21,360),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="120"/>
-      <c r="J21" s="119" t="str">
+      <c r="I21" s="118"/>
+      <c r="J21" s="117" t="str">
         <f t="shared" ref="J21" si="22">IFERROR(MOD(H21+I21,360),"")</f>
         <v/>
       </c>
-      <c r="K21" s="120"/>
+      <c r="K21" s="118"/>
       <c r="L21" s="29"/>
-      <c r="M21" s="122"/>
-      <c r="N21" s="119" t="str">
+      <c r="M21" s="115"/>
+      <c r="N21" s="117" t="str">
         <f>IFERROR(MOD(J21+K21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="120"/>
+      <c r="O21" s="118"/>
       <c r="P21" s="42" t="str">
         <f>IFERROR(SQRT(F21^2+D21^2-2*F21*D21*COS(RADIANS(C21-A21-G21))),"")</f>
         <v/>
@@ -9944,21 +9944,21 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A22" s="120"/>
-      <c r="B22" s="120"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="119"/>
-      <c r="K22" s="120"/>
+      <c r="A22" s="118"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="118"/>
       <c r="L22" s="29"/>
-      <c r="M22" s="123"/>
-      <c r="N22" s="119"/>
-      <c r="O22" s="120"/>
+      <c r="M22" s="114"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="118"/>
       <c r="P22" s="44"/>
       <c r="Q22" s="44"/>
       <c r="R22" s="45"/>
@@ -9966,33 +9966,33 @@
       <c r="T22" s="44"/>
     </row>
     <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A23" s="131"/>
-      <c r="B23" s="131"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="117" t="str">
+      <c r="A23" s="116"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="121" t="str">
         <f t="shared" ref="G23" si="24">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C23-A23))*(D23/F23)))),0),"")</f>
         <v/>
       </c>
-      <c r="H23" s="117" t="str">
+      <c r="H23" s="121" t="str">
         <f t="shared" ref="H23" si="25">IFERROR(ROUND(MOD(A23+G23,360),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="118"/>
-      <c r="J23" s="117" t="str">
+      <c r="I23" s="123"/>
+      <c r="J23" s="121" t="str">
         <f t="shared" ref="J23" si="26">IFERROR(MOD(H23+I23,360),"")</f>
         <v/>
       </c>
-      <c r="K23" s="118"/>
+      <c r="K23" s="123"/>
       <c r="L23" s="29"/>
-      <c r="M23" s="122"/>
-      <c r="N23" s="117" t="str">
+      <c r="M23" s="115"/>
+      <c r="N23" s="121" t="str">
         <f>IFERROR(MOD(J23+K23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="118"/>
+      <c r="O23" s="123"/>
       <c r="P23" s="46" t="str">
         <f>IFERROR(SQRT(F23^2+D23^2-2*F23*D23*COS(RADIANS(C23-A23-G23))),"")</f>
         <v/>
@@ -10015,21 +10015,21 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A24" s="131"/>
-      <c r="B24" s="131"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="118"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="123"/>
       <c r="L24" s="29"/>
-      <c r="M24" s="123"/>
-      <c r="N24" s="117"/>
-      <c r="O24" s="118"/>
+      <c r="M24" s="114"/>
+      <c r="N24" s="121"/>
+      <c r="O24" s="123"/>
       <c r="P24" s="44"/>
       <c r="Q24" s="44"/>
       <c r="R24" s="45"/>
@@ -10037,33 +10037,33 @@
       <c r="T24" s="44"/>
     </row>
     <row r="25" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A25" s="120"/>
-      <c r="B25" s="120"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="119" t="str">
+      <c r="A25" s="118"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="117" t="str">
         <f t="shared" ref="G25" si="28">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C25-A25))*(D25/F25)))),0),"")</f>
         <v/>
       </c>
-      <c r="H25" s="119" t="str">
+      <c r="H25" s="117" t="str">
         <f t="shared" ref="H25" si="29">IFERROR(ROUND(MOD(A25+G25,360),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="120"/>
-      <c r="J25" s="119" t="str">
+      <c r="I25" s="118"/>
+      <c r="J25" s="117" t="str">
         <f t="shared" ref="J25" si="30">IFERROR(MOD(H25+I25,360),"")</f>
         <v/>
       </c>
-      <c r="K25" s="120"/>
+      <c r="K25" s="118"/>
       <c r="L25" s="29"/>
-      <c r="M25" s="155"/>
-      <c r="N25" s="119" t="str">
+      <c r="M25" s="119"/>
+      <c r="N25" s="117" t="str">
         <f>IFERROR(MOD(J25+K25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="120"/>
+      <c r="O25" s="118"/>
       <c r="P25" s="42" t="str">
         <f>IFERROR(SQRT(F25^2+D25^2-2*F25*D25*COS(RADIANS(C25-A25-G25))),"")</f>
         <v/>
@@ -10086,23 +10086,23 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A26" s="120"/>
-      <c r="B26" s="120"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="120"/>
-      <c r="J26" s="119"/>
-      <c r="K26" s="120"/>
+      <c r="A26" s="118"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="117"/>
+      <c r="K26" s="118"/>
       <c r="L26" s="29"/>
       <c r="M26" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="119"/>
-      <c r="O26" s="120"/>
+      <c r="N26" s="117"/>
+      <c r="O26" s="118"/>
       <c r="P26" s="44"/>
       <c r="Q26" s="44"/>
       <c r="R26" s="45"/>
@@ -10110,19 +10110,19 @@
       <c r="T26" s="44"/>
     </row>
     <row r="27" spans="1:20" ht="25.5" thickBot="1">
-      <c r="A27" s="137" t="s">
+      <c r="A27" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="138"/>
-      <c r="C27" s="138"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="138"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="138"/>
-      <c r="I27" s="138"/>
-      <c r="J27" s="138"/>
-      <c r="K27" s="139"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="98"/>
       <c r="L27" s="30"/>
       <c r="M27" s="31" t="s">
         <v>67</v>
@@ -10145,23 +10145,143 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A28" s="140"/>
-      <c r="B28" s="141"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="141"/>
-      <c r="J28" s="141"/>
-      <c r="K28" s="142"/>
+      <c r="A28" s="99"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="101"/>
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="144">
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="O17:O18"/>
     <mergeCell ref="O11:O12"/>
@@ -10186,126 +10306,6 @@
     <mergeCell ref="Q3:R4"/>
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="N6:T6"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="G3:I4"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:O2"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:O4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -10318,7 +10318,7 @@
   <dimension ref="B1:J46"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/NAV Log Calculator - Flight Planner - E6B-like.xlsx
+++ b/NAV Log Calculator - Flight Planner - E6B-like.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/194e8d034589e5e8/Aviation/NAV/Aviation-Navigation-Log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="808" documentId="13_ncr:1_{462FEA56-7C17-431A-9BAA-3E0293AE842A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA1D093F-5A4E-45D7-9DF3-5CCA7808E567}"/>
+  <xr:revisionPtr revIDLastSave="843" documentId="13_ncr:1_{462FEA56-7C17-431A-9BAA-3E0293AE842A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50546B89-F616-4239-B235-D113ADF453BC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="2" xr2:uid="{81AC26DA-A476-4998-AAF9-3938C858D589}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="3" xr2:uid="{81AC26DA-A476-4998-AAF9-3938C858D589}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="102">
   <si>
     <t>TC</t>
   </si>
@@ -603,6 +603,145 @@
   </si>
   <si>
     <t>RWY Cross wind component (Calculator)</t>
+  </si>
+  <si>
+    <t>Instructions:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fill the following:
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Plane Heading</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (used to calculate the WCA)
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>True Air Speed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (also used to calculate the WCA)
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wind Direction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (used to calculate the WCA and the X/wind component)
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wind Speed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (also used to calculate the WCA and the X/wind component)
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Runway (2 digits)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - used to calculate the X/wind and H/wind components</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The wind makes an angle with the runway. If you treat that wind vector as the hypothenus of a regtangle triangle (this hypothenus length being the wind speed) which adjacent side is the runway, your cross-wind component will be the opposite side of that rectangle triangle - the opposite side being the side which has a 90 degrees angle with the adjacent/runway side. In other words, it's the part of the wind that blows perpendicularily to  the runway and then to the plane when it's aligned to take off. The length of the perpendicular wind component will be the cross wind speed.
+The formula to get the length (aka the force) of that opposite side of that rectangle triangle is :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SIN(angle between runway and wind) x Wind speed</t>
+    </r>
+  </si>
+  <si>
+    <t>Note about the formula used:</t>
   </si>
 </sst>
 </file>
@@ -1604,7 +1743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1843,256 +1982,244 @@
     <xf numFmtId="0" fontId="45" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="11" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="11" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="17" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="23" fillId="17" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="23" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="23" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="17" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="17" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2122,6 +2249,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2145,6 +2284,58 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6992,7 +7183,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>338550</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>114736</xdr:rowOff>
+      <xdr:rowOff>102830</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -7007,7 +7198,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1300163" y="4724405"/>
+          <a:off x="1300163" y="4748217"/>
           <a:ext cx="4312856" cy="4320019"/>
           <a:chOff x="0" y="3938592"/>
           <a:chExt cx="4320000" cy="4320019"/>
@@ -7109,7 +7300,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>147638</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>78006</xdr:rowOff>
+      <xdr:rowOff>66100</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -7124,7 +7315,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3105175" y="566738"/>
+          <a:off x="3105175" y="578644"/>
           <a:ext cx="2316932" cy="2344956"/>
           <a:chOff x="4414856" y="295255"/>
           <a:chExt cx="4324746" cy="4339070"/>
@@ -7839,144 +8030,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="126">
+      <c r="B1" s="113">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="E1" s="124" t="s">
+      <c r="C1" s="114"/>
+      <c r="E1" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="140">
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="95">
         <v>38</v>
       </c>
-      <c r="I1" s="147"/>
+      <c r="I1" s="104"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="150" t="s">
+      <c r="N1" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="151"/>
-      <c r="P1" s="140">
+      <c r="O1" s="108"/>
+      <c r="P1" s="95">
         <v>3500</v>
       </c>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="138" t="s">
+      <c r="Q1" s="95"/>
+      <c r="R1" s="93" t="s">
         <v>70</v>
       </c>
       <c r="T1"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="125"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="129"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="148"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="116"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="105"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="139"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="94"/>
       <c r="T2"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
-      <c r="E3" s="124" t="s">
+      <c r="E3" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="140">
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="95">
         <v>6.5</v>
       </c>
-      <c r="I3" s="147"/>
+      <c r="I3" s="104"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="150" t="s">
+      <c r="N3" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="151"/>
-      <c r="P3" s="140">
+      <c r="O3" s="108"/>
+      <c r="P3" s="95">
         <v>215</v>
       </c>
-      <c r="Q3" s="142" t="s">
+      <c r="Q3" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="R3" s="140">
+      <c r="R3" s="95">
         <v>17</v>
       </c>
-      <c r="S3" s="138" t="s">
+      <c r="S3" s="93" t="s">
         <v>71</v>
       </c>
       <c r="T3"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="E4" s="125"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="148"/>
-      <c r="N4" s="154"/>
-      <c r="O4" s="155"/>
-      <c r="P4" s="141"/>
-      <c r="Q4" s="143"/>
-      <c r="R4" s="141"/>
-      <c r="S4" s="144"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="105"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="99"/>
       <c r="T4"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="135"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="128"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="133" t="s">
+      <c r="N6" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="134"/>
-      <c r="S6" s="134"/>
-      <c r="T6" s="135"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="127"/>
+      <c r="T6" s="128"/>
     </row>
     <row r="7" spans="1:20" ht="19.7" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="136" t="s">
+      <c r="C7" s="125"/>
+      <c r="D7" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="137"/>
+      <c r="E7" s="130"/>
       <c r="F7" s="59" t="s">
         <v>2</v>
       </c>
@@ -8006,7 +8197,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="19.7" customHeight="1">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="121" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="63" t="s">
@@ -8066,49 +8257,49 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="115"/>
-      <c r="B9" s="118">
+      <c r="A9" s="122"/>
+      <c r="B9" s="120">
         <v>90</v>
       </c>
-      <c r="C9" s="118">
+      <c r="C9" s="120">
         <v>3500</v>
       </c>
-      <c r="D9" s="118">
+      <c r="D9" s="120">
         <v>215</v>
       </c>
-      <c r="E9" s="118">
+      <c r="E9" s="120">
         <v>17</v>
       </c>
-      <c r="F9" s="118">
+      <c r="F9" s="120">
         <v>-10</v>
       </c>
-      <c r="G9" s="118">
+      <c r="G9" s="120">
         <v>95</v>
       </c>
-      <c r="H9" s="117">
+      <c r="H9" s="119">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D9-B9))*(E9/G9)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="I9" s="117">
+      <c r="I9" s="119">
         <f>IFERROR(ROUND(MOD(B9+H9,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="J9" s="118">
+      <c r="J9" s="120">
         <v>13</v>
       </c>
-      <c r="K9" s="117">
+      <c r="K9" s="119">
         <f>IFERROR(MOD(I9+J9,360),"")</f>
         <v>111</v>
       </c>
-      <c r="L9" s="118">
+      <c r="L9" s="120">
         <v>0</v>
       </c>
       <c r="M9" s="7"/>
-      <c r="N9" s="117">
+      <c r="N9" s="119">
         <f>IFERROR(MOD(K9+L9,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O9" s="118">
+      <c r="O9" s="120">
         <v>7</v>
       </c>
       <c r="P9" s="43">
@@ -8133,23 +8324,23 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A10" s="114" t="s">
+      <c r="A10" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="118"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="120"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="118"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="120"/>
       <c r="P10" s="53"/>
       <c r="Q10" s="53"/>
       <c r="R10" s="54"/>
@@ -8157,49 +8348,49 @@
       <c r="T10" s="53"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A11" s="115"/>
-      <c r="B11" s="123">
+      <c r="A11" s="122"/>
+      <c r="B11" s="118">
         <v>90</v>
       </c>
-      <c r="C11" s="123">
+      <c r="C11" s="118">
         <v>3500</v>
       </c>
-      <c r="D11" s="123">
+      <c r="D11" s="118">
         <v>215</v>
       </c>
-      <c r="E11" s="123">
+      <c r="E11" s="118">
         <v>17</v>
       </c>
-      <c r="F11" s="123">
+      <c r="F11" s="118">
         <v>-10</v>
       </c>
-      <c r="G11" s="123">
+      <c r="G11" s="118">
         <v>95</v>
       </c>
-      <c r="H11" s="121">
+      <c r="H11" s="117">
         <f t="shared" ref="H11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D11-B11))*(E11/G11)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="I11" s="121">
+      <c r="I11" s="117">
         <f>IFERROR(ROUND(MOD(B11+H11,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="J11" s="123">
+      <c r="J11" s="118">
         <v>13</v>
       </c>
-      <c r="K11" s="121">
+      <c r="K11" s="117">
         <f t="shared" ref="K11" si="1">IFERROR(MOD(I11+J11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="L11" s="123">
+      <c r="L11" s="118">
         <v>0</v>
       </c>
       <c r="M11" s="7"/>
-      <c r="N11" s="121">
+      <c r="N11" s="117">
         <f>IFERROR(MOD(K11+L11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O11" s="123">
+      <c r="O11" s="118">
         <v>8</v>
       </c>
       <c r="P11" s="46">
@@ -8224,23 +8415,23 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A12" s="114" t="s">
+      <c r="A12" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="123"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="118"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="121"/>
-      <c r="O12" s="123"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="118"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="45"/>
@@ -8248,49 +8439,49 @@
       <c r="T12" s="44"/>
     </row>
     <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A13" s="115"/>
-      <c r="B13" s="118">
+      <c r="A13" s="122"/>
+      <c r="B13" s="120">
         <v>131</v>
       </c>
-      <c r="C13" s="118">
+      <c r="C13" s="120">
         <v>3500</v>
       </c>
-      <c r="D13" s="118">
+      <c r="D13" s="120">
         <v>215</v>
       </c>
-      <c r="E13" s="118">
+      <c r="E13" s="120">
         <v>17</v>
       </c>
-      <c r="F13" s="118">
+      <c r="F13" s="120">
         <v>-10</v>
       </c>
-      <c r="G13" s="118">
+      <c r="G13" s="120">
         <v>95</v>
       </c>
-      <c r="H13" s="117">
+      <c r="H13" s="119">
         <f t="shared" ref="H13" si="3">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D13-B13))*(E13/G13)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I13" s="117">
+      <c r="I13" s="119">
         <f t="shared" ref="I13" si="4">IFERROR(ROUND(MOD(B13+H13,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J13" s="118">
+      <c r="J13" s="120">
         <v>13</v>
       </c>
-      <c r="K13" s="117">
+      <c r="K13" s="119">
         <f t="shared" ref="K13" si="5">IFERROR(MOD(I13+J13,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L13" s="118">
+      <c r="L13" s="120">
         <v>2</v>
       </c>
       <c r="M13" s="7"/>
-      <c r="N13" s="117">
+      <c r="N13" s="119">
         <f>IFERROR(MOD(K13+L13,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O13" s="118">
+      <c r="O13" s="120">
         <v>11</v>
       </c>
       <c r="P13" s="43">
@@ -8315,23 +8506,23 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A14" s="114" t="s">
+      <c r="A14" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="118"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="118"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="120"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="117"/>
-      <c r="O14" s="118"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="120"/>
       <c r="P14" s="53"/>
       <c r="Q14" s="53"/>
       <c r="R14" s="54"/>
@@ -8339,49 +8530,49 @@
       <c r="T14" s="53"/>
     </row>
     <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A15" s="115"/>
-      <c r="B15" s="116">
+      <c r="A15" s="122"/>
+      <c r="B15" s="131">
         <v>131</v>
       </c>
-      <c r="C15" s="116">
+      <c r="C15" s="131">
         <v>3500</v>
       </c>
-      <c r="D15" s="116">
+      <c r="D15" s="131">
         <v>215</v>
       </c>
-      <c r="E15" s="116">
+      <c r="E15" s="131">
         <v>17</v>
       </c>
-      <c r="F15" s="116">
+      <c r="F15" s="131">
         <v>-10</v>
       </c>
-      <c r="G15" s="116">
+      <c r="G15" s="131">
         <v>95</v>
       </c>
-      <c r="H15" s="121">
+      <c r="H15" s="117">
         <f t="shared" ref="H15" si="7">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D15-B15))*(E15/G15)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I15" s="121">
+      <c r="I15" s="117">
         <f t="shared" ref="I15" si="8">IFERROR(ROUND(MOD(B15+H15,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J15" s="123">
+      <c r="J15" s="118">
         <v>13</v>
       </c>
-      <c r="K15" s="121">
+      <c r="K15" s="117">
         <f t="shared" ref="K15" si="9">IFERROR(MOD(I15+J15,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L15" s="123">
+      <c r="L15" s="118">
         <v>2</v>
       </c>
       <c r="M15" s="7"/>
-      <c r="N15" s="121">
+      <c r="N15" s="117">
         <f>IFERROR(MOD(K15+L15,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O15" s="123">
+      <c r="O15" s="118">
         <v>8</v>
       </c>
       <c r="P15" s="46">
@@ -8406,23 +8597,23 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="123"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="118"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="121"/>
-      <c r="O16" s="123"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="118"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="45"/>
@@ -8430,49 +8621,49 @@
       <c r="T16" s="44"/>
     </row>
     <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A17" s="115"/>
-      <c r="B17" s="118">
+      <c r="A17" s="122"/>
+      <c r="B17" s="120">
         <v>131</v>
       </c>
-      <c r="C17" s="118">
+      <c r="C17" s="120">
         <v>3500</v>
       </c>
-      <c r="D17" s="118">
+      <c r="D17" s="120">
         <v>215</v>
       </c>
-      <c r="E17" s="118">
+      <c r="E17" s="120">
         <v>17</v>
       </c>
-      <c r="F17" s="118">
+      <c r="F17" s="120">
         <v>-10</v>
       </c>
-      <c r="G17" s="118">
+      <c r="G17" s="120">
         <v>95</v>
       </c>
-      <c r="H17" s="117">
+      <c r="H17" s="119">
         <f t="shared" ref="H17" si="11">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D17-B17))*(E17/G17)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I17" s="117">
+      <c r="I17" s="119">
         <f t="shared" ref="I17" si="12">IFERROR(ROUND(MOD(B17+H17,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J17" s="118">
+      <c r="J17" s="120">
         <v>13</v>
       </c>
-      <c r="K17" s="117">
+      <c r="K17" s="119">
         <f t="shared" ref="K17" si="13">IFERROR(MOD(I17+J17,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L17" s="118">
+      <c r="L17" s="120">
         <v>2</v>
       </c>
       <c r="M17" s="7"/>
-      <c r="N17" s="117">
+      <c r="N17" s="119">
         <f>IFERROR(MOD(K17+L17,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O17" s="118">
+      <c r="O17" s="120">
         <v>10</v>
       </c>
       <c r="P17" s="43">
@@ -8497,23 +8688,23 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A18" s="114" t="s">
+      <c r="A18" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="118"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="117"/>
-      <c r="L18" s="118"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="120"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="117"/>
-      <c r="O18" s="118"/>
+      <c r="N18" s="119"/>
+      <c r="O18" s="120"/>
       <c r="P18" s="53"/>
       <c r="Q18" s="53"/>
       <c r="R18" s="54"/>
@@ -8521,49 +8712,49 @@
       <c r="T18" s="53"/>
     </row>
     <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A19" s="115"/>
-      <c r="B19" s="116">
+      <c r="A19" s="122"/>
+      <c r="B19" s="131">
         <v>131</v>
       </c>
-      <c r="C19" s="116">
+      <c r="C19" s="131">
         <v>3500</v>
       </c>
-      <c r="D19" s="116">
+      <c r="D19" s="131">
         <v>215</v>
       </c>
-      <c r="E19" s="116">
+      <c r="E19" s="131">
         <v>17</v>
       </c>
-      <c r="F19" s="116">
+      <c r="F19" s="131">
         <v>-10</v>
       </c>
-      <c r="G19" s="116">
+      <c r="G19" s="131">
         <v>95</v>
       </c>
-      <c r="H19" s="121">
+      <c r="H19" s="117">
         <f t="shared" ref="H19" si="15">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D19-B19))*(E19/G19)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I19" s="121">
+      <c r="I19" s="117">
         <f t="shared" ref="I19" si="16">IFERROR(ROUND(MOD(B19+H19,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J19" s="123">
+      <c r="J19" s="118">
         <v>13</v>
       </c>
-      <c r="K19" s="121">
+      <c r="K19" s="117">
         <f t="shared" ref="K19" si="17">IFERROR(MOD(I19+J19,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L19" s="123">
+      <c r="L19" s="118">
         <v>2</v>
       </c>
       <c r="M19" s="7"/>
-      <c r="N19" s="121">
+      <c r="N19" s="117">
         <f>IFERROR(MOD(K19+L19,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O19" s="123">
+      <c r="O19" s="118">
         <v>11</v>
       </c>
       <c r="P19" s="46">
@@ -8588,23 +8779,23 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A20" s="114" t="s">
+      <c r="A20" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="116"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="121"/>
-      <c r="L20" s="123"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="118"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="121"/>
-      <c r="O20" s="123"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="118"/>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="45"/>
@@ -8612,33 +8803,33 @@
       <c r="T20" s="44"/>
     </row>
     <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A21" s="115"/>
-      <c r="B21" s="118"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="117" t="str">
+      <c r="A21" s="122"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="119" t="str">
         <f t="shared" ref="H21" si="19">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D21-B21))*(E21/G21)))),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="117" t="str">
+      <c r="I21" s="119" t="str">
         <f t="shared" ref="I21" si="20">IFERROR(ROUND(MOD(B21+H21,360),0),"")</f>
         <v/>
       </c>
-      <c r="J21" s="118"/>
-      <c r="K21" s="117" t="str">
+      <c r="J21" s="120"/>
+      <c r="K21" s="119" t="str">
         <f t="shared" ref="K21" si="21">IFERROR(MOD(I21+J21,360),"")</f>
         <v/>
       </c>
-      <c r="L21" s="118"/>
+      <c r="L21" s="120"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="117" t="str">
+      <c r="N21" s="119" t="str">
         <f>IFERROR(MOD(K21+L21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="118"/>
+      <c r="O21" s="120"/>
       <c r="P21" s="43" t="str">
         <f>IFERROR(SQRT(G21^2+E21^2-2*G21*E21*COS(RADIANS(D21-B21-H21))),"")</f>
         <v/>
@@ -8661,21 +8852,21 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A22" s="114"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="117"/>
-      <c r="L22" s="118"/>
+      <c r="A22" s="123"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="120"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="117"/>
-      <c r="O22" s="118"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="120"/>
       <c r="P22" s="53"/>
       <c r="Q22" s="53"/>
       <c r="R22" s="54"/>
@@ -8683,33 +8874,33 @@
       <c r="T22" s="53"/>
     </row>
     <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A23" s="115"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="121" t="str">
+      <c r="A23" s="122"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="117" t="str">
         <f t="shared" ref="H23" si="23">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D23-B23))*(E23/G23)))),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="121" t="str">
+      <c r="I23" s="117" t="str">
         <f t="shared" ref="I23" si="24">IFERROR(ROUND(MOD(B23+H23,360),0),"")</f>
         <v/>
       </c>
-      <c r="J23" s="123"/>
-      <c r="K23" s="117" t="str">
+      <c r="J23" s="118"/>
+      <c r="K23" s="119" t="str">
         <f t="shared" ref="K23" si="25">IFERROR(MOD(I23+J23,360),"")</f>
         <v/>
       </c>
-      <c r="L23" s="123"/>
+      <c r="L23" s="118"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="117" t="str">
+      <c r="N23" s="119" t="str">
         <f>IFERROR(MOD(K23+L23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="123"/>
+      <c r="O23" s="118"/>
       <c r="P23" s="46" t="str">
         <f>IFERROR(SQRT(G23^2+E23^2-2*G23*E23*COS(RADIANS(D23-B23-H23))),"")</f>
         <v/>
@@ -8732,21 +8923,21 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A24" s="114"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="121"/>
-      <c r="J24" s="123"/>
-      <c r="K24" s="117"/>
-      <c r="L24" s="123"/>
+      <c r="A24" s="123"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="119"/>
+      <c r="L24" s="118"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="117"/>
-      <c r="O24" s="123"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="118"/>
       <c r="P24" s="44"/>
       <c r="Q24" s="44"/>
       <c r="R24" s="45"/>
@@ -8754,33 +8945,33 @@
       <c r="T24" s="44"/>
     </row>
     <row r="25" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A25" s="119"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="117" t="str">
+      <c r="A25" s="155"/>
+      <c r="B25" s="120"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="119" t="str">
         <f t="shared" ref="H25" si="27">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D25-B25))*(E25/G25)))),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="117" t="str">
+      <c r="I25" s="119" t="str">
         <f t="shared" ref="I25" si="28">IFERROR(ROUND(MOD(B25+H25,360),0),"")</f>
         <v/>
       </c>
-      <c r="J25" s="118"/>
-      <c r="K25" s="117" t="str">
+      <c r="J25" s="120"/>
+      <c r="K25" s="119" t="str">
         <f t="shared" ref="K25" si="29">IFERROR(MOD(I25+J25,360),"")</f>
         <v/>
       </c>
-      <c r="L25" s="118"/>
+      <c r="L25" s="120"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="117" t="str">
+      <c r="N25" s="119" t="str">
         <f>IFERROR(MOD(K25+L25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="118"/>
+      <c r="O25" s="120"/>
       <c r="P25" s="43" t="str">
         <f>IFERROR(SQRT(G25^2+E25^2-2*G25*E25*COS(RADIANS(D25-B25-H25))),"")</f>
         <v/>
@@ -8806,20 +8997,20 @@
       <c r="A26" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="120"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="120"/>
-      <c r="K26" s="122"/>
-      <c r="L26" s="120"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="132"/>
+      <c r="K26" s="133"/>
+      <c r="L26" s="132"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="117"/>
-      <c r="O26" s="120"/>
+      <c r="N26" s="119"/>
+      <c r="O26" s="132"/>
       <c r="P26" s="53"/>
       <c r="Q26" s="55"/>
       <c r="R26" s="56"/>
@@ -8827,142 +9018,244 @@
       <c r="T26" s="53"/>
     </row>
     <row r="27" spans="1:20" ht="15" customHeight="1">
-      <c r="A27" s="108" t="s">
+      <c r="A27" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="109"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="110"/>
-      <c r="O27" s="102">
+      <c r="B27" s="150"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="151"/>
+      <c r="O27" s="143">
         <f>SUM(O9:O26)</f>
         <v>55</v>
       </c>
-      <c r="Q27" s="104">
+      <c r="Q27" s="145">
         <f>SUM(Q9:Q26)</f>
         <v>35</v>
       </c>
-      <c r="R27" s="106">
+      <c r="R27" s="147">
         <f>MAX(R9:R26)</f>
         <v>0.60763888888888895</v>
       </c>
-      <c r="S27" s="104">
+      <c r="S27" s="145">
         <f>SUM(S9:S26)</f>
         <v>3.8</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="111"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="112"/>
-      <c r="L28" s="113"/>
-      <c r="O28" s="103"/>
-      <c r="Q28" s="105"/>
-      <c r="R28" s="107"/>
-      <c r="S28" s="105"/>
+      <c r="A28" s="152"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="153"/>
+      <c r="L28" s="154"/>
+      <c r="O28" s="144"/>
+      <c r="Q28" s="146"/>
+      <c r="R28" s="148"/>
+      <c r="S28" s="146"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="95"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="135"/>
+      <c r="G29" s="135"/>
+      <c r="H29" s="135"/>
+      <c r="I29" s="135"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="135"/>
+      <c r="L29" s="136"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="96"/>
-      <c r="B30" s="97"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
-      <c r="L30" s="98"/>
+      <c r="A30" s="137"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="138"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="138"/>
+      <c r="K30" s="138"/>
+      <c r="L30" s="139"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="96"/>
-      <c r="B31" s="97"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
-      <c r="L31" s="98"/>
+      <c r="A31" s="137"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="138"/>
+      <c r="K31" s="138"/>
+      <c r="L31" s="139"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="96"/>
-      <c r="B32" s="97"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="98"/>
+      <c r="A32" s="137"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="138"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="138"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="138"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="138"/>
+      <c r="K32" s="138"/>
+      <c r="L32" s="139"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A33" s="99"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="100"/>
-      <c r="I33" s="100"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="100"/>
-      <c r="L33" s="101"/>
+      <c r="A33" s="140"/>
+      <c r="B33" s="141"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="141"/>
+      <c r="I33" s="141"/>
+      <c r="J33" s="141"/>
+      <c r="K33" s="141"/>
+      <c r="L33" s="142"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="150">
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="E1:G2"/>
-    <mergeCell ref="H1:I2"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="P1:Q2"/>
-    <mergeCell ref="N1:O2"/>
-    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="A29:L33"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="A27:L28"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="N11:N12"/>
@@ -8987,120 +9280,18 @@
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="A29:L33"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="A27:L28"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="E1:G2"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="N3:O4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
@@ -9113,8 +9304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4157655B-8A58-497F-BBC8-F24326906F8C}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12:M13"/>
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -9133,134 +9324,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="165">
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="160">
         <v>0.63541666666666663</v>
       </c>
-      <c r="E1" s="166"/>
+      <c r="E1" s="161"/>
       <c r="F1" s="40"/>
-      <c r="G1" s="169" t="s">
+      <c r="G1" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="160">
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="164">
         <v>38</v>
       </c>
-      <c r="K1" s="160"/>
+      <c r="K1" s="164"/>
       <c r="L1" s="24"/>
-      <c r="M1" s="170" t="s">
+      <c r="M1" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="172">
+      <c r="N1" s="168">
         <v>3500</v>
       </c>
-      <c r="O1" s="172"/>
-      <c r="P1" s="156" t="s">
+      <c r="O1" s="168"/>
+      <c r="P1" s="174" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="168"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
+      <c r="A2" s="158"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="163"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
       <c r="L2" s="24"/>
-      <c r="M2" s="171"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="157"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="175"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="G3" s="169" t="s">
+      <c r="G3" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="160">
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="164">
         <v>6.5</v>
       </c>
-      <c r="K3" s="160"/>
+      <c r="K3" s="164"/>
       <c r="L3" s="25"/>
-      <c r="M3" s="173" t="s">
+      <c r="M3" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="160">
+      <c r="N3" s="164">
         <v>215</v>
       </c>
-      <c r="O3" s="160"/>
-      <c r="P3" s="158" t="s">
+      <c r="O3" s="164"/>
+      <c r="P3" s="176" t="s">
         <v>72</v>
       </c>
-      <c r="Q3" s="160">
+      <c r="Q3" s="164">
         <v>17</v>
       </c>
-      <c r="R3" s="160"/>
-      <c r="S3" s="156" t="s">
+      <c r="R3" s="164"/>
+      <c r="S3" s="174" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="164"/>
       <c r="L4" s="25"/>
-      <c r="M4" s="174"/>
-      <c r="N4" s="175"/>
-      <c r="O4" s="175"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="160"/>
-      <c r="R4" s="160"/>
-      <c r="S4" s="157"/>
+      <c r="M4" s="170"/>
+      <c r="N4" s="171"/>
+      <c r="O4" s="171"/>
+      <c r="P4" s="177"/>
+      <c r="Q4" s="164"/>
+      <c r="R4" s="164"/>
+      <c r="S4" s="175"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1">
       <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="135"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="128"/>
       <c r="L6" s="26"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="133" t="s">
+      <c r="N6" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="134"/>
-      <c r="S6" s="134"/>
-      <c r="T6" s="135"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="127"/>
+      <c r="T6" s="128"/>
     </row>
     <row r="7" spans="1:20" ht="19.7" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="176" t="s">
+      <c r="C7" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="177"/>
+      <c r="D7" s="173"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -9323,7 +9514,7 @@
         <v>7</v>
       </c>
       <c r="L8" s="28"/>
-      <c r="M8" s="130" t="s">
+      <c r="M8" s="121" t="s">
         <v>10</v>
       </c>
       <c r="N8" s="32" t="s">
@@ -9349,49 +9540,49 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="118">
+      <c r="A9" s="120">
         <v>90</v>
       </c>
-      <c r="B9" s="118">
+      <c r="B9" s="120">
         <v>3500</v>
       </c>
-      <c r="C9" s="118">
+      <c r="C9" s="120">
         <v>170</v>
       </c>
-      <c r="D9" s="118">
+      <c r="D9" s="120">
         <v>17</v>
       </c>
-      <c r="E9" s="118">
+      <c r="E9" s="120">
         <v>-10</v>
       </c>
-      <c r="F9" s="118">
+      <c r="F9" s="120">
         <v>95</v>
       </c>
-      <c r="G9" s="117">
+      <c r="G9" s="119">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C9-A9))*(D9/F9)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H9" s="117">
+      <c r="H9" s="119">
         <f>IFERROR(ROUND(MOD(A9+G9,360),0),"")</f>
         <v>100</v>
       </c>
-      <c r="I9" s="118">
+      <c r="I9" s="120">
         <v>13</v>
       </c>
-      <c r="J9" s="117">
+      <c r="J9" s="119">
         <f>IFERROR(MOD(H9+I9,360),"")</f>
         <v>113</v>
       </c>
-      <c r="K9" s="118">
+      <c r="K9" s="120">
         <v>0</v>
       </c>
       <c r="L9" s="29"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="117">
+      <c r="M9" s="122"/>
+      <c r="N9" s="119">
         <f>IFERROR(MOD(J9+K9,360),"")</f>
         <v>113</v>
       </c>
-      <c r="O9" s="118">
+      <c r="O9" s="120">
         <v>7</v>
       </c>
       <c r="P9" s="42">
@@ -9416,23 +9607,23 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A10" s="118"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="118"/>
+      <c r="A10" s="120"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="120"/>
       <c r="L10" s="29"/>
-      <c r="M10" s="114" t="s">
+      <c r="M10" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="N10" s="117"/>
-      <c r="O10" s="118"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="120"/>
       <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="45"/>
@@ -9440,49 +9631,49 @@
       <c r="T10" s="44"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A11" s="123">
+      <c r="A11" s="118">
         <v>90</v>
       </c>
-      <c r="B11" s="123">
+      <c r="B11" s="118">
         <v>3500</v>
       </c>
-      <c r="C11" s="123">
+      <c r="C11" s="118">
         <v>215</v>
       </c>
-      <c r="D11" s="123">
+      <c r="D11" s="118">
         <v>17</v>
       </c>
-      <c r="E11" s="123">
+      <c r="E11" s="118">
         <v>-10</v>
       </c>
-      <c r="F11" s="123">
+      <c r="F11" s="118">
         <v>95</v>
       </c>
-      <c r="G11" s="121">
+      <c r="G11" s="117">
         <f t="shared" ref="G11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C11-A11))*(D11/F11)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="H11" s="121">
+      <c r="H11" s="117">
         <f t="shared" ref="H11" si="1">IFERROR(ROUND(MOD(A11+G11,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="I11" s="123">
+      <c r="I11" s="118">
         <v>13</v>
       </c>
-      <c r="J11" s="121">
+      <c r="J11" s="117">
         <f t="shared" ref="J11" si="2">IFERROR(MOD(H11+I11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="K11" s="123">
+      <c r="K11" s="118">
         <v>0</v>
       </c>
       <c r="L11" s="29"/>
-      <c r="M11" s="115"/>
-      <c r="N11" s="121">
+      <c r="M11" s="122"/>
+      <c r="N11" s="117">
         <f>IFERROR(MOD(J11+K11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O11" s="123">
+      <c r="O11" s="118">
         <v>8</v>
       </c>
       <c r="P11" s="46">
@@ -9507,23 +9698,23 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A12" s="123"/>
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="123"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="118"/>
       <c r="L12" s="29"/>
-      <c r="M12" s="114" t="s">
+      <c r="M12" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="N12" s="121"/>
-      <c r="O12" s="123"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="118"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="45"/>
@@ -9531,49 +9722,49 @@
       <c r="T12" s="44"/>
     </row>
     <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A13" s="118">
+      <c r="A13" s="120">
         <v>131</v>
       </c>
-      <c r="B13" s="118">
+      <c r="B13" s="120">
         <v>3500</v>
       </c>
-      <c r="C13" s="118">
+      <c r="C13" s="120">
         <v>215</v>
       </c>
-      <c r="D13" s="118">
+      <c r="D13" s="120">
         <v>17</v>
       </c>
-      <c r="E13" s="118">
+      <c r="E13" s="120">
         <v>-10</v>
       </c>
-      <c r="F13" s="118">
+      <c r="F13" s="120">
         <v>95</v>
       </c>
-      <c r="G13" s="117">
+      <c r="G13" s="119">
         <f t="shared" ref="G13" si="4">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C13-A13))*(D13/F13)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H13" s="117">
+      <c r="H13" s="119">
         <f t="shared" ref="H13" si="5">IFERROR(ROUND(MOD(A13+G13,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I13" s="118">
+      <c r="I13" s="120">
         <v>13</v>
       </c>
-      <c r="J13" s="117">
+      <c r="J13" s="119">
         <f t="shared" ref="J13" si="6">IFERROR(MOD(H13+I13,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K13" s="118">
+      <c r="K13" s="120">
         <v>2</v>
       </c>
       <c r="L13" s="29"/>
-      <c r="M13" s="115"/>
-      <c r="N13" s="117">
+      <c r="M13" s="122"/>
+      <c r="N13" s="119">
         <f>IFERROR(MOD(J13+K13,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O13" s="118">
+      <c r="O13" s="120">
         <v>11</v>
       </c>
       <c r="P13" s="42">
@@ -9598,23 +9789,23 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A14" s="118"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="118"/>
+      <c r="A14" s="120"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="120"/>
       <c r="L14" s="29"/>
-      <c r="M14" s="114" t="s">
+      <c r="M14" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="N14" s="117"/>
-      <c r="O14" s="118"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="120"/>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="45"/>
@@ -9622,49 +9813,49 @@
       <c r="T14" s="44"/>
     </row>
     <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A15" s="116">
+      <c r="A15" s="131">
         <v>131</v>
       </c>
-      <c r="B15" s="116">
+      <c r="B15" s="131">
         <v>3500</v>
       </c>
-      <c r="C15" s="116">
+      <c r="C15" s="131">
         <v>215</v>
       </c>
-      <c r="D15" s="116">
+      <c r="D15" s="131">
         <v>17</v>
       </c>
-      <c r="E15" s="116">
+      <c r="E15" s="131">
         <v>-10</v>
       </c>
-      <c r="F15" s="116">
+      <c r="F15" s="131">
         <v>95</v>
       </c>
-      <c r="G15" s="121">
+      <c r="G15" s="117">
         <f t="shared" ref="G15" si="8">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C15-A15))*(D15/F15)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H15" s="121">
+      <c r="H15" s="117">
         <f t="shared" ref="H15" si="9">IFERROR(ROUND(MOD(A15+G15,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I15" s="123">
+      <c r="I15" s="118">
         <v>13</v>
       </c>
-      <c r="J15" s="121">
+      <c r="J15" s="117">
         <f t="shared" ref="J15" si="10">IFERROR(MOD(H15+I15,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K15" s="123">
+      <c r="K15" s="118">
         <v>2</v>
       </c>
       <c r="L15" s="29"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="121">
+      <c r="M15" s="122"/>
+      <c r="N15" s="117">
         <f>IFERROR(MOD(J15+K15,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O15" s="123">
+      <c r="O15" s="118">
         <v>8</v>
       </c>
       <c r="P15" s="46">
@@ -9689,23 +9880,23 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A16" s="116"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="123"/>
+      <c r="A16" s="131"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="118"/>
       <c r="L16" s="29"/>
-      <c r="M16" s="114" t="s">
+      <c r="M16" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="N16" s="121"/>
-      <c r="O16" s="123"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="118"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="45"/>
@@ -9713,49 +9904,49 @@
       <c r="T16" s="44"/>
     </row>
     <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A17" s="118">
+      <c r="A17" s="120">
         <v>131</v>
       </c>
-      <c r="B17" s="118">
+      <c r="B17" s="120">
         <v>3500</v>
       </c>
-      <c r="C17" s="118">
+      <c r="C17" s="120">
         <v>215</v>
       </c>
-      <c r="D17" s="118">
+      <c r="D17" s="120">
         <v>17</v>
       </c>
-      <c r="E17" s="118">
+      <c r="E17" s="120">
         <v>-10</v>
       </c>
-      <c r="F17" s="118">
+      <c r="F17" s="120">
         <v>95</v>
       </c>
-      <c r="G17" s="117">
+      <c r="G17" s="119">
         <f t="shared" ref="G17" si="12">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C17-A17))*(D17/F17)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H17" s="117">
+      <c r="H17" s="119">
         <f t="shared" ref="H17" si="13">IFERROR(ROUND(MOD(A17+G17,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I17" s="118">
+      <c r="I17" s="120">
         <v>13</v>
       </c>
-      <c r="J17" s="117">
+      <c r="J17" s="119">
         <f t="shared" ref="J17" si="14">IFERROR(MOD(H17+I17,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K17" s="118">
+      <c r="K17" s="120">
         <v>2</v>
       </c>
       <c r="L17" s="29"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="117">
+      <c r="M17" s="122"/>
+      <c r="N17" s="119">
         <f>IFERROR(MOD(J17+K17,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O17" s="118">
+      <c r="O17" s="120">
         <v>10</v>
       </c>
       <c r="P17" s="42">
@@ -9780,23 +9971,23 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A18" s="118"/>
-      <c r="B18" s="118"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="118"/>
+      <c r="A18" s="120"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="120"/>
       <c r="L18" s="29"/>
-      <c r="M18" s="114" t="s">
+      <c r="M18" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="N18" s="117"/>
-      <c r="O18" s="118"/>
+      <c r="N18" s="119"/>
+      <c r="O18" s="120"/>
       <c r="P18" s="44"/>
       <c r="Q18" s="44"/>
       <c r="R18" s="45"/>
@@ -9804,49 +9995,49 @@
       <c r="T18" s="44"/>
     </row>
     <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A19" s="116">
+      <c r="A19" s="131">
         <v>131</v>
       </c>
-      <c r="B19" s="116">
+      <c r="B19" s="131">
         <v>3500</v>
       </c>
-      <c r="C19" s="116">
+      <c r="C19" s="131">
         <v>215</v>
       </c>
-      <c r="D19" s="116">
+      <c r="D19" s="131">
         <v>17</v>
       </c>
-      <c r="E19" s="116">
+      <c r="E19" s="131">
         <v>-10</v>
       </c>
-      <c r="F19" s="116">
+      <c r="F19" s="131">
         <v>95</v>
       </c>
-      <c r="G19" s="121">
+      <c r="G19" s="117">
         <f t="shared" ref="G19" si="16">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C19-A19))*(D19/F19)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H19" s="121">
+      <c r="H19" s="117">
         <f t="shared" ref="H19" si="17">IFERROR(ROUND(MOD(A19+G19,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I19" s="123">
+      <c r="I19" s="118">
         <v>13</v>
       </c>
-      <c r="J19" s="121">
+      <c r="J19" s="117">
         <f t="shared" ref="J19" si="18">IFERROR(MOD(H19+I19,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K19" s="123">
+      <c r="K19" s="118">
         <v>2</v>
       </c>
       <c r="L19" s="29"/>
-      <c r="M19" s="115"/>
-      <c r="N19" s="121">
+      <c r="M19" s="122"/>
+      <c r="N19" s="117">
         <f>IFERROR(MOD(J19+K19,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O19" s="123">
+      <c r="O19" s="118">
         <v>11</v>
       </c>
       <c r="P19" s="46">
@@ -9871,23 +10062,23 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A20" s="116"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="123"/>
+      <c r="A20" s="131"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="118"/>
       <c r="L20" s="29"/>
-      <c r="M20" s="114" t="s">
+      <c r="M20" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="N20" s="121"/>
-      <c r="O20" s="123"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="118"/>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="45"/>
@@ -9895,33 +10086,33 @@
       <c r="T20" s="44"/>
     </row>
     <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A21" s="118"/>
-      <c r="B21" s="118"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="117" t="str">
+      <c r="A21" s="120"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="119" t="str">
         <f t="shared" ref="G21" si="20">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C21-A21))*(D21/F21)))),0),"")</f>
         <v/>
       </c>
-      <c r="H21" s="117" t="str">
+      <c r="H21" s="119" t="str">
         <f t="shared" ref="H21" si="21">IFERROR(ROUND(MOD(A21+G21,360),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="118"/>
-      <c r="J21" s="117" t="str">
+      <c r="I21" s="120"/>
+      <c r="J21" s="119" t="str">
         <f t="shared" ref="J21" si="22">IFERROR(MOD(H21+I21,360),"")</f>
         <v/>
       </c>
-      <c r="K21" s="118"/>
+      <c r="K21" s="120"/>
       <c r="L21" s="29"/>
-      <c r="M21" s="115"/>
-      <c r="N21" s="117" t="str">
+      <c r="M21" s="122"/>
+      <c r="N21" s="119" t="str">
         <f>IFERROR(MOD(J21+K21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="118"/>
+      <c r="O21" s="120"/>
       <c r="P21" s="42" t="str">
         <f>IFERROR(SQRT(F21^2+D21^2-2*F21*D21*COS(RADIANS(C21-A21-G21))),"")</f>
         <v/>
@@ -9944,21 +10135,21 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A22" s="118"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="118"/>
+      <c r="A22" s="120"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="120"/>
       <c r="L22" s="29"/>
-      <c r="M22" s="114"/>
-      <c r="N22" s="117"/>
-      <c r="O22" s="118"/>
+      <c r="M22" s="123"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="120"/>
       <c r="P22" s="44"/>
       <c r="Q22" s="44"/>
       <c r="R22" s="45"/>
@@ -9966,33 +10157,33 @@
       <c r="T22" s="44"/>
     </row>
     <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A23" s="116"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="121" t="str">
+      <c r="A23" s="131"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="117" t="str">
         <f t="shared" ref="G23" si="24">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C23-A23))*(D23/F23)))),0),"")</f>
         <v/>
       </c>
-      <c r="H23" s="121" t="str">
+      <c r="H23" s="117" t="str">
         <f t="shared" ref="H23" si="25">IFERROR(ROUND(MOD(A23+G23,360),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="123"/>
-      <c r="J23" s="121" t="str">
+      <c r="I23" s="118"/>
+      <c r="J23" s="117" t="str">
         <f t="shared" ref="J23" si="26">IFERROR(MOD(H23+I23,360),"")</f>
         <v/>
       </c>
-      <c r="K23" s="123"/>
+      <c r="K23" s="118"/>
       <c r="L23" s="29"/>
-      <c r="M23" s="115"/>
-      <c r="N23" s="121" t="str">
+      <c r="M23" s="122"/>
+      <c r="N23" s="117" t="str">
         <f>IFERROR(MOD(J23+K23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="123"/>
+      <c r="O23" s="118"/>
       <c r="P23" s="46" t="str">
         <f>IFERROR(SQRT(F23^2+D23^2-2*F23*D23*COS(RADIANS(C23-A23-G23))),"")</f>
         <v/>
@@ -10015,21 +10206,21 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A24" s="116"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="121"/>
-      <c r="K24" s="123"/>
+      <c r="A24" s="131"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="118"/>
       <c r="L24" s="29"/>
-      <c r="M24" s="114"/>
-      <c r="N24" s="121"/>
-      <c r="O24" s="123"/>
+      <c r="M24" s="123"/>
+      <c r="N24" s="117"/>
+      <c r="O24" s="118"/>
       <c r="P24" s="44"/>
       <c r="Q24" s="44"/>
       <c r="R24" s="45"/>
@@ -10037,33 +10228,33 @@
       <c r="T24" s="44"/>
     </row>
     <row r="25" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A25" s="118"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="117" t="str">
+      <c r="A25" s="120"/>
+      <c r="B25" s="120"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="119" t="str">
         <f t="shared" ref="G25" si="28">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C25-A25))*(D25/F25)))),0),"")</f>
         <v/>
       </c>
-      <c r="H25" s="117" t="str">
+      <c r="H25" s="119" t="str">
         <f t="shared" ref="H25" si="29">IFERROR(ROUND(MOD(A25+G25,360),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="118"/>
-      <c r="J25" s="117" t="str">
+      <c r="I25" s="120"/>
+      <c r="J25" s="119" t="str">
         <f t="shared" ref="J25" si="30">IFERROR(MOD(H25+I25,360),"")</f>
         <v/>
       </c>
-      <c r="K25" s="118"/>
+      <c r="K25" s="120"/>
       <c r="L25" s="29"/>
-      <c r="M25" s="119"/>
-      <c r="N25" s="117" t="str">
+      <c r="M25" s="155"/>
+      <c r="N25" s="119" t="str">
         <f>IFERROR(MOD(J25+K25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="118"/>
+      <c r="O25" s="120"/>
       <c r="P25" s="42" t="str">
         <f>IFERROR(SQRT(F25^2+D25^2-2*F25*D25*COS(RADIANS(C25-A25-G25))),"")</f>
         <v/>
@@ -10086,23 +10277,23 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A26" s="118"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="118"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="118"/>
+      <c r="A26" s="120"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="119"/>
+      <c r="K26" s="120"/>
       <c r="L26" s="29"/>
       <c r="M26" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="117"/>
-      <c r="O26" s="118"/>
+      <c r="N26" s="119"/>
+      <c r="O26" s="120"/>
       <c r="P26" s="44"/>
       <c r="Q26" s="44"/>
       <c r="R26" s="45"/>
@@ -10110,19 +10301,19 @@
       <c r="T26" s="44"/>
     </row>
     <row r="27" spans="1:20" ht="25.5" thickBot="1">
-      <c r="A27" s="96" t="s">
+      <c r="A27" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="97"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="98"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="138"/>
+      <c r="K27" s="139"/>
       <c r="L27" s="30"/>
       <c r="M27" s="31" t="s">
         <v>67</v>
@@ -10145,23 +10336,143 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A28" s="99"/>
-      <c r="B28" s="100"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="101"/>
+      <c r="A28" s="140"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="141"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="142"/>
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="144">
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
@@ -10186,126 +10497,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="N6:T6"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -10315,11 +10506,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CFACEB-C7F9-4EC2-B331-5938690C3313}">
-  <dimension ref="B1:J46"/>
+  <dimension ref="B1:V46"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10333,8 +10522,8 @@
     <col min="10" max="10" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:10" ht="19.5">
+    <row r="1" spans="2:22" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:22" ht="20.25" thickBot="1">
       <c r="B2" s="178" t="s">
         <v>96</v>
       </c>
@@ -10346,8 +10535,11 @@
       <c r="H2" s="179"/>
       <c r="I2" s="179"/>
       <c r="J2" s="180"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="L2" s="186" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22">
       <c r="B3" s="66"/>
       <c r="C3" s="67"/>
       <c r="D3" s="67"/>
@@ -10357,8 +10549,21 @@
       <c r="H3" s="67"/>
       <c r="I3" s="67"/>
       <c r="J3" s="68"/>
-    </row>
-    <row r="4" spans="2:10" ht="18.75">
+      <c r="L3" s="187" t="s">
+        <v>99</v>
+      </c>
+      <c r="M3" s="188"/>
+      <c r="N3" s="188"/>
+      <c r="O3" s="188"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="188"/>
+      <c r="S3" s="188"/>
+      <c r="T3" s="188"/>
+      <c r="U3" s="188"/>
+      <c r="V3" s="189"/>
+    </row>
+    <row r="4" spans="2:22" ht="18.75">
       <c r="B4" s="66"/>
       <c r="C4" s="77" t="s">
         <v>83</v>
@@ -10379,8 +10584,19 @@
       </c>
       <c r="I4" s="69"/>
       <c r="J4" s="68"/>
-    </row>
-    <row r="5" spans="2:10" ht="18.75">
+      <c r="L4" s="190"/>
+      <c r="M4" s="191"/>
+      <c r="N4" s="191"/>
+      <c r="O4" s="191"/>
+      <c r="P4" s="191"/>
+      <c r="Q4" s="191"/>
+      <c r="R4" s="191"/>
+      <c r="S4" s="191"/>
+      <c r="T4" s="191"/>
+      <c r="U4" s="191"/>
+      <c r="V4" s="192"/>
+    </row>
+    <row r="5" spans="2:22" ht="18.75">
       <c r="B5" s="66"/>
       <c r="C5" s="89" t="s">
         <v>95</v>
@@ -10401,8 +10617,19 @@
       </c>
       <c r="I5" s="69"/>
       <c r="J5" s="68"/>
-    </row>
-    <row r="6" spans="2:10" ht="18.75">
+      <c r="L5" s="190"/>
+      <c r="M5" s="191"/>
+      <c r="N5" s="191"/>
+      <c r="O5" s="191"/>
+      <c r="P5" s="191"/>
+      <c r="Q5" s="191"/>
+      <c r="R5" s="191"/>
+      <c r="S5" s="191"/>
+      <c r="T5" s="191"/>
+      <c r="U5" s="191"/>
+      <c r="V5" s="192"/>
+    </row>
+    <row r="6" spans="2:22" ht="18.75">
       <c r="B6" s="66"/>
       <c r="C6" s="79" t="s">
         <v>88</v>
@@ -10416,8 +10643,19 @@
       <c r="H6" s="69"/>
       <c r="I6" s="69"/>
       <c r="J6" s="68"/>
-    </row>
-    <row r="7" spans="2:10" ht="18.75">
+      <c r="L6" s="190"/>
+      <c r="M6" s="191"/>
+      <c r="N6" s="191"/>
+      <c r="O6" s="191"/>
+      <c r="P6" s="191"/>
+      <c r="Q6" s="191"/>
+      <c r="R6" s="191"/>
+      <c r="S6" s="191"/>
+      <c r="T6" s="191"/>
+      <c r="U6" s="191"/>
+      <c r="V6" s="192"/>
+    </row>
+    <row r="7" spans="2:22" ht="18.75">
       <c r="B7" s="66"/>
       <c r="C7" s="81" t="s">
         <v>87</v>
@@ -10438,8 +10676,19 @@
       </c>
       <c r="I7" s="69"/>
       <c r="J7" s="68"/>
-    </row>
-    <row r="8" spans="2:10">
+      <c r="L7" s="190"/>
+      <c r="M7" s="191"/>
+      <c r="N7" s="191"/>
+      <c r="O7" s="191"/>
+      <c r="P7" s="191"/>
+      <c r="Q7" s="191"/>
+      <c r="R7" s="191"/>
+      <c r="S7" s="191"/>
+      <c r="T7" s="191"/>
+      <c r="U7" s="191"/>
+      <c r="V7" s="192"/>
+    </row>
+    <row r="8" spans="2:22">
       <c r="B8" s="66"/>
       <c r="C8" s="67"/>
       <c r="D8" s="67"/>
@@ -10456,8 +10705,19 @@
       </c>
       <c r="I8" s="69"/>
       <c r="J8" s="68"/>
-    </row>
-    <row r="9" spans="2:10">
+      <c r="L8" s="190"/>
+      <c r="M8" s="191"/>
+      <c r="N8" s="191"/>
+      <c r="O8" s="191"/>
+      <c r="P8" s="191"/>
+      <c r="Q8" s="191"/>
+      <c r="R8" s="191"/>
+      <c r="S8" s="191"/>
+      <c r="T8" s="191"/>
+      <c r="U8" s="191"/>
+      <c r="V8" s="192"/>
+    </row>
+    <row r="9" spans="2:22">
       <c r="B9" s="66"/>
       <c r="C9" s="67"/>
       <c r="D9" s="67"/>
@@ -10467,8 +10727,19 @@
       <c r="H9" s="67"/>
       <c r="I9" s="67"/>
       <c r="J9" s="68"/>
-    </row>
-    <row r="10" spans="2:10" ht="18.75">
+      <c r="L9" s="190"/>
+      <c r="M9" s="191"/>
+      <c r="N9" s="191"/>
+      <c r="O9" s="191"/>
+      <c r="P9" s="191"/>
+      <c r="Q9" s="191"/>
+      <c r="R9" s="191"/>
+      <c r="S9" s="191"/>
+      <c r="T9" s="191"/>
+      <c r="U9" s="191"/>
+      <c r="V9" s="192"/>
+    </row>
+    <row r="10" spans="2:22" ht="18.75">
       <c r="B10" s="66"/>
       <c r="C10" s="185" t="s">
         <v>23</v>
@@ -10480,8 +10751,19 @@
       <c r="H10" s="67"/>
       <c r="I10" s="67"/>
       <c r="J10" s="68"/>
-    </row>
-    <row r="11" spans="2:10" ht="18.75">
+      <c r="L10" s="190"/>
+      <c r="M10" s="191"/>
+      <c r="N10" s="191"/>
+      <c r="O10" s="191"/>
+      <c r="P10" s="191"/>
+      <c r="Q10" s="191"/>
+      <c r="R10" s="191"/>
+      <c r="S10" s="191"/>
+      <c r="T10" s="191"/>
+      <c r="U10" s="191"/>
+      <c r="V10" s="192"/>
+    </row>
+    <row r="11" spans="2:22" ht="19.5" thickBot="1">
       <c r="B11" s="66"/>
       <c r="C11" s="184">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(Wd-HEading))*(Ws/TrueAirSpeed)))),0),"")</f>
@@ -10494,8 +10776,19 @@
       <c r="H11" s="67"/>
       <c r="I11" s="67"/>
       <c r="J11" s="68"/>
-    </row>
-    <row r="12" spans="2:10">
+      <c r="L11" s="193"/>
+      <c r="M11" s="194"/>
+      <c r="N11" s="194"/>
+      <c r="O11" s="194"/>
+      <c r="P11" s="194"/>
+      <c r="Q11" s="194"/>
+      <c r="R11" s="194"/>
+      <c r="S11" s="194"/>
+      <c r="T11" s="194"/>
+      <c r="U11" s="194"/>
+      <c r="V11" s="195"/>
+    </row>
+    <row r="12" spans="2:22">
       <c r="B12" s="66"/>
       <c r="C12" s="67"/>
       <c r="D12" s="67"/>
@@ -10506,7 +10799,7 @@
       <c r="I12" s="67"/>
       <c r="J12" s="68"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:22">
       <c r="B13" s="66"/>
       <c r="C13" s="67"/>
       <c r="D13" s="67"/>
@@ -10517,7 +10810,7 @@
       <c r="I13" s="67"/>
       <c r="J13" s="68"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:22">
       <c r="B14" s="66"/>
       <c r="C14" s="67"/>
       <c r="D14" s="67"/>
@@ -10528,7 +10821,7 @@
       <c r="I14" s="67"/>
       <c r="J14" s="68"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:22">
       <c r="B15" s="66"/>
       <c r="C15" s="67"/>
       <c r="D15" s="67"/>
@@ -10539,7 +10832,7 @@
       <c r="I15" s="67"/>
       <c r="J15" s="68"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:22">
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
       <c r="D16" s="67"/>
@@ -10550,7 +10843,7 @@
       <c r="I16" s="67"/>
       <c r="J16" s="68"/>
     </row>
-    <row r="17" spans="2:10" ht="19.5">
+    <row r="17" spans="2:22" ht="19.5">
       <c r="B17" s="181" t="s">
         <v>97</v>
       </c>
@@ -10563,7 +10856,7 @@
       <c r="I17" s="182"/>
       <c r="J17" s="183"/>
     </row>
-    <row r="18" spans="2:10" ht="15.75" thickBot="1">
+    <row r="18" spans="2:22" ht="15.75" thickBot="1">
       <c r="B18" s="66"/>
       <c r="C18" s="67"/>
       <c r="D18" s="67"/>
@@ -10574,7 +10867,7 @@
       <c r="I18" s="67"/>
       <c r="J18" s="68"/>
     </row>
-    <row r="19" spans="2:10" ht="19.5" thickBot="1">
+    <row r="19" spans="2:22" ht="19.5" thickBot="1">
       <c r="B19" s="66"/>
       <c r="C19" s="74" t="s">
         <v>86</v>
@@ -10595,8 +10888,11 @@
       </c>
       <c r="I19" s="67"/>
       <c r="J19" s="68"/>
-    </row>
-    <row r="20" spans="2:10" ht="19.5" thickBot="1">
+      <c r="L19" s="186" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" ht="19.5" customHeight="1" thickBot="1">
       <c r="B20" s="66"/>
       <c r="C20" s="67"/>
       <c r="D20" s="67"/>
@@ -10613,8 +10909,21 @@
       </c>
       <c r="I20" s="67"/>
       <c r="J20" s="68"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="L20" s="187" t="s">
+        <v>100</v>
+      </c>
+      <c r="M20" s="196"/>
+      <c r="N20" s="196"/>
+      <c r="O20" s="196"/>
+      <c r="P20" s="196"/>
+      <c r="Q20" s="196"/>
+      <c r="R20" s="196"/>
+      <c r="S20" s="196"/>
+      <c r="T20" s="196"/>
+      <c r="U20" s="196"/>
+      <c r="V20" s="197"/>
+    </row>
+    <row r="21" spans="2:22">
       <c r="B21" s="66"/>
       <c r="C21" s="67"/>
       <c r="D21" s="67"/>
@@ -10626,8 +10935,19 @@
       <c r="H21" s="67"/>
       <c r="I21" s="67"/>
       <c r="J21" s="68"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="L21" s="198"/>
+      <c r="M21" s="199"/>
+      <c r="N21" s="199"/>
+      <c r="O21" s="199"/>
+      <c r="P21" s="199"/>
+      <c r="Q21" s="199"/>
+      <c r="R21" s="199"/>
+      <c r="S21" s="199"/>
+      <c r="T21" s="199"/>
+      <c r="U21" s="199"/>
+      <c r="V21" s="200"/>
+    </row>
+    <row r="22" spans="2:22">
       <c r="B22" s="66"/>
       <c r="C22" s="67"/>
       <c r="D22" s="67"/>
@@ -10637,8 +10957,19 @@
       <c r="H22" s="67"/>
       <c r="I22" s="67"/>
       <c r="J22" s="68"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="L22" s="198"/>
+      <c r="M22" s="199"/>
+      <c r="N22" s="199"/>
+      <c r="O22" s="199"/>
+      <c r="P22" s="199"/>
+      <c r="Q22" s="199"/>
+      <c r="R22" s="199"/>
+      <c r="S22" s="199"/>
+      <c r="T22" s="199"/>
+      <c r="U22" s="199"/>
+      <c r="V22" s="200"/>
+    </row>
+    <row r="23" spans="2:22">
       <c r="B23" s="66"/>
       <c r="C23" s="69" t="s">
         <v>90</v>
@@ -10656,8 +10987,19 @@
       <c r="H23" s="67"/>
       <c r="I23" s="67"/>
       <c r="J23" s="68"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="L23" s="198"/>
+      <c r="M23" s="199"/>
+      <c r="N23" s="199"/>
+      <c r="O23" s="199"/>
+      <c r="P23" s="199"/>
+      <c r="Q23" s="199"/>
+      <c r="R23" s="199"/>
+      <c r="S23" s="199"/>
+      <c r="T23" s="199"/>
+      <c r="U23" s="199"/>
+      <c r="V23" s="200"/>
+    </row>
+    <row r="24" spans="2:22">
       <c r="B24" s="66"/>
       <c r="C24" s="69" t="s">
         <v>91</v>
@@ -10675,8 +11017,19 @@
       <c r="H24" s="67"/>
       <c r="I24" s="67"/>
       <c r="J24" s="68"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="L24" s="198"/>
+      <c r="M24" s="199"/>
+      <c r="N24" s="199"/>
+      <c r="O24" s="199"/>
+      <c r="P24" s="199"/>
+      <c r="Q24" s="199"/>
+      <c r="R24" s="199"/>
+      <c r="S24" s="199"/>
+      <c r="T24" s="199"/>
+      <c r="U24" s="199"/>
+      <c r="V24" s="200"/>
+    </row>
+    <row r="25" spans="2:22">
       <c r="B25" s="66"/>
       <c r="C25" s="67"/>
       <c r="D25" s="67"/>
@@ -10686,8 +11039,19 @@
       <c r="H25" s="67"/>
       <c r="I25" s="67"/>
       <c r="J25" s="68"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="L25" s="198"/>
+      <c r="M25" s="199"/>
+      <c r="N25" s="199"/>
+      <c r="O25" s="199"/>
+      <c r="P25" s="199"/>
+      <c r="Q25" s="199"/>
+      <c r="R25" s="199"/>
+      <c r="S25" s="199"/>
+      <c r="T25" s="199"/>
+      <c r="U25" s="199"/>
+      <c r="V25" s="200"/>
+    </row>
+    <row r="26" spans="2:22">
       <c r="B26" s="66"/>
       <c r="C26" s="67"/>
       <c r="D26" s="67"/>
@@ -10697,8 +11061,19 @@
       <c r="H26" s="67"/>
       <c r="I26" s="67"/>
       <c r="J26" s="68"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="L26" s="198"/>
+      <c r="M26" s="199"/>
+      <c r="N26" s="199"/>
+      <c r="O26" s="199"/>
+      <c r="P26" s="199"/>
+      <c r="Q26" s="199"/>
+      <c r="R26" s="199"/>
+      <c r="S26" s="199"/>
+      <c r="T26" s="199"/>
+      <c r="U26" s="199"/>
+      <c r="V26" s="200"/>
+    </row>
+    <row r="27" spans="2:22">
       <c r="B27" s="66"/>
       <c r="C27" s="67"/>
       <c r="D27" s="67"/>
@@ -10708,8 +11083,19 @@
       <c r="H27" s="67"/>
       <c r="I27" s="67"/>
       <c r="J27" s="68"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="L27" s="198"/>
+      <c r="M27" s="199"/>
+      <c r="N27" s="199"/>
+      <c r="O27" s="199"/>
+      <c r="P27" s="199"/>
+      <c r="Q27" s="199"/>
+      <c r="R27" s="199"/>
+      <c r="S27" s="199"/>
+      <c r="T27" s="199"/>
+      <c r="U27" s="199"/>
+      <c r="V27" s="200"/>
+    </row>
+    <row r="28" spans="2:22">
       <c r="B28" s="66"/>
       <c r="C28" s="67"/>
       <c r="D28" s="67"/>
@@ -10719,8 +11105,19 @@
       <c r="H28" s="67"/>
       <c r="I28" s="67"/>
       <c r="J28" s="68"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="L28" s="198"/>
+      <c r="M28" s="199"/>
+      <c r="N28" s="199"/>
+      <c r="O28" s="199"/>
+      <c r="P28" s="199"/>
+      <c r="Q28" s="199"/>
+      <c r="R28" s="199"/>
+      <c r="S28" s="199"/>
+      <c r="T28" s="199"/>
+      <c r="U28" s="199"/>
+      <c r="V28" s="200"/>
+    </row>
+    <row r="29" spans="2:22">
       <c r="B29" s="66"/>
       <c r="C29" s="67"/>
       <c r="D29" s="67"/>
@@ -10730,8 +11127,19 @@
       <c r="H29" s="67"/>
       <c r="I29" s="67"/>
       <c r="J29" s="68"/>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="L29" s="198"/>
+      <c r="M29" s="199"/>
+      <c r="N29" s="199"/>
+      <c r="O29" s="199"/>
+      <c r="P29" s="199"/>
+      <c r="Q29" s="199"/>
+      <c r="R29" s="199"/>
+      <c r="S29" s="199"/>
+      <c r="T29" s="199"/>
+      <c r="U29" s="199"/>
+      <c r="V29" s="200"/>
+    </row>
+    <row r="30" spans="2:22">
       <c r="B30" s="66"/>
       <c r="C30" s="67"/>
       <c r="D30" s="67"/>
@@ -10741,8 +11149,19 @@
       <c r="H30" s="67"/>
       <c r="I30" s="67"/>
       <c r="J30" s="68"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="L30" s="198"/>
+      <c r="M30" s="199"/>
+      <c r="N30" s="199"/>
+      <c r="O30" s="199"/>
+      <c r="P30" s="199"/>
+      <c r="Q30" s="199"/>
+      <c r="R30" s="199"/>
+      <c r="S30" s="199"/>
+      <c r="T30" s="199"/>
+      <c r="U30" s="199"/>
+      <c r="V30" s="200"/>
+    </row>
+    <row r="31" spans="2:22" ht="15.75" thickBot="1">
       <c r="B31" s="66"/>
       <c r="C31" s="67"/>
       <c r="D31" s="67"/>
@@ -10752,8 +11171,19 @@
       <c r="H31" s="67"/>
       <c r="I31" s="67"/>
       <c r="J31" s="68"/>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="L31" s="201"/>
+      <c r="M31" s="202"/>
+      <c r="N31" s="202"/>
+      <c r="O31" s="202"/>
+      <c r="P31" s="202"/>
+      <c r="Q31" s="202"/>
+      <c r="R31" s="202"/>
+      <c r="S31" s="202"/>
+      <c r="T31" s="202"/>
+      <c r="U31" s="202"/>
+      <c r="V31" s="203"/>
+    </row>
+    <row r="32" spans="2:22">
       <c r="B32" s="66"/>
       <c r="C32" s="67"/>
       <c r="D32" s="67"/>
@@ -10920,11 +11350,13 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="L20:V31"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B17:J17"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="L3:V11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/NAV Log Calculator - Flight Planner - E6B-like.xlsx
+++ b/NAV Log Calculator - Flight Planner - E6B-like.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/194e8d034589e5e8/Aviation/NAV/Aviation-Navigation-Log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="843" documentId="13_ncr:1_{462FEA56-7C17-431A-9BAA-3E0293AE842A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50546B89-F616-4239-B235-D113ADF453BC}"/>
+  <xr:revisionPtr revIDLastSave="848" documentId="13_ncr:1_{462FEA56-7C17-431A-9BAA-3E0293AE842A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6B357E3-AF93-40FB-95C3-A4EEEC9B29DB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="3" xr2:uid="{81AC26DA-A476-4998-AAF9-3938C858D589}"/>
   </bookViews>
@@ -723,9 +723,12 @@
     </r>
   </si>
   <si>
+    <t>Note about the formula used:</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">The wind makes an angle with the runway. If you treat that wind vector as the hypothenus of a regtangle triangle (this hypothenus length being the wind speed) which adjacent side is the runway, your cross-wind component will be the opposite side of that rectangle triangle - the opposite side being the side which has a 90 degrees angle with the adjacent/runway side. In other words, it's the part of the wind that blows perpendicularily to  the runway and then to the plane when it's aligned to take off. The length of the perpendicular wind component will be the cross wind speed.
-The formula to get the length (aka the force) of that opposite side of that rectangle triangle is :
+      <t xml:space="preserve">The wind vector makes an angle with the runway. If you treat that wind vector as the hypothenus of a right-angled triangle, this hypothenus length being the wind speed, which adjacent side is the runway, your cross-wind component will be the opposite side of that right-angled triangle - the opposite side being the side which has a 90 degrees angle with the adjacent/runway side. In other words, it's the part of the wind that blows perpendicularily to  the runway and then to the plane when it's aligned to take off. The length of the perpendicular wind component will be the cross wind speed.
+The formula to get the length (aka the force) of that opposite side of that right-angled triangle is :
 </t>
     </r>
     <r>
@@ -739,9 +742,6 @@
       </rPr>
       <t>SIN(angle between runway and wind) x Wind speed</t>
     </r>
-  </si>
-  <si>
-    <t>Note about the formula used:</t>
   </si>
 </sst>
 </file>
@@ -1982,6 +1982,154 @@
     <xf numFmtId="0" fontId="45" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2005,13 +2153,7 @@
     <xf numFmtId="0" fontId="29" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2047,145 +2189,20 @@
     <xf numFmtId="0" fontId="31" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="11" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="11" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2216,10 +2233,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2249,17 +2262,32 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2285,10 +2313,6 @@
     <xf numFmtId="0" fontId="20" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2312,30 +2336,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8030,144 +8030,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="113">
+      <c r="B1" s="127">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="E1" s="100" t="s">
+      <c r="C1" s="128"/>
+      <c r="E1" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="95">
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="141">
         <v>38</v>
       </c>
-      <c r="I1" s="104"/>
+      <c r="I1" s="148"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="107" t="s">
+      <c r="N1" s="151" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="108"/>
-      <c r="P1" s="95">
+      <c r="O1" s="152"/>
+      <c r="P1" s="141">
         <v>3500</v>
       </c>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="93" t="s">
+      <c r="Q1" s="141"/>
+      <c r="R1" s="139" t="s">
         <v>70</v>
       </c>
       <c r="T1"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="102"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="116"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="105"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="130"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="149"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="94"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="150"/>
+      <c r="Q2" s="150"/>
+      <c r="R2" s="140"/>
       <c r="T2"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
-      <c r="E3" s="100" t="s">
+      <c r="E3" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="95">
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="141">
         <v>6.5</v>
       </c>
-      <c r="I3" s="104"/>
+      <c r="I3" s="148"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="107" t="s">
+      <c r="N3" s="151" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="108"/>
-      <c r="P3" s="95">
+      <c r="O3" s="152"/>
+      <c r="P3" s="141">
         <v>215</v>
       </c>
-      <c r="Q3" s="97" t="s">
+      <c r="Q3" s="143" t="s">
         <v>72</v>
       </c>
-      <c r="R3" s="95">
+      <c r="R3" s="141">
         <v>17</v>
       </c>
-      <c r="S3" s="93" t="s">
+      <c r="S3" s="139" t="s">
         <v>71</v>
       </c>
       <c r="T3"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="E4" s="102"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="105"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="99"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="149"/>
+      <c r="N4" s="155"/>
+      <c r="O4" s="156"/>
+      <c r="P4" s="142"/>
+      <c r="Q4" s="144"/>
+      <c r="R4" s="142"/>
+      <c r="S4" s="145"/>
       <c r="T4"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="126" t="s">
+      <c r="B6" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="128"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="136"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="126" t="s">
+      <c r="N6" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="127"/>
-      <c r="P6" s="127"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="127"/>
-      <c r="T6" s="128"/>
+      <c r="O6" s="135"/>
+      <c r="P6" s="135"/>
+      <c r="Q6" s="135"/>
+      <c r="R6" s="135"/>
+      <c r="S6" s="135"/>
+      <c r="T6" s="136"/>
     </row>
     <row r="7" spans="1:20" ht="19.7" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="125"/>
-      <c r="D7" s="129" t="s">
+      <c r="C7" s="133"/>
+      <c r="D7" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="130"/>
+      <c r="E7" s="138"/>
       <c r="F7" s="59" t="s">
         <v>2</v>
       </c>
@@ -8197,7 +8197,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="19.7" customHeight="1">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="131" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="63" t="s">
@@ -8257,49 +8257,49 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="122"/>
-      <c r="B9" s="120">
+      <c r="A9" s="116"/>
+      <c r="B9" s="119">
         <v>90</v>
       </c>
-      <c r="C9" s="120">
+      <c r="C9" s="119">
         <v>3500</v>
       </c>
-      <c r="D9" s="120">
+      <c r="D9" s="119">
         <v>215</v>
       </c>
-      <c r="E9" s="120">
+      <c r="E9" s="119">
         <v>17</v>
       </c>
-      <c r="F9" s="120">
+      <c r="F9" s="119">
         <v>-10</v>
       </c>
-      <c r="G9" s="120">
+      <c r="G9" s="119">
         <v>95</v>
       </c>
-      <c r="H9" s="119">
+      <c r="H9" s="118">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D9-B9))*(E9/G9)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="I9" s="119">
+      <c r="I9" s="118">
         <f>IFERROR(ROUND(MOD(B9+H9,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="J9" s="120">
+      <c r="J9" s="119">
         <v>13</v>
       </c>
-      <c r="K9" s="119">
+      <c r="K9" s="118">
         <f>IFERROR(MOD(I9+J9,360),"")</f>
         <v>111</v>
       </c>
-      <c r="L9" s="120">
+      <c r="L9" s="119">
         <v>0</v>
       </c>
       <c r="M9" s="7"/>
-      <c r="N9" s="119">
+      <c r="N9" s="118">
         <f>IFERROR(MOD(K9+L9,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O9" s="120">
+      <c r="O9" s="119">
         <v>7</v>
       </c>
       <c r="P9" s="43">
@@ -8324,23 +8324,23 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="120"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="119"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="120"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="119"/>
       <c r="P10" s="53"/>
       <c r="Q10" s="53"/>
       <c r="R10" s="54"/>
@@ -8348,49 +8348,49 @@
       <c r="T10" s="53"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A11" s="122"/>
-      <c r="B11" s="118">
+      <c r="A11" s="116"/>
+      <c r="B11" s="124">
         <v>90</v>
       </c>
-      <c r="C11" s="118">
+      <c r="C11" s="124">
         <v>3500</v>
       </c>
-      <c r="D11" s="118">
+      <c r="D11" s="124">
         <v>215</v>
       </c>
-      <c r="E11" s="118">
+      <c r="E11" s="124">
         <v>17</v>
       </c>
-      <c r="F11" s="118">
+      <c r="F11" s="124">
         <v>-10</v>
       </c>
-      <c r="G11" s="118">
+      <c r="G11" s="124">
         <v>95</v>
       </c>
-      <c r="H11" s="117">
+      <c r="H11" s="122">
         <f t="shared" ref="H11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D11-B11))*(E11/G11)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="I11" s="117">
+      <c r="I11" s="122">
         <f>IFERROR(ROUND(MOD(B11+H11,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="J11" s="118">
+      <c r="J11" s="124">
         <v>13</v>
       </c>
-      <c r="K11" s="117">
+      <c r="K11" s="122">
         <f t="shared" ref="K11" si="1">IFERROR(MOD(I11+J11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="L11" s="118">
+      <c r="L11" s="124">
         <v>0</v>
       </c>
       <c r="M11" s="7"/>
-      <c r="N11" s="117">
+      <c r="N11" s="122">
         <f>IFERROR(MOD(K11+L11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O11" s="118">
+      <c r="O11" s="124">
         <v>8</v>
       </c>
       <c r="P11" s="46">
@@ -8415,23 +8415,23 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A12" s="123" t="s">
+      <c r="A12" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="118"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="124"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="117"/>
-      <c r="O12" s="118"/>
+      <c r="N12" s="122"/>
+      <c r="O12" s="124"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="45"/>
@@ -8439,49 +8439,49 @@
       <c r="T12" s="44"/>
     </row>
     <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A13" s="122"/>
-      <c r="B13" s="120">
+      <c r="A13" s="116"/>
+      <c r="B13" s="119">
         <v>131</v>
       </c>
-      <c r="C13" s="120">
+      <c r="C13" s="119">
         <v>3500</v>
       </c>
-      <c r="D13" s="120">
+      <c r="D13" s="119">
         <v>215</v>
       </c>
-      <c r="E13" s="120">
+      <c r="E13" s="119">
         <v>17</v>
       </c>
-      <c r="F13" s="120">
+      <c r="F13" s="119">
         <v>-10</v>
       </c>
-      <c r="G13" s="120">
+      <c r="G13" s="119">
         <v>95</v>
       </c>
-      <c r="H13" s="119">
+      <c r="H13" s="118">
         <f t="shared" ref="H13" si="3">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D13-B13))*(E13/G13)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I13" s="119">
+      <c r="I13" s="118">
         <f t="shared" ref="I13" si="4">IFERROR(ROUND(MOD(B13+H13,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J13" s="120">
+      <c r="J13" s="119">
         <v>13</v>
       </c>
-      <c r="K13" s="119">
+      <c r="K13" s="118">
         <f t="shared" ref="K13" si="5">IFERROR(MOD(I13+J13,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L13" s="120">
+      <c r="L13" s="119">
         <v>2</v>
       </c>
       <c r="M13" s="7"/>
-      <c r="N13" s="119">
+      <c r="N13" s="118">
         <f>IFERROR(MOD(K13+L13,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O13" s="120">
+      <c r="O13" s="119">
         <v>11</v>
       </c>
       <c r="P13" s="43">
@@ -8506,23 +8506,23 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A14" s="123" t="s">
+      <c r="A14" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="120"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="119"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="119"/>
-      <c r="O14" s="120"/>
+      <c r="N14" s="118"/>
+      <c r="O14" s="119"/>
       <c r="P14" s="53"/>
       <c r="Q14" s="53"/>
       <c r="R14" s="54"/>
@@ -8530,49 +8530,49 @@
       <c r="T14" s="53"/>
     </row>
     <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A15" s="122"/>
-      <c r="B15" s="131">
+      <c r="A15" s="116"/>
+      <c r="B15" s="117">
         <v>131</v>
       </c>
-      <c r="C15" s="131">
+      <c r="C15" s="117">
         <v>3500</v>
       </c>
-      <c r="D15" s="131">
+      <c r="D15" s="117">
         <v>215</v>
       </c>
-      <c r="E15" s="131">
+      <c r="E15" s="117">
         <v>17</v>
       </c>
-      <c r="F15" s="131">
+      <c r="F15" s="117">
         <v>-10</v>
       </c>
-      <c r="G15" s="131">
+      <c r="G15" s="117">
         <v>95</v>
       </c>
-      <c r="H15" s="117">
+      <c r="H15" s="122">
         <f t="shared" ref="H15" si="7">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D15-B15))*(E15/G15)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I15" s="117">
+      <c r="I15" s="122">
         <f t="shared" ref="I15" si="8">IFERROR(ROUND(MOD(B15+H15,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J15" s="118">
+      <c r="J15" s="124">
         <v>13</v>
       </c>
-      <c r="K15" s="117">
+      <c r="K15" s="122">
         <f t="shared" ref="K15" si="9">IFERROR(MOD(I15+J15,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L15" s="118">
+      <c r="L15" s="124">
         <v>2</v>
       </c>
       <c r="M15" s="7"/>
-      <c r="N15" s="117">
+      <c r="N15" s="122">
         <f>IFERROR(MOD(K15+L15,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O15" s="118">
+      <c r="O15" s="124">
         <v>8</v>
       </c>
       <c r="P15" s="46">
@@ -8597,23 +8597,23 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A16" s="123" t="s">
+      <c r="A16" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="118"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="124"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="118"/>
+      <c r="N16" s="122"/>
+      <c r="O16" s="124"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="45"/>
@@ -8621,49 +8621,49 @@
       <c r="T16" s="44"/>
     </row>
     <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A17" s="122"/>
-      <c r="B17" s="120">
+      <c r="A17" s="116"/>
+      <c r="B17" s="119">
         <v>131</v>
       </c>
-      <c r="C17" s="120">
+      <c r="C17" s="119">
         <v>3500</v>
       </c>
-      <c r="D17" s="120">
+      <c r="D17" s="119">
         <v>215</v>
       </c>
-      <c r="E17" s="120">
+      <c r="E17" s="119">
         <v>17</v>
       </c>
-      <c r="F17" s="120">
+      <c r="F17" s="119">
         <v>-10</v>
       </c>
-      <c r="G17" s="120">
+      <c r="G17" s="119">
         <v>95</v>
       </c>
-      <c r="H17" s="119">
+      <c r="H17" s="118">
         <f t="shared" ref="H17" si="11">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D17-B17))*(E17/G17)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I17" s="119">
+      <c r="I17" s="118">
         <f t="shared" ref="I17" si="12">IFERROR(ROUND(MOD(B17+H17,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J17" s="120">
+      <c r="J17" s="119">
         <v>13</v>
       </c>
-      <c r="K17" s="119">
+      <c r="K17" s="118">
         <f t="shared" ref="K17" si="13">IFERROR(MOD(I17+J17,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L17" s="120">
+      <c r="L17" s="119">
         <v>2</v>
       </c>
       <c r="M17" s="7"/>
-      <c r="N17" s="119">
+      <c r="N17" s="118">
         <f>IFERROR(MOD(K17+L17,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O17" s="120">
+      <c r="O17" s="119">
         <v>10</v>
       </c>
       <c r="P17" s="43">
@@ -8688,23 +8688,23 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A18" s="123" t="s">
+      <c r="A18" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="119"/>
-      <c r="L18" s="120"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="119"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="119"/>
-      <c r="O18" s="120"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="119"/>
       <c r="P18" s="53"/>
       <c r="Q18" s="53"/>
       <c r="R18" s="54"/>
@@ -8712,49 +8712,49 @@
       <c r="T18" s="53"/>
     </row>
     <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A19" s="122"/>
-      <c r="B19" s="131">
+      <c r="A19" s="116"/>
+      <c r="B19" s="117">
         <v>131</v>
       </c>
-      <c r="C19" s="131">
+      <c r="C19" s="117">
         <v>3500</v>
       </c>
-      <c r="D19" s="131">
+      <c r="D19" s="117">
         <v>215</v>
       </c>
-      <c r="E19" s="131">
+      <c r="E19" s="117">
         <v>17</v>
       </c>
-      <c r="F19" s="131">
+      <c r="F19" s="117">
         <v>-10</v>
       </c>
-      <c r="G19" s="131">
+      <c r="G19" s="117">
         <v>95</v>
       </c>
-      <c r="H19" s="117">
+      <c r="H19" s="122">
         <f t="shared" ref="H19" si="15">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D19-B19))*(E19/G19)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I19" s="117">
+      <c r="I19" s="122">
         <f t="shared" ref="I19" si="16">IFERROR(ROUND(MOD(B19+H19,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J19" s="118">
+      <c r="J19" s="124">
         <v>13</v>
       </c>
-      <c r="K19" s="117">
+      <c r="K19" s="122">
         <f t="shared" ref="K19" si="17">IFERROR(MOD(I19+J19,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L19" s="118">
+      <c r="L19" s="124">
         <v>2</v>
       </c>
       <c r="M19" s="7"/>
-      <c r="N19" s="117">
+      <c r="N19" s="122">
         <f>IFERROR(MOD(K19+L19,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O19" s="118">
+      <c r="O19" s="124">
         <v>11</v>
       </c>
       <c r="P19" s="46">
@@ -8779,23 +8779,23 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A20" s="123" t="s">
+      <c r="A20" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="131"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
-      <c r="K20" s="117"/>
-      <c r="L20" s="118"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="124"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="117"/>
-      <c r="O20" s="118"/>
+      <c r="N20" s="122"/>
+      <c r="O20" s="124"/>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="45"/>
@@ -8803,33 +8803,33 @@
       <c r="T20" s="44"/>
     </row>
     <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A21" s="122"/>
-      <c r="B21" s="120"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="119" t="str">
+      <c r="A21" s="116"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="118" t="str">
         <f t="shared" ref="H21" si="19">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D21-B21))*(E21/G21)))),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="119" t="str">
+      <c r="I21" s="118" t="str">
         <f t="shared" ref="I21" si="20">IFERROR(ROUND(MOD(B21+H21,360),0),"")</f>
         <v/>
       </c>
-      <c r="J21" s="120"/>
-      <c r="K21" s="119" t="str">
+      <c r="J21" s="119"/>
+      <c r="K21" s="118" t="str">
         <f t="shared" ref="K21" si="21">IFERROR(MOD(I21+J21,360),"")</f>
         <v/>
       </c>
-      <c r="L21" s="120"/>
+      <c r="L21" s="119"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="119" t="str">
+      <c r="N21" s="118" t="str">
         <f>IFERROR(MOD(K21+L21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="120"/>
+      <c r="O21" s="119"/>
       <c r="P21" s="43" t="str">
         <f>IFERROR(SQRT(G21^2+E21^2-2*G21*E21*COS(RADIANS(D21-B21-H21))),"")</f>
         <v/>
@@ -8852,21 +8852,21 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A22" s="123"/>
-      <c r="B22" s="120"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="119"/>
-      <c r="L22" s="120"/>
+      <c r="A22" s="115"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="119"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="119"/>
-      <c r="O22" s="120"/>
+      <c r="N22" s="118"/>
+      <c r="O22" s="119"/>
       <c r="P22" s="53"/>
       <c r="Q22" s="53"/>
       <c r="R22" s="54"/>
@@ -8874,33 +8874,33 @@
       <c r="T22" s="53"/>
     </row>
     <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A23" s="122"/>
-      <c r="B23" s="131"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="117" t="str">
+      <c r="A23" s="116"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="122" t="str">
         <f t="shared" ref="H23" si="23">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D23-B23))*(E23/G23)))),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="117" t="str">
+      <c r="I23" s="122" t="str">
         <f t="shared" ref="I23" si="24">IFERROR(ROUND(MOD(B23+H23,360),0),"")</f>
         <v/>
       </c>
-      <c r="J23" s="118"/>
-      <c r="K23" s="119" t="str">
+      <c r="J23" s="124"/>
+      <c r="K23" s="118" t="str">
         <f t="shared" ref="K23" si="25">IFERROR(MOD(I23+J23,360),"")</f>
         <v/>
       </c>
-      <c r="L23" s="118"/>
+      <c r="L23" s="124"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="119" t="str">
+      <c r="N23" s="118" t="str">
         <f>IFERROR(MOD(K23+L23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="118"/>
+      <c r="O23" s="124"/>
       <c r="P23" s="46" t="str">
         <f>IFERROR(SQRT(G23^2+E23^2-2*G23*E23*COS(RADIANS(D23-B23-H23))),"")</f>
         <v/>
@@ -8923,21 +8923,21 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A24" s="123"/>
-      <c r="B24" s="131"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="119"/>
-      <c r="L24" s="118"/>
+      <c r="A24" s="115"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="124"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="119"/>
-      <c r="O24" s="118"/>
+      <c r="N24" s="118"/>
+      <c r="O24" s="124"/>
       <c r="P24" s="44"/>
       <c r="Q24" s="44"/>
       <c r="R24" s="45"/>
@@ -8945,33 +8945,33 @@
       <c r="T24" s="44"/>
     </row>
     <row r="25" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A25" s="155"/>
-      <c r="B25" s="120"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="119" t="str">
+      <c r="A25" s="120"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="118" t="str">
         <f t="shared" ref="H25" si="27">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D25-B25))*(E25/G25)))),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="119" t="str">
+      <c r="I25" s="118" t="str">
         <f t="shared" ref="I25" si="28">IFERROR(ROUND(MOD(B25+H25,360),0),"")</f>
         <v/>
       </c>
-      <c r="J25" s="120"/>
-      <c r="K25" s="119" t="str">
+      <c r="J25" s="119"/>
+      <c r="K25" s="118" t="str">
         <f t="shared" ref="K25" si="29">IFERROR(MOD(I25+J25,360),"")</f>
         <v/>
       </c>
-      <c r="L25" s="120"/>
+      <c r="L25" s="119"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="119" t="str">
+      <c r="N25" s="118" t="str">
         <f>IFERROR(MOD(K25+L25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="120"/>
+      <c r="O25" s="119"/>
       <c r="P25" s="43" t="str">
         <f>IFERROR(SQRT(G25^2+E25^2-2*G25*E25*COS(RADIANS(D25-B25-H25))),"")</f>
         <v/>
@@ -8997,20 +8997,20 @@
       <c r="A26" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="132"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="133"/>
-      <c r="I26" s="133"/>
-      <c r="J26" s="132"/>
-      <c r="K26" s="133"/>
-      <c r="L26" s="132"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="121"/>
+      <c r="K26" s="123"/>
+      <c r="L26" s="121"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="119"/>
-      <c r="O26" s="132"/>
+      <c r="N26" s="118"/>
+      <c r="O26" s="121"/>
       <c r="P26" s="53"/>
       <c r="Q26" s="55"/>
       <c r="R26" s="56"/>
@@ -9018,130 +9018,256 @@
       <c r="T26" s="53"/>
     </row>
     <row r="27" spans="1:20" ht="15" customHeight="1">
-      <c r="A27" s="149" t="s">
+      <c r="A27" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="150"/>
-      <c r="C27" s="150"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="151"/>
-      <c r="O27" s="143">
+      <c r="B27" s="110"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="111"/>
+      <c r="O27" s="103">
         <f>SUM(O9:O26)</f>
         <v>55</v>
       </c>
-      <c r="Q27" s="145">
+      <c r="Q27" s="105">
         <f>SUM(Q9:Q26)</f>
         <v>35</v>
       </c>
-      <c r="R27" s="147">
+      <c r="R27" s="107">
         <f>MAX(R9:R26)</f>
         <v>0.60763888888888895</v>
       </c>
-      <c r="S27" s="145">
+      <c r="S27" s="105">
         <f>SUM(S9:S26)</f>
         <v>3.8</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="152"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="153"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="153"/>
-      <c r="K28" s="153"/>
-      <c r="L28" s="154"/>
-      <c r="O28" s="144"/>
-      <c r="Q28" s="146"/>
-      <c r="R28" s="148"/>
-      <c r="S28" s="146"/>
+      <c r="A28" s="112"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="113"/>
+      <c r="L28" s="114"/>
+      <c r="O28" s="104"/>
+      <c r="Q28" s="106"/>
+      <c r="R28" s="108"/>
+      <c r="S28" s="106"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="134" t="s">
+      <c r="A29" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="135"/>
-      <c r="C29" s="135"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="135"/>
-      <c r="J29" s="135"/>
-      <c r="K29" s="135"/>
-      <c r="L29" s="136"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="96"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="137"/>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="138"/>
-      <c r="H30" s="138"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="138"/>
-      <c r="K30" s="138"/>
-      <c r="L30" s="139"/>
+      <c r="A30" s="97"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="99"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="137"/>
-      <c r="B31" s="138"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="138"/>
-      <c r="F31" s="138"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="138"/>
-      <c r="I31" s="138"/>
-      <c r="J31" s="138"/>
-      <c r="K31" s="138"/>
-      <c r="L31" s="139"/>
+      <c r="A31" s="97"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="99"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="137"/>
-      <c r="B32" s="138"/>
-      <c r="C32" s="138"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="138"/>
-      <c r="F32" s="138"/>
-      <c r="G32" s="138"/>
-      <c r="H32" s="138"/>
-      <c r="I32" s="138"/>
-      <c r="J32" s="138"/>
-      <c r="K32" s="138"/>
-      <c r="L32" s="139"/>
+      <c r="A32" s="97"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="98"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="99"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A33" s="140"/>
-      <c r="B33" s="141"/>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="142"/>
+      <c r="A33" s="100"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="101"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="101"/>
+      <c r="L33" s="102"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="150">
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="E1:G2"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="L15:L16"/>
     <mergeCell ref="A29:L33"/>
     <mergeCell ref="O27:O28"/>
     <mergeCell ref="Q27:Q28"/>
@@ -9166,132 +9292,6 @@
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="N6:T6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="E1:G2"/>
-    <mergeCell ref="H1:I2"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="P1:Q2"/>
-    <mergeCell ref="N1:O2"/>
-    <mergeCell ref="N3:O4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
@@ -9324,134 +9324,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="160">
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="166">
         <v>0.63541666666666663</v>
       </c>
-      <c r="E1" s="161"/>
+      <c r="E1" s="167"/>
       <c r="F1" s="40"/>
-      <c r="G1" s="165" t="s">
+      <c r="G1" s="170" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="164">
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="161">
         <v>38</v>
       </c>
-      <c r="K1" s="164"/>
+      <c r="K1" s="161"/>
       <c r="L1" s="24"/>
-      <c r="M1" s="166" t="s">
+      <c r="M1" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="168">
+      <c r="N1" s="173">
         <v>3500</v>
       </c>
-      <c r="O1" s="168"/>
-      <c r="P1" s="174" t="s">
+      <c r="O1" s="173"/>
+      <c r="P1" s="157" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="158"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="163"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="169"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
       <c r="L2" s="24"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="175"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="161"/>
+      <c r="P2" s="158"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="G3" s="165" t="s">
+      <c r="G3" s="170" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="164">
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="161">
         <v>6.5</v>
       </c>
-      <c r="K3" s="164"/>
+      <c r="K3" s="161"/>
       <c r="L3" s="25"/>
-      <c r="M3" s="169" t="s">
+      <c r="M3" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="164">
+      <c r="N3" s="161">
         <v>215</v>
       </c>
-      <c r="O3" s="164"/>
-      <c r="P3" s="176" t="s">
+      <c r="O3" s="161"/>
+      <c r="P3" s="159" t="s">
         <v>72</v>
       </c>
-      <c r="Q3" s="164">
+      <c r="Q3" s="161">
         <v>17</v>
       </c>
-      <c r="R3" s="164"/>
-      <c r="S3" s="174" t="s">
+      <c r="R3" s="161"/>
+      <c r="S3" s="157" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="G4" s="165"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="164"/>
-      <c r="K4" s="164"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
       <c r="L4" s="25"/>
-      <c r="M4" s="170"/>
-      <c r="N4" s="171"/>
-      <c r="O4" s="171"/>
-      <c r="P4" s="177"/>
-      <c r="Q4" s="164"/>
-      <c r="R4" s="164"/>
-      <c r="S4" s="175"/>
+      <c r="M4" s="175"/>
+      <c r="N4" s="176"/>
+      <c r="O4" s="176"/>
+      <c r="P4" s="160"/>
+      <c r="Q4" s="161"/>
+      <c r="R4" s="161"/>
+      <c r="S4" s="158"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1">
       <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="126" t="s">
+      <c r="A6" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="128"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="136"/>
       <c r="L6" s="26"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="126" t="s">
+      <c r="N6" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="127"/>
-      <c r="P6" s="127"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="127"/>
-      <c r="T6" s="128"/>
+      <c r="O6" s="135"/>
+      <c r="P6" s="135"/>
+      <c r="Q6" s="135"/>
+      <c r="R6" s="135"/>
+      <c r="S6" s="135"/>
+      <c r="T6" s="136"/>
     </row>
     <row r="7" spans="1:20" ht="19.7" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="172" t="s">
+      <c r="C7" s="177" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="173"/>
+      <c r="D7" s="178"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -9514,7 +9514,7 @@
         <v>7</v>
       </c>
       <c r="L8" s="28"/>
-      <c r="M8" s="121" t="s">
+      <c r="M8" s="131" t="s">
         <v>10</v>
       </c>
       <c r="N8" s="32" t="s">
@@ -9540,49 +9540,49 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="120">
+      <c r="A9" s="119">
         <v>90</v>
       </c>
-      <c r="B9" s="120">
+      <c r="B9" s="119">
         <v>3500</v>
       </c>
-      <c r="C9" s="120">
+      <c r="C9" s="119">
         <v>170</v>
       </c>
-      <c r="D9" s="120">
+      <c r="D9" s="119">
         <v>17</v>
       </c>
-      <c r="E9" s="120">
+      <c r="E9" s="119">
         <v>-10</v>
       </c>
-      <c r="F9" s="120">
+      <c r="F9" s="119">
         <v>95</v>
       </c>
-      <c r="G9" s="119">
+      <c r="G9" s="118">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C9-A9))*(D9/F9)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H9" s="119">
+      <c r="H9" s="118">
         <f>IFERROR(ROUND(MOD(A9+G9,360),0),"")</f>
         <v>100</v>
       </c>
-      <c r="I9" s="120">
+      <c r="I9" s="119">
         <v>13</v>
       </c>
-      <c r="J9" s="119">
+      <c r="J9" s="118">
         <f>IFERROR(MOD(H9+I9,360),"")</f>
         <v>113</v>
       </c>
-      <c r="K9" s="120">
+      <c r="K9" s="119">
         <v>0</v>
       </c>
       <c r="L9" s="29"/>
-      <c r="M9" s="122"/>
-      <c r="N9" s="119">
+      <c r="M9" s="116"/>
+      <c r="N9" s="118">
         <f>IFERROR(MOD(J9+K9,360),"")</f>
         <v>113</v>
       </c>
-      <c r="O9" s="120">
+      <c r="O9" s="119">
         <v>7</v>
       </c>
       <c r="P9" s="42">
@@ -9607,23 +9607,23 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A10" s="120"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="120"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="119"/>
       <c r="L10" s="29"/>
-      <c r="M10" s="123" t="s">
+      <c r="M10" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="N10" s="119"/>
-      <c r="O10" s="120"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="119"/>
       <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="45"/>
@@ -9631,49 +9631,49 @@
       <c r="T10" s="44"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A11" s="118">
+      <c r="A11" s="124">
         <v>90</v>
       </c>
-      <c r="B11" s="118">
+      <c r="B11" s="124">
         <v>3500</v>
       </c>
-      <c r="C11" s="118">
+      <c r="C11" s="124">
         <v>215</v>
       </c>
-      <c r="D11" s="118">
+      <c r="D11" s="124">
         <v>17</v>
       </c>
-      <c r="E11" s="118">
+      <c r="E11" s="124">
         <v>-10</v>
       </c>
-      <c r="F11" s="118">
+      <c r="F11" s="124">
         <v>95</v>
       </c>
-      <c r="G11" s="117">
+      <c r="G11" s="122">
         <f t="shared" ref="G11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C11-A11))*(D11/F11)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="H11" s="117">
+      <c r="H11" s="122">
         <f t="shared" ref="H11" si="1">IFERROR(ROUND(MOD(A11+G11,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="I11" s="118">
+      <c r="I11" s="124">
         <v>13</v>
       </c>
-      <c r="J11" s="117">
+      <c r="J11" s="122">
         <f t="shared" ref="J11" si="2">IFERROR(MOD(H11+I11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="K11" s="118">
+      <c r="K11" s="124">
         <v>0</v>
       </c>
       <c r="L11" s="29"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="117">
+      <c r="M11" s="116"/>
+      <c r="N11" s="122">
         <f>IFERROR(MOD(J11+K11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O11" s="118">
+      <c r="O11" s="124">
         <v>8</v>
       </c>
       <c r="P11" s="46">
@@ -9698,23 +9698,23 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A12" s="118"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="118"/>
+      <c r="A12" s="124"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="124"/>
       <c r="L12" s="29"/>
-      <c r="M12" s="123" t="s">
+      <c r="M12" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="N12" s="117"/>
-      <c r="O12" s="118"/>
+      <c r="N12" s="122"/>
+      <c r="O12" s="124"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="45"/>
@@ -9722,49 +9722,49 @@
       <c r="T12" s="44"/>
     </row>
     <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A13" s="120">
+      <c r="A13" s="119">
         <v>131</v>
       </c>
-      <c r="B13" s="120">
+      <c r="B13" s="119">
         <v>3500</v>
       </c>
-      <c r="C13" s="120">
+      <c r="C13" s="119">
         <v>215</v>
       </c>
-      <c r="D13" s="120">
+      <c r="D13" s="119">
         <v>17</v>
       </c>
-      <c r="E13" s="120">
+      <c r="E13" s="119">
         <v>-10</v>
       </c>
-      <c r="F13" s="120">
+      <c r="F13" s="119">
         <v>95</v>
       </c>
-      <c r="G13" s="119">
+      <c r="G13" s="118">
         <f t="shared" ref="G13" si="4">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C13-A13))*(D13/F13)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H13" s="119">
+      <c r="H13" s="118">
         <f t="shared" ref="H13" si="5">IFERROR(ROUND(MOD(A13+G13,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I13" s="120">
+      <c r="I13" s="119">
         <v>13</v>
       </c>
-      <c r="J13" s="119">
+      <c r="J13" s="118">
         <f t="shared" ref="J13" si="6">IFERROR(MOD(H13+I13,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K13" s="120">
+      <c r="K13" s="119">
         <v>2</v>
       </c>
       <c r="L13" s="29"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="119">
+      <c r="M13" s="116"/>
+      <c r="N13" s="118">
         <f>IFERROR(MOD(J13+K13,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O13" s="120">
+      <c r="O13" s="119">
         <v>11</v>
       </c>
       <c r="P13" s="42">
@@ -9789,23 +9789,23 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A14" s="120"/>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="119"/>
-      <c r="K14" s="120"/>
+      <c r="A14" s="119"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="119"/>
       <c r="L14" s="29"/>
-      <c r="M14" s="123" t="s">
+      <c r="M14" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="N14" s="119"/>
-      <c r="O14" s="120"/>
+      <c r="N14" s="118"/>
+      <c r="O14" s="119"/>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="45"/>
@@ -9813,49 +9813,49 @@
       <c r="T14" s="44"/>
     </row>
     <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A15" s="131">
+      <c r="A15" s="117">
         <v>131</v>
       </c>
-      <c r="B15" s="131">
+      <c r="B15" s="117">
         <v>3500</v>
       </c>
-      <c r="C15" s="131">
+      <c r="C15" s="117">
         <v>215</v>
       </c>
-      <c r="D15" s="131">
+      <c r="D15" s="117">
         <v>17</v>
       </c>
-      <c r="E15" s="131">
+      <c r="E15" s="117">
         <v>-10</v>
       </c>
-      <c r="F15" s="131">
+      <c r="F15" s="117">
         <v>95</v>
       </c>
-      <c r="G15" s="117">
+      <c r="G15" s="122">
         <f t="shared" ref="G15" si="8">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C15-A15))*(D15/F15)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H15" s="117">
+      <c r="H15" s="122">
         <f t="shared" ref="H15" si="9">IFERROR(ROUND(MOD(A15+G15,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I15" s="118">
+      <c r="I15" s="124">
         <v>13</v>
       </c>
-      <c r="J15" s="117">
+      <c r="J15" s="122">
         <f t="shared" ref="J15" si="10">IFERROR(MOD(H15+I15,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K15" s="118">
+      <c r="K15" s="124">
         <v>2</v>
       </c>
       <c r="L15" s="29"/>
-      <c r="M15" s="122"/>
-      <c r="N15" s="117">
+      <c r="M15" s="116"/>
+      <c r="N15" s="122">
         <f>IFERROR(MOD(J15+K15,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O15" s="118">
+      <c r="O15" s="124">
         <v>8</v>
       </c>
       <c r="P15" s="46">
@@ -9880,23 +9880,23 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A16" s="131"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="118"/>
+      <c r="A16" s="117"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="124"/>
       <c r="L16" s="29"/>
-      <c r="M16" s="123" t="s">
+      <c r="M16" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="N16" s="117"/>
-      <c r="O16" s="118"/>
+      <c r="N16" s="122"/>
+      <c r="O16" s="124"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="45"/>
@@ -9904,49 +9904,49 @@
       <c r="T16" s="44"/>
     </row>
     <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A17" s="120">
+      <c r="A17" s="119">
         <v>131</v>
       </c>
-      <c r="B17" s="120">
+      <c r="B17" s="119">
         <v>3500</v>
       </c>
-      <c r="C17" s="120">
+      <c r="C17" s="119">
         <v>215</v>
       </c>
-      <c r="D17" s="120">
+      <c r="D17" s="119">
         <v>17</v>
       </c>
-      <c r="E17" s="120">
+      <c r="E17" s="119">
         <v>-10</v>
       </c>
-      <c r="F17" s="120">
+      <c r="F17" s="119">
         <v>95</v>
       </c>
-      <c r="G17" s="119">
+      <c r="G17" s="118">
         <f t="shared" ref="G17" si="12">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C17-A17))*(D17/F17)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H17" s="119">
+      <c r="H17" s="118">
         <f t="shared" ref="H17" si="13">IFERROR(ROUND(MOD(A17+G17,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I17" s="120">
+      <c r="I17" s="119">
         <v>13</v>
       </c>
-      <c r="J17" s="119">
+      <c r="J17" s="118">
         <f t="shared" ref="J17" si="14">IFERROR(MOD(H17+I17,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K17" s="120">
+      <c r="K17" s="119">
         <v>2</v>
       </c>
       <c r="L17" s="29"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="119">
+      <c r="M17" s="116"/>
+      <c r="N17" s="118">
         <f>IFERROR(MOD(J17+K17,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O17" s="120">
+      <c r="O17" s="119">
         <v>10</v>
       </c>
       <c r="P17" s="42">
@@ -9971,23 +9971,23 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A18" s="120"/>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="119"/>
-      <c r="K18" s="120"/>
+      <c r="A18" s="119"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="119"/>
       <c r="L18" s="29"/>
-      <c r="M18" s="123" t="s">
+      <c r="M18" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="N18" s="119"/>
-      <c r="O18" s="120"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="119"/>
       <c r="P18" s="44"/>
       <c r="Q18" s="44"/>
       <c r="R18" s="45"/>
@@ -9995,49 +9995,49 @@
       <c r="T18" s="44"/>
     </row>
     <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A19" s="131">
+      <c r="A19" s="117">
         <v>131</v>
       </c>
-      <c r="B19" s="131">
+      <c r="B19" s="117">
         <v>3500</v>
       </c>
-      <c r="C19" s="131">
+      <c r="C19" s="117">
         <v>215</v>
       </c>
-      <c r="D19" s="131">
+      <c r="D19" s="117">
         <v>17</v>
       </c>
-      <c r="E19" s="131">
+      <c r="E19" s="117">
         <v>-10</v>
       </c>
-      <c r="F19" s="131">
+      <c r="F19" s="117">
         <v>95</v>
       </c>
-      <c r="G19" s="117">
+      <c r="G19" s="122">
         <f t="shared" ref="G19" si="16">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C19-A19))*(D19/F19)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H19" s="117">
+      <c r="H19" s="122">
         <f t="shared" ref="H19" si="17">IFERROR(ROUND(MOD(A19+G19,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I19" s="118">
+      <c r="I19" s="124">
         <v>13</v>
       </c>
-      <c r="J19" s="117">
+      <c r="J19" s="122">
         <f t="shared" ref="J19" si="18">IFERROR(MOD(H19+I19,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K19" s="118">
+      <c r="K19" s="124">
         <v>2</v>
       </c>
       <c r="L19" s="29"/>
-      <c r="M19" s="122"/>
-      <c r="N19" s="117">
+      <c r="M19" s="116"/>
+      <c r="N19" s="122">
         <f>IFERROR(MOD(J19+K19,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O19" s="118">
+      <c r="O19" s="124">
         <v>11</v>
       </c>
       <c r="P19" s="46">
@@ -10062,23 +10062,23 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A20" s="131"/>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="118"/>
+      <c r="A20" s="117"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="124"/>
       <c r="L20" s="29"/>
-      <c r="M20" s="123" t="s">
+      <c r="M20" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="N20" s="117"/>
-      <c r="O20" s="118"/>
+      <c r="N20" s="122"/>
+      <c r="O20" s="124"/>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="45"/>
@@ -10086,33 +10086,33 @@
       <c r="T20" s="44"/>
     </row>
     <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A21" s="120"/>
-      <c r="B21" s="120"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="119" t="str">
+      <c r="A21" s="119"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="118" t="str">
         <f t="shared" ref="G21" si="20">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C21-A21))*(D21/F21)))),0),"")</f>
         <v/>
       </c>
-      <c r="H21" s="119" t="str">
+      <c r="H21" s="118" t="str">
         <f t="shared" ref="H21" si="21">IFERROR(ROUND(MOD(A21+G21,360),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="120"/>
-      <c r="J21" s="119" t="str">
+      <c r="I21" s="119"/>
+      <c r="J21" s="118" t="str">
         <f t="shared" ref="J21" si="22">IFERROR(MOD(H21+I21,360),"")</f>
         <v/>
       </c>
-      <c r="K21" s="120"/>
+      <c r="K21" s="119"/>
       <c r="L21" s="29"/>
-      <c r="M21" s="122"/>
-      <c r="N21" s="119" t="str">
+      <c r="M21" s="116"/>
+      <c r="N21" s="118" t="str">
         <f>IFERROR(MOD(J21+K21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="120"/>
+      <c r="O21" s="119"/>
       <c r="P21" s="42" t="str">
         <f>IFERROR(SQRT(F21^2+D21^2-2*F21*D21*COS(RADIANS(C21-A21-G21))),"")</f>
         <v/>
@@ -10135,21 +10135,21 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A22" s="120"/>
-      <c r="B22" s="120"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="119"/>
-      <c r="K22" s="120"/>
+      <c r="A22" s="119"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="119"/>
       <c r="L22" s="29"/>
-      <c r="M22" s="123"/>
-      <c r="N22" s="119"/>
-      <c r="O22" s="120"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="118"/>
+      <c r="O22" s="119"/>
       <c r="P22" s="44"/>
       <c r="Q22" s="44"/>
       <c r="R22" s="45"/>
@@ -10157,33 +10157,33 @@
       <c r="T22" s="44"/>
     </row>
     <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A23" s="131"/>
-      <c r="B23" s="131"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="117" t="str">
+      <c r="A23" s="117"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="122" t="str">
         <f t="shared" ref="G23" si="24">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C23-A23))*(D23/F23)))),0),"")</f>
         <v/>
       </c>
-      <c r="H23" s="117" t="str">
+      <c r="H23" s="122" t="str">
         <f t="shared" ref="H23" si="25">IFERROR(ROUND(MOD(A23+G23,360),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="118"/>
-      <c r="J23" s="117" t="str">
+      <c r="I23" s="124"/>
+      <c r="J23" s="122" t="str">
         <f t="shared" ref="J23" si="26">IFERROR(MOD(H23+I23,360),"")</f>
         <v/>
       </c>
-      <c r="K23" s="118"/>
+      <c r="K23" s="124"/>
       <c r="L23" s="29"/>
-      <c r="M23" s="122"/>
-      <c r="N23" s="117" t="str">
+      <c r="M23" s="116"/>
+      <c r="N23" s="122" t="str">
         <f>IFERROR(MOD(J23+K23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="118"/>
+      <c r="O23" s="124"/>
       <c r="P23" s="46" t="str">
         <f>IFERROR(SQRT(F23^2+D23^2-2*F23*D23*COS(RADIANS(C23-A23-G23))),"")</f>
         <v/>
@@ -10206,21 +10206,21 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A24" s="131"/>
-      <c r="B24" s="131"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="118"/>
+      <c r="A24" s="117"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="122"/>
+      <c r="K24" s="124"/>
       <c r="L24" s="29"/>
-      <c r="M24" s="123"/>
-      <c r="N24" s="117"/>
-      <c r="O24" s="118"/>
+      <c r="M24" s="115"/>
+      <c r="N24" s="122"/>
+      <c r="O24" s="124"/>
       <c r="P24" s="44"/>
       <c r="Q24" s="44"/>
       <c r="R24" s="45"/>
@@ -10228,33 +10228,33 @@
       <c r="T24" s="44"/>
     </row>
     <row r="25" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A25" s="120"/>
-      <c r="B25" s="120"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="119" t="str">
+      <c r="A25" s="119"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="118" t="str">
         <f t="shared" ref="G25" si="28">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C25-A25))*(D25/F25)))),0),"")</f>
         <v/>
       </c>
-      <c r="H25" s="119" t="str">
+      <c r="H25" s="118" t="str">
         <f t="shared" ref="H25" si="29">IFERROR(ROUND(MOD(A25+G25,360),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="120"/>
-      <c r="J25" s="119" t="str">
+      <c r="I25" s="119"/>
+      <c r="J25" s="118" t="str">
         <f t="shared" ref="J25" si="30">IFERROR(MOD(H25+I25,360),"")</f>
         <v/>
       </c>
-      <c r="K25" s="120"/>
+      <c r="K25" s="119"/>
       <c r="L25" s="29"/>
-      <c r="M25" s="155"/>
-      <c r="N25" s="119" t="str">
+      <c r="M25" s="120"/>
+      <c r="N25" s="118" t="str">
         <f>IFERROR(MOD(J25+K25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="120"/>
+      <c r="O25" s="119"/>
       <c r="P25" s="42" t="str">
         <f>IFERROR(SQRT(F25^2+D25^2-2*F25*D25*COS(RADIANS(C25-A25-G25))),"")</f>
         <v/>
@@ -10277,23 +10277,23 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A26" s="120"/>
-      <c r="B26" s="120"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="120"/>
-      <c r="J26" s="119"/>
-      <c r="K26" s="120"/>
+      <c r="A26" s="119"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="119"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="119"/>
       <c r="L26" s="29"/>
       <c r="M26" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="119"/>
-      <c r="O26" s="120"/>
+      <c r="N26" s="118"/>
+      <c r="O26" s="119"/>
       <c r="P26" s="44"/>
       <c r="Q26" s="44"/>
       <c r="R26" s="45"/>
@@ -10301,19 +10301,19 @@
       <c r="T26" s="44"/>
     </row>
     <row r="27" spans="1:20" ht="25.5" thickBot="1">
-      <c r="A27" s="137" t="s">
+      <c r="A27" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="138"/>
-      <c r="C27" s="138"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="138"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="138"/>
-      <c r="I27" s="138"/>
-      <c r="J27" s="138"/>
-      <c r="K27" s="139"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="99"/>
       <c r="L27" s="30"/>
       <c r="M27" s="31" t="s">
         <v>67</v>
@@ -10336,23 +10336,143 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A28" s="140"/>
-      <c r="B28" s="141"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="141"/>
-      <c r="J28" s="141"/>
-      <c r="K28" s="142"/>
+      <c r="A28" s="100"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="102"/>
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="144">
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="O17:O18"/>
     <mergeCell ref="O11:O12"/>
@@ -10377,126 +10497,6 @@
     <mergeCell ref="Q3:R4"/>
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="N6:T6"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="G3:I4"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:O2"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:O4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -10508,7 +10508,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CFACEB-C7F9-4EC2-B331-5938690C3313}">
   <dimension ref="B1:V46"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10524,18 +10526,18 @@
   <sheetData>
     <row r="1" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:22" ht="20.25" thickBot="1">
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="188" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="180"/>
-      <c r="L2" s="186" t="s">
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="190"/>
+      <c r="L2" s="93" t="s">
         <v>98</v>
       </c>
     </row>
@@ -10549,19 +10551,19 @@
       <c r="H3" s="67"/>
       <c r="I3" s="67"/>
       <c r="J3" s="68"/>
-      <c r="L3" s="187" t="s">
+      <c r="L3" s="179" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="188"/>
-      <c r="N3" s="188"/>
-      <c r="O3" s="188"/>
-      <c r="P3" s="188"/>
-      <c r="Q3" s="188"/>
-      <c r="R3" s="188"/>
-      <c r="S3" s="188"/>
-      <c r="T3" s="188"/>
-      <c r="U3" s="188"/>
-      <c r="V3" s="189"/>
+      <c r="M3" s="196"/>
+      <c r="N3" s="196"/>
+      <c r="O3" s="196"/>
+      <c r="P3" s="196"/>
+      <c r="Q3" s="196"/>
+      <c r="R3" s="196"/>
+      <c r="S3" s="196"/>
+      <c r="T3" s="196"/>
+      <c r="U3" s="196"/>
+      <c r="V3" s="197"/>
     </row>
     <row r="4" spans="2:22" ht="18.75">
       <c r="B4" s="66"/>
@@ -10584,17 +10586,17 @@
       </c>
       <c r="I4" s="69"/>
       <c r="J4" s="68"/>
-      <c r="L4" s="190"/>
-      <c r="M4" s="191"/>
-      <c r="N4" s="191"/>
-      <c r="O4" s="191"/>
-      <c r="P4" s="191"/>
-      <c r="Q4" s="191"/>
-      <c r="R4" s="191"/>
-      <c r="S4" s="191"/>
-      <c r="T4" s="191"/>
-      <c r="U4" s="191"/>
-      <c r="V4" s="192"/>
+      <c r="L4" s="198"/>
+      <c r="M4" s="199"/>
+      <c r="N4" s="199"/>
+      <c r="O4" s="199"/>
+      <c r="P4" s="199"/>
+      <c r="Q4" s="199"/>
+      <c r="R4" s="199"/>
+      <c r="S4" s="199"/>
+      <c r="T4" s="199"/>
+      <c r="U4" s="199"/>
+      <c r="V4" s="200"/>
     </row>
     <row r="5" spans="2:22" ht="18.75">
       <c r="B5" s="66"/>
@@ -10617,17 +10619,17 @@
       </c>
       <c r="I5" s="69"/>
       <c r="J5" s="68"/>
-      <c r="L5" s="190"/>
-      <c r="M5" s="191"/>
-      <c r="N5" s="191"/>
-      <c r="O5" s="191"/>
-      <c r="P5" s="191"/>
-      <c r="Q5" s="191"/>
-      <c r="R5" s="191"/>
-      <c r="S5" s="191"/>
-      <c r="T5" s="191"/>
-      <c r="U5" s="191"/>
-      <c r="V5" s="192"/>
+      <c r="L5" s="198"/>
+      <c r="M5" s="199"/>
+      <c r="N5" s="199"/>
+      <c r="O5" s="199"/>
+      <c r="P5" s="199"/>
+      <c r="Q5" s="199"/>
+      <c r="R5" s="199"/>
+      <c r="S5" s="199"/>
+      <c r="T5" s="199"/>
+      <c r="U5" s="199"/>
+      <c r="V5" s="200"/>
     </row>
     <row r="6" spans="2:22" ht="18.75">
       <c r="B6" s="66"/>
@@ -10643,17 +10645,17 @@
       <c r="H6" s="69"/>
       <c r="I6" s="69"/>
       <c r="J6" s="68"/>
-      <c r="L6" s="190"/>
-      <c r="M6" s="191"/>
-      <c r="N6" s="191"/>
-      <c r="O6" s="191"/>
-      <c r="P6" s="191"/>
-      <c r="Q6" s="191"/>
-      <c r="R6" s="191"/>
-      <c r="S6" s="191"/>
-      <c r="T6" s="191"/>
-      <c r="U6" s="191"/>
-      <c r="V6" s="192"/>
+      <c r="L6" s="198"/>
+      <c r="M6" s="199"/>
+      <c r="N6" s="199"/>
+      <c r="O6" s="199"/>
+      <c r="P6" s="199"/>
+      <c r="Q6" s="199"/>
+      <c r="R6" s="199"/>
+      <c r="S6" s="199"/>
+      <c r="T6" s="199"/>
+      <c r="U6" s="199"/>
+      <c r="V6" s="200"/>
     </row>
     <row r="7" spans="2:22" ht="18.75">
       <c r="B7" s="66"/>
@@ -10676,17 +10678,17 @@
       </c>
       <c r="I7" s="69"/>
       <c r="J7" s="68"/>
-      <c r="L7" s="190"/>
-      <c r="M7" s="191"/>
-      <c r="N7" s="191"/>
-      <c r="O7" s="191"/>
-      <c r="P7" s="191"/>
-      <c r="Q7" s="191"/>
-      <c r="R7" s="191"/>
-      <c r="S7" s="191"/>
-      <c r="T7" s="191"/>
-      <c r="U7" s="191"/>
-      <c r="V7" s="192"/>
+      <c r="L7" s="198"/>
+      <c r="M7" s="199"/>
+      <c r="N7" s="199"/>
+      <c r="O7" s="199"/>
+      <c r="P7" s="199"/>
+      <c r="Q7" s="199"/>
+      <c r="R7" s="199"/>
+      <c r="S7" s="199"/>
+      <c r="T7" s="199"/>
+      <c r="U7" s="199"/>
+      <c r="V7" s="200"/>
     </row>
     <row r="8" spans="2:22">
       <c r="B8" s="66"/>
@@ -10705,17 +10707,17 @@
       </c>
       <c r="I8" s="69"/>
       <c r="J8" s="68"/>
-      <c r="L8" s="190"/>
-      <c r="M8" s="191"/>
-      <c r="N8" s="191"/>
-      <c r="O8" s="191"/>
-      <c r="P8" s="191"/>
-      <c r="Q8" s="191"/>
-      <c r="R8" s="191"/>
-      <c r="S8" s="191"/>
-      <c r="T8" s="191"/>
-      <c r="U8" s="191"/>
-      <c r="V8" s="192"/>
+      <c r="L8" s="198"/>
+      <c r="M8" s="199"/>
+      <c r="N8" s="199"/>
+      <c r="O8" s="199"/>
+      <c r="P8" s="199"/>
+      <c r="Q8" s="199"/>
+      <c r="R8" s="199"/>
+      <c r="S8" s="199"/>
+      <c r="T8" s="199"/>
+      <c r="U8" s="199"/>
+      <c r="V8" s="200"/>
     </row>
     <row r="9" spans="2:22">
       <c r="B9" s="66"/>
@@ -10727,66 +10729,66 @@
       <c r="H9" s="67"/>
       <c r="I9" s="67"/>
       <c r="J9" s="68"/>
-      <c r="L9" s="190"/>
-      <c r="M9" s="191"/>
-      <c r="N9" s="191"/>
-      <c r="O9" s="191"/>
-      <c r="P9" s="191"/>
-      <c r="Q9" s="191"/>
-      <c r="R9" s="191"/>
-      <c r="S9" s="191"/>
-      <c r="T9" s="191"/>
-      <c r="U9" s="191"/>
-      <c r="V9" s="192"/>
+      <c r="L9" s="198"/>
+      <c r="M9" s="199"/>
+      <c r="N9" s="199"/>
+      <c r="O9" s="199"/>
+      <c r="P9" s="199"/>
+      <c r="Q9" s="199"/>
+      <c r="R9" s="199"/>
+      <c r="S9" s="199"/>
+      <c r="T9" s="199"/>
+      <c r="U9" s="199"/>
+      <c r="V9" s="200"/>
     </row>
     <row r="10" spans="2:22" ht="18.75">
       <c r="B10" s="66"/>
-      <c r="C10" s="185" t="s">
+      <c r="C10" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="185"/>
+      <c r="D10" s="195"/>
       <c r="E10" s="67"/>
       <c r="F10" s="67"/>
       <c r="G10" s="67"/>
       <c r="H10" s="67"/>
       <c r="I10" s="67"/>
       <c r="J10" s="68"/>
-      <c r="L10" s="190"/>
-      <c r="M10" s="191"/>
-      <c r="N10" s="191"/>
-      <c r="O10" s="191"/>
-      <c r="P10" s="191"/>
-      <c r="Q10" s="191"/>
-      <c r="R10" s="191"/>
-      <c r="S10" s="191"/>
-      <c r="T10" s="191"/>
-      <c r="U10" s="191"/>
-      <c r="V10" s="192"/>
+      <c r="L10" s="198"/>
+      <c r="M10" s="199"/>
+      <c r="N10" s="199"/>
+      <c r="O10" s="199"/>
+      <c r="P10" s="199"/>
+      <c r="Q10" s="199"/>
+      <c r="R10" s="199"/>
+      <c r="S10" s="199"/>
+      <c r="T10" s="199"/>
+      <c r="U10" s="199"/>
+      <c r="V10" s="200"/>
     </row>
     <row r="11" spans="2:22" ht="19.5" thickBot="1">
       <c r="B11" s="66"/>
-      <c r="C11" s="184">
+      <c r="C11" s="194">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(Wd-HEading))*(Ws/TrueAirSpeed)))),0),"")</f>
         <v>9</v>
       </c>
-      <c r="D11" s="184"/>
+      <c r="D11" s="194"/>
       <c r="E11" s="67"/>
       <c r="F11" s="67"/>
       <c r="G11" s="67"/>
       <c r="H11" s="67"/>
       <c r="I11" s="67"/>
       <c r="J11" s="68"/>
-      <c r="L11" s="193"/>
-      <c r="M11" s="194"/>
-      <c r="N11" s="194"/>
-      <c r="O11" s="194"/>
-      <c r="P11" s="194"/>
-      <c r="Q11" s="194"/>
-      <c r="R11" s="194"/>
-      <c r="S11" s="194"/>
-      <c r="T11" s="194"/>
-      <c r="U11" s="194"/>
-      <c r="V11" s="195"/>
+      <c r="L11" s="201"/>
+      <c r="M11" s="202"/>
+      <c r="N11" s="202"/>
+      <c r="O11" s="202"/>
+      <c r="P11" s="202"/>
+      <c r="Q11" s="202"/>
+      <c r="R11" s="202"/>
+      <c r="S11" s="202"/>
+      <c r="T11" s="202"/>
+      <c r="U11" s="202"/>
+      <c r="V11" s="203"/>
     </row>
     <row r="12" spans="2:22">
       <c r="B12" s="66"/>
@@ -10844,17 +10846,17 @@
       <c r="J16" s="68"/>
     </row>
     <row r="17" spans="2:22" ht="19.5">
-      <c r="B17" s="181" t="s">
+      <c r="B17" s="191" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="182"/>
-      <c r="D17" s="182"/>
-      <c r="E17" s="182"/>
-      <c r="F17" s="182"/>
-      <c r="G17" s="182"/>
-      <c r="H17" s="182"/>
-      <c r="I17" s="182"/>
-      <c r="J17" s="183"/>
+      <c r="C17" s="192"/>
+      <c r="D17" s="192"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="193"/>
     </row>
     <row r="18" spans="2:22" ht="15.75" thickBot="1">
       <c r="B18" s="66"/>
@@ -10888,8 +10890,8 @@
       </c>
       <c r="I19" s="67"/>
       <c r="J19" s="68"/>
-      <c r="L19" s="186" t="s">
-        <v>101</v>
+      <c r="L19" s="93" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="2:22" ht="19.5" customHeight="1" thickBot="1">
@@ -10909,19 +10911,19 @@
       </c>
       <c r="I20" s="67"/>
       <c r="J20" s="68"/>
-      <c r="L20" s="187" t="s">
-        <v>100</v>
-      </c>
-      <c r="M20" s="196"/>
-      <c r="N20" s="196"/>
-      <c r="O20" s="196"/>
-      <c r="P20" s="196"/>
-      <c r="Q20" s="196"/>
-      <c r="R20" s="196"/>
-      <c r="S20" s="196"/>
-      <c r="T20" s="196"/>
-      <c r="U20" s="196"/>
-      <c r="V20" s="197"/>
+      <c r="L20" s="179" t="s">
+        <v>101</v>
+      </c>
+      <c r="M20" s="180"/>
+      <c r="N20" s="180"/>
+      <c r="O20" s="180"/>
+      <c r="P20" s="180"/>
+      <c r="Q20" s="180"/>
+      <c r="R20" s="180"/>
+      <c r="S20" s="180"/>
+      <c r="T20" s="180"/>
+      <c r="U20" s="180"/>
+      <c r="V20" s="181"/>
     </row>
     <row r="21" spans="2:22">
       <c r="B21" s="66"/>
@@ -10935,17 +10937,17 @@
       <c r="H21" s="67"/>
       <c r="I21" s="67"/>
       <c r="J21" s="68"/>
-      <c r="L21" s="198"/>
-      <c r="M21" s="199"/>
-      <c r="N21" s="199"/>
-      <c r="O21" s="199"/>
-      <c r="P21" s="199"/>
-      <c r="Q21" s="199"/>
-      <c r="R21" s="199"/>
-      <c r="S21" s="199"/>
-      <c r="T21" s="199"/>
-      <c r="U21" s="199"/>
-      <c r="V21" s="200"/>
+      <c r="L21" s="182"/>
+      <c r="M21" s="183"/>
+      <c r="N21" s="183"/>
+      <c r="O21" s="183"/>
+      <c r="P21" s="183"/>
+      <c r="Q21" s="183"/>
+      <c r="R21" s="183"/>
+      <c r="S21" s="183"/>
+      <c r="T21" s="183"/>
+      <c r="U21" s="183"/>
+      <c r="V21" s="184"/>
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="66"/>
@@ -10957,17 +10959,17 @@
       <c r="H22" s="67"/>
       <c r="I22" s="67"/>
       <c r="J22" s="68"/>
-      <c r="L22" s="198"/>
-      <c r="M22" s="199"/>
-      <c r="N22" s="199"/>
-      <c r="O22" s="199"/>
-      <c r="P22" s="199"/>
-      <c r="Q22" s="199"/>
-      <c r="R22" s="199"/>
-      <c r="S22" s="199"/>
-      <c r="T22" s="199"/>
-      <c r="U22" s="199"/>
-      <c r="V22" s="200"/>
+      <c r="L22" s="182"/>
+      <c r="M22" s="183"/>
+      <c r="N22" s="183"/>
+      <c r="O22" s="183"/>
+      <c r="P22" s="183"/>
+      <c r="Q22" s="183"/>
+      <c r="R22" s="183"/>
+      <c r="S22" s="183"/>
+      <c r="T22" s="183"/>
+      <c r="U22" s="183"/>
+      <c r="V22" s="184"/>
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="66"/>
@@ -10987,17 +10989,17 @@
       <c r="H23" s="67"/>
       <c r="I23" s="67"/>
       <c r="J23" s="68"/>
-      <c r="L23" s="198"/>
-      <c r="M23" s="199"/>
-      <c r="N23" s="199"/>
-      <c r="O23" s="199"/>
-      <c r="P23" s="199"/>
-      <c r="Q23" s="199"/>
-      <c r="R23" s="199"/>
-      <c r="S23" s="199"/>
-      <c r="T23" s="199"/>
-      <c r="U23" s="199"/>
-      <c r="V23" s="200"/>
+      <c r="L23" s="182"/>
+      <c r="M23" s="183"/>
+      <c r="N23" s="183"/>
+      <c r="O23" s="183"/>
+      <c r="P23" s="183"/>
+      <c r="Q23" s="183"/>
+      <c r="R23" s="183"/>
+      <c r="S23" s="183"/>
+      <c r="T23" s="183"/>
+      <c r="U23" s="183"/>
+      <c r="V23" s="184"/>
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="66"/>
@@ -11017,17 +11019,17 @@
       <c r="H24" s="67"/>
       <c r="I24" s="67"/>
       <c r="J24" s="68"/>
-      <c r="L24" s="198"/>
-      <c r="M24" s="199"/>
-      <c r="N24" s="199"/>
-      <c r="O24" s="199"/>
-      <c r="P24" s="199"/>
-      <c r="Q24" s="199"/>
-      <c r="R24" s="199"/>
-      <c r="S24" s="199"/>
-      <c r="T24" s="199"/>
-      <c r="U24" s="199"/>
-      <c r="V24" s="200"/>
+      <c r="L24" s="182"/>
+      <c r="M24" s="183"/>
+      <c r="N24" s="183"/>
+      <c r="O24" s="183"/>
+      <c r="P24" s="183"/>
+      <c r="Q24" s="183"/>
+      <c r="R24" s="183"/>
+      <c r="S24" s="183"/>
+      <c r="T24" s="183"/>
+      <c r="U24" s="183"/>
+      <c r="V24" s="184"/>
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="66"/>
@@ -11039,17 +11041,17 @@
       <c r="H25" s="67"/>
       <c r="I25" s="67"/>
       <c r="J25" s="68"/>
-      <c r="L25" s="198"/>
-      <c r="M25" s="199"/>
-      <c r="N25" s="199"/>
-      <c r="O25" s="199"/>
-      <c r="P25" s="199"/>
-      <c r="Q25" s="199"/>
-      <c r="R25" s="199"/>
-      <c r="S25" s="199"/>
-      <c r="T25" s="199"/>
-      <c r="U25" s="199"/>
-      <c r="V25" s="200"/>
+      <c r="L25" s="182"/>
+      <c r="M25" s="183"/>
+      <c r="N25" s="183"/>
+      <c r="O25" s="183"/>
+      <c r="P25" s="183"/>
+      <c r="Q25" s="183"/>
+      <c r="R25" s="183"/>
+      <c r="S25" s="183"/>
+      <c r="T25" s="183"/>
+      <c r="U25" s="183"/>
+      <c r="V25" s="184"/>
     </row>
     <row r="26" spans="2:22">
       <c r="B26" s="66"/>
@@ -11061,17 +11063,17 @@
       <c r="H26" s="67"/>
       <c r="I26" s="67"/>
       <c r="J26" s="68"/>
-      <c r="L26" s="198"/>
-      <c r="M26" s="199"/>
-      <c r="N26" s="199"/>
-      <c r="O26" s="199"/>
-      <c r="P26" s="199"/>
-      <c r="Q26" s="199"/>
-      <c r="R26" s="199"/>
-      <c r="S26" s="199"/>
-      <c r="T26" s="199"/>
-      <c r="U26" s="199"/>
-      <c r="V26" s="200"/>
+      <c r="L26" s="182"/>
+      <c r="M26" s="183"/>
+      <c r="N26" s="183"/>
+      <c r="O26" s="183"/>
+      <c r="P26" s="183"/>
+      <c r="Q26" s="183"/>
+      <c r="R26" s="183"/>
+      <c r="S26" s="183"/>
+      <c r="T26" s="183"/>
+      <c r="U26" s="183"/>
+      <c r="V26" s="184"/>
     </row>
     <row r="27" spans="2:22">
       <c r="B27" s="66"/>
@@ -11083,17 +11085,17 @@
       <c r="H27" s="67"/>
       <c r="I27" s="67"/>
       <c r="J27" s="68"/>
-      <c r="L27" s="198"/>
-      <c r="M27" s="199"/>
-      <c r="N27" s="199"/>
-      <c r="O27" s="199"/>
-      <c r="P27" s="199"/>
-      <c r="Q27" s="199"/>
-      <c r="R27" s="199"/>
-      <c r="S27" s="199"/>
-      <c r="T27" s="199"/>
-      <c r="U27" s="199"/>
-      <c r="V27" s="200"/>
+      <c r="L27" s="182"/>
+      <c r="M27" s="183"/>
+      <c r="N27" s="183"/>
+      <c r="O27" s="183"/>
+      <c r="P27" s="183"/>
+      <c r="Q27" s="183"/>
+      <c r="R27" s="183"/>
+      <c r="S27" s="183"/>
+      <c r="T27" s="183"/>
+      <c r="U27" s="183"/>
+      <c r="V27" s="184"/>
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="66"/>
@@ -11105,17 +11107,17 @@
       <c r="H28" s="67"/>
       <c r="I28" s="67"/>
       <c r="J28" s="68"/>
-      <c r="L28" s="198"/>
-      <c r="M28" s="199"/>
-      <c r="N28" s="199"/>
-      <c r="O28" s="199"/>
-      <c r="P28" s="199"/>
-      <c r="Q28" s="199"/>
-      <c r="R28" s="199"/>
-      <c r="S28" s="199"/>
-      <c r="T28" s="199"/>
-      <c r="U28" s="199"/>
-      <c r="V28" s="200"/>
+      <c r="L28" s="182"/>
+      <c r="M28" s="183"/>
+      <c r="N28" s="183"/>
+      <c r="O28" s="183"/>
+      <c r="P28" s="183"/>
+      <c r="Q28" s="183"/>
+      <c r="R28" s="183"/>
+      <c r="S28" s="183"/>
+      <c r="T28" s="183"/>
+      <c r="U28" s="183"/>
+      <c r="V28" s="184"/>
     </row>
     <row r="29" spans="2:22">
       <c r="B29" s="66"/>
@@ -11127,17 +11129,17 @@
       <c r="H29" s="67"/>
       <c r="I29" s="67"/>
       <c r="J29" s="68"/>
-      <c r="L29" s="198"/>
-      <c r="M29" s="199"/>
-      <c r="N29" s="199"/>
-      <c r="O29" s="199"/>
-      <c r="P29" s="199"/>
-      <c r="Q29" s="199"/>
-      <c r="R29" s="199"/>
-      <c r="S29" s="199"/>
-      <c r="T29" s="199"/>
-      <c r="U29" s="199"/>
-      <c r="V29" s="200"/>
+      <c r="L29" s="182"/>
+      <c r="M29" s="183"/>
+      <c r="N29" s="183"/>
+      <c r="O29" s="183"/>
+      <c r="P29" s="183"/>
+      <c r="Q29" s="183"/>
+      <c r="R29" s="183"/>
+      <c r="S29" s="183"/>
+      <c r="T29" s="183"/>
+      <c r="U29" s="183"/>
+      <c r="V29" s="184"/>
     </row>
     <row r="30" spans="2:22">
       <c r="B30" s="66"/>
@@ -11149,17 +11151,17 @@
       <c r="H30" s="67"/>
       <c r="I30" s="67"/>
       <c r="J30" s="68"/>
-      <c r="L30" s="198"/>
-      <c r="M30" s="199"/>
-      <c r="N30" s="199"/>
-      <c r="O30" s="199"/>
-      <c r="P30" s="199"/>
-      <c r="Q30" s="199"/>
-      <c r="R30" s="199"/>
-      <c r="S30" s="199"/>
-      <c r="T30" s="199"/>
-      <c r="U30" s="199"/>
-      <c r="V30" s="200"/>
+      <c r="L30" s="182"/>
+      <c r="M30" s="183"/>
+      <c r="N30" s="183"/>
+      <c r="O30" s="183"/>
+      <c r="P30" s="183"/>
+      <c r="Q30" s="183"/>
+      <c r="R30" s="183"/>
+      <c r="S30" s="183"/>
+      <c r="T30" s="183"/>
+      <c r="U30" s="183"/>
+      <c r="V30" s="184"/>
     </row>
     <row r="31" spans="2:22" ht="15.75" thickBot="1">
       <c r="B31" s="66"/>
@@ -11171,17 +11173,17 @@
       <c r="H31" s="67"/>
       <c r="I31" s="67"/>
       <c r="J31" s="68"/>
-      <c r="L31" s="201"/>
-      <c r="M31" s="202"/>
-      <c r="N31" s="202"/>
-      <c r="O31" s="202"/>
-      <c r="P31" s="202"/>
-      <c r="Q31" s="202"/>
-      <c r="R31" s="202"/>
-      <c r="S31" s="202"/>
-      <c r="T31" s="202"/>
-      <c r="U31" s="202"/>
-      <c r="V31" s="203"/>
+      <c r="L31" s="185"/>
+      <c r="M31" s="186"/>
+      <c r="N31" s="186"/>
+      <c r="O31" s="186"/>
+      <c r="P31" s="186"/>
+      <c r="Q31" s="186"/>
+      <c r="R31" s="186"/>
+      <c r="S31" s="186"/>
+      <c r="T31" s="186"/>
+      <c r="U31" s="186"/>
+      <c r="V31" s="187"/>
     </row>
     <row r="32" spans="2:22">
       <c r="B32" s="66"/>

--- a/NAV Log Calculator - Flight Planner - E6B-like.xlsx
+++ b/NAV Log Calculator - Flight Planner - E6B-like.xlsx
@@ -8,23 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/194e8d034589e5e8/Aviation/NAV/Aviation-Navigation-Log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="848" documentId="13_ncr:1_{462FEA56-7C17-431A-9BAA-3E0293AE842A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6B357E3-AF93-40FB-95C3-A4EEEC9B29DB}"/>
+  <xr:revisionPtr revIDLastSave="875" documentId="13_ncr:1_{462FEA56-7C17-431A-9BAA-3E0293AE842A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB668A89-18CB-4E77-8D08-5294A0B90026}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="3" xr2:uid="{81AC26DA-A476-4998-AAF9-3938C858D589}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas" sheetId="2" r:id="rId1"/>
     <sheet name="Nav Log (not foldable)" sheetId="1" r:id="rId2"/>
-    <sheet name="Nav Log (Foldable)" sheetId="4" r:id="rId3"/>
-    <sheet name="Cross Wind Calculator" sheetId="5" r:id="rId4"/>
-    <sheet name="Mag Dev Compass Sample" sheetId="3" r:id="rId5"/>
+    <sheet name="Nav Log (not foldable) - filled" sheetId="6" r:id="rId3"/>
+    <sheet name="Nav Log (Foldable)" sheetId="4" r:id="rId4"/>
+    <sheet name="Nav Log (Foldable) - filled" sheetId="7" r:id="rId5"/>
+    <sheet name="Cross Wind Calculator" sheetId="5" r:id="rId6"/>
+    <sheet name="Mag Dev Compass Sample" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="Departure_Time" localSheetId="2">'Nav Log (Foldable)'!$D$1</definedName>
+    <definedName name="Departure_Time" localSheetId="3">'Nav Log (Foldable)'!$D$1</definedName>
+    <definedName name="Departure_Time" localSheetId="4">'Nav Log (Foldable) - filled'!$D$1</definedName>
+    <definedName name="Departure_Time" localSheetId="2">'Nav Log (not foldable) - filled'!$B$1</definedName>
     <definedName name="Departure_Time">'Nav Log (not foldable)'!$B$1</definedName>
-    <definedName name="FuelOnBoard" localSheetId="2">'Nav Log (Foldable)'!$J$1</definedName>
+    <definedName name="FuelOnBoard" localSheetId="3">'Nav Log (Foldable)'!$J$1</definedName>
+    <definedName name="FuelOnBoard" localSheetId="4">'Nav Log (Foldable) - filled'!$J$1</definedName>
+    <definedName name="FuelOnBoard" localSheetId="2">'Nav Log (not foldable) - filled'!$H$1</definedName>
     <definedName name="FuelOnBoard">'Nav Log (not foldable)'!$H$1</definedName>
-    <definedName name="GalsPerHour" localSheetId="2">'Nav Log (Foldable)'!$J$3</definedName>
+    <definedName name="GalsPerHour" localSheetId="3">'Nav Log (Foldable)'!$J$3</definedName>
+    <definedName name="GalsPerHour" localSheetId="4">'Nav Log (Foldable) - filled'!$J$3</definedName>
+    <definedName name="GalsPerHour" localSheetId="2">'Nav Log (not foldable) - filled'!$H$3</definedName>
     <definedName name="GalsPerHour">'Nav Log (not foldable)'!$H$3</definedName>
     <definedName name="HEading">'Cross Wind Calculator'!$D$4</definedName>
     <definedName name="RWY">'Cross Wind Calculator'!$D$19</definedName>
@@ -51,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="102">
   <si>
     <t>TC</t>
   </si>
@@ -1743,7 +1751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1983,256 +1991,250 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="11" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="11" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="17" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="23" fillId="17" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="23" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="23" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="17" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="17" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2260,6 +2262,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6334,6 +6348,841 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>8443</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>36706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>86901</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>217188</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00638B8A-918A-4EC4-9C70-036E3E2A42F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8443" y="1713106"/>
+          <a:ext cx="78458" cy="3895232"/>
+          <a:chOff x="17968" y="1465456"/>
+          <a:chExt cx="78458" cy="3917213"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="3" name="Group 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ED98728-016D-4112-B63B-FE3DFD98D030}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm flipH="1">
+            <a:off x="17968" y="1465456"/>
+            <a:ext cx="77737" cy="3421215"/>
+            <a:chOff x="1238954" y="522481"/>
+            <a:chExt cx="77737" cy="3399189"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="Isosceles Triangle 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD6FB7F1-0161-4572-AB17-7CB3B406C016}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="1063461" y="698700"/>
+              <a:ext cx="429449" cy="77011"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="Isosceles Triangle 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9658AE9-8B19-495A-AC19-42228E3E0672}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="1063460" y="1193215"/>
+              <a:ext cx="429450" cy="77011"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="Isosceles Triangle 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57BA18FB-931F-4CC2-95B5-F6246CC72594}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="1063097" y="1682667"/>
+              <a:ext cx="429451" cy="77737"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="Isosceles Triangle 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A4032D6-6B1C-4824-ADD4-449D66B409CF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="1063460" y="2186783"/>
+              <a:ext cx="429450" cy="77011"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="Isosceles Triangle 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{686F7D9D-E064-440B-B7BF-D0B1B241A101}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="1063459" y="2671160"/>
+              <a:ext cx="429451" cy="77011"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="Isosceles Triangle 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{788E7B6F-32CD-4A37-A7C7-7882F3CECCD8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="1063460" y="3165673"/>
+              <a:ext cx="429450" cy="77011"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="Isosceles Triangle 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27A05F95-6D8E-4FEF-86FD-E79212424042}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="1063459" y="3668439"/>
+              <a:ext cx="429451" cy="77011"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Isosceles Triangle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38ED8C40-0BED-4296-B3BC-A4E7DC6D0F3D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000" flipH="1">
+            <a:off x="-160577" y="5125665"/>
+            <a:ext cx="436996" cy="77011"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1336973</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>40020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1415431</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>220502</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="Group 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5061C97-24E4-4491-BD2D-7EEF06EE69B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipH="1">
+          <a:off x="1336973" y="1716420"/>
+          <a:ext cx="78458" cy="3895232"/>
+          <a:chOff x="17968" y="1465456"/>
+          <a:chExt cx="78458" cy="3917213"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="13" name="Group 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBDBA044-5E4C-492F-A085-F005E9F90125}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm flipH="1">
+            <a:off x="17968" y="1465456"/>
+            <a:ext cx="77737" cy="3421215"/>
+            <a:chOff x="1238954" y="522481"/>
+            <a:chExt cx="77737" cy="3399189"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="Isosceles Triangle 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BFBE12E-6B42-499D-A797-4F053948146B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="1063461" y="698700"/>
+              <a:ext cx="429449" cy="77011"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="Isosceles Triangle 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03C39683-00EC-424D-B8D1-B24D52816D04}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="1063460" y="1193215"/>
+              <a:ext cx="429450" cy="77011"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="Isosceles Triangle 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75176EF8-40C8-499B-837B-91329C9342FA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="1063097" y="1682667"/>
+              <a:ext cx="429451" cy="77737"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="Isosceles Triangle 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF7FF779-C79A-4D5A-B0A2-687CEFA1AF8C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="1063460" y="2178533"/>
+              <a:ext cx="429450" cy="77011"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="Isosceles Triangle 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47F7BDC5-4376-4552-A342-537D275984BF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="1063459" y="2671160"/>
+              <a:ext cx="429451" cy="77011"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="Isosceles Triangle 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF4F65B2-AFB3-4682-9F66-B669F1CECDF8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="1063460" y="3165673"/>
+              <a:ext cx="429450" cy="77011"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="Isosceles Triangle 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECB9DB53-D4F0-469C-B57C-D8DB510F00C4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="1063459" y="3668439"/>
+              <a:ext cx="429451" cy="77011"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Isosceles Triangle 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96F59AE3-A9B3-4521-810D-DEA8BC9B1959}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000" flipH="1">
+            <a:off x="-160577" y="5125665"/>
+            <a:ext cx="436996" cy="77011"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>73308</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -7170,7 +8019,847 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>73308</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1499242</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>224443</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD87DA1A-4712-42A7-86C7-99B37A0DB498}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4826283" y="1667424"/>
+          <a:ext cx="1502134" cy="3919594"/>
+          <a:chOff x="4826283" y="1667424"/>
+          <a:chExt cx="1502134" cy="3919594"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="3" name="Group 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A647932-C2D8-43E9-853C-B7A8F8408EC3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4826283" y="1669805"/>
+            <a:ext cx="90053" cy="3917213"/>
+            <a:chOff x="17965" y="1465456"/>
+            <a:chExt cx="80925" cy="3938789"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="14" name="Group 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6577C70C-32C3-46F5-A53B-E04D553ECA90}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm flipH="1">
+              <a:off x="17965" y="1465456"/>
+              <a:ext cx="77740" cy="3425673"/>
+              <a:chOff x="1238954" y="522481"/>
+              <a:chExt cx="77740" cy="3403619"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="16" name="Isosceles Triangle 15">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18E384E1-7341-4FEA-A061-D5E8428D2D6F}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16200000">
+                <a:off x="1063461" y="698700"/>
+                <a:ext cx="429449" cy="77011"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="17" name="Isosceles Triangle 16">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE04301D-A5C2-4EFD-AFC3-82E5B7883120}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16200000">
+                <a:off x="1063460" y="1201464"/>
+                <a:ext cx="429450" cy="77011"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="18" name="Isosceles Triangle 17">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFAD09A7-A76C-4BCB-929B-09E903F1F419}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16200000">
+                <a:off x="1063097" y="1696996"/>
+                <a:ext cx="429451" cy="77737"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="19" name="Isosceles Triangle 18">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C672EEAC-1E82-41D9-9ACA-18D189E04611}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16200000">
+                <a:off x="1063460" y="2196152"/>
+                <a:ext cx="429450" cy="77011"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="20" name="Isosceles Triangle 19">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{371075A7-D9DC-4E6C-873A-178384493B97}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16200000">
+                <a:off x="1063460" y="2683821"/>
+                <a:ext cx="429451" cy="77011"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="21" name="Isosceles Triangle 20">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1E80ACB-4C87-4387-9778-0E67AD48D1D3}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16200000">
+                <a:off x="1063464" y="3186582"/>
+                <a:ext cx="429450" cy="77011"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="22" name="Isosceles Triangle 21">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1FC5627-2D43-4716-A519-2D8320882FC0}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16200000">
+                <a:off x="1063459" y="3672869"/>
+                <a:ext cx="429451" cy="77011"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="Isosceles Triangle 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BAAACC3-206E-4B4B-B83D-0F0174CD3693}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="5400000" flipH="1">
+              <a:off x="-158113" y="5147241"/>
+              <a:ext cx="436996" cy="77011"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="4" name="Group 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13576173-A171-4A51-AC2F-B8EBCF61BCC9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm flipH="1">
+            <a:off x="6243127" y="1667424"/>
+            <a:ext cx="85290" cy="3917213"/>
+            <a:chOff x="17965" y="1465456"/>
+            <a:chExt cx="80925" cy="3938789"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="5" name="Group 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B602942E-A9DA-4F53-91C8-777B1B8A717F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm flipH="1">
+              <a:off x="17965" y="1465456"/>
+              <a:ext cx="77740" cy="3425673"/>
+              <a:chOff x="1238954" y="522481"/>
+              <a:chExt cx="77740" cy="3403619"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="7" name="Isosceles Triangle 6">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B764871-8457-4DC0-A7C1-B3E2DF12C85F}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16200000">
+                <a:off x="1063461" y="698700"/>
+                <a:ext cx="429449" cy="77011"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="8" name="Isosceles Triangle 7">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A71A8B0-14E7-4111-87C4-DE403D0DB984}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16200000">
+                <a:off x="1063460" y="1201464"/>
+                <a:ext cx="429450" cy="77011"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="9" name="Isosceles Triangle 8">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9FEE411-305B-46FD-B0EB-0D1DA3CE6E1B}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16200000">
+                <a:off x="1063097" y="1696996"/>
+                <a:ext cx="429451" cy="77737"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="10" name="Isosceles Triangle 9">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2FF262A-B342-4E95-B5B4-4DCA63253615}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16200000">
+                <a:off x="1063460" y="2196152"/>
+                <a:ext cx="429450" cy="77011"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="11" name="Isosceles Triangle 10">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF961876-5270-4FDD-8F6A-EEF859D9A475}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16200000">
+                <a:off x="1063460" y="2683821"/>
+                <a:ext cx="429451" cy="77011"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="12" name="Isosceles Triangle 11">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2940851D-7FC4-4551-A8C2-F42355F39190}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16200000">
+                <a:off x="1063464" y="3186582"/>
+                <a:ext cx="429450" cy="77011"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="13" name="Isosceles Triangle 12">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F08F3C-04FE-4809-A6D0-B0DF03FA1157}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16200000">
+                <a:off x="1063459" y="3672869"/>
+                <a:ext cx="429451" cy="77011"/>
+              </a:xfrm>
+              <a:prstGeom prst="triangle">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="Isosceles Triangle 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9AD56F8-1E40-49C1-BEBA-C4321CDC05C8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="5400000" flipH="1">
+              <a:off x="-158113" y="5147241"/>
+              <a:ext cx="436996" cy="77011"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7429,7 +9118,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -8014,7 +9703,7 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -8030,144 +9719,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="127">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C1" s="128"/>
-      <c r="E1" s="125" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="E1" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="141">
-        <v>38</v>
-      </c>
-      <c r="I1" s="148"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="107"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="151" t="s">
+      <c r="N1" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="152"/>
-      <c r="P1" s="141">
-        <v>3500</v>
-      </c>
-      <c r="Q1" s="141"/>
-      <c r="R1" s="139" t="s">
+      <c r="O1" s="111"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="96" t="s">
         <v>70</v>
       </c>
       <c r="T1"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="126"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="130"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="149"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="119"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="108"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="140"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="97"/>
       <c r="T2"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
-      <c r="E3" s="125" t="s">
+      <c r="E3" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="141">
-        <v>6.5</v>
-      </c>
-      <c r="I3" s="148"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="107"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="151" t="s">
+      <c r="N3" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="152"/>
-      <c r="P3" s="141">
-        <v>215</v>
-      </c>
-      <c r="Q3" s="143" t="s">
+      <c r="O3" s="111"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="R3" s="141">
-        <v>17</v>
-      </c>
-      <c r="S3" s="139" t="s">
+      <c r="R3" s="98"/>
+      <c r="S3" s="96" t="s">
         <v>71</v>
       </c>
       <c r="T3"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="E4" s="126"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="149"/>
-      <c r="N4" s="155"/>
-      <c r="O4" s="156"/>
-      <c r="P4" s="142"/>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="142"/>
-      <c r="S4" s="145"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="108"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="102"/>
       <c r="T4"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="134" t="s">
+      <c r="B6" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="135"/>
-      <c r="L6" s="136"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="131"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="134" t="s">
+      <c r="N6" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="135"/>
-      <c r="P6" s="135"/>
-      <c r="Q6" s="135"/>
-      <c r="R6" s="135"/>
-      <c r="S6" s="135"/>
-      <c r="T6" s="136"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="130"/>
+      <c r="Q6" s="130"/>
+      <c r="R6" s="130"/>
+      <c r="S6" s="130"/>
+      <c r="T6" s="131"/>
     </row>
     <row r="7" spans="1:20" ht="19.7" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="127" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="133"/>
-      <c r="D7" s="137" t="s">
+      <c r="C7" s="128"/>
+      <c r="D7" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="138"/>
+      <c r="E7" s="133"/>
       <c r="F7" s="59" t="s">
         <v>2</v>
       </c>
@@ -8197,9 +9874,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="19.7" customHeight="1">
-      <c r="A8" s="131" t="s">
-        <v>10</v>
-      </c>
+      <c r="A8" s="124"/>
       <c r="B8" s="63" t="s">
         <v>0</v>
       </c>
@@ -8257,90 +9932,70 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="116"/>
-      <c r="B9" s="119">
-        <v>90</v>
-      </c>
-      <c r="C9" s="119">
-        <v>3500</v>
-      </c>
-      <c r="D9" s="119">
-        <v>215</v>
-      </c>
-      <c r="E9" s="119">
-        <v>17</v>
-      </c>
-      <c r="F9" s="119">
-        <v>-10</v>
-      </c>
-      <c r="G9" s="119">
-        <v>95</v>
-      </c>
-      <c r="H9" s="118">
+      <c r="A9" s="125"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="122" t="str">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D9-B9))*(E9/G9)))),0),"")</f>
-        <v>8</v>
-      </c>
-      <c r="I9" s="118">
+        <v/>
+      </c>
+      <c r="I9" s="122" t="str">
         <f>IFERROR(ROUND(MOD(B9+H9,360),0),"")</f>
-        <v>98</v>
-      </c>
-      <c r="J9" s="119">
-        <v>13</v>
-      </c>
-      <c r="K9" s="118">
+        <v/>
+      </c>
+      <c r="J9" s="123"/>
+      <c r="K9" s="122" t="str">
         <f>IFERROR(MOD(I9+J9,360),"")</f>
-        <v>111</v>
-      </c>
-      <c r="L9" s="119">
-        <v>0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="L9" s="123"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="118">
+      <c r="N9" s="122" t="str">
         <f>IFERROR(MOD(K9+L9,360),"")</f>
-        <v>111</v>
-      </c>
-      <c r="O9" s="119">
-        <v>7</v>
-      </c>
-      <c r="P9" s="43">
+        <v/>
+      </c>
+      <c r="O9" s="123"/>
+      <c r="P9" s="43" t="str">
         <f>IFERROR(SQRT(G9^2+E9^2-2*G9*E9*COS(RADIANS(D9-B9-H9))),"")</f>
-        <v>103.82865362778588</v>
-      </c>
-      <c r="Q9" s="43">
+        <v/>
+      </c>
+      <c r="Q9" s="43" t="str">
         <f>IFERROR(ROUND(O9/P9*60,0),"")</f>
-        <v>4</v>
-      </c>
-      <c r="R9" s="39">
+        <v/>
+      </c>
+      <c r="R9" s="39" t="str">
         <f>IF(Q9&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q10)/60/24,""),"")</f>
-        <v>0.58611111111111114</v>
-      </c>
-      <c r="S9" s="43">
+        <v/>
+      </c>
+      <c r="S9" s="43" t="str">
         <f>IFERROR(ROUND(Q9/60*GalsPerHour,1),"")</f>
-        <v>0.4</v>
-      </c>
-      <c r="T9" s="43">
+        <v/>
+      </c>
+      <c r="T9" s="43" t="str">
         <f>IFERROR(IF(ISNUMBER(T7),T7,FuelOnBoard)-S9,"")</f>
-        <v>37.6</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A10" s="115" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="119"/>
+      <c r="A10" s="126"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="123"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="119"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="123"/>
       <c r="P10" s="53"/>
       <c r="Q10" s="53"/>
       <c r="R10" s="54"/>
@@ -8348,90 +10003,70 @@
       <c r="T10" s="53"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A11" s="116"/>
-      <c r="B11" s="124">
-        <v>90</v>
-      </c>
-      <c r="C11" s="124">
-        <v>3500</v>
-      </c>
-      <c r="D11" s="124">
-        <v>215</v>
-      </c>
-      <c r="E11" s="124">
-        <v>17</v>
-      </c>
-      <c r="F11" s="124">
-        <v>-10</v>
-      </c>
-      <c r="G11" s="124">
-        <v>95</v>
-      </c>
-      <c r="H11" s="122">
+      <c r="A11" s="125"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="120" t="str">
         <f t="shared" ref="H11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D11-B11))*(E11/G11)))),0),"")</f>
-        <v>8</v>
-      </c>
-      <c r="I11" s="122">
+        <v/>
+      </c>
+      <c r="I11" s="120" t="str">
         <f>IFERROR(ROUND(MOD(B11+H11,360),0),"")</f>
-        <v>98</v>
-      </c>
-      <c r="J11" s="124">
-        <v>13</v>
-      </c>
-      <c r="K11" s="122">
+        <v/>
+      </c>
+      <c r="J11" s="121"/>
+      <c r="K11" s="120" t="str">
         <f t="shared" ref="K11" si="1">IFERROR(MOD(I11+J11,360),"")</f>
-        <v>111</v>
-      </c>
-      <c r="L11" s="124">
-        <v>0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="L11" s="121"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="122">
+      <c r="N11" s="120" t="str">
         <f>IFERROR(MOD(K11+L11,360),"")</f>
-        <v>111</v>
-      </c>
-      <c r="O11" s="124">
-        <v>8</v>
-      </c>
-      <c r="P11" s="46">
+        <v/>
+      </c>
+      <c r="O11" s="121"/>
+      <c r="P11" s="46" t="str">
         <f>IFERROR(SQRT(G11^2+E11^2-2*G11*E11*COS(RADIANS(D11-B11-H11))),"")</f>
-        <v>103.82865362778588</v>
-      </c>
-      <c r="Q11" s="46">
+        <v/>
+      </c>
+      <c r="Q11" s="46" t="str">
         <f t="shared" ref="Q11" si="2">IFERROR(ROUND(O11/P11*60,0),"")</f>
-        <v>5</v>
-      </c>
-      <c r="R11" s="47">
+        <v/>
+      </c>
+      <c r="R11" s="47" t="str">
         <f>IF(Q11&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q12)/60/24,""),"")</f>
-        <v>0.58958333333333335</v>
-      </c>
-      <c r="S11" s="46">
+        <v/>
+      </c>
+      <c r="S11" s="46" t="str">
         <f>IFERROR(ROUND(Q11/60*GalsPerHour,1),"")</f>
-        <v>0.5</v>
-      </c>
-      <c r="T11" s="46">
+        <v/>
+      </c>
+      <c r="T11" s="46" t="str">
         <f>IFERROR(IF(ISNUMBER(T9),T9,FuelOnBoard)-S11,"")</f>
-        <v>37.1</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A12" s="115" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="124"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="122"/>
-      <c r="L12" s="124"/>
+      <c r="A12" s="126"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="121"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="122"/>
-      <c r="O12" s="124"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="121"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="45"/>
@@ -8439,90 +10074,70 @@
       <c r="T12" s="44"/>
     </row>
     <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A13" s="116"/>
-      <c r="B13" s="119">
-        <v>131</v>
-      </c>
-      <c r="C13" s="119">
-        <v>3500</v>
-      </c>
-      <c r="D13" s="119">
-        <v>215</v>
-      </c>
-      <c r="E13" s="119">
-        <v>17</v>
-      </c>
-      <c r="F13" s="119">
-        <v>-10</v>
-      </c>
-      <c r="G13" s="119">
-        <v>95</v>
-      </c>
-      <c r="H13" s="118">
+      <c r="A13" s="125"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="122" t="str">
         <f t="shared" ref="H13" si="3">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D13-B13))*(E13/G13)))),0),"")</f>
-        <v>10</v>
-      </c>
-      <c r="I13" s="118">
+        <v/>
+      </c>
+      <c r="I13" s="122" t="str">
         <f t="shared" ref="I13" si="4">IFERROR(ROUND(MOD(B13+H13,360),0),"")</f>
-        <v>141</v>
-      </c>
-      <c r="J13" s="119">
-        <v>13</v>
-      </c>
-      <c r="K13" s="118">
+        <v/>
+      </c>
+      <c r="J13" s="123"/>
+      <c r="K13" s="122" t="str">
         <f t="shared" ref="K13" si="5">IFERROR(MOD(I13+J13,360),"")</f>
-        <v>154</v>
-      </c>
-      <c r="L13" s="119">
-        <v>2</v>
-      </c>
+        <v/>
+      </c>
+      <c r="L13" s="123"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="118">
+      <c r="N13" s="122" t="str">
         <f>IFERROR(MOD(K13+L13,360),"")</f>
-        <v>156</v>
-      </c>
-      <c r="O13" s="119">
-        <v>11</v>
-      </c>
-      <c r="P13" s="43">
+        <v/>
+      </c>
+      <c r="O13" s="123"/>
+      <c r="P13" s="43" t="str">
         <f>IFERROR(SQRT(G13^2+E13^2-2*G13*E13*COS(RADIANS(D13-B13-H13))),"")</f>
-        <v>91.780669755189152</v>
-      </c>
-      <c r="Q13" s="43">
+        <v/>
+      </c>
+      <c r="Q13" s="43" t="str">
         <f t="shared" ref="Q13" si="6">IFERROR(ROUND(O13/P13*60,0),"")</f>
-        <v>7</v>
-      </c>
-      <c r="R13" s="39">
+        <v/>
+      </c>
+      <c r="R13" s="39" t="str">
         <f>IF(Q13&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q14)/60/24,""),"")</f>
-        <v>0.59444444444444444</v>
-      </c>
-      <c r="S13" s="43">
+        <v/>
+      </c>
+      <c r="S13" s="43" t="str">
         <f>IFERROR(ROUND(Q13/60*GalsPerHour,1),"")</f>
-        <v>0.8</v>
-      </c>
-      <c r="T13" s="43">
+        <v/>
+      </c>
+      <c r="T13" s="43" t="str">
         <f>IFERROR(IF(ISNUMBER(T11),T11,FuelOnBoard)-S13,"")</f>
-        <v>36.300000000000004</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A14" s="115" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="119"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="119"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="119"/>
+      <c r="A14" s="126"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="123"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="118"/>
-      <c r="O14" s="119"/>
+      <c r="N14" s="122"/>
+      <c r="O14" s="123"/>
       <c r="P14" s="53"/>
       <c r="Q14" s="53"/>
       <c r="R14" s="54"/>
@@ -8530,90 +10145,70 @@
       <c r="T14" s="53"/>
     </row>
     <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A15" s="116"/>
-      <c r="B15" s="117">
-        <v>131</v>
-      </c>
-      <c r="C15" s="117">
-        <v>3500</v>
-      </c>
-      <c r="D15" s="117">
-        <v>215</v>
-      </c>
-      <c r="E15" s="117">
-        <v>17</v>
-      </c>
-      <c r="F15" s="117">
-        <v>-10</v>
-      </c>
-      <c r="G15" s="117">
-        <v>95</v>
-      </c>
-      <c r="H15" s="122">
+      <c r="A15" s="125"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="120" t="str">
         <f t="shared" ref="H15" si="7">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D15-B15))*(E15/G15)))),0),"")</f>
-        <v>10</v>
-      </c>
-      <c r="I15" s="122">
+        <v/>
+      </c>
+      <c r="I15" s="120" t="str">
         <f t="shared" ref="I15" si="8">IFERROR(ROUND(MOD(B15+H15,360),0),"")</f>
-        <v>141</v>
-      </c>
-      <c r="J15" s="124">
-        <v>13</v>
-      </c>
-      <c r="K15" s="122">
+        <v/>
+      </c>
+      <c r="J15" s="121"/>
+      <c r="K15" s="120" t="str">
         <f t="shared" ref="K15" si="9">IFERROR(MOD(I15+J15,360),"")</f>
-        <v>154</v>
-      </c>
-      <c r="L15" s="124">
-        <v>2</v>
-      </c>
+        <v/>
+      </c>
+      <c r="L15" s="121"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="122">
+      <c r="N15" s="120" t="str">
         <f>IFERROR(MOD(K15+L15,360),"")</f>
-        <v>156</v>
-      </c>
-      <c r="O15" s="124">
-        <v>8</v>
-      </c>
-      <c r="P15" s="46">
+        <v/>
+      </c>
+      <c r="O15" s="121"/>
+      <c r="P15" s="46" t="str">
         <f>IFERROR(SQRT(G15^2+E15^2-2*G15*E15*COS(RADIANS(D15-B15-H15))),"")</f>
-        <v>91.780669755189152</v>
-      </c>
-      <c r="Q15" s="46">
+        <v/>
+      </c>
+      <c r="Q15" s="46" t="str">
         <f t="shared" ref="Q15" si="10">IFERROR(ROUND(O15/P15*60,0),"")</f>
-        <v>5</v>
-      </c>
-      <c r="R15" s="47">
+        <v/>
+      </c>
+      <c r="R15" s="47" t="str">
         <f>IF(Q15&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q16)/60/24,""),"")</f>
-        <v>0.59791666666666665</v>
-      </c>
-      <c r="S15" s="46">
+        <v/>
+      </c>
+      <c r="S15" s="46" t="str">
         <f>IFERROR(ROUND(Q15/60*GalsPerHour,1),"")</f>
-        <v>0.5</v>
-      </c>
-      <c r="T15" s="46">
+        <v/>
+      </c>
+      <c r="T15" s="46" t="str">
         <f>IFERROR(IF(ISNUMBER(T13),T13,FuelOnBoard)-S15,"")</f>
-        <v>35.800000000000004</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A16" s="115" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="117"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="124"/>
+      <c r="A16" s="126"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="121"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="122"/>
-      <c r="O16" s="124"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="121"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="45"/>
@@ -8621,90 +10216,70 @@
       <c r="T16" s="44"/>
     </row>
     <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A17" s="116"/>
-      <c r="B17" s="119">
-        <v>131</v>
-      </c>
-      <c r="C17" s="119">
-        <v>3500</v>
-      </c>
-      <c r="D17" s="119">
-        <v>215</v>
-      </c>
-      <c r="E17" s="119">
-        <v>17</v>
-      </c>
-      <c r="F17" s="119">
-        <v>-10</v>
-      </c>
-      <c r="G17" s="119">
-        <v>95</v>
-      </c>
-      <c r="H17" s="118">
+      <c r="A17" s="125"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="122" t="str">
         <f t="shared" ref="H17" si="11">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D17-B17))*(E17/G17)))),0),"")</f>
-        <v>10</v>
-      </c>
-      <c r="I17" s="118">
+        <v/>
+      </c>
+      <c r="I17" s="122" t="str">
         <f t="shared" ref="I17" si="12">IFERROR(ROUND(MOD(B17+H17,360),0),"")</f>
-        <v>141</v>
-      </c>
-      <c r="J17" s="119">
-        <v>13</v>
-      </c>
-      <c r="K17" s="118">
+        <v/>
+      </c>
+      <c r="J17" s="123"/>
+      <c r="K17" s="122" t="str">
         <f t="shared" ref="K17" si="13">IFERROR(MOD(I17+J17,360),"")</f>
-        <v>154</v>
-      </c>
-      <c r="L17" s="119">
-        <v>2</v>
-      </c>
+        <v/>
+      </c>
+      <c r="L17" s="123"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="118">
+      <c r="N17" s="122" t="str">
         <f>IFERROR(MOD(K17+L17,360),"")</f>
-        <v>156</v>
-      </c>
-      <c r="O17" s="119">
-        <v>10</v>
-      </c>
-      <c r="P17" s="43">
+        <v/>
+      </c>
+      <c r="O17" s="123"/>
+      <c r="P17" s="43" t="str">
         <f>IFERROR(SQRT(G17^2+E17^2-2*G17*E17*COS(RADIANS(D17-B17-H17))),"")</f>
-        <v>91.780669755189152</v>
-      </c>
-      <c r="Q17" s="43">
+        <v/>
+      </c>
+      <c r="Q17" s="43" t="str">
         <f t="shared" ref="Q17" si="14">IFERROR(ROUND(O17/P17*60,0),"")</f>
-        <v>7</v>
-      </c>
-      <c r="R17" s="39">
+        <v/>
+      </c>
+      <c r="R17" s="39" t="str">
         <f>IF(Q17&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q18)/60/24,""),"")</f>
-        <v>0.60277777777777786</v>
-      </c>
-      <c r="S17" s="43">
+        <v/>
+      </c>
+      <c r="S17" s="43" t="str">
         <f>IFERROR(ROUND(Q17/60*GalsPerHour,1),"")</f>
-        <v>0.8</v>
-      </c>
-      <c r="T17" s="43">
+        <v/>
+      </c>
+      <c r="T17" s="43" t="str">
         <f>IFERROR(IF(ISNUMBER(T15),T15,FuelOnBoard)-S17,"")</f>
-        <v>35.000000000000007</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A18" s="115" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="119"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="119"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="119"/>
+      <c r="A18" s="126"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="123"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="118"/>
-      <c r="O18" s="119"/>
+      <c r="N18" s="122"/>
+      <c r="O18" s="123"/>
       <c r="P18" s="53"/>
       <c r="Q18" s="53"/>
       <c r="R18" s="54"/>
@@ -8712,90 +10287,70 @@
       <c r="T18" s="53"/>
     </row>
     <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A19" s="116"/>
-      <c r="B19" s="117">
-        <v>131</v>
-      </c>
-      <c r="C19" s="117">
-        <v>3500</v>
-      </c>
-      <c r="D19" s="117">
-        <v>215</v>
-      </c>
-      <c r="E19" s="117">
-        <v>17</v>
-      </c>
-      <c r="F19" s="117">
-        <v>-10</v>
-      </c>
-      <c r="G19" s="117">
-        <v>95</v>
-      </c>
-      <c r="H19" s="122">
+      <c r="A19" s="125"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="120" t="str">
         <f t="shared" ref="H19" si="15">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D19-B19))*(E19/G19)))),0),"")</f>
-        <v>10</v>
-      </c>
-      <c r="I19" s="122">
+        <v/>
+      </c>
+      <c r="I19" s="120" t="str">
         <f t="shared" ref="I19" si="16">IFERROR(ROUND(MOD(B19+H19,360),0),"")</f>
-        <v>141</v>
-      </c>
-      <c r="J19" s="124">
-        <v>13</v>
-      </c>
-      <c r="K19" s="122">
+        <v/>
+      </c>
+      <c r="J19" s="121"/>
+      <c r="K19" s="120" t="str">
         <f t="shared" ref="K19" si="17">IFERROR(MOD(I19+J19,360),"")</f>
-        <v>154</v>
-      </c>
-      <c r="L19" s="124">
-        <v>2</v>
-      </c>
+        <v/>
+      </c>
+      <c r="L19" s="121"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="122">
+      <c r="N19" s="120" t="str">
         <f>IFERROR(MOD(K19+L19,360),"")</f>
-        <v>156</v>
-      </c>
-      <c r="O19" s="124">
-        <v>11</v>
-      </c>
-      <c r="P19" s="46">
+        <v/>
+      </c>
+      <c r="O19" s="121"/>
+      <c r="P19" s="46" t="str">
         <f>IFERROR(SQRT(G19^2+E19^2-2*G19*E19*COS(RADIANS(D19-B19-H19))),"")</f>
-        <v>91.780669755189152</v>
-      </c>
-      <c r="Q19" s="46">
+        <v/>
+      </c>
+      <c r="Q19" s="46" t="str">
         <f t="shared" ref="Q19" si="18">IFERROR(ROUND(O19/P19*60,0),"")</f>
-        <v>7</v>
-      </c>
-      <c r="R19" s="47">
+        <v/>
+      </c>
+      <c r="R19" s="47" t="str">
         <f>IF(Q19&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q20)/60/24,""),"")</f>
-        <v>0.60763888888888895</v>
-      </c>
-      <c r="S19" s="46">
+        <v/>
+      </c>
+      <c r="S19" s="46" t="str">
         <f>IFERROR(ROUND(Q19/60*GalsPerHour,1),"")</f>
-        <v>0.8</v>
-      </c>
-      <c r="T19" s="46">
+        <v/>
+      </c>
+      <c r="T19" s="46" t="str">
         <f>IFERROR(IF(ISNUMBER(T17),T17,FuelOnBoard)-S19,"")</f>
-        <v>34.20000000000001</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A20" s="115" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="117"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="124"/>
+      <c r="A20" s="126"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="121"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="122"/>
-      <c r="O20" s="124"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="121"/>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="45"/>
@@ -8803,33 +10358,33 @@
       <c r="T20" s="44"/>
     </row>
     <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A21" s="116"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="118" t="str">
+      <c r="A21" s="125"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="122" t="str">
         <f t="shared" ref="H21" si="19">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D21-B21))*(E21/G21)))),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="118" t="str">
+      <c r="I21" s="122" t="str">
         <f t="shared" ref="I21" si="20">IFERROR(ROUND(MOD(B21+H21,360),0),"")</f>
         <v/>
       </c>
-      <c r="J21" s="119"/>
-      <c r="K21" s="118" t="str">
+      <c r="J21" s="123"/>
+      <c r="K21" s="122" t="str">
         <f t="shared" ref="K21" si="21">IFERROR(MOD(I21+J21,360),"")</f>
         <v/>
       </c>
-      <c r="L21" s="119"/>
+      <c r="L21" s="123"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="118" t="str">
+      <c r="N21" s="122" t="str">
         <f>IFERROR(MOD(K21+L21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="119"/>
+      <c r="O21" s="123"/>
       <c r="P21" s="43" t="str">
         <f>IFERROR(SQRT(G21^2+E21^2-2*G21*E21*COS(RADIANS(D21-B21-H21))),"")</f>
         <v/>
@@ -8852,21 +10407,21 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A22" s="115"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
-      <c r="K22" s="118"/>
-      <c r="L22" s="119"/>
+      <c r="A22" s="126"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="122"/>
+      <c r="L22" s="123"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="118"/>
-      <c r="O22" s="119"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="123"/>
       <c r="P22" s="53"/>
       <c r="Q22" s="53"/>
       <c r="R22" s="54"/>
@@ -8874,33 +10429,33 @@
       <c r="T22" s="53"/>
     </row>
     <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A23" s="116"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="122" t="str">
+      <c r="A23" s="125"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="120" t="str">
         <f t="shared" ref="H23" si="23">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D23-B23))*(E23/G23)))),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="122" t="str">
+      <c r="I23" s="120" t="str">
         <f t="shared" ref="I23" si="24">IFERROR(ROUND(MOD(B23+H23,360),0),"")</f>
         <v/>
       </c>
-      <c r="J23" s="124"/>
-      <c r="K23" s="118" t="str">
+      <c r="J23" s="121"/>
+      <c r="K23" s="122" t="str">
         <f t="shared" ref="K23" si="25">IFERROR(MOD(I23+J23,360),"")</f>
         <v/>
       </c>
-      <c r="L23" s="124"/>
+      <c r="L23" s="121"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="118" t="str">
+      <c r="N23" s="122" t="str">
         <f>IFERROR(MOD(K23+L23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="124"/>
+      <c r="O23" s="121"/>
       <c r="P23" s="46" t="str">
         <f>IFERROR(SQRT(G23^2+E23^2-2*G23*E23*COS(RADIANS(D23-B23-H23))),"")</f>
         <v/>
@@ -8923,21 +10478,21 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A24" s="115"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="118"/>
-      <c r="L24" s="124"/>
+      <c r="A24" s="126"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="134"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="121"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="118"/>
-      <c r="O24" s="124"/>
+      <c r="N24" s="122"/>
+      <c r="O24" s="121"/>
       <c r="P24" s="44"/>
       <c r="Q24" s="44"/>
       <c r="R24" s="45"/>
@@ -8945,33 +10500,33 @@
       <c r="T24" s="44"/>
     </row>
     <row r="25" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A25" s="120"/>
-      <c r="B25" s="119"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="118" t="str">
+      <c r="A25" s="158"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="122" t="str">
         <f t="shared" ref="H25" si="27">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D25-B25))*(E25/G25)))),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="118" t="str">
+      <c r="I25" s="122" t="str">
         <f t="shared" ref="I25" si="28">IFERROR(ROUND(MOD(B25+H25,360),0),"")</f>
         <v/>
       </c>
-      <c r="J25" s="119"/>
-      <c r="K25" s="118" t="str">
+      <c r="J25" s="123"/>
+      <c r="K25" s="122" t="str">
         <f t="shared" ref="K25" si="29">IFERROR(MOD(I25+J25,360),"")</f>
         <v/>
       </c>
-      <c r="L25" s="119"/>
+      <c r="L25" s="123"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="118" t="str">
+      <c r="N25" s="122" t="str">
         <f>IFERROR(MOD(K25+L25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="119"/>
+      <c r="O25" s="123"/>
       <c r="P25" s="43" t="str">
         <f>IFERROR(SQRT(G25^2+E25^2-2*G25*E25*COS(RADIANS(D25-B25-H25))),"")</f>
         <v/>
@@ -8997,20 +10552,20 @@
       <c r="A26" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="121"/>
-      <c r="K26" s="123"/>
-      <c r="L26" s="121"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="136"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="135"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="118"/>
-      <c r="O26" s="121"/>
+      <c r="N26" s="122"/>
+      <c r="O26" s="135"/>
       <c r="P26" s="53"/>
       <c r="Q26" s="55"/>
       <c r="R26" s="56"/>
@@ -9018,142 +10573,244 @@
       <c r="T26" s="53"/>
     </row>
     <row r="27" spans="1:20" ht="15" customHeight="1">
-      <c r="A27" s="109" t="s">
+      <c r="A27" s="152" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="111"/>
-      <c r="O27" s="103">
+      <c r="B27" s="153"/>
+      <c r="C27" s="153"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="153"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="153"/>
+      <c r="L27" s="154"/>
+      <c r="O27" s="146">
         <f>SUM(O9:O26)</f>
-        <v>55</v>
-      </c>
-      <c r="Q27" s="105">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="148">
         <f>SUM(Q9:Q26)</f>
-        <v>35</v>
-      </c>
-      <c r="R27" s="107">
+        <v>0</v>
+      </c>
+      <c r="R27" s="150">
         <f>MAX(R9:R26)</f>
-        <v>0.60763888888888895</v>
-      </c>
-      <c r="S27" s="105">
+        <v>0</v>
+      </c>
+      <c r="S27" s="148">
         <f>SUM(S9:S26)</f>
-        <v>3.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="112"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="113"/>
-      <c r="K28" s="113"/>
-      <c r="L28" s="114"/>
-      <c r="O28" s="104"/>
-      <c r="Q28" s="106"/>
-      <c r="R28" s="108"/>
-      <c r="S28" s="106"/>
+      <c r="A28" s="155"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="157"/>
+      <c r="O28" s="147"/>
+      <c r="Q28" s="149"/>
+      <c r="R28" s="151"/>
+      <c r="S28" s="149"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="94" t="s">
+      <c r="A29" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="95"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="96"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="138"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="139"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="97"/>
-      <c r="B30" s="98"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="99"/>
+      <c r="A30" s="140"/>
+      <c r="B30" s="141"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="141"/>
+      <c r="I30" s="141"/>
+      <c r="J30" s="141"/>
+      <c r="K30" s="141"/>
+      <c r="L30" s="142"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="97"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
-      <c r="L31" s="99"/>
+      <c r="A31" s="140"/>
+      <c r="B31" s="141"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="141"/>
+      <c r="I31" s="141"/>
+      <c r="J31" s="141"/>
+      <c r="K31" s="141"/>
+      <c r="L31" s="142"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="97"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="98"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="99"/>
+      <c r="A32" s="140"/>
+      <c r="B32" s="141"/>
+      <c r="C32" s="141"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="141"/>
+      <c r="I32" s="141"/>
+      <c r="J32" s="141"/>
+      <c r="K32" s="141"/>
+      <c r="L32" s="142"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A33" s="100"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="101"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="102"/>
+      <c r="A33" s="143"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="144"/>
+      <c r="F33" s="144"/>
+      <c r="G33" s="144"/>
+      <c r="H33" s="144"/>
+      <c r="I33" s="144"/>
+      <c r="J33" s="144"/>
+      <c r="K33" s="144"/>
+      <c r="L33" s="145"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="150">
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="E1:G2"/>
-    <mergeCell ref="H1:I2"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="P1:Q2"/>
-    <mergeCell ref="N1:O2"/>
-    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="A29:L33"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="A27:L28"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="N11:N12"/>
@@ -9178,120 +10835,18 @@
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="A29:L33"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="A27:L28"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="E1:G2"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="N3:O4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
@@ -9301,11 +10856,1301 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7002BF1E-3608-46CE-99A5-FBE018EA192C}">
+  <dimension ref="A1:T33"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1" customWidth="1"/>
+    <col min="4" max="12" width="6" style="1" customWidth="1"/>
+    <col min="13" max="13" width="1" style="1" customWidth="1"/>
+    <col min="14" max="17" width="6" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" style="1" customWidth="1"/>
+    <col min="19" max="20" width="6" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="15" customHeight="1">
+      <c r="A1" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="116">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C1" s="117"/>
+      <c r="E1" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="98">
+        <v>38</v>
+      </c>
+      <c r="I1" s="107"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="111"/>
+      <c r="P1" s="98">
+        <v>3500</v>
+      </c>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="96" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1"/>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" s="105"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="119"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="97"/>
+      <c r="T2"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" customHeight="1">
+      <c r="E3" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="98">
+        <v>6.5</v>
+      </c>
+      <c r="I3" s="107"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="111"/>
+      <c r="P3" s="98">
+        <v>215</v>
+      </c>
+      <c r="Q3" s="100" t="s">
+        <v>72</v>
+      </c>
+      <c r="R3" s="98">
+        <v>17</v>
+      </c>
+      <c r="S3" s="96" t="s">
+        <v>71</v>
+      </c>
+      <c r="T3"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E4" s="105"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="108"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="102"/>
+      <c r="T4"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickBot="1"/>
+    <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="129" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="129" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="130"/>
+      <c r="P6" s="130"/>
+      <c r="Q6" s="130"/>
+      <c r="R6" s="130"/>
+      <c r="S6" s="130"/>
+      <c r="T6" s="131"/>
+    </row>
+    <row r="7" spans="1:20" ht="19.7" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="127" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="128"/>
+      <c r="D7" s="132" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="133"/>
+      <c r="F7" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="2"/>
+      <c r="P7" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q7" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="S7" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="T7" s="57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="19.7" customHeight="1">
+      <c r="A8" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q8" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="T8" s="58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A9" s="125"/>
+      <c r="B9" s="123">
+        <v>90</v>
+      </c>
+      <c r="C9" s="123">
+        <v>3500</v>
+      </c>
+      <c r="D9" s="123">
+        <v>215</v>
+      </c>
+      <c r="E9" s="123">
+        <v>17</v>
+      </c>
+      <c r="F9" s="123">
+        <v>-10</v>
+      </c>
+      <c r="G9" s="123">
+        <v>95</v>
+      </c>
+      <c r="H9" s="122">
+        <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D9-B9))*(E9/G9)))),0),"")</f>
+        <v>8</v>
+      </c>
+      <c r="I9" s="122">
+        <f>IFERROR(ROUND(MOD(B9+H9,360),0),"")</f>
+        <v>98</v>
+      </c>
+      <c r="J9" s="123">
+        <v>13</v>
+      </c>
+      <c r="K9" s="122">
+        <f>IFERROR(MOD(I9+J9,360),"")</f>
+        <v>111</v>
+      </c>
+      <c r="L9" s="123">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="122">
+        <f>IFERROR(MOD(K9+L9,360),"")</f>
+        <v>111</v>
+      </c>
+      <c r="O9" s="123">
+        <v>7</v>
+      </c>
+      <c r="P9" s="94">
+        <f>IFERROR(SQRT(G9^2+E9^2-2*G9*E9*COS(RADIANS(D9-B9-H9))),"")</f>
+        <v>103.82865362778588</v>
+      </c>
+      <c r="Q9" s="94">
+        <f>IFERROR(ROUND(O9/P9*60,0),"")</f>
+        <v>4</v>
+      </c>
+      <c r="R9" s="39">
+        <f>IF(Q9&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q10)/60/24,""),"")</f>
+        <v>0.58611111111111114</v>
+      </c>
+      <c r="S9" s="94">
+        <f>IFERROR(ROUND(Q9/60*GalsPerHour,1),"")</f>
+        <v>0.4</v>
+      </c>
+      <c r="T9" s="94">
+        <f>IFERROR(IF(ISNUMBER(T7),T7,FuelOnBoard)-S9,"")</f>
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A10" s="126" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+    </row>
+    <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A11" s="125"/>
+      <c r="B11" s="121">
+        <v>90</v>
+      </c>
+      <c r="C11" s="121">
+        <v>3500</v>
+      </c>
+      <c r="D11" s="121">
+        <v>215</v>
+      </c>
+      <c r="E11" s="121">
+        <v>17</v>
+      </c>
+      <c r="F11" s="121">
+        <v>-10</v>
+      </c>
+      <c r="G11" s="121">
+        <v>95</v>
+      </c>
+      <c r="H11" s="120">
+        <f t="shared" ref="H11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D11-B11))*(E11/G11)))),0),"")</f>
+        <v>8</v>
+      </c>
+      <c r="I11" s="120">
+        <f>IFERROR(ROUND(MOD(B11+H11,360),0),"")</f>
+        <v>98</v>
+      </c>
+      <c r="J11" s="121">
+        <v>13</v>
+      </c>
+      <c r="K11" s="120">
+        <f t="shared" ref="K11" si="1">IFERROR(MOD(I11+J11,360),"")</f>
+        <v>111</v>
+      </c>
+      <c r="L11" s="121">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="120">
+        <f>IFERROR(MOD(K11+L11,360),"")</f>
+        <v>111</v>
+      </c>
+      <c r="O11" s="121">
+        <v>8</v>
+      </c>
+      <c r="P11" s="95">
+        <f>IFERROR(SQRT(G11^2+E11^2-2*G11*E11*COS(RADIANS(D11-B11-H11))),"")</f>
+        <v>103.82865362778588</v>
+      </c>
+      <c r="Q11" s="95">
+        <f t="shared" ref="Q11" si="2">IFERROR(ROUND(O11/P11*60,0),"")</f>
+        <v>5</v>
+      </c>
+      <c r="R11" s="47">
+        <f>IF(Q11&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q12)/60/24,""),"")</f>
+        <v>0.58958333333333335</v>
+      </c>
+      <c r="S11" s="95">
+        <f>IFERROR(ROUND(Q11/60*GalsPerHour,1),"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="T11" s="95">
+        <f>IFERROR(IF(ISNUMBER(T9),T9,FuelOnBoard)-S11,"")</f>
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A12" s="126" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+    </row>
+    <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A13" s="125"/>
+      <c r="B13" s="123">
+        <v>131</v>
+      </c>
+      <c r="C13" s="123">
+        <v>3500</v>
+      </c>
+      <c r="D13" s="123">
+        <v>215</v>
+      </c>
+      <c r="E13" s="123">
+        <v>17</v>
+      </c>
+      <c r="F13" s="123">
+        <v>-10</v>
+      </c>
+      <c r="G13" s="123">
+        <v>95</v>
+      </c>
+      <c r="H13" s="122">
+        <f t="shared" ref="H13" si="3">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D13-B13))*(E13/G13)))),0),"")</f>
+        <v>10</v>
+      </c>
+      <c r="I13" s="122">
+        <f t="shared" ref="I13" si="4">IFERROR(ROUND(MOD(B13+H13,360),0),"")</f>
+        <v>141</v>
+      </c>
+      <c r="J13" s="123">
+        <v>13</v>
+      </c>
+      <c r="K13" s="122">
+        <f t="shared" ref="K13" si="5">IFERROR(MOD(I13+J13,360),"")</f>
+        <v>154</v>
+      </c>
+      <c r="L13" s="123">
+        <v>2</v>
+      </c>
+      <c r="M13" s="7"/>
+      <c r="N13" s="122">
+        <f>IFERROR(MOD(K13+L13,360),"")</f>
+        <v>156</v>
+      </c>
+      <c r="O13" s="123">
+        <v>11</v>
+      </c>
+      <c r="P13" s="94">
+        <f>IFERROR(SQRT(G13^2+E13^2-2*G13*E13*COS(RADIANS(D13-B13-H13))),"")</f>
+        <v>91.780669755189152</v>
+      </c>
+      <c r="Q13" s="94">
+        <f t="shared" ref="Q13" si="6">IFERROR(ROUND(O13/P13*60,0),"")</f>
+        <v>7</v>
+      </c>
+      <c r="R13" s="39">
+        <f>IF(Q13&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q14)/60/24,""),"")</f>
+        <v>0.59444444444444444</v>
+      </c>
+      <c r="S13" s="94">
+        <f>IFERROR(ROUND(Q13/60*GalsPerHour,1),"")</f>
+        <v>0.8</v>
+      </c>
+      <c r="T13" s="94">
+        <f>IFERROR(IF(ISNUMBER(T11),T11,FuelOnBoard)-S13,"")</f>
+        <v>36.300000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A14" s="126" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="122"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+    </row>
+    <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A15" s="125"/>
+      <c r="B15" s="134">
+        <v>131</v>
+      </c>
+      <c r="C15" s="134">
+        <v>3500</v>
+      </c>
+      <c r="D15" s="134">
+        <v>215</v>
+      </c>
+      <c r="E15" s="134">
+        <v>17</v>
+      </c>
+      <c r="F15" s="134">
+        <v>-10</v>
+      </c>
+      <c r="G15" s="134">
+        <v>95</v>
+      </c>
+      <c r="H15" s="120">
+        <f t="shared" ref="H15" si="7">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D15-B15))*(E15/G15)))),0),"")</f>
+        <v>10</v>
+      </c>
+      <c r="I15" s="120">
+        <f t="shared" ref="I15" si="8">IFERROR(ROUND(MOD(B15+H15,360),0),"")</f>
+        <v>141</v>
+      </c>
+      <c r="J15" s="121">
+        <v>13</v>
+      </c>
+      <c r="K15" s="120">
+        <f t="shared" ref="K15" si="9">IFERROR(MOD(I15+J15,360),"")</f>
+        <v>154</v>
+      </c>
+      <c r="L15" s="121">
+        <v>2</v>
+      </c>
+      <c r="M15" s="7"/>
+      <c r="N15" s="120">
+        <f>IFERROR(MOD(K15+L15,360),"")</f>
+        <v>156</v>
+      </c>
+      <c r="O15" s="121">
+        <v>8</v>
+      </c>
+      <c r="P15" s="95">
+        <f>IFERROR(SQRT(G15^2+E15^2-2*G15*E15*COS(RADIANS(D15-B15-H15))),"")</f>
+        <v>91.780669755189152</v>
+      </c>
+      <c r="Q15" s="95">
+        <f t="shared" ref="Q15" si="10">IFERROR(ROUND(O15/P15*60,0),"")</f>
+        <v>5</v>
+      </c>
+      <c r="R15" s="47">
+        <f>IF(Q15&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q16)/60/24,""),"")</f>
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="S15" s="95">
+        <f>IFERROR(ROUND(Q15/60*GalsPerHour,1),"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="T15" s="95">
+        <f>IFERROR(IF(ISNUMBER(T13),T13,FuelOnBoard)-S15,"")</f>
+        <v>35.800000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A16" s="126" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="121"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+    </row>
+    <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A17" s="125"/>
+      <c r="B17" s="123">
+        <v>131</v>
+      </c>
+      <c r="C17" s="123">
+        <v>3500</v>
+      </c>
+      <c r="D17" s="123">
+        <v>215</v>
+      </c>
+      <c r="E17" s="123">
+        <v>17</v>
+      </c>
+      <c r="F17" s="123">
+        <v>-10</v>
+      </c>
+      <c r="G17" s="123">
+        <v>95</v>
+      </c>
+      <c r="H17" s="122">
+        <f t="shared" ref="H17" si="11">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D17-B17))*(E17/G17)))),0),"")</f>
+        <v>10</v>
+      </c>
+      <c r="I17" s="122">
+        <f t="shared" ref="I17" si="12">IFERROR(ROUND(MOD(B17+H17,360),0),"")</f>
+        <v>141</v>
+      </c>
+      <c r="J17" s="123">
+        <v>13</v>
+      </c>
+      <c r="K17" s="122">
+        <f t="shared" ref="K17" si="13">IFERROR(MOD(I17+J17,360),"")</f>
+        <v>154</v>
+      </c>
+      <c r="L17" s="123">
+        <v>2</v>
+      </c>
+      <c r="M17" s="7"/>
+      <c r="N17" s="122">
+        <f>IFERROR(MOD(K17+L17,360),"")</f>
+        <v>156</v>
+      </c>
+      <c r="O17" s="123">
+        <v>10</v>
+      </c>
+      <c r="P17" s="94">
+        <f>IFERROR(SQRT(G17^2+E17^2-2*G17*E17*COS(RADIANS(D17-B17-H17))),"")</f>
+        <v>91.780669755189152</v>
+      </c>
+      <c r="Q17" s="94">
+        <f t="shared" ref="Q17" si="14">IFERROR(ROUND(O17/P17*60,0),"")</f>
+        <v>7</v>
+      </c>
+      <c r="R17" s="39">
+        <f>IF(Q17&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q18)/60/24,""),"")</f>
+        <v>0.60277777777777786</v>
+      </c>
+      <c r="S17" s="94">
+        <f>IFERROR(ROUND(Q17/60*GalsPerHour,1),"")</f>
+        <v>0.8</v>
+      </c>
+      <c r="T17" s="94">
+        <f>IFERROR(IF(ISNUMBER(T15),T15,FuelOnBoard)-S17,"")</f>
+        <v>35.000000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A18" s="126" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="123"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="122"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
+    </row>
+    <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A19" s="125"/>
+      <c r="B19" s="134">
+        <v>131</v>
+      </c>
+      <c r="C19" s="134">
+        <v>3500</v>
+      </c>
+      <c r="D19" s="134">
+        <v>215</v>
+      </c>
+      <c r="E19" s="134">
+        <v>17</v>
+      </c>
+      <c r="F19" s="134">
+        <v>-10</v>
+      </c>
+      <c r="G19" s="134">
+        <v>95</v>
+      </c>
+      <c r="H19" s="120">
+        <f t="shared" ref="H19" si="15">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D19-B19))*(E19/G19)))),0),"")</f>
+        <v>10</v>
+      </c>
+      <c r="I19" s="120">
+        <f t="shared" ref="I19" si="16">IFERROR(ROUND(MOD(B19+H19,360),0),"")</f>
+        <v>141</v>
+      </c>
+      <c r="J19" s="121">
+        <v>13</v>
+      </c>
+      <c r="K19" s="120">
+        <f t="shared" ref="K19" si="17">IFERROR(MOD(I19+J19,360),"")</f>
+        <v>154</v>
+      </c>
+      <c r="L19" s="121">
+        <v>2</v>
+      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="120">
+        <f>IFERROR(MOD(K19+L19,360),"")</f>
+        <v>156</v>
+      </c>
+      <c r="O19" s="121">
+        <v>11</v>
+      </c>
+      <c r="P19" s="95">
+        <f>IFERROR(SQRT(G19^2+E19^2-2*G19*E19*COS(RADIANS(D19-B19-H19))),"")</f>
+        <v>91.780669755189152</v>
+      </c>
+      <c r="Q19" s="95">
+        <f t="shared" ref="Q19" si="18">IFERROR(ROUND(O19/P19*60,0),"")</f>
+        <v>7</v>
+      </c>
+      <c r="R19" s="47">
+        <f>IF(Q19&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q20)/60/24,""),"")</f>
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="S19" s="95">
+        <f>IFERROR(ROUND(Q19/60*GalsPerHour,1),"")</f>
+        <v>0.8</v>
+      </c>
+      <c r="T19" s="95">
+        <f>IFERROR(IF(ISNUMBER(T17),T17,FuelOnBoard)-S19,"")</f>
+        <v>34.20000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A20" s="126" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="134"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="121"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+    </row>
+    <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A21" s="125"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="122" t="str">
+        <f t="shared" ref="H21" si="19">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D21-B21))*(E21/G21)))),0),"")</f>
+        <v/>
+      </c>
+      <c r="I21" s="122" t="str">
+        <f t="shared" ref="I21" si="20">IFERROR(ROUND(MOD(B21+H21,360),0),"")</f>
+        <v/>
+      </c>
+      <c r="J21" s="123"/>
+      <c r="K21" s="122" t="str">
+        <f t="shared" ref="K21" si="21">IFERROR(MOD(I21+J21,360),"")</f>
+        <v/>
+      </c>
+      <c r="L21" s="123"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="122" t="str">
+        <f>IFERROR(MOD(K21+L21,360),"")</f>
+        <v/>
+      </c>
+      <c r="O21" s="123"/>
+      <c r="P21" s="94" t="str">
+        <f>IFERROR(SQRT(G21^2+E21^2-2*G21*E21*COS(RADIANS(D21-B21-H21))),"")</f>
+        <v/>
+      </c>
+      <c r="Q21" s="94" t="str">
+        <f t="shared" ref="Q21" si="22">IFERROR(ROUND(O21/P21*60,0),"")</f>
+        <v/>
+      </c>
+      <c r="R21" s="39" t="str">
+        <f>IF(Q21&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q22)/60/24,""),"")</f>
+        <v/>
+      </c>
+      <c r="S21" s="94" t="str">
+        <f>IFERROR(ROUND(Q21/60*GalsPerHour,1),"")</f>
+        <v/>
+      </c>
+      <c r="T21" s="94" t="str">
+        <f>IFERROR(IF(ISNUMBER(T19),T19,FuelOnBoard)-S21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A22" s="126"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="122"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+    </row>
+    <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A23" s="125"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="120" t="str">
+        <f t="shared" ref="H23" si="23">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D23-B23))*(E23/G23)))),0),"")</f>
+        <v/>
+      </c>
+      <c r="I23" s="120" t="str">
+        <f t="shared" ref="I23" si="24">IFERROR(ROUND(MOD(B23+H23,360),0),"")</f>
+        <v/>
+      </c>
+      <c r="J23" s="121"/>
+      <c r="K23" s="122" t="str">
+        <f t="shared" ref="K23" si="25">IFERROR(MOD(I23+J23,360),"")</f>
+        <v/>
+      </c>
+      <c r="L23" s="121"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="122" t="str">
+        <f>IFERROR(MOD(K23+L23,360),"")</f>
+        <v/>
+      </c>
+      <c r="O23" s="121"/>
+      <c r="P23" s="95" t="str">
+        <f>IFERROR(SQRT(G23^2+E23^2-2*G23*E23*COS(RADIANS(D23-B23-H23))),"")</f>
+        <v/>
+      </c>
+      <c r="Q23" s="95" t="str">
+        <f t="shared" ref="Q23" si="26">IFERROR(ROUND(O23/P23*60,0),"")</f>
+        <v/>
+      </c>
+      <c r="R23" s="47" t="str">
+        <f>IF(Q23&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q24)/60/24,""),"")</f>
+        <v/>
+      </c>
+      <c r="S23" s="95" t="str">
+        <f>IFERROR(ROUND(Q23/60*GalsPerHour,1),"")</f>
+        <v/>
+      </c>
+      <c r="T23" s="95" t="str">
+        <f>IFERROR(IF(ISNUMBER(T21),T21,FuelOnBoard)-S23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A24" s="126"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="134"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="121"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="122"/>
+      <c r="O24" s="121"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+    </row>
+    <row r="25" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A25" s="158"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="122" t="str">
+        <f t="shared" ref="H25" si="27">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D25-B25))*(E25/G25)))),0),"")</f>
+        <v/>
+      </c>
+      <c r="I25" s="122" t="str">
+        <f t="shared" ref="I25" si="28">IFERROR(ROUND(MOD(B25+H25,360),0),"")</f>
+        <v/>
+      </c>
+      <c r="J25" s="123"/>
+      <c r="K25" s="122" t="str">
+        <f t="shared" ref="K25" si="29">IFERROR(MOD(I25+J25,360),"")</f>
+        <v/>
+      </c>
+      <c r="L25" s="123"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="122" t="str">
+        <f>IFERROR(MOD(K25+L25,360),"")</f>
+        <v/>
+      </c>
+      <c r="O25" s="123"/>
+      <c r="P25" s="94" t="str">
+        <f>IFERROR(SQRT(G25^2+E25^2-2*G25*E25*COS(RADIANS(D25-B25-H25))),"")</f>
+        <v/>
+      </c>
+      <c r="Q25" s="94" t="str">
+        <f t="shared" ref="Q25" si="30">IFERROR(ROUND(O25/P25*60,0),"")</f>
+        <v/>
+      </c>
+      <c r="R25" s="39" t="str">
+        <f>IF(Q25&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q26)/60/24,""),"")</f>
+        <v/>
+      </c>
+      <c r="S25" s="94" t="str">
+        <f>IFERROR(ROUND(Q25/60*GalsPerHour,1),"")</f>
+        <v/>
+      </c>
+      <c r="T25" s="94" t="str">
+        <f>IFERROR(IF(ISNUMBER(T23),T23,FuelOnBoard)-S25,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A26" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="135"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="136"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="135"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="122"/>
+      <c r="O26" s="135"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="53"/>
+    </row>
+    <row r="27" spans="1:20" ht="15" customHeight="1">
+      <c r="A27" s="152" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="153"/>
+      <c r="C27" s="153"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="153"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="153"/>
+      <c r="L27" s="154"/>
+      <c r="O27" s="146">
+        <f>SUM(O9:O26)</f>
+        <v>55</v>
+      </c>
+      <c r="Q27" s="148">
+        <f>SUM(Q9:Q26)</f>
+        <v>35</v>
+      </c>
+      <c r="R27" s="150">
+        <f>MAX(R9:R26)</f>
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="S27" s="148">
+        <f>SUM(S9:S26)</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="15" customHeight="1" thickBot="1">
+      <c r="A28" s="155"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="157"/>
+      <c r="O28" s="147"/>
+      <c r="Q28" s="149"/>
+      <c r="R28" s="151"/>
+      <c r="S28" s="149"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="137" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="138"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="138"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="139"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="140"/>
+      <c r="B30" s="141"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="141"/>
+      <c r="I30" s="141"/>
+      <c r="J30" s="141"/>
+      <c r="K30" s="141"/>
+      <c r="L30" s="142"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="140"/>
+      <c r="B31" s="141"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="141"/>
+      <c r="I31" s="141"/>
+      <c r="J31" s="141"/>
+      <c r="K31" s="141"/>
+      <c r="L31" s="142"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="140"/>
+      <c r="B32" s="141"/>
+      <c r="C32" s="141"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="141"/>
+      <c r="I32" s="141"/>
+      <c r="J32" s="141"/>
+      <c r="K32" s="141"/>
+      <c r="L32" s="142"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A33" s="143"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="144"/>
+      <c r="F33" s="144"/>
+      <c r="G33" s="144"/>
+      <c r="H33" s="144"/>
+      <c r="I33" s="144"/>
+      <c r="J33" s="144"/>
+      <c r="K33" s="144"/>
+      <c r="L33" s="145"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="150">
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="A29:L33"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="A27:L28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="E1:G2"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="P1:Q2"/>
+  </mergeCells>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4157655B-8A58-497F-BBC8-F24326906F8C}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20:M21"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -9324,134 +12169,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="166">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="E1" s="167"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="164"/>
       <c r="F1" s="40"/>
-      <c r="G1" s="170" t="s">
+      <c r="G1" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="161">
-        <v>38</v>
-      </c>
-      <c r="K1" s="161"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
       <c r="L1" s="24"/>
-      <c r="M1" s="171" t="s">
+      <c r="M1" s="169" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="173">
-        <v>3500</v>
-      </c>
-      <c r="O1" s="173"/>
-      <c r="P1" s="157" t="s">
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="177" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="169"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
+      <c r="A2" s="161"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="166"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
       <c r="L2" s="24"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="161"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="158"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="178"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="G3" s="170" t="s">
+      <c r="G3" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="161">
-        <v>6.5</v>
-      </c>
-      <c r="K3" s="161"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
       <c r="L3" s="25"/>
-      <c r="M3" s="174" t="s">
+      <c r="M3" s="172" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="161">
-        <v>215</v>
-      </c>
-      <c r="O3" s="161"/>
-      <c r="P3" s="159" t="s">
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="179" t="s">
         <v>72</v>
       </c>
-      <c r="Q3" s="161">
-        <v>17</v>
-      </c>
-      <c r="R3" s="161"/>
-      <c r="S3" s="157" t="s">
+      <c r="Q3" s="167"/>
+      <c r="R3" s="167"/>
+      <c r="S3" s="177" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
       <c r="L4" s="25"/>
-      <c r="M4" s="175"/>
-      <c r="N4" s="176"/>
-      <c r="O4" s="176"/>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="161"/>
-      <c r="S4" s="158"/>
+      <c r="M4" s="173"/>
+      <c r="N4" s="174"/>
+      <c r="O4" s="174"/>
+      <c r="P4" s="180"/>
+      <c r="Q4" s="167"/>
+      <c r="R4" s="167"/>
+      <c r="S4" s="178"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1">
       <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="136"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="131"/>
       <c r="L6" s="26"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="134" t="s">
+      <c r="N6" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="135"/>
-      <c r="P6" s="135"/>
-      <c r="Q6" s="135"/>
-      <c r="R6" s="135"/>
-      <c r="S6" s="135"/>
-      <c r="T6" s="136"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="130"/>
+      <c r="Q6" s="130"/>
+      <c r="R6" s="130"/>
+      <c r="S6" s="130"/>
+      <c r="T6" s="131"/>
     </row>
     <row r="7" spans="1:20" ht="19.7" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="177" t="s">
+      <c r="C7" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="178"/>
+      <c r="D7" s="176"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -9514,9 +12347,7 @@
         <v>7</v>
       </c>
       <c r="L8" s="28"/>
-      <c r="M8" s="131" t="s">
-        <v>10</v>
-      </c>
+      <c r="M8" s="124"/>
       <c r="N8" s="32" t="s">
         <v>8</v>
       </c>
@@ -9540,90 +12371,70 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="119">
-        <v>90</v>
-      </c>
-      <c r="B9" s="119">
-        <v>3500</v>
-      </c>
-      <c r="C9" s="119">
-        <v>170</v>
-      </c>
-      <c r="D9" s="119">
-        <v>17</v>
-      </c>
-      <c r="E9" s="119">
-        <v>-10</v>
-      </c>
-      <c r="F9" s="119">
-        <v>95</v>
-      </c>
-      <c r="G9" s="118">
+      <c r="A9" s="123"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="122" t="str">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C9-A9))*(D9/F9)))),0),"")</f>
-        <v>10</v>
-      </c>
-      <c r="H9" s="118">
+        <v/>
+      </c>
+      <c r="H9" s="122" t="str">
         <f>IFERROR(ROUND(MOD(A9+G9,360),0),"")</f>
-        <v>100</v>
-      </c>
-      <c r="I9" s="119">
-        <v>13</v>
-      </c>
-      <c r="J9" s="118">
+        <v/>
+      </c>
+      <c r="I9" s="123"/>
+      <c r="J9" s="122" t="str">
         <f>IFERROR(MOD(H9+I9,360),"")</f>
-        <v>113</v>
-      </c>
-      <c r="K9" s="119">
-        <v>0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="K9" s="123"/>
       <c r="L9" s="29"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="118">
+      <c r="M9" s="125"/>
+      <c r="N9" s="122" t="str">
         <f>IFERROR(MOD(J9+K9,360),"")</f>
-        <v>113</v>
-      </c>
-      <c r="O9" s="119">
-        <v>7</v>
-      </c>
-      <c r="P9" s="42">
+        <v/>
+      </c>
+      <c r="O9" s="123"/>
+      <c r="P9" s="42" t="str">
         <f>IFERROR(SQRT(F9^2+D9^2-2*F9*D9*COS(RADIANS(C9-A9-G9))),"")</f>
-        <v>90.605049180816025</v>
-      </c>
-      <c r="Q9" s="42">
+        <v/>
+      </c>
+      <c r="Q9" s="42" t="str">
         <f>IFERROR(ROUND(O9/P9*60,0),"")</f>
-        <v>5</v>
-      </c>
-      <c r="R9" s="39">
+        <v/>
+      </c>
+      <c r="R9" s="39" t="str">
         <f>IF(Q9&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q10)/60/24,""),"")</f>
-        <v>0.63888888888888884</v>
-      </c>
-      <c r="S9" s="42">
+        <v/>
+      </c>
+      <c r="S9" s="42" t="str">
         <f>IFERROR(ROUND(Q9/60*GalsPerHour,1),"")</f>
-        <v>0.5</v>
-      </c>
-      <c r="T9" s="42">
+        <v/>
+      </c>
+      <c r="T9" s="42" t="str">
         <f>IFERROR(IF(ISNUMBER(T7),T7,FuelOnBoard)-S9,"")</f>
-        <v>37.5</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A10" s="119"/>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="119"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="123"/>
       <c r="L10" s="29"/>
-      <c r="M10" s="115" t="s">
-        <v>62</v>
-      </c>
-      <c r="N10" s="118"/>
-      <c r="O10" s="119"/>
+      <c r="M10" s="126"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="123"/>
       <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="45"/>
@@ -9631,90 +12442,70 @@
       <c r="T10" s="44"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A11" s="124">
-        <v>90</v>
-      </c>
-      <c r="B11" s="124">
-        <v>3500</v>
-      </c>
-      <c r="C11" s="124">
-        <v>215</v>
-      </c>
-      <c r="D11" s="124">
-        <v>17</v>
-      </c>
-      <c r="E11" s="124">
-        <v>-10</v>
-      </c>
-      <c r="F11" s="124">
-        <v>95</v>
-      </c>
-      <c r="G11" s="122">
+      <c r="A11" s="121"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="120" t="str">
         <f t="shared" ref="G11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C11-A11))*(D11/F11)))),0),"")</f>
-        <v>8</v>
-      </c>
-      <c r="H11" s="122">
+        <v/>
+      </c>
+      <c r="H11" s="120" t="str">
         <f t="shared" ref="H11" si="1">IFERROR(ROUND(MOD(A11+G11,360),0),"")</f>
-        <v>98</v>
-      </c>
-      <c r="I11" s="124">
-        <v>13</v>
-      </c>
-      <c r="J11" s="122">
+        <v/>
+      </c>
+      <c r="I11" s="121"/>
+      <c r="J11" s="120" t="str">
         <f t="shared" ref="J11" si="2">IFERROR(MOD(H11+I11,360),"")</f>
-        <v>111</v>
-      </c>
-      <c r="K11" s="124">
-        <v>0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="K11" s="121"/>
       <c r="L11" s="29"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="122">
+      <c r="M11" s="125"/>
+      <c r="N11" s="120" t="str">
         <f>IFERROR(MOD(J11+K11,360),"")</f>
-        <v>111</v>
-      </c>
-      <c r="O11" s="124">
-        <v>8</v>
-      </c>
-      <c r="P11" s="46">
+        <v/>
+      </c>
+      <c r="O11" s="121"/>
+      <c r="P11" s="46" t="str">
         <f>IFERROR(SQRT(F11^2+D11^2-2*F11*D11*COS(RADIANS(C11-A11-G11))),"")</f>
-        <v>103.82865362778588</v>
-      </c>
-      <c r="Q11" s="46">
+        <v/>
+      </c>
+      <c r="Q11" s="46" t="str">
         <f t="shared" ref="Q11" si="3">IFERROR(ROUND(O11/P11*60,0),"")</f>
-        <v>5</v>
-      </c>
-      <c r="R11" s="47">
+        <v/>
+      </c>
+      <c r="R11" s="47" t="str">
         <f>IF(Q11&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q12)/60/24,""),"")</f>
-        <v>0.64236111111111105</v>
-      </c>
-      <c r="S11" s="46">
+        <v/>
+      </c>
+      <c r="S11" s="46" t="str">
         <f>IFERROR(ROUND(Q11/60*GalsPerHour,1),"")</f>
-        <v>0.5</v>
-      </c>
-      <c r="T11" s="46">
+        <v/>
+      </c>
+      <c r="T11" s="46" t="str">
         <f>IFERROR(IF(ISNUMBER(T9),T9,FuelOnBoard)-S11,"")</f>
-        <v>37</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A12" s="124"/>
-      <c r="B12" s="124"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="124"/>
+      <c r="A12" s="121"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="121"/>
       <c r="L12" s="29"/>
-      <c r="M12" s="115" t="s">
-        <v>63</v>
-      </c>
-      <c r="N12" s="122"/>
-      <c r="O12" s="124"/>
+      <c r="M12" s="126"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="121"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="45"/>
@@ -9722,90 +12513,70 @@
       <c r="T12" s="44"/>
     </row>
     <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A13" s="119">
-        <v>131</v>
-      </c>
-      <c r="B13" s="119">
-        <v>3500</v>
-      </c>
-      <c r="C13" s="119">
-        <v>215</v>
-      </c>
-      <c r="D13" s="119">
-        <v>17</v>
-      </c>
-      <c r="E13" s="119">
-        <v>-10</v>
-      </c>
-      <c r="F13" s="119">
-        <v>95</v>
-      </c>
-      <c r="G13" s="118">
+      <c r="A13" s="123"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="122" t="str">
         <f t="shared" ref="G13" si="4">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C13-A13))*(D13/F13)))),0),"")</f>
-        <v>10</v>
-      </c>
-      <c r="H13" s="118">
+        <v/>
+      </c>
+      <c r="H13" s="122" t="str">
         <f t="shared" ref="H13" si="5">IFERROR(ROUND(MOD(A13+G13,360),0),"")</f>
-        <v>141</v>
-      </c>
-      <c r="I13" s="119">
-        <v>13</v>
-      </c>
-      <c r="J13" s="118">
+        <v/>
+      </c>
+      <c r="I13" s="123"/>
+      <c r="J13" s="122" t="str">
         <f t="shared" ref="J13" si="6">IFERROR(MOD(H13+I13,360),"")</f>
-        <v>154</v>
-      </c>
-      <c r="K13" s="119">
-        <v>2</v>
-      </c>
+        <v/>
+      </c>
+      <c r="K13" s="123"/>
       <c r="L13" s="29"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="118">
+      <c r="M13" s="125"/>
+      <c r="N13" s="122" t="str">
         <f>IFERROR(MOD(J13+K13,360),"")</f>
-        <v>156</v>
-      </c>
-      <c r="O13" s="119">
-        <v>11</v>
-      </c>
-      <c r="P13" s="42">
+        <v/>
+      </c>
+      <c r="O13" s="123"/>
+      <c r="P13" s="42" t="str">
         <f>IFERROR(SQRT(F13^2+D13^2-2*F13*D13*COS(RADIANS(C13-A13-G13))),"")</f>
-        <v>91.780669755189152</v>
-      </c>
-      <c r="Q13" s="42">
+        <v/>
+      </c>
+      <c r="Q13" s="42" t="str">
         <f t="shared" ref="Q13" si="7">IFERROR(ROUND(O13/P13*60,0),"")</f>
-        <v>7</v>
-      </c>
-      <c r="R13" s="39">
+        <v/>
+      </c>
+      <c r="R13" s="39" t="str">
         <f>IF(Q13&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q14)/60/24,""),"")</f>
-        <v>0.64722222222222214</v>
-      </c>
-      <c r="S13" s="42">
+        <v/>
+      </c>
+      <c r="S13" s="42" t="str">
         <f>IFERROR(ROUND(Q13/60*GalsPerHour,1),"")</f>
-        <v>0.8</v>
-      </c>
-      <c r="T13" s="42">
+        <v/>
+      </c>
+      <c r="T13" s="42" t="str">
         <f>IFERROR(IF(ISNUMBER(T11),T11,FuelOnBoard)-S13,"")</f>
-        <v>36.200000000000003</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A14" s="119"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="119"/>
+      <c r="A14" s="123"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="123"/>
       <c r="L14" s="29"/>
-      <c r="M14" s="115" t="s">
-        <v>64</v>
-      </c>
-      <c r="N14" s="118"/>
-      <c r="O14" s="119"/>
+      <c r="M14" s="126"/>
+      <c r="N14" s="122"/>
+      <c r="O14" s="123"/>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="45"/>
@@ -9813,90 +12584,70 @@
       <c r="T14" s="44"/>
     </row>
     <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A15" s="117">
-        <v>131</v>
-      </c>
-      <c r="B15" s="117">
-        <v>3500</v>
-      </c>
-      <c r="C15" s="117">
-        <v>215</v>
-      </c>
-      <c r="D15" s="117">
-        <v>17</v>
-      </c>
-      <c r="E15" s="117">
-        <v>-10</v>
-      </c>
-      <c r="F15" s="117">
-        <v>95</v>
-      </c>
-      <c r="G15" s="122">
+      <c r="A15" s="134"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="120" t="str">
         <f t="shared" ref="G15" si="8">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C15-A15))*(D15/F15)))),0),"")</f>
-        <v>10</v>
-      </c>
-      <c r="H15" s="122">
+        <v/>
+      </c>
+      <c r="H15" s="120" t="str">
         <f t="shared" ref="H15" si="9">IFERROR(ROUND(MOD(A15+G15,360),0),"")</f>
-        <v>141</v>
-      </c>
-      <c r="I15" s="124">
-        <v>13</v>
-      </c>
-      <c r="J15" s="122">
+        <v/>
+      </c>
+      <c r="I15" s="121"/>
+      <c r="J15" s="120" t="str">
         <f t="shared" ref="J15" si="10">IFERROR(MOD(H15+I15,360),"")</f>
-        <v>154</v>
-      </c>
-      <c r="K15" s="124">
-        <v>2</v>
-      </c>
+        <v/>
+      </c>
+      <c r="K15" s="121"/>
       <c r="L15" s="29"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="122">
+      <c r="M15" s="125"/>
+      <c r="N15" s="120" t="str">
         <f>IFERROR(MOD(J15+K15,360),"")</f>
-        <v>156</v>
-      </c>
-      <c r="O15" s="124">
-        <v>8</v>
-      </c>
-      <c r="P15" s="46">
+        <v/>
+      </c>
+      <c r="O15" s="121"/>
+      <c r="P15" s="46" t="str">
         <f>IFERROR(SQRT(F15^2+D15^2-2*F15*D15*COS(RADIANS(C15-A15-G15))),"")</f>
-        <v>91.780669755189152</v>
-      </c>
-      <c r="Q15" s="46">
+        <v/>
+      </c>
+      <c r="Q15" s="46" t="str">
         <f t="shared" ref="Q15" si="11">IFERROR(ROUND(O15/P15*60,0),"")</f>
-        <v>5</v>
-      </c>
-      <c r="R15" s="47">
+        <v/>
+      </c>
+      <c r="R15" s="47" t="str">
         <f>IF(Q15&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q16)/60/24,""),"")</f>
-        <v>0.65069444444444435</v>
-      </c>
-      <c r="S15" s="46">
+        <v/>
+      </c>
+      <c r="S15" s="46" t="str">
         <f>IFERROR(ROUND(Q15/60*GalsPerHour,1),"")</f>
-        <v>0.5</v>
-      </c>
-      <c r="T15" s="46">
+        <v/>
+      </c>
+      <c r="T15" s="46" t="str">
         <f>IFERROR(IF(ISNUMBER(T13),T13,FuelOnBoard)-S15,"")</f>
-        <v>35.700000000000003</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A16" s="117"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="124"/>
+      <c r="A16" s="134"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="121"/>
       <c r="L16" s="29"/>
-      <c r="M16" s="115" t="s">
-        <v>65</v>
-      </c>
-      <c r="N16" s="122"/>
-      <c r="O16" s="124"/>
+      <c r="M16" s="126"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="121"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="45"/>
@@ -9904,90 +12655,70 @@
       <c r="T16" s="44"/>
     </row>
     <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A17" s="119">
-        <v>131</v>
-      </c>
-      <c r="B17" s="119">
-        <v>3500</v>
-      </c>
-      <c r="C17" s="119">
-        <v>215</v>
-      </c>
-      <c r="D17" s="119">
-        <v>17</v>
-      </c>
-      <c r="E17" s="119">
-        <v>-10</v>
-      </c>
-      <c r="F17" s="119">
-        <v>95</v>
-      </c>
-      <c r="G17" s="118">
+      <c r="A17" s="123"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="122" t="str">
         <f t="shared" ref="G17" si="12">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C17-A17))*(D17/F17)))),0),"")</f>
-        <v>10</v>
-      </c>
-      <c r="H17" s="118">
+        <v/>
+      </c>
+      <c r="H17" s="122" t="str">
         <f t="shared" ref="H17" si="13">IFERROR(ROUND(MOD(A17+G17,360),0),"")</f>
-        <v>141</v>
-      </c>
-      <c r="I17" s="119">
-        <v>13</v>
-      </c>
-      <c r="J17" s="118">
+        <v/>
+      </c>
+      <c r="I17" s="123"/>
+      <c r="J17" s="122" t="str">
         <f t="shared" ref="J17" si="14">IFERROR(MOD(H17+I17,360),"")</f>
-        <v>154</v>
-      </c>
-      <c r="K17" s="119">
-        <v>2</v>
-      </c>
+        <v/>
+      </c>
+      <c r="K17" s="123"/>
       <c r="L17" s="29"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="118">
+      <c r="M17" s="125"/>
+      <c r="N17" s="122" t="str">
         <f>IFERROR(MOD(J17+K17,360),"")</f>
-        <v>156</v>
-      </c>
-      <c r="O17" s="119">
-        <v>10</v>
-      </c>
-      <c r="P17" s="42">
+        <v/>
+      </c>
+      <c r="O17" s="123"/>
+      <c r="P17" s="42" t="str">
         <f>IFERROR(SQRT(F17^2+D17^2-2*F17*D17*COS(RADIANS(C17-A17-G17))),"")</f>
-        <v>91.780669755189152</v>
-      </c>
-      <c r="Q17" s="42">
+        <v/>
+      </c>
+      <c r="Q17" s="42" t="str">
         <f t="shared" ref="Q17" si="15">IFERROR(ROUND(O17/P17*60,0),"")</f>
-        <v>7</v>
-      </c>
-      <c r="R17" s="39">
+        <v/>
+      </c>
+      <c r="R17" s="39" t="str">
         <f>IF(Q17&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q18)/60/24,""),"")</f>
-        <v>0.65555555555555556</v>
-      </c>
-      <c r="S17" s="42">
+        <v/>
+      </c>
+      <c r="S17" s="42" t="str">
         <f>IFERROR(ROUND(Q17/60*GalsPerHour,1),"")</f>
-        <v>0.8</v>
-      </c>
-      <c r="T17" s="42">
+        <v/>
+      </c>
+      <c r="T17" s="42" t="str">
         <f>IFERROR(IF(ISNUMBER(T15),T15,FuelOnBoard)-S17,"")</f>
-        <v>34.900000000000006</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A18" s="119"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="119"/>
+      <c r="A18" s="123"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="123"/>
       <c r="L18" s="29"/>
-      <c r="M18" s="115" t="s">
-        <v>66</v>
-      </c>
-      <c r="N18" s="118"/>
-      <c r="O18" s="119"/>
+      <c r="M18" s="126"/>
+      <c r="N18" s="122"/>
+      <c r="O18" s="123"/>
       <c r="P18" s="44"/>
       <c r="Q18" s="44"/>
       <c r="R18" s="45"/>
@@ -9995,90 +12726,70 @@
       <c r="T18" s="44"/>
     </row>
     <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A19" s="117">
-        <v>131</v>
-      </c>
-      <c r="B19" s="117">
-        <v>3500</v>
-      </c>
-      <c r="C19" s="117">
-        <v>215</v>
-      </c>
-      <c r="D19" s="117">
-        <v>17</v>
-      </c>
-      <c r="E19" s="117">
-        <v>-10</v>
-      </c>
-      <c r="F19" s="117">
-        <v>95</v>
-      </c>
-      <c r="G19" s="122">
+      <c r="A19" s="134"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="120" t="str">
         <f t="shared" ref="G19" si="16">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C19-A19))*(D19/F19)))),0),"")</f>
-        <v>10</v>
-      </c>
-      <c r="H19" s="122">
+        <v/>
+      </c>
+      <c r="H19" s="120" t="str">
         <f t="shared" ref="H19" si="17">IFERROR(ROUND(MOD(A19+G19,360),0),"")</f>
-        <v>141</v>
-      </c>
-      <c r="I19" s="124">
-        <v>13</v>
-      </c>
-      <c r="J19" s="122">
+        <v/>
+      </c>
+      <c r="I19" s="121"/>
+      <c r="J19" s="120" t="str">
         <f t="shared" ref="J19" si="18">IFERROR(MOD(H19+I19,360),"")</f>
-        <v>154</v>
-      </c>
-      <c r="K19" s="124">
-        <v>2</v>
-      </c>
+        <v/>
+      </c>
+      <c r="K19" s="121"/>
       <c r="L19" s="29"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="122">
+      <c r="M19" s="125"/>
+      <c r="N19" s="120" t="str">
         <f>IFERROR(MOD(J19+K19,360),"")</f>
-        <v>156</v>
-      </c>
-      <c r="O19" s="124">
-        <v>11</v>
-      </c>
-      <c r="P19" s="46">
+        <v/>
+      </c>
+      <c r="O19" s="121"/>
+      <c r="P19" s="46" t="str">
         <f>IFERROR(SQRT(F19^2+D19^2-2*F19*D19*COS(RADIANS(C19-A19-G19))),"")</f>
-        <v>91.780669755189152</v>
-      </c>
-      <c r="Q19" s="46">
+        <v/>
+      </c>
+      <c r="Q19" s="46" t="str">
         <f t="shared" ref="Q19" si="19">IFERROR(ROUND(O19/P19*60,0),"")</f>
-        <v>7</v>
-      </c>
-      <c r="R19" s="47">
+        <v/>
+      </c>
+      <c r="R19" s="47" t="str">
         <f>IF(Q19&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q20)/60/24,""),"")</f>
-        <v>0.66041666666666665</v>
-      </c>
-      <c r="S19" s="46">
+        <v/>
+      </c>
+      <c r="S19" s="46" t="str">
         <f>IFERROR(ROUND(Q19/60*GalsPerHour,1),"")</f>
-        <v>0.8</v>
-      </c>
-      <c r="T19" s="46">
+        <v/>
+      </c>
+      <c r="T19" s="46" t="str">
         <f>IFERROR(IF(ISNUMBER(T17),T17,FuelOnBoard)-S19,"")</f>
-        <v>34.100000000000009</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A20" s="117"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="124"/>
+      <c r="A20" s="134"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="121"/>
       <c r="L20" s="29"/>
-      <c r="M20" s="115" t="s">
-        <v>14</v>
-      </c>
-      <c r="N20" s="122"/>
-      <c r="O20" s="124"/>
+      <c r="M20" s="126"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="121"/>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="45"/>
@@ -10086,33 +12797,33 @@
       <c r="T20" s="44"/>
     </row>
     <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A21" s="119"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="118" t="str">
+      <c r="A21" s="123"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="122" t="str">
         <f t="shared" ref="G21" si="20">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C21-A21))*(D21/F21)))),0),"")</f>
         <v/>
       </c>
-      <c r="H21" s="118" t="str">
+      <c r="H21" s="122" t="str">
         <f t="shared" ref="H21" si="21">IFERROR(ROUND(MOD(A21+G21,360),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="119"/>
-      <c r="J21" s="118" t="str">
+      <c r="I21" s="123"/>
+      <c r="J21" s="122" t="str">
         <f t="shared" ref="J21" si="22">IFERROR(MOD(H21+I21,360),"")</f>
         <v/>
       </c>
-      <c r="K21" s="119"/>
+      <c r="K21" s="123"/>
       <c r="L21" s="29"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="118" t="str">
+      <c r="M21" s="125"/>
+      <c r="N21" s="122" t="str">
         <f>IFERROR(MOD(J21+K21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="119"/>
+      <c r="O21" s="123"/>
       <c r="P21" s="42" t="str">
         <f>IFERROR(SQRT(F21^2+D21^2-2*F21*D21*COS(RADIANS(C21-A21-G21))),"")</f>
         <v/>
@@ -10135,21 +12846,21 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A22" s="119"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="119"/>
+      <c r="A22" s="123"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="123"/>
       <c r="L22" s="29"/>
-      <c r="M22" s="115"/>
-      <c r="N22" s="118"/>
-      <c r="O22" s="119"/>
+      <c r="M22" s="126"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="123"/>
       <c r="P22" s="44"/>
       <c r="Q22" s="44"/>
       <c r="R22" s="45"/>
@@ -10157,33 +12868,33 @@
       <c r="T22" s="44"/>
     </row>
     <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A23" s="117"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="122" t="str">
+      <c r="A23" s="134"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="120" t="str">
         <f t="shared" ref="G23" si="24">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C23-A23))*(D23/F23)))),0),"")</f>
         <v/>
       </c>
-      <c r="H23" s="122" t="str">
+      <c r="H23" s="120" t="str">
         <f t="shared" ref="H23" si="25">IFERROR(ROUND(MOD(A23+G23,360),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="124"/>
-      <c r="J23" s="122" t="str">
+      <c r="I23" s="121"/>
+      <c r="J23" s="120" t="str">
         <f t="shared" ref="J23" si="26">IFERROR(MOD(H23+I23,360),"")</f>
         <v/>
       </c>
-      <c r="K23" s="124"/>
+      <c r="K23" s="121"/>
       <c r="L23" s="29"/>
-      <c r="M23" s="116"/>
-      <c r="N23" s="122" t="str">
+      <c r="M23" s="125"/>
+      <c r="N23" s="120" t="str">
         <f>IFERROR(MOD(J23+K23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="124"/>
+      <c r="O23" s="121"/>
       <c r="P23" s="46" t="str">
         <f>IFERROR(SQRT(F23^2+D23^2-2*F23*D23*COS(RADIANS(C23-A23-G23))),"")</f>
         <v/>
@@ -10206,21 +12917,21 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A24" s="117"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="124"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="124"/>
+      <c r="A24" s="134"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="121"/>
       <c r="L24" s="29"/>
-      <c r="M24" s="115"/>
-      <c r="N24" s="122"/>
-      <c r="O24" s="124"/>
+      <c r="M24" s="126"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="121"/>
       <c r="P24" s="44"/>
       <c r="Q24" s="44"/>
       <c r="R24" s="45"/>
@@ -10228,33 +12939,33 @@
       <c r="T24" s="44"/>
     </row>
     <row r="25" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A25" s="119"/>
-      <c r="B25" s="119"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="118" t="str">
+      <c r="A25" s="123"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="122" t="str">
         <f t="shared" ref="G25" si="28">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C25-A25))*(D25/F25)))),0),"")</f>
         <v/>
       </c>
-      <c r="H25" s="118" t="str">
+      <c r="H25" s="122" t="str">
         <f t="shared" ref="H25" si="29">IFERROR(ROUND(MOD(A25+G25,360),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="119"/>
-      <c r="J25" s="118" t="str">
+      <c r="I25" s="123"/>
+      <c r="J25" s="122" t="str">
         <f t="shared" ref="J25" si="30">IFERROR(MOD(H25+I25,360),"")</f>
         <v/>
       </c>
-      <c r="K25" s="119"/>
+      <c r="K25" s="123"/>
       <c r="L25" s="29"/>
-      <c r="M25" s="120"/>
-      <c r="N25" s="118" t="str">
+      <c r="M25" s="158"/>
+      <c r="N25" s="122" t="str">
         <f>IFERROR(MOD(J25+K25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="119"/>
+      <c r="O25" s="123"/>
       <c r="P25" s="42" t="str">
         <f>IFERROR(SQRT(F25^2+D25^2-2*F25*D25*COS(RADIANS(C25-A25-G25))),"")</f>
         <v/>
@@ -10277,23 +12988,23 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A26" s="119"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="118"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="118"/>
-      <c r="K26" s="119"/>
+      <c r="A26" s="123"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="123"/>
       <c r="L26" s="29"/>
       <c r="M26" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="118"/>
-      <c r="O26" s="119"/>
+      <c r="N26" s="122"/>
+      <c r="O26" s="123"/>
       <c r="P26" s="44"/>
       <c r="Q26" s="44"/>
       <c r="R26" s="45"/>
@@ -10301,58 +13012,178 @@
       <c r="T26" s="44"/>
     </row>
     <row r="27" spans="1:20" ht="25.5" thickBot="1">
-      <c r="A27" s="97" t="s">
+      <c r="A27" s="140" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="98"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="98"/>
-      <c r="J27" s="98"/>
-      <c r="K27" s="99"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="141"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="142"/>
       <c r="L27" s="30"/>
       <c r="M27" s="31" t="s">
         <v>67</v>
       </c>
       <c r="O27" s="38">
         <f>SUM(O9:O26)</f>
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="48">
         <f>SUM(Q9:Q26)</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="R27" s="50">
         <f>MAX(R9:R26)</f>
-        <v>0.66041666666666665</v>
+        <v>0</v>
       </c>
       <c r="S27" s="49">
         <f>SUM(S9:S26)</f>
-        <v>3.8999999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A28" s="100"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="102"/>
+      <c r="A28" s="143"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="145"/>
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="144">
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
@@ -10377,126 +13208,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="N6:T6"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -10504,11 +13215,1215 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18CD585-09BE-4E1F-BA48-778C04B4CE5E}">
+  <dimension ref="A1:T28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20:M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" style="1" customWidth="1"/>
+    <col min="5" max="11" width="6" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" style="1" customWidth="1"/>
+    <col min="15" max="17" width="6" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" style="1" customWidth="1"/>
+    <col min="19" max="20" width="6" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="15" customHeight="1">
+      <c r="A1" s="159" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="163">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E1" s="164"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="168" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="167">
+        <v>38</v>
+      </c>
+      <c r="K1" s="167"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="169" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="171">
+        <v>3500</v>
+      </c>
+      <c r="O1" s="171"/>
+      <c r="P1" s="177" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1">
+      <c r="A2" s="161"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="166"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="178"/>
+    </row>
+    <row r="3" spans="1:20" ht="15" customHeight="1">
+      <c r="G3" s="168" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="167">
+        <v>6.5</v>
+      </c>
+      <c r="K3" s="167"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="172" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="167">
+        <v>215</v>
+      </c>
+      <c r="O3" s="167"/>
+      <c r="P3" s="179" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q3" s="167">
+        <v>17</v>
+      </c>
+      <c r="R3" s="167"/>
+      <c r="S3" s="177" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1">
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="173"/>
+      <c r="N4" s="174"/>
+      <c r="O4" s="174"/>
+      <c r="P4" s="180"/>
+      <c r="Q4" s="167"/>
+      <c r="R4" s="167"/>
+      <c r="S4" s="178"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickBot="1">
+      <c r="L5" s="24"/>
+    </row>
+    <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="129" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="130"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="129" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="130"/>
+      <c r="P6" s="130"/>
+      <c r="Q6" s="130"/>
+      <c r="R6" s="130"/>
+      <c r="S6" s="130"/>
+      <c r="T6" s="131"/>
+    </row>
+    <row r="7" spans="1:20" ht="19.7" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="175" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="176"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q7" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="S7" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="T7" s="60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="19.7" customHeight="1">
+      <c r="A8" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="28"/>
+      <c r="M8" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q8" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="T8" s="92" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A9" s="123">
+        <v>90</v>
+      </c>
+      <c r="B9" s="123">
+        <v>3500</v>
+      </c>
+      <c r="C9" s="123">
+        <v>170</v>
+      </c>
+      <c r="D9" s="123">
+        <v>17</v>
+      </c>
+      <c r="E9" s="123">
+        <v>-10</v>
+      </c>
+      <c r="F9" s="123">
+        <v>95</v>
+      </c>
+      <c r="G9" s="122">
+        <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C9-A9))*(D9/F9)))),0),"")</f>
+        <v>10</v>
+      </c>
+      <c r="H9" s="122">
+        <f>IFERROR(ROUND(MOD(A9+G9,360),0),"")</f>
+        <v>100</v>
+      </c>
+      <c r="I9" s="123">
+        <v>13</v>
+      </c>
+      <c r="J9" s="122">
+        <f>IFERROR(MOD(H9+I9,360),"")</f>
+        <v>113</v>
+      </c>
+      <c r="K9" s="123">
+        <v>0</v>
+      </c>
+      <c r="L9" s="29"/>
+      <c r="M9" s="125"/>
+      <c r="N9" s="122">
+        <f>IFERROR(MOD(J9+K9,360),"")</f>
+        <v>113</v>
+      </c>
+      <c r="O9" s="123">
+        <v>7</v>
+      </c>
+      <c r="P9" s="94">
+        <f>IFERROR(SQRT(F9^2+D9^2-2*F9*D9*COS(RADIANS(C9-A9-G9))),"")</f>
+        <v>90.605049180816025</v>
+      </c>
+      <c r="Q9" s="94">
+        <f>IFERROR(ROUND(O9/P9*60,0),"")</f>
+        <v>5</v>
+      </c>
+      <c r="R9" s="39">
+        <f>IF(Q9&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q10)/60/24,""),"")</f>
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="S9" s="94">
+        <f>IFERROR(ROUND(Q9/60*GalsPerHour,1),"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="T9" s="94">
+        <f>IFERROR(IF(ISNUMBER(T7),T7,FuelOnBoard)-S9,"")</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A10" s="123"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="126" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="122"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+    </row>
+    <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A11" s="121">
+        <v>90</v>
+      </c>
+      <c r="B11" s="121">
+        <v>3500</v>
+      </c>
+      <c r="C11" s="121">
+        <v>215</v>
+      </c>
+      <c r="D11" s="121">
+        <v>17</v>
+      </c>
+      <c r="E11" s="121">
+        <v>-10</v>
+      </c>
+      <c r="F11" s="121">
+        <v>95</v>
+      </c>
+      <c r="G11" s="120">
+        <f t="shared" ref="G11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C11-A11))*(D11/F11)))),0),"")</f>
+        <v>8</v>
+      </c>
+      <c r="H11" s="120">
+        <f t="shared" ref="H11" si="1">IFERROR(ROUND(MOD(A11+G11,360),0),"")</f>
+        <v>98</v>
+      </c>
+      <c r="I11" s="121">
+        <v>13</v>
+      </c>
+      <c r="J11" s="120">
+        <f t="shared" ref="J11" si="2">IFERROR(MOD(H11+I11,360),"")</f>
+        <v>111</v>
+      </c>
+      <c r="K11" s="121">
+        <v>0</v>
+      </c>
+      <c r="L11" s="29"/>
+      <c r="M11" s="125"/>
+      <c r="N11" s="120">
+        <f>IFERROR(MOD(J11+K11,360),"")</f>
+        <v>111</v>
+      </c>
+      <c r="O11" s="121">
+        <v>8</v>
+      </c>
+      <c r="P11" s="95">
+        <f>IFERROR(SQRT(F11^2+D11^2-2*F11*D11*COS(RADIANS(C11-A11-G11))),"")</f>
+        <v>103.82865362778588</v>
+      </c>
+      <c r="Q11" s="95">
+        <f t="shared" ref="Q11" si="3">IFERROR(ROUND(O11/P11*60,0),"")</f>
+        <v>5</v>
+      </c>
+      <c r="R11" s="47">
+        <f>IF(Q11&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q12)/60/24,""),"")</f>
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="S11" s="95">
+        <f>IFERROR(ROUND(Q11/60*GalsPerHour,1),"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="T11" s="95">
+        <f>IFERROR(IF(ISNUMBER(T9),T9,FuelOnBoard)-S11,"")</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A12" s="121"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="126" t="s">
+        <v>63</v>
+      </c>
+      <c r="N12" s="120"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+    </row>
+    <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A13" s="123">
+        <v>131</v>
+      </c>
+      <c r="B13" s="123">
+        <v>3500</v>
+      </c>
+      <c r="C13" s="123">
+        <v>215</v>
+      </c>
+      <c r="D13" s="123">
+        <v>17</v>
+      </c>
+      <c r="E13" s="123">
+        <v>-10</v>
+      </c>
+      <c r="F13" s="123">
+        <v>95</v>
+      </c>
+      <c r="G13" s="122">
+        <f t="shared" ref="G13" si="4">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C13-A13))*(D13/F13)))),0),"")</f>
+        <v>10</v>
+      </c>
+      <c r="H13" s="122">
+        <f t="shared" ref="H13" si="5">IFERROR(ROUND(MOD(A13+G13,360),0),"")</f>
+        <v>141</v>
+      </c>
+      <c r="I13" s="123">
+        <v>13</v>
+      </c>
+      <c r="J13" s="122">
+        <f t="shared" ref="J13" si="6">IFERROR(MOD(H13+I13,360),"")</f>
+        <v>154</v>
+      </c>
+      <c r="K13" s="123">
+        <v>2</v>
+      </c>
+      <c r="L13" s="29"/>
+      <c r="M13" s="125"/>
+      <c r="N13" s="122">
+        <f>IFERROR(MOD(J13+K13,360),"")</f>
+        <v>156</v>
+      </c>
+      <c r="O13" s="123">
+        <v>11</v>
+      </c>
+      <c r="P13" s="94">
+        <f>IFERROR(SQRT(F13^2+D13^2-2*F13*D13*COS(RADIANS(C13-A13-G13))),"")</f>
+        <v>91.780669755189152</v>
+      </c>
+      <c r="Q13" s="94">
+        <f t="shared" ref="Q13" si="7">IFERROR(ROUND(O13/P13*60,0),"")</f>
+        <v>7</v>
+      </c>
+      <c r="R13" s="39">
+        <f>IF(Q13&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q14)/60/24,""),"")</f>
+        <v>0.64722222222222214</v>
+      </c>
+      <c r="S13" s="94">
+        <f>IFERROR(ROUND(Q13/60*GalsPerHour,1),"")</f>
+        <v>0.8</v>
+      </c>
+      <c r="T13" s="94">
+        <f>IFERROR(IF(ISNUMBER(T11),T11,FuelOnBoard)-S13,"")</f>
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A14" s="123"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="126" t="s">
+        <v>64</v>
+      </c>
+      <c r="N14" s="122"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+    </row>
+    <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A15" s="134">
+        <v>131</v>
+      </c>
+      <c r="B15" s="134">
+        <v>3500</v>
+      </c>
+      <c r="C15" s="134">
+        <v>215</v>
+      </c>
+      <c r="D15" s="134">
+        <v>17</v>
+      </c>
+      <c r="E15" s="134">
+        <v>-10</v>
+      </c>
+      <c r="F15" s="134">
+        <v>95</v>
+      </c>
+      <c r="G15" s="120">
+        <f t="shared" ref="G15" si="8">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C15-A15))*(D15/F15)))),0),"")</f>
+        <v>10</v>
+      </c>
+      <c r="H15" s="120">
+        <f t="shared" ref="H15" si="9">IFERROR(ROUND(MOD(A15+G15,360),0),"")</f>
+        <v>141</v>
+      </c>
+      <c r="I15" s="121">
+        <v>13</v>
+      </c>
+      <c r="J15" s="120">
+        <f t="shared" ref="J15" si="10">IFERROR(MOD(H15+I15,360),"")</f>
+        <v>154</v>
+      </c>
+      <c r="K15" s="121">
+        <v>2</v>
+      </c>
+      <c r="L15" s="29"/>
+      <c r="M15" s="125"/>
+      <c r="N15" s="120">
+        <f>IFERROR(MOD(J15+K15,360),"")</f>
+        <v>156</v>
+      </c>
+      <c r="O15" s="121">
+        <v>8</v>
+      </c>
+      <c r="P15" s="95">
+        <f>IFERROR(SQRT(F15^2+D15^2-2*F15*D15*COS(RADIANS(C15-A15-G15))),"")</f>
+        <v>91.780669755189152</v>
+      </c>
+      <c r="Q15" s="95">
+        <f t="shared" ref="Q15" si="11">IFERROR(ROUND(O15/P15*60,0),"")</f>
+        <v>5</v>
+      </c>
+      <c r="R15" s="47">
+        <f>IF(Q15&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q16)/60/24,""),"")</f>
+        <v>0.65069444444444435</v>
+      </c>
+      <c r="S15" s="95">
+        <f>IFERROR(ROUND(Q15/60*GalsPerHour,1),"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="T15" s="95">
+        <f>IFERROR(IF(ISNUMBER(T13),T13,FuelOnBoard)-S15,"")</f>
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A16" s="134"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="126" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" s="120"/>
+      <c r="O16" s="121"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+    </row>
+    <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A17" s="123">
+        <v>131</v>
+      </c>
+      <c r="B17" s="123">
+        <v>3500</v>
+      </c>
+      <c r="C17" s="123">
+        <v>215</v>
+      </c>
+      <c r="D17" s="123">
+        <v>17</v>
+      </c>
+      <c r="E17" s="123">
+        <v>-10</v>
+      </c>
+      <c r="F17" s="123">
+        <v>95</v>
+      </c>
+      <c r="G17" s="122">
+        <f t="shared" ref="G17" si="12">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C17-A17))*(D17/F17)))),0),"")</f>
+        <v>10</v>
+      </c>
+      <c r="H17" s="122">
+        <f t="shared" ref="H17" si="13">IFERROR(ROUND(MOD(A17+G17,360),0),"")</f>
+        <v>141</v>
+      </c>
+      <c r="I17" s="123">
+        <v>13</v>
+      </c>
+      <c r="J17" s="122">
+        <f t="shared" ref="J17" si="14">IFERROR(MOD(H17+I17,360),"")</f>
+        <v>154</v>
+      </c>
+      <c r="K17" s="123">
+        <v>2</v>
+      </c>
+      <c r="L17" s="29"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="122">
+        <f>IFERROR(MOD(J17+K17,360),"")</f>
+        <v>156</v>
+      </c>
+      <c r="O17" s="123">
+        <v>10</v>
+      </c>
+      <c r="P17" s="94">
+        <f>IFERROR(SQRT(F17^2+D17^2-2*F17*D17*COS(RADIANS(C17-A17-G17))),"")</f>
+        <v>91.780669755189152</v>
+      </c>
+      <c r="Q17" s="94">
+        <f t="shared" ref="Q17" si="15">IFERROR(ROUND(O17/P17*60,0),"")</f>
+        <v>7</v>
+      </c>
+      <c r="R17" s="39">
+        <f>IF(Q17&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q18)/60/24,""),"")</f>
+        <v>0.65555555555555556</v>
+      </c>
+      <c r="S17" s="94">
+        <f>IFERROR(ROUND(Q17/60*GalsPerHour,1),"")</f>
+        <v>0.8</v>
+      </c>
+      <c r="T17" s="94">
+        <f>IFERROR(IF(ISNUMBER(T15),T15,FuelOnBoard)-S17,"")</f>
+        <v>34.900000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A18" s="123"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="126" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" s="122"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+    </row>
+    <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A19" s="134">
+        <v>131</v>
+      </c>
+      <c r="B19" s="134">
+        <v>3500</v>
+      </c>
+      <c r="C19" s="134">
+        <v>215</v>
+      </c>
+      <c r="D19" s="134">
+        <v>17</v>
+      </c>
+      <c r="E19" s="134">
+        <v>-10</v>
+      </c>
+      <c r="F19" s="134">
+        <v>95</v>
+      </c>
+      <c r="G19" s="120">
+        <f t="shared" ref="G19" si="16">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C19-A19))*(D19/F19)))),0),"")</f>
+        <v>10</v>
+      </c>
+      <c r="H19" s="120">
+        <f t="shared" ref="H19" si="17">IFERROR(ROUND(MOD(A19+G19,360),0),"")</f>
+        <v>141</v>
+      </c>
+      <c r="I19" s="121">
+        <v>13</v>
+      </c>
+      <c r="J19" s="120">
+        <f t="shared" ref="J19" si="18">IFERROR(MOD(H19+I19,360),"")</f>
+        <v>154</v>
+      </c>
+      <c r="K19" s="121">
+        <v>2</v>
+      </c>
+      <c r="L19" s="29"/>
+      <c r="M19" s="125"/>
+      <c r="N19" s="120">
+        <f>IFERROR(MOD(J19+K19,360),"")</f>
+        <v>156</v>
+      </c>
+      <c r="O19" s="121">
+        <v>11</v>
+      </c>
+      <c r="P19" s="95">
+        <f>IFERROR(SQRT(F19^2+D19^2-2*F19*D19*COS(RADIANS(C19-A19-G19))),"")</f>
+        <v>91.780669755189152</v>
+      </c>
+      <c r="Q19" s="95">
+        <f t="shared" ref="Q19" si="19">IFERROR(ROUND(O19/P19*60,0),"")</f>
+        <v>7</v>
+      </c>
+      <c r="R19" s="47">
+        <f>IF(Q19&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q20)/60/24,""),"")</f>
+        <v>0.66041666666666665</v>
+      </c>
+      <c r="S19" s="95">
+        <f>IFERROR(ROUND(Q19/60*GalsPerHour,1),"")</f>
+        <v>0.8</v>
+      </c>
+      <c r="T19" s="95">
+        <f>IFERROR(IF(ISNUMBER(T17),T17,FuelOnBoard)-S19,"")</f>
+        <v>34.100000000000009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A20" s="134"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="126" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" s="120"/>
+      <c r="O20" s="121"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+    </row>
+    <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A21" s="123"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="122" t="str">
+        <f t="shared" ref="G21" si="20">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C21-A21))*(D21/F21)))),0),"")</f>
+        <v/>
+      </c>
+      <c r="H21" s="122" t="str">
+        <f t="shared" ref="H21" si="21">IFERROR(ROUND(MOD(A21+G21,360),0),"")</f>
+        <v/>
+      </c>
+      <c r="I21" s="123"/>
+      <c r="J21" s="122" t="str">
+        <f t="shared" ref="J21" si="22">IFERROR(MOD(H21+I21,360),"")</f>
+        <v/>
+      </c>
+      <c r="K21" s="123"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="125"/>
+      <c r="N21" s="122" t="str">
+        <f>IFERROR(MOD(J21+K21,360),"")</f>
+        <v/>
+      </c>
+      <c r="O21" s="123"/>
+      <c r="P21" s="94" t="str">
+        <f>IFERROR(SQRT(F21^2+D21^2-2*F21*D21*COS(RADIANS(C21-A21-G21))),"")</f>
+        <v/>
+      </c>
+      <c r="Q21" s="94" t="str">
+        <f t="shared" ref="Q21" si="23">IFERROR(ROUND(O21/P21*60,0),"")</f>
+        <v/>
+      </c>
+      <c r="R21" s="39" t="str">
+        <f>IF(Q21&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q22)/60/24,""),"")</f>
+        <v/>
+      </c>
+      <c r="S21" s="94" t="str">
+        <f>IFERROR(ROUND(Q21/60*GalsPerHour,1),"")</f>
+        <v/>
+      </c>
+      <c r="T21" s="94" t="str">
+        <f>IFERROR(IF(ISNUMBER(T19),T19,FuelOnBoard)-S21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A22" s="123"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="126"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+    </row>
+    <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A23" s="134"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="120" t="str">
+        <f t="shared" ref="G23" si="24">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C23-A23))*(D23/F23)))),0),"")</f>
+        <v/>
+      </c>
+      <c r="H23" s="120" t="str">
+        <f t="shared" ref="H23" si="25">IFERROR(ROUND(MOD(A23+G23,360),0),"")</f>
+        <v/>
+      </c>
+      <c r="I23" s="121"/>
+      <c r="J23" s="120" t="str">
+        <f t="shared" ref="J23" si="26">IFERROR(MOD(H23+I23,360),"")</f>
+        <v/>
+      </c>
+      <c r="K23" s="121"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="125"/>
+      <c r="N23" s="120" t="str">
+        <f>IFERROR(MOD(J23+K23,360),"")</f>
+        <v/>
+      </c>
+      <c r="O23" s="121"/>
+      <c r="P23" s="95" t="str">
+        <f>IFERROR(SQRT(F23^2+D23^2-2*F23*D23*COS(RADIANS(C23-A23-G23))),"")</f>
+        <v/>
+      </c>
+      <c r="Q23" s="95" t="str">
+        <f t="shared" ref="Q23" si="27">IFERROR(ROUND(O23/P23*60,0),"")</f>
+        <v/>
+      </c>
+      <c r="R23" s="47" t="str">
+        <f>IF(Q23&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q24)/60/24,""),"")</f>
+        <v/>
+      </c>
+      <c r="S23" s="95" t="str">
+        <f>IFERROR(ROUND(Q23/60*GalsPerHour,1),"")</f>
+        <v/>
+      </c>
+      <c r="T23" s="95" t="str">
+        <f>IFERROR(IF(ISNUMBER(T21),T21,FuelOnBoard)-S23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A24" s="134"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="121"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="126"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="121"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+    </row>
+    <row r="25" spans="1:20" ht="19.5" customHeight="1">
+      <c r="A25" s="123"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="122" t="str">
+        <f t="shared" ref="G25" si="28">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C25-A25))*(D25/F25)))),0),"")</f>
+        <v/>
+      </c>
+      <c r="H25" s="122" t="str">
+        <f t="shared" ref="H25" si="29">IFERROR(ROUND(MOD(A25+G25,360),0),"")</f>
+        <v/>
+      </c>
+      <c r="I25" s="123"/>
+      <c r="J25" s="122" t="str">
+        <f t="shared" ref="J25" si="30">IFERROR(MOD(H25+I25,360),"")</f>
+        <v/>
+      </c>
+      <c r="K25" s="123"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="158"/>
+      <c r="N25" s="122" t="str">
+        <f>IFERROR(MOD(J25+K25,360),"")</f>
+        <v/>
+      </c>
+      <c r="O25" s="123"/>
+      <c r="P25" s="94" t="str">
+        <f>IFERROR(SQRT(F25^2+D25^2-2*F25*D25*COS(RADIANS(C25-A25-G25))),"")</f>
+        <v/>
+      </c>
+      <c r="Q25" s="94" t="str">
+        <f t="shared" ref="Q25" si="31">IFERROR(ROUND(O25/P25*60,0),"")</f>
+        <v/>
+      </c>
+      <c r="R25" s="39" t="str">
+        <f>IF(Q25&lt;&gt;"",IFERROR(Departure_Time+SUM($Q$9:Q26)/60/24,""),"")</f>
+        <v/>
+      </c>
+      <c r="S25" s="94" t="str">
+        <f>IFERROR(ROUND(Q25/60*GalsPerHour,1),"")</f>
+        <v/>
+      </c>
+      <c r="T25" s="94" t="str">
+        <f>IFERROR(IF(ISNUMBER(T23),T23,FuelOnBoard)-S25,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A26" s="123"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="123"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="N26" s="122"/>
+      <c r="O26" s="123"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+    </row>
+    <row r="27" spans="1:20" ht="25.5" thickBot="1">
+      <c r="A27" s="140" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="141"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="141"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="142"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="O27" s="38">
+        <f>SUM(O9:O26)</f>
+        <v>55</v>
+      </c>
+      <c r="Q27" s="48">
+        <f>SUM(Q9:Q26)</f>
+        <v>36</v>
+      </c>
+      <c r="R27" s="50">
+        <f>MAX(R9:R26)</f>
+        <v>0.66041666666666665</v>
+      </c>
+      <c r="S27" s="49">
+        <f>SUM(S9:S26)</f>
+        <v>3.8999999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="68.25" customHeight="1" thickBot="1">
+      <c r="A28" s="143"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="145"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="144">
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:O2"/>
+  </mergeCells>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CFACEB-C7F9-4EC2-B331-5938690C3313}">
   <dimension ref="B1:V46"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -10526,17 +14441,17 @@
   <sheetData>
     <row r="1" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:22" ht="20.25" thickBot="1">
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="190" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="190"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="192"/>
       <c r="L2" s="93" t="s">
         <v>98</v>
       </c>
@@ -10551,19 +14466,19 @@
       <c r="H3" s="67"/>
       <c r="I3" s="67"/>
       <c r="J3" s="68"/>
-      <c r="L3" s="179" t="s">
+      <c r="L3" s="181" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="196"/>
-      <c r="N3" s="196"/>
-      <c r="O3" s="196"/>
-      <c r="P3" s="196"/>
-      <c r="Q3" s="196"/>
-      <c r="R3" s="196"/>
-      <c r="S3" s="196"/>
-      <c r="T3" s="196"/>
-      <c r="U3" s="196"/>
-      <c r="V3" s="197"/>
+      <c r="M3" s="198"/>
+      <c r="N3" s="198"/>
+      <c r="O3" s="198"/>
+      <c r="P3" s="198"/>
+      <c r="Q3" s="198"/>
+      <c r="R3" s="198"/>
+      <c r="S3" s="198"/>
+      <c r="T3" s="198"/>
+      <c r="U3" s="198"/>
+      <c r="V3" s="199"/>
     </row>
     <row r="4" spans="2:22" ht="18.75">
       <c r="B4" s="66"/>
@@ -10586,17 +14501,17 @@
       </c>
       <c r="I4" s="69"/>
       <c r="J4" s="68"/>
-      <c r="L4" s="198"/>
-      <c r="M4" s="199"/>
-      <c r="N4" s="199"/>
-      <c r="O4" s="199"/>
-      <c r="P4" s="199"/>
-      <c r="Q4" s="199"/>
-      <c r="R4" s="199"/>
-      <c r="S4" s="199"/>
-      <c r="T4" s="199"/>
-      <c r="U4" s="199"/>
-      <c r="V4" s="200"/>
+      <c r="L4" s="200"/>
+      <c r="M4" s="201"/>
+      <c r="N4" s="201"/>
+      <c r="O4" s="201"/>
+      <c r="P4" s="201"/>
+      <c r="Q4" s="201"/>
+      <c r="R4" s="201"/>
+      <c r="S4" s="201"/>
+      <c r="T4" s="201"/>
+      <c r="U4" s="201"/>
+      <c r="V4" s="202"/>
     </row>
     <row r="5" spans="2:22" ht="18.75">
       <c r="B5" s="66"/>
@@ -10619,17 +14534,17 @@
       </c>
       <c r="I5" s="69"/>
       <c r="J5" s="68"/>
-      <c r="L5" s="198"/>
-      <c r="M5" s="199"/>
-      <c r="N5" s="199"/>
-      <c r="O5" s="199"/>
-      <c r="P5" s="199"/>
-      <c r="Q5" s="199"/>
-      <c r="R5" s="199"/>
-      <c r="S5" s="199"/>
-      <c r="T5" s="199"/>
-      <c r="U5" s="199"/>
-      <c r="V5" s="200"/>
+      <c r="L5" s="200"/>
+      <c r="M5" s="201"/>
+      <c r="N5" s="201"/>
+      <c r="O5" s="201"/>
+      <c r="P5" s="201"/>
+      <c r="Q5" s="201"/>
+      <c r="R5" s="201"/>
+      <c r="S5" s="201"/>
+      <c r="T5" s="201"/>
+      <c r="U5" s="201"/>
+      <c r="V5" s="202"/>
     </row>
     <row r="6" spans="2:22" ht="18.75">
       <c r="B6" s="66"/>
@@ -10645,17 +14560,17 @@
       <c r="H6" s="69"/>
       <c r="I6" s="69"/>
       <c r="J6" s="68"/>
-      <c r="L6" s="198"/>
-      <c r="M6" s="199"/>
-      <c r="N6" s="199"/>
-      <c r="O6" s="199"/>
-      <c r="P6" s="199"/>
-      <c r="Q6" s="199"/>
-      <c r="R6" s="199"/>
-      <c r="S6" s="199"/>
-      <c r="T6" s="199"/>
-      <c r="U6" s="199"/>
-      <c r="V6" s="200"/>
+      <c r="L6" s="200"/>
+      <c r="M6" s="201"/>
+      <c r="N6" s="201"/>
+      <c r="O6" s="201"/>
+      <c r="P6" s="201"/>
+      <c r="Q6" s="201"/>
+      <c r="R6" s="201"/>
+      <c r="S6" s="201"/>
+      <c r="T6" s="201"/>
+      <c r="U6" s="201"/>
+      <c r="V6" s="202"/>
     </row>
     <row r="7" spans="2:22" ht="18.75">
       <c r="B7" s="66"/>
@@ -10678,17 +14593,17 @@
       </c>
       <c r="I7" s="69"/>
       <c r="J7" s="68"/>
-      <c r="L7" s="198"/>
-      <c r="M7" s="199"/>
-      <c r="N7" s="199"/>
-      <c r="O7" s="199"/>
-      <c r="P7" s="199"/>
-      <c r="Q7" s="199"/>
-      <c r="R7" s="199"/>
-      <c r="S7" s="199"/>
-      <c r="T7" s="199"/>
-      <c r="U7" s="199"/>
-      <c r="V7" s="200"/>
+      <c r="L7" s="200"/>
+      <c r="M7" s="201"/>
+      <c r="N7" s="201"/>
+      <c r="O7" s="201"/>
+      <c r="P7" s="201"/>
+      <c r="Q7" s="201"/>
+      <c r="R7" s="201"/>
+      <c r="S7" s="201"/>
+      <c r="T7" s="201"/>
+      <c r="U7" s="201"/>
+      <c r="V7" s="202"/>
     </row>
     <row r="8" spans="2:22">
       <c r="B8" s="66"/>
@@ -10707,17 +14622,17 @@
       </c>
       <c r="I8" s="69"/>
       <c r="J8" s="68"/>
-      <c r="L8" s="198"/>
-      <c r="M8" s="199"/>
-      <c r="N8" s="199"/>
-      <c r="O8" s="199"/>
-      <c r="P8" s="199"/>
-      <c r="Q8" s="199"/>
-      <c r="R8" s="199"/>
-      <c r="S8" s="199"/>
-      <c r="T8" s="199"/>
-      <c r="U8" s="199"/>
-      <c r="V8" s="200"/>
+      <c r="L8" s="200"/>
+      <c r="M8" s="201"/>
+      <c r="N8" s="201"/>
+      <c r="O8" s="201"/>
+      <c r="P8" s="201"/>
+      <c r="Q8" s="201"/>
+      <c r="R8" s="201"/>
+      <c r="S8" s="201"/>
+      <c r="T8" s="201"/>
+      <c r="U8" s="201"/>
+      <c r="V8" s="202"/>
     </row>
     <row r="9" spans="2:22">
       <c r="B9" s="66"/>
@@ -10729,66 +14644,66 @@
       <c r="H9" s="67"/>
       <c r="I9" s="67"/>
       <c r="J9" s="68"/>
-      <c r="L9" s="198"/>
-      <c r="M9" s="199"/>
-      <c r="N9" s="199"/>
-      <c r="O9" s="199"/>
-      <c r="P9" s="199"/>
-      <c r="Q9" s="199"/>
-      <c r="R9" s="199"/>
-      <c r="S9" s="199"/>
-      <c r="T9" s="199"/>
-      <c r="U9" s="199"/>
-      <c r="V9" s="200"/>
+      <c r="L9" s="200"/>
+      <c r="M9" s="201"/>
+      <c r="N9" s="201"/>
+      <c r="O9" s="201"/>
+      <c r="P9" s="201"/>
+      <c r="Q9" s="201"/>
+      <c r="R9" s="201"/>
+      <c r="S9" s="201"/>
+      <c r="T9" s="201"/>
+      <c r="U9" s="201"/>
+      <c r="V9" s="202"/>
     </row>
     <row r="10" spans="2:22" ht="18.75">
       <c r="B10" s="66"/>
-      <c r="C10" s="195" t="s">
+      <c r="C10" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="195"/>
+      <c r="D10" s="197"/>
       <c r="E10" s="67"/>
       <c r="F10" s="67"/>
       <c r="G10" s="67"/>
       <c r="H10" s="67"/>
       <c r="I10" s="67"/>
       <c r="J10" s="68"/>
-      <c r="L10" s="198"/>
-      <c r="M10" s="199"/>
-      <c r="N10" s="199"/>
-      <c r="O10" s="199"/>
-      <c r="P10" s="199"/>
-      <c r="Q10" s="199"/>
-      <c r="R10" s="199"/>
-      <c r="S10" s="199"/>
-      <c r="T10" s="199"/>
-      <c r="U10" s="199"/>
-      <c r="V10" s="200"/>
+      <c r="L10" s="200"/>
+      <c r="M10" s="201"/>
+      <c r="N10" s="201"/>
+      <c r="O10" s="201"/>
+      <c r="P10" s="201"/>
+      <c r="Q10" s="201"/>
+      <c r="R10" s="201"/>
+      <c r="S10" s="201"/>
+      <c r="T10" s="201"/>
+      <c r="U10" s="201"/>
+      <c r="V10" s="202"/>
     </row>
     <row r="11" spans="2:22" ht="19.5" thickBot="1">
       <c r="B11" s="66"/>
-      <c r="C11" s="194">
+      <c r="C11" s="196">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(Wd-HEading))*(Ws/TrueAirSpeed)))),0),"")</f>
         <v>9</v>
       </c>
-      <c r="D11" s="194"/>
+      <c r="D11" s="196"/>
       <c r="E11" s="67"/>
       <c r="F11" s="67"/>
       <c r="G11" s="67"/>
       <c r="H11" s="67"/>
       <c r="I11" s="67"/>
       <c r="J11" s="68"/>
-      <c r="L11" s="201"/>
-      <c r="M11" s="202"/>
-      <c r="N11" s="202"/>
-      <c r="O11" s="202"/>
-      <c r="P11" s="202"/>
-      <c r="Q11" s="202"/>
-      <c r="R11" s="202"/>
-      <c r="S11" s="202"/>
-      <c r="T11" s="202"/>
-      <c r="U11" s="202"/>
-      <c r="V11" s="203"/>
+      <c r="L11" s="203"/>
+      <c r="M11" s="204"/>
+      <c r="N11" s="204"/>
+      <c r="O11" s="204"/>
+      <c r="P11" s="204"/>
+      <c r="Q11" s="204"/>
+      <c r="R11" s="204"/>
+      <c r="S11" s="204"/>
+      <c r="T11" s="204"/>
+      <c r="U11" s="204"/>
+      <c r="V11" s="205"/>
     </row>
     <row r="12" spans="2:22">
       <c r="B12" s="66"/>
@@ -10846,17 +14761,17 @@
       <c r="J16" s="68"/>
     </row>
     <row r="17" spans="2:22" ht="19.5">
-      <c r="B17" s="191" t="s">
+      <c r="B17" s="193" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="192"/>
-      <c r="D17" s="192"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="192"/>
-      <c r="H17" s="192"/>
-      <c r="I17" s="192"/>
-      <c r="J17" s="193"/>
+      <c r="C17" s="194"/>
+      <c r="D17" s="194"/>
+      <c r="E17" s="194"/>
+      <c r="F17" s="194"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="194"/>
+      <c r="I17" s="194"/>
+      <c r="J17" s="195"/>
     </row>
     <row r="18" spans="2:22" ht="15.75" thickBot="1">
       <c r="B18" s="66"/>
@@ -10911,19 +14826,19 @@
       </c>
       <c r="I20" s="67"/>
       <c r="J20" s="68"/>
-      <c r="L20" s="179" t="s">
+      <c r="L20" s="181" t="s">
         <v>101</v>
       </c>
-      <c r="M20" s="180"/>
-      <c r="N20" s="180"/>
-      <c r="O20" s="180"/>
-      <c r="P20" s="180"/>
-      <c r="Q20" s="180"/>
-      <c r="R20" s="180"/>
-      <c r="S20" s="180"/>
-      <c r="T20" s="180"/>
-      <c r="U20" s="180"/>
-      <c r="V20" s="181"/>
+      <c r="M20" s="182"/>
+      <c r="N20" s="182"/>
+      <c r="O20" s="182"/>
+      <c r="P20" s="182"/>
+      <c r="Q20" s="182"/>
+      <c r="R20" s="182"/>
+      <c r="S20" s="182"/>
+      <c r="T20" s="182"/>
+      <c r="U20" s="182"/>
+      <c r="V20" s="183"/>
     </row>
     <row r="21" spans="2:22">
       <c r="B21" s="66"/>
@@ -10937,17 +14852,17 @@
       <c r="H21" s="67"/>
       <c r="I21" s="67"/>
       <c r="J21" s="68"/>
-      <c r="L21" s="182"/>
-      <c r="M21" s="183"/>
-      <c r="N21" s="183"/>
-      <c r="O21" s="183"/>
-      <c r="P21" s="183"/>
-      <c r="Q21" s="183"/>
-      <c r="R21" s="183"/>
-      <c r="S21" s="183"/>
-      <c r="T21" s="183"/>
-      <c r="U21" s="183"/>
-      <c r="V21" s="184"/>
+      <c r="L21" s="184"/>
+      <c r="M21" s="185"/>
+      <c r="N21" s="185"/>
+      <c r="O21" s="185"/>
+      <c r="P21" s="185"/>
+      <c r="Q21" s="185"/>
+      <c r="R21" s="185"/>
+      <c r="S21" s="185"/>
+      <c r="T21" s="185"/>
+      <c r="U21" s="185"/>
+      <c r="V21" s="186"/>
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="66"/>
@@ -10959,17 +14874,17 @@
       <c r="H22" s="67"/>
       <c r="I22" s="67"/>
       <c r="J22" s="68"/>
-      <c r="L22" s="182"/>
-      <c r="M22" s="183"/>
-      <c r="N22" s="183"/>
-      <c r="O22" s="183"/>
-      <c r="P22" s="183"/>
-      <c r="Q22" s="183"/>
-      <c r="R22" s="183"/>
-      <c r="S22" s="183"/>
-      <c r="T22" s="183"/>
-      <c r="U22" s="183"/>
-      <c r="V22" s="184"/>
+      <c r="L22" s="184"/>
+      <c r="M22" s="185"/>
+      <c r="N22" s="185"/>
+      <c r="O22" s="185"/>
+      <c r="P22" s="185"/>
+      <c r="Q22" s="185"/>
+      <c r="R22" s="185"/>
+      <c r="S22" s="185"/>
+      <c r="T22" s="185"/>
+      <c r="U22" s="185"/>
+      <c r="V22" s="186"/>
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="66"/>
@@ -10989,17 +14904,17 @@
       <c r="H23" s="67"/>
       <c r="I23" s="67"/>
       <c r="J23" s="68"/>
-      <c r="L23" s="182"/>
-      <c r="M23" s="183"/>
-      <c r="N23" s="183"/>
-      <c r="O23" s="183"/>
-      <c r="P23" s="183"/>
-      <c r="Q23" s="183"/>
-      <c r="R23" s="183"/>
-      <c r="S23" s="183"/>
-      <c r="T23" s="183"/>
-      <c r="U23" s="183"/>
-      <c r="V23" s="184"/>
+      <c r="L23" s="184"/>
+      <c r="M23" s="185"/>
+      <c r="N23" s="185"/>
+      <c r="O23" s="185"/>
+      <c r="P23" s="185"/>
+      <c r="Q23" s="185"/>
+      <c r="R23" s="185"/>
+      <c r="S23" s="185"/>
+      <c r="T23" s="185"/>
+      <c r="U23" s="185"/>
+      <c r="V23" s="186"/>
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="66"/>
@@ -11019,17 +14934,17 @@
       <c r="H24" s="67"/>
       <c r="I24" s="67"/>
       <c r="J24" s="68"/>
-      <c r="L24" s="182"/>
-      <c r="M24" s="183"/>
-      <c r="N24" s="183"/>
-      <c r="O24" s="183"/>
-      <c r="P24" s="183"/>
-      <c r="Q24" s="183"/>
-      <c r="R24" s="183"/>
-      <c r="S24" s="183"/>
-      <c r="T24" s="183"/>
-      <c r="U24" s="183"/>
-      <c r="V24" s="184"/>
+      <c r="L24" s="184"/>
+      <c r="M24" s="185"/>
+      <c r="N24" s="185"/>
+      <c r="O24" s="185"/>
+      <c r="P24" s="185"/>
+      <c r="Q24" s="185"/>
+      <c r="R24" s="185"/>
+      <c r="S24" s="185"/>
+      <c r="T24" s="185"/>
+      <c r="U24" s="185"/>
+      <c r="V24" s="186"/>
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="66"/>
@@ -11041,17 +14956,17 @@
       <c r="H25" s="67"/>
       <c r="I25" s="67"/>
       <c r="J25" s="68"/>
-      <c r="L25" s="182"/>
-      <c r="M25" s="183"/>
-      <c r="N25" s="183"/>
-      <c r="O25" s="183"/>
-      <c r="P25" s="183"/>
-      <c r="Q25" s="183"/>
-      <c r="R25" s="183"/>
-      <c r="S25" s="183"/>
-      <c r="T25" s="183"/>
-      <c r="U25" s="183"/>
-      <c r="V25" s="184"/>
+      <c r="L25" s="184"/>
+      <c r="M25" s="185"/>
+      <c r="N25" s="185"/>
+      <c r="O25" s="185"/>
+      <c r="P25" s="185"/>
+      <c r="Q25" s="185"/>
+      <c r="R25" s="185"/>
+      <c r="S25" s="185"/>
+      <c r="T25" s="185"/>
+      <c r="U25" s="185"/>
+      <c r="V25" s="186"/>
     </row>
     <row r="26" spans="2:22">
       <c r="B26" s="66"/>
@@ -11063,17 +14978,17 @@
       <c r="H26" s="67"/>
       <c r="I26" s="67"/>
       <c r="J26" s="68"/>
-      <c r="L26" s="182"/>
-      <c r="M26" s="183"/>
-      <c r="N26" s="183"/>
-      <c r="O26" s="183"/>
-      <c r="P26" s="183"/>
-      <c r="Q26" s="183"/>
-      <c r="R26" s="183"/>
-      <c r="S26" s="183"/>
-      <c r="T26" s="183"/>
-      <c r="U26" s="183"/>
-      <c r="V26" s="184"/>
+      <c r="L26" s="184"/>
+      <c r="M26" s="185"/>
+      <c r="N26" s="185"/>
+      <c r="O26" s="185"/>
+      <c r="P26" s="185"/>
+      <c r="Q26" s="185"/>
+      <c r="R26" s="185"/>
+      <c r="S26" s="185"/>
+      <c r="T26" s="185"/>
+      <c r="U26" s="185"/>
+      <c r="V26" s="186"/>
     </row>
     <row r="27" spans="2:22">
       <c r="B27" s="66"/>
@@ -11085,17 +15000,17 @@
       <c r="H27" s="67"/>
       <c r="I27" s="67"/>
       <c r="J27" s="68"/>
-      <c r="L27" s="182"/>
-      <c r="M27" s="183"/>
-      <c r="N27" s="183"/>
-      <c r="O27" s="183"/>
-      <c r="P27" s="183"/>
-      <c r="Q27" s="183"/>
-      <c r="R27" s="183"/>
-      <c r="S27" s="183"/>
-      <c r="T27" s="183"/>
-      <c r="U27" s="183"/>
-      <c r="V27" s="184"/>
+      <c r="L27" s="184"/>
+      <c r="M27" s="185"/>
+      <c r="N27" s="185"/>
+      <c r="O27" s="185"/>
+      <c r="P27" s="185"/>
+      <c r="Q27" s="185"/>
+      <c r="R27" s="185"/>
+      <c r="S27" s="185"/>
+      <c r="T27" s="185"/>
+      <c r="U27" s="185"/>
+      <c r="V27" s="186"/>
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="66"/>
@@ -11107,17 +15022,17 @@
       <c r="H28" s="67"/>
       <c r="I28" s="67"/>
       <c r="J28" s="68"/>
-      <c r="L28" s="182"/>
-      <c r="M28" s="183"/>
-      <c r="N28" s="183"/>
-      <c r="O28" s="183"/>
-      <c r="P28" s="183"/>
-      <c r="Q28" s="183"/>
-      <c r="R28" s="183"/>
-      <c r="S28" s="183"/>
-      <c r="T28" s="183"/>
-      <c r="U28" s="183"/>
-      <c r="V28" s="184"/>
+      <c r="L28" s="184"/>
+      <c r="M28" s="185"/>
+      <c r="N28" s="185"/>
+      <c r="O28" s="185"/>
+      <c r="P28" s="185"/>
+      <c r="Q28" s="185"/>
+      <c r="R28" s="185"/>
+      <c r="S28" s="185"/>
+      <c r="T28" s="185"/>
+      <c r="U28" s="185"/>
+      <c r="V28" s="186"/>
     </row>
     <row r="29" spans="2:22">
       <c r="B29" s="66"/>
@@ -11129,17 +15044,17 @@
       <c r="H29" s="67"/>
       <c r="I29" s="67"/>
       <c r="J29" s="68"/>
-      <c r="L29" s="182"/>
-      <c r="M29" s="183"/>
-      <c r="N29" s="183"/>
-      <c r="O29" s="183"/>
-      <c r="P29" s="183"/>
-      <c r="Q29" s="183"/>
-      <c r="R29" s="183"/>
-      <c r="S29" s="183"/>
-      <c r="T29" s="183"/>
-      <c r="U29" s="183"/>
-      <c r="V29" s="184"/>
+      <c r="L29" s="184"/>
+      <c r="M29" s="185"/>
+      <c r="N29" s="185"/>
+      <c r="O29" s="185"/>
+      <c r="P29" s="185"/>
+      <c r="Q29" s="185"/>
+      <c r="R29" s="185"/>
+      <c r="S29" s="185"/>
+      <c r="T29" s="185"/>
+      <c r="U29" s="185"/>
+      <c r="V29" s="186"/>
     </row>
     <row r="30" spans="2:22">
       <c r="B30" s="66"/>
@@ -11151,17 +15066,17 @@
       <c r="H30" s="67"/>
       <c r="I30" s="67"/>
       <c r="J30" s="68"/>
-      <c r="L30" s="182"/>
-      <c r="M30" s="183"/>
-      <c r="N30" s="183"/>
-      <c r="O30" s="183"/>
-      <c r="P30" s="183"/>
-      <c r="Q30" s="183"/>
-      <c r="R30" s="183"/>
-      <c r="S30" s="183"/>
-      <c r="T30" s="183"/>
-      <c r="U30" s="183"/>
-      <c r="V30" s="184"/>
+      <c r="L30" s="184"/>
+      <c r="M30" s="185"/>
+      <c r="N30" s="185"/>
+      <c r="O30" s="185"/>
+      <c r="P30" s="185"/>
+      <c r="Q30" s="185"/>
+      <c r="R30" s="185"/>
+      <c r="S30" s="185"/>
+      <c r="T30" s="185"/>
+      <c r="U30" s="185"/>
+      <c r="V30" s="186"/>
     </row>
     <row r="31" spans="2:22" ht="15.75" thickBot="1">
       <c r="B31" s="66"/>
@@ -11173,17 +15088,17 @@
       <c r="H31" s="67"/>
       <c r="I31" s="67"/>
       <c r="J31" s="68"/>
-      <c r="L31" s="185"/>
-      <c r="M31" s="186"/>
-      <c r="N31" s="186"/>
-      <c r="O31" s="186"/>
-      <c r="P31" s="186"/>
-      <c r="Q31" s="186"/>
-      <c r="R31" s="186"/>
-      <c r="S31" s="186"/>
-      <c r="T31" s="186"/>
-      <c r="U31" s="186"/>
-      <c r="V31" s="187"/>
+      <c r="L31" s="187"/>
+      <c r="M31" s="188"/>
+      <c r="N31" s="188"/>
+      <c r="O31" s="188"/>
+      <c r="P31" s="188"/>
+      <c r="Q31" s="188"/>
+      <c r="R31" s="188"/>
+      <c r="S31" s="188"/>
+      <c r="T31" s="188"/>
+      <c r="U31" s="188"/>
+      <c r="V31" s="189"/>
     </row>
     <row r="32" spans="2:22">
       <c r="B32" s="66"/>
@@ -11366,7 +15281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9423CC-D677-4C31-8EFF-DE46B54DE666}">
   <dimension ref="A1"/>
   <sheetViews>
